--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C069DF-531C-4AF0-A0A6-37E75B680EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A9345A-131B-4B7F-A2E7-6D0998D4B300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="152">
   <si>
     <t>null</t>
   </si>
@@ -164,9 +164,6 @@
     <t>BIMProp</t>
   </si>
   <si>
-    <t>é_categoria</t>
-  </si>
-  <si>
     <t>BIMData</t>
   </si>
   <si>
@@ -176,12 +173,6 @@
     <t>Functional</t>
   </si>
   <si>
-    <t>é_classe</t>
-  </si>
-  <si>
-    <t>é_tipo</t>
-  </si>
-  <si>
     <t>é_entidade</t>
   </si>
   <si>
@@ -480,6 +471,30 @@
   </si>
   <si>
     <t>é_privado</t>
+  </si>
+  <si>
+    <t>tem_modelo</t>
+  </si>
+  <si>
+    <t>tem_série</t>
+  </si>
+  <si>
+    <t>tem_linha</t>
+  </si>
+  <si>
+    <t>tem_item</t>
+  </si>
+  <si>
+    <t>p_catalogar</t>
+  </si>
+  <si>
+    <t>é_classe_ifc</t>
+  </si>
+  <si>
+    <t>é_categoria_revit</t>
+  </si>
+  <si>
+    <t>tem_tipo</t>
   </si>
 </sst>
 </file>
@@ -1309,11 +1324,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1417,31 +1432,31 @@
         <v>40</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="55" t="str">
+        <f t="shared" ref="F2:F72" si="0">_xlfn.CONCAT("d_",MID(C2,FIND("_",C2,1)+1,100))</f>
+        <v>d_endereçar</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f t="shared" ref="G2:G72" si="1">MID(D2,FIND("_",D2,1)+1,100)</f>
+        <v>continente</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="55" t="str">
-        <f t="shared" ref="F2:F68" si="0">_xlfn.CONCAT("d_",MID(C2,FIND("_",C2,1)+1,100))</f>
-        <v>d_endereçar</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f t="shared" ref="G2:G68" si="1">MID(D2,FIND("_",D2,1)+1,100)</f>
-        <v>continente</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K2" s="21" t="s">
         <v>0</v>
       </c>
@@ -1470,10 +1485,10 @@
         <v>3</v>
       </c>
       <c r="T2" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U2" s="9" t="str">
-        <f t="shared" ref="U2:U68" si="2">_xlfn.CONCAT("Propriedade para ",MID(C2,FIND("p_",C2,1)+2,100),": ",D2)</f>
+        <f t="shared" ref="U2:U72" si="2">_xlfn.CONCAT("Propriedade para ",MID(C2,FIND("p_",C2,1)+2,100),": ",D2)</f>
         <v>Propriedade para endereçar: tem_continente</v>
       </c>
       <c r="V2" s="9" t="str">
@@ -1494,10 +1509,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1508,14 +1523,14 @@
         <v>país</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K3" s="21" t="s">
         <v>0</v>
       </c>
@@ -1544,14 +1559,14 @@
         <v>3</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U3" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para endereçar: tem_país</v>
       </c>
       <c r="V3" s="9" t="str">
-        <f t="shared" ref="V3:V69" si="4">_xlfn.CONCAT("Dado para ",MID(F3,FIND("d_",F3,1)+2,100),": ",G3, " ( ",H3, " ) ")</f>
+        <f t="shared" ref="V3:V73" si="4">_xlfn.CONCAT("Dado para ",MID(F3,FIND("d_",F3,1)+2,100),": ",G3, " ( ",H3, " ) ")</f>
         <v xml:space="preserve">Dado para endereçar: país ( xsd:string ) </v>
       </c>
     </row>
@@ -1568,10 +1583,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1582,14 +1597,14 @@
         <v>estado</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K4" s="21" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U4" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1642,10 +1657,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1656,14 +1671,14 @@
         <v>cidade</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K5" s="21" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U5" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1716,10 +1731,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1730,14 +1745,14 @@
         <v>distrito</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K6" s="21" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U6" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1790,10 +1805,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1804,14 +1819,14 @@
         <v>bairro</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K7" s="21" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U7" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1864,10 +1879,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1878,14 +1893,14 @@
         <v>nome_logradouro</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K8" s="21" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U8" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1941,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1952,14 +1967,14 @@
         <v>número</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K9" s="21" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U9" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2012,10 +2027,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2026,14 +2041,14 @@
         <v>cnj</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K10" s="21" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U10" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2086,10 +2101,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2100,14 +2115,14 @@
         <v>grp</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K11" s="21" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U11" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2160,10 +2175,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2174,14 +2189,14 @@
         <v>blc</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K12" s="21" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U12" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2234,10 +2249,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2248,14 +2263,14 @@
         <v>area_planejamento</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K13" s="21" t="s">
         <v>0</v>
       </c>
@@ -2284,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U13" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2308,10 +2323,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2322,14 +2337,14 @@
         <v>região_administrativa</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K14" s="21" t="s">
         <v>0</v>
       </c>
@@ -2358,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U14" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2382,10 +2397,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2396,14 +2411,14 @@
         <v>cep</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K15" s="21" t="s">
         <v>0</v>
       </c>
@@ -2432,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="T15" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U15" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2456,10 +2471,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2470,14 +2485,14 @@
         <v>cx_postal</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K16" s="21" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U16" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2530,10 +2545,10 @@
         <v>p_endereçar</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2544,7 +2559,7 @@
         <v>e_mail</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>0</v>
@@ -2580,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="T17" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U17" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2600,13 +2615,13 @@
         <v>BIMProp</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="55" t="str">
         <f t="shared" si="0"/>
@@ -2617,7 +2632,7 @@
         <v>latitude</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>0</v>
@@ -2653,7 +2668,7 @@
         <v>3</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U18" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2677,10 +2692,10 @@
         <v>p_geolocalizar</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2691,7 +2706,7 @@
         <v>longitude</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>0</v>
@@ -2727,7 +2742,7 @@
         <v>3</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U19" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2751,10 +2766,10 @@
         <v>p_geolocalizar</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2765,7 +2780,7 @@
         <v>altitude</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>0</v>
@@ -2801,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U20" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2825,10 +2840,10 @@
         <v>p_geolocalizar</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2839,7 +2854,7 @@
         <v>geocode</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>0</v>
@@ -2875,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="T21" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U21" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2895,13 +2910,13 @@
         <v>BIMProp</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="55" t="str">
         <f t="shared" si="0"/>
@@ -2912,7 +2927,7 @@
         <v>dentro_de</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>0</v>
@@ -2924,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M22" s="21" t="s">
         <v>0</v>
@@ -2948,7 +2963,7 @@
         <v>3</v>
       </c>
       <c r="T22" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U22" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2972,10 +2987,10 @@
         <v>p_relacionar</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2986,7 +3001,7 @@
         <v>conectado_a</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>0</v>
@@ -3022,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="T23" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U23" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3046,10 +3061,10 @@
         <v>p_relacionar</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3060,7 +3075,7 @@
         <v>parte_de</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>0</v>
@@ -3096,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="T24" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U24" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3120,10 +3135,10 @@
         <v>p_relacionar</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3134,7 +3149,7 @@
         <v>agrupado_com</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>0</v>
@@ -3170,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="T25" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U25" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3186,17 +3201,17 @@
         <v>26</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f t="shared" ref="B26:B31" si="9">B16</f>
+        <f t="shared" ref="B26:B27" si="9">B16</f>
         <v>BIMProp</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="55" t="str">
         <f t="shared" si="0"/>
@@ -3204,17 +3219,17 @@
       </c>
       <c r="G26" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>categoria</v>
+        <v>categoria_revit</v>
       </c>
       <c r="H26" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K26" s="21" t="s">
         <v>0</v>
       </c>
@@ -3243,15 +3258,15 @@
         <v>3</v>
       </c>
       <c r="T26" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U26" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_categoria</v>
+        <v>Propriedade para classificar: é_categoria_revit</v>
       </c>
       <c r="V26" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: categoria ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para classificar: categoria_revit ( xsd:string ) </v>
       </c>
     </row>
     <row r="27" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3267,10 +3282,10 @@
         <v>p_classificar</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3278,17 +3293,17 @@
       </c>
       <c r="G27" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>classe</v>
+        <v>classe_ifc</v>
       </c>
       <c r="H27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K27" s="21" t="s">
         <v>0</v>
       </c>
@@ -3317,15 +3332,15 @@
         <v>3</v>
       </c>
       <c r="T27" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U27" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_classe</v>
+        <v>Propriedade para classificar: é_classe_ifc</v>
       </c>
       <c r="V27" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: classe ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para classificar: classe_ifc ( xsd:string ) </v>
       </c>
     </row>
     <row r="28" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3333,18 +3348,18 @@
         <v>28</v>
       </c>
       <c r="B28" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f>B19</f>
         <v>BIMProp</v>
       </c>
       <c r="C28" s="27" t="str">
-        <f t="shared" ref="C28:C31" si="10">C27</f>
+        <f>C27</f>
         <v>p_classificar</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3352,16 +3367,16 @@
       </c>
       <c r="G28" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>tipo</v>
+        <v>entidade</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>0</v>
@@ -3391,15 +3406,15 @@
         <v>3</v>
       </c>
       <c r="T28" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U28" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_tipo</v>
+        <v>Propriedade para classificar: é_entidade</v>
       </c>
       <c r="V28" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: tipo ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para classificar: entidade ( xsd:string ) </v>
       </c>
     </row>
     <row r="29" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3407,18 +3422,18 @@
         <v>29</v>
       </c>
       <c r="B29" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f>B20</f>
         <v>BIMProp</v>
       </c>
       <c r="C29" s="27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="C29:C30" si="10">C28</f>
         <v>p_classificar</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3426,10 +3441,10 @@
       </c>
       <c r="G29" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>entidade</v>
+        <v>link</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>0</v>
@@ -3465,15 +3480,15 @@
         <v>3</v>
       </c>
       <c r="T29" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U29" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_entidade</v>
+        <v>Propriedade para classificar: é_link</v>
       </c>
       <c r="V29" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: entidade ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para classificar: link ( xsd:string ) </v>
       </c>
     </row>
     <row r="30" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3481,7 +3496,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f>B21</f>
         <v>BIMProp</v>
       </c>
       <c r="C30" s="27" t="str">
@@ -3489,10 +3504,10 @@
         <v>p_classificar</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3500,10 +3515,10 @@
       </c>
       <c r="G30" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>link</v>
+        <v>grupo</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>0</v>
@@ -3539,15 +3554,15 @@
         <v>3</v>
       </c>
       <c r="T30" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U30" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_link</v>
+        <v>Propriedade para classificar: é_grupo</v>
       </c>
       <c r="V30" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: link ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para classificar: grupo ( xsd:string ) </v>
       </c>
     </row>
     <row r="31" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3555,36 +3570,35 @@
         <v>31</v>
       </c>
       <c r="B31" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C31" s="27" t="str">
-        <f t="shared" si="10"/>
-        <v>p_classificar</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>49</v>
+        <f>B26</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="E31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>d_identificar</v>
+      </c>
+      <c r="G31" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>código</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_classificar</v>
-      </c>
-      <c r="G31" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>grupo</v>
-      </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="K31" s="21" t="s">
         <v>0</v>
       </c>
@@ -3613,15 +3627,15 @@
         <v>3</v>
       </c>
       <c r="T31" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U31" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_grupo</v>
+        <v>Propriedade para identificar: tem_código</v>
       </c>
       <c r="V31" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: grupo ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para identificar: código ( xsd:string ) </v>
       </c>
     </row>
     <row r="32" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3629,35 +3643,36 @@
         <v>32</v>
       </c>
       <c r="B32" s="19" t="str">
-        <f t="shared" ref="B32:B66" si="11">B26</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>50</v>
+        <f>B27</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C32" s="27" t="str">
+        <f>C31</f>
+        <v>p_identificar</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="55" t="str">
+        <v>41</v>
+      </c>
+      <c r="F32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_identificar</v>
       </c>
-      <c r="G32" s="25" t="str">
+      <c r="G32" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>código</v>
-      </c>
-      <c r="H32" s="15" t="s">
+        <v>nome</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K32" s="21" t="s">
         <v>0</v>
       </c>
@@ -3686,15 +3701,15 @@
         <v>3</v>
       </c>
       <c r="T32" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U32" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_código</v>
+        <v>Propriedade para identificar: tem_nome</v>
       </c>
       <c r="V32" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: código ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para identificar: nome ( xsd:string ) </v>
       </c>
     </row>
     <row r="33" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3702,18 +3717,18 @@
         <v>33</v>
       </c>
       <c r="B33" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B33:B92" si="11">B28</f>
         <v>BIMProp</v>
       </c>
       <c r="C33" s="27" t="str">
-        <f>C32</f>
+        <f t="shared" ref="C33:C34" si="12">C32</f>
         <v>p_identificar</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3721,17 +3736,17 @@
       </c>
       <c r="G33" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>nome</v>
+        <v>id</v>
       </c>
       <c r="H33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K33" s="21" t="s">
         <v>0</v>
       </c>
@@ -3745,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="P33" s="21" t="s">
         <v>0</v>
@@ -3760,18 +3775,18 @@
         <v>3</v>
       </c>
       <c r="T33" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U33" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_nome</v>
+        <v>Propriedade para identificar: tem_id</v>
       </c>
       <c r="V33" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: nome ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para identificar: id ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -3779,33 +3794,33 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C34" s="27" t="str">
-        <f t="shared" ref="C34:C38" si="12">C33</f>
+      <c r="C34" s="11" t="str">
+        <f t="shared" si="12"/>
         <v>p_identificar</v>
       </c>
-      <c r="D34" s="31" t="s">
-        <v>51</v>
+      <c r="D34" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_identificar</v>
       </c>
-      <c r="G34" s="14" t="str">
+      <c r="G34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>id</v>
+        <v>uri</v>
       </c>
       <c r="H34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="K34" s="21" t="s">
         <v>0</v>
       </c>
@@ -3819,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P34" s="21" t="s">
         <v>0</v>
@@ -3834,15 +3849,15 @@
         <v>3</v>
       </c>
       <c r="T34" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U34" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_id</v>
+        <v>Propriedade para identificar: tem_uri</v>
       </c>
       <c r="V34" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: id ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para identificar: uri ( xsd:string ) </v>
       </c>
     </row>
     <row r="35" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3853,32 +3868,31 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C35" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v>p_identificar</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>81</v>
+      <c r="C35" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="E35" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>d_catalogar</v>
+      </c>
+      <c r="G35" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>modelo</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_identificar</v>
-      </c>
-      <c r="G35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>uri</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>44</v>
+      <c r="I35" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="K35" s="21" t="s">
         <v>0</v>
@@ -3908,18 +3922,18 @@
         <v>3</v>
       </c>
       <c r="T35" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U35" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_uri</v>
+        <v>Propriedade para catalogar: tem_modelo</v>
       </c>
       <c r="V35" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: uri ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para catalogar: modelo ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -3927,28 +3941,28 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C36" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v>p_identificar</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>79</v>
+      <c r="C36" s="27" t="str">
+        <f>C35</f>
+        <v>p_catalogar</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_identificar</v>
-      </c>
-      <c r="G36" s="6" t="str">
+        <v>d_catalogar</v>
+      </c>
+      <c r="G36" s="14" t="str">
         <f t="shared" si="1"/>
         <v>tema</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J36" s="21" t="s">
@@ -3982,18 +3996,18 @@
         <v>3</v>
       </c>
       <c r="T36" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U36" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_tema</v>
+        <v>Propriedade para catalogar: tem_tema</v>
       </c>
       <c r="V36" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: tema ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para catalogar: tema ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -4001,28 +4015,28 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C37" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v>p_identificar</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>82</v>
+      <c r="C37" s="27" t="str">
+        <f t="shared" ref="C37:C41" si="13">C36</f>
+        <v>p_catalogar</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="E37" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="6" t="str">
+        <f t="shared" ref="F37" si="14">_xlfn.CONCAT("d_",MID(C37,FIND("_",C37,1)+1,100))</f>
+        <v>d_catalogar</v>
+      </c>
+      <c r="G37" s="14" t="str">
+        <f t="shared" ref="G37" si="15">MID(D37,FIND("_",D37,1)+1,100)</f>
+        <v>tipo</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_identificar</v>
-      </c>
-      <c r="G37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>vol</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J37" s="21" t="s">
@@ -4056,15 +4070,15 @@
         <v>3</v>
       </c>
       <c r="T37" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U37" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_vol</v>
+        <f t="shared" ref="U37" si="16">_xlfn.CONCAT("Propriedade para ",MID(C37,FIND("p_",C37,1)+2,100),": ",D37)</f>
+        <v>Propriedade para catalogar: tem_tipo</v>
       </c>
       <c r="V37" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: vol ( xsd:string ) </v>
+        <f t="shared" ref="V37" si="17">_xlfn.CONCAT("Dado para ",MID(F37,FIND("d_",F37,1)+2,100),": ",G37, " ( ",H37, " ) ")</f>
+        <v xml:space="preserve">Dado para catalogar: tipo ( xsd:string ) </v>
       </c>
     </row>
     <row r="38" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4075,26 +4089,26 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C38" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v>p_identificar</v>
+      <c r="C38" s="27" t="str">
+        <f t="shared" si="13"/>
+        <v>p_catalogar</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_identificar</v>
+        <v>d_catalogar</v>
       </c>
       <c r="G38" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>descrição</v>
+        <v>série</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>0</v>
@@ -4130,18 +4144,18 @@
         <v>3</v>
       </c>
       <c r="T38" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U38" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_descrição</v>
+        <v>Propriedade para catalogar: tem_série</v>
       </c>
       <c r="V38" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: descrição ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para catalogar: série ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -4149,27 +4163,28 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C39" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>57</v>
+      <c r="C39" s="27" t="str">
+        <f t="shared" si="13"/>
+        <v>p_catalogar</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>146</v>
       </c>
       <c r="E39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="6" t="str">
+        <f t="shared" ref="F39:F40" si="18">_xlfn.CONCAT("d_",MID(C39,FIND("_",C39,1)+1,100))</f>
+        <v>d_catalogar</v>
+      </c>
+      <c r="G39" s="14" t="str">
+        <f t="shared" ref="G39:G40" si="19">MID(D39,FIND("_",D39,1)+1,100)</f>
+        <v>linha</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="55" t="str">
-        <f t="shared" si="0"/>
-        <v>d_definir</v>
-      </c>
-      <c r="G39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>ambiente</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J39" s="21" t="s">
@@ -4203,15 +4218,15 @@
         <v>3</v>
       </c>
       <c r="T39" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U39" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_ambiente</v>
+        <f t="shared" ref="U39:U40" si="20">_xlfn.CONCAT("Propriedade para ",MID(C39,FIND("p_",C39,1)+2,100),": ",D39)</f>
+        <v>Propriedade para catalogar: tem_linha</v>
       </c>
       <c r="V39" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: ambiente ( xsd:string ) </v>
+        <f t="shared" ref="V39:V40" si="21">_xlfn.CONCAT("Dado para ",MID(F39,FIND("d_",F39,1)+2,100),": ",G39, " ( ",H39, " ) ")</f>
+        <v xml:space="preserve">Dado para catalogar: linha ( xsd:string ) </v>
       </c>
     </row>
     <row r="40" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4222,27 +4237,27 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C40" s="11" t="str">
-        <f t="shared" ref="C40:C55" si="13">C39</f>
-        <v>p_definir</v>
+      <c r="C40" s="27" t="str">
+        <f t="shared" si="13"/>
+        <v>p_catalogar</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="E40" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>d_catalogar</v>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v>item</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_definir</v>
-      </c>
-      <c r="G40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>equipamento</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="I40" s="18" t="s">
         <v>0</v>
       </c>
@@ -4277,15 +4292,15 @@
         <v>3</v>
       </c>
       <c r="T40" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U40" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_equipamento</v>
+        <f t="shared" si="20"/>
+        <v>Propriedade para catalogar: tem_item</v>
       </c>
       <c r="V40" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: equipamento ( xsd:integer ) </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">Dado para catalogar: item ( xsd:string ) </v>
       </c>
     </row>
     <row r="41" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4296,26 +4311,26 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C41" s="11" t="str">
+      <c r="C41" s="27" t="str">
         <f t="shared" si="13"/>
-        <v>p_definir</v>
+        <v>p_catalogar</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_definir</v>
+        <v>d_catalogar</v>
       </c>
       <c r="G41" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>dispositivo</v>
+        <v>vol</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>0</v>
@@ -4351,18 +4366,18 @@
         <v>3</v>
       </c>
       <c r="T41" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U41" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_dispositivo</v>
+        <v>Propriedade para catalogar: tem_vol</v>
       </c>
       <c r="V41" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: dispositivo ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para catalogar: vol ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -4370,28 +4385,28 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C42" s="11" t="str">
-        <f t="shared" si="13"/>
-        <v>p_definir</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>87</v>
+      <c r="C42" s="27" t="str">
+        <f t="shared" ref="C42" si="22">C41</f>
+        <v>p_catalogar</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_definir</v>
-      </c>
-      <c r="G42" s="6" t="str">
+        <v>d_catalogar</v>
+      </c>
+      <c r="G42" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>aparelho</v>
+        <v>descrição</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J42" s="21" t="s">
@@ -4425,15 +4440,15 @@
         <v>3</v>
       </c>
       <c r="T42" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U42" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_aparelho</v>
+        <v>Propriedade para catalogar: tem_descrição</v>
       </c>
       <c r="V42" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: aparelho ( xsd:integer ) </v>
+        <v xml:space="preserve">Dado para catalogar: descrição ( xsd:string ) </v>
       </c>
     </row>
     <row r="43" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4444,28 +4459,27 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C43" s="11" t="str">
-        <f>C40</f>
-        <v>p_definir</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>88</v>
+      <c r="C43" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="6" t="str">
+        <v>41</v>
+      </c>
+      <c r="F43" s="55" t="str">
         <f t="shared" si="0"/>
         <v>d_definir</v>
       </c>
-      <c r="G43" s="6" t="str">
+      <c r="G43" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>instrumento</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" s="18" t="s">
+        <v>ambiente</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J43" s="21" t="s">
@@ -4499,15 +4513,15 @@
         <v>3</v>
       </c>
       <c r="T43" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U43" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_instrumento</v>
+        <v>Propriedade para definir: é_ambiente</v>
       </c>
       <c r="V43" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: instrumento ( xsd:integer ) </v>
+        <v xml:space="preserve">Dado para definir: ambiente ( xsd:string ) </v>
       </c>
     </row>
     <row r="44" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4519,14 +4533,14 @@
         <v>BIMProp</v>
       </c>
       <c r="C44" s="11" t="str">
-        <f>C41</f>
+        <f t="shared" ref="C44:C46" si="23">C43</f>
         <v>p_definir</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4534,10 +4548,10 @@
       </c>
       <c r="G44" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>mobiliário</v>
+        <v>equipamento</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>0</v>
@@ -4573,15 +4587,15 @@
         <v>3</v>
       </c>
       <c r="T44" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U44" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_mobiliário</v>
+        <v>Propriedade para definir: é_equipamento</v>
       </c>
       <c r="V44" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: mobiliário ( xsd:integer ) </v>
+        <v xml:space="preserve">Dado para definir: equipamento ( xsd:integer ) </v>
       </c>
     </row>
     <row r="45" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4592,27 +4606,28 @@
         <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
-      <c r="C45" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>91</v>
+      <c r="C45" s="11" t="str">
+        <f t="shared" si="23"/>
+        <v>p_definir</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="55" t="str">
+        <v>41</v>
+      </c>
+      <c r="F45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_administrar</v>
-      </c>
-      <c r="G45" s="5" t="str">
+        <v>d_definir</v>
+      </c>
+      <c r="G45" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>público</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="23" t="s">
+        <v>dispositivo</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J45" s="21" t="s">
@@ -4646,15 +4661,15 @@
         <v>3</v>
       </c>
       <c r="T45" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U45" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_público</v>
+        <v>Propriedade para definir: é_dispositivo</v>
       </c>
       <c r="V45" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: público ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para definir: dispositivo ( xsd:integer ) </v>
       </c>
     </row>
     <row r="46" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4662,29 +4677,29 @@
         <v>46</v>
       </c>
       <c r="B46" s="19" t="str">
-        <f>B39</f>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C46" s="11" t="str">
-        <f>C45</f>
-        <v>p_administrar</v>
+        <f t="shared" si="23"/>
+        <v>p_definir</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="6" t="str">
-        <f>F45</f>
-        <v>d_administrar</v>
+        <f t="shared" si="0"/>
+        <v>d_definir</v>
       </c>
       <c r="G46" s="6" t="str">
-        <f t="shared" ref="G46" si="14">MID(D46,FIND("_",D46,1)+1,100)</f>
-        <v>privado</v>
+        <f t="shared" si="1"/>
+        <v>aparelho</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>0</v>
@@ -4720,15 +4735,15 @@
         <v>3</v>
       </c>
       <c r="T46" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U46" s="9" t="str">
-        <f t="shared" ref="U46" si="15">_xlfn.CONCAT("Propriedade para ",MID(C46,FIND("p_",C46,1)+2,100),": ",D46)</f>
-        <v>Propriedade para administrar: é_privado</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para definir: é_aparelho</v>
       </c>
       <c r="V46" s="9" t="str">
-        <f t="shared" ref="V46" si="16">_xlfn.CONCAT("Dado para ",MID(F46,FIND("d_",F46,1)+2,100),": ",G46, " ( ",H46, " ) ")</f>
-        <v xml:space="preserve">Dado para administrar: privado ( xsd:string ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para definir: aparelho ( xsd:integer ) </v>
       </c>
     </row>
     <row r="47" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4736,29 +4751,29 @@
         <v>47</v>
       </c>
       <c r="B47" s="19" t="str">
-        <f>B40</f>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C47" s="11" t="str">
-        <f t="shared" ref="C47:C55" si="17">C46</f>
-        <v>p_administrar</v>
+        <f>C44</f>
+        <v>p_definir</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" s="6" t="str">
-        <f t="shared" ref="F47:F55" si="18">F46</f>
-        <v>d_administrar</v>
+        <f t="shared" si="0"/>
+        <v>d_definir</v>
       </c>
       <c r="G47" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>órgão</v>
+        <v>instrumento</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>0</v>
@@ -4794,15 +4809,15 @@
         <v>3</v>
       </c>
       <c r="T47" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U47" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_órgão</v>
+        <v>Propriedade para definir: é_instrumento</v>
       </c>
       <c r="V47" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: órgão ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para definir: instrumento ( xsd:integer ) </v>
       </c>
     </row>
     <row r="48" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4810,29 +4825,29 @@
         <v>48</v>
       </c>
       <c r="B48" s="19" t="str">
-        <f>B41</f>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C48" s="11" t="str">
-        <f t="shared" si="17"/>
-        <v>p_administrar</v>
+        <f>C45</f>
+        <v>p_definir</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>d_administrar</v>
+        <f t="shared" si="0"/>
+        <v>d_definir</v>
       </c>
       <c r="G48" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>unid_académica</v>
+        <v>mobiliário</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>0</v>
@@ -4868,15 +4883,15 @@
         <v>3</v>
       </c>
       <c r="T48" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U48" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_unid_académica</v>
+        <v>Propriedade para definir: é_mobiliário</v>
       </c>
       <c r="V48" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: unid_académica ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para definir: mobiliário ( xsd:integer ) </v>
       </c>
     </row>
     <row r="49" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4884,31 +4899,30 @@
         <v>49</v>
       </c>
       <c r="B49" s="19" t="str">
-        <f>B42</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C49" s="11" t="str">
-        <f t="shared" si="17"/>
-        <v>p_administrar</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>93</v>
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E49" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>d_administrar</v>
+      </c>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>público</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>d_administrar</v>
-      </c>
-      <c r="G49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>unid_administrativa</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" s="18" t="s">
+      <c r="I49" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J49" s="21" t="s">
@@ -4942,46 +4956,46 @@
         <v>3</v>
       </c>
       <c r="T49" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U49" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_unid_administrativa</v>
+        <v>Propriedade para administrar: é_público</v>
       </c>
       <c r="V49" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: unid_administrativa ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para administrar: público ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>50</v>
       </c>
       <c r="B50" s="19" t="str">
-        <f>B44</f>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C50" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f>C49</f>
         <v>p_administrar</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="E50" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="6" t="str">
+        <f>F49</f>
+        <v>d_administrar</v>
+      </c>
+      <c r="G50" s="6" t="str">
+        <f t="shared" ref="G50" si="24">MID(D50,FIND("_",D50,1)+1,100)</f>
+        <v>privado</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>d_administrar</v>
-      </c>
-      <c r="G50" s="14" t="str">
-        <f t="shared" ref="G50" si="19">MID(D50,FIND("_",D50,1)+1,100)</f>
-        <v>unid_funcional</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="I50" s="18" t="s">
         <v>0</v>
       </c>
@@ -5016,46 +5030,46 @@
         <v>3</v>
       </c>
       <c r="T50" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U50" s="9" t="str">
-        <f t="shared" ref="U50" si="20">_xlfn.CONCAT("Propriedade para ",MID(C50,FIND("p_",C50,1)+2,100),": ",D50)</f>
-        <v>Propriedade para administrar: é_unid_funcional</v>
+        <f t="shared" ref="U50" si="25">_xlfn.CONCAT("Propriedade para ",MID(C50,FIND("p_",C50,1)+2,100),": ",D50)</f>
+        <v>Propriedade para administrar: é_privado</v>
       </c>
       <c r="V50" s="9" t="str">
-        <f t="shared" ref="V50" si="21">_xlfn.CONCAT("Dado para ",MID(F50,FIND("d_",F50,1)+2,100),": ",G50, " ( ",H50, " ) ")</f>
-        <v xml:space="preserve">Dado para administrar: unid_funcional ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="V50" si="26">_xlfn.CONCAT("Dado para ",MID(F50,FIND("d_",F50,1)+2,100),": ",G50, " ( ",H50, " ) ")</f>
+        <v xml:space="preserve">Dado para administrar: privado ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>51</v>
       </c>
       <c r="B51" s="19" t="str">
-        <f>B45</f>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C51" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="C51:C59" si="27">C50</f>
         <v>p_administrar</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>95</v>
+      <c r="D51" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="E51" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="6" t="str">
+        <f t="shared" ref="F51:F59" si="28">F50</f>
+        <v>d_administrar</v>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>órgão</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>d_administrar</v>
-      </c>
-      <c r="G51" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>departamento</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="I51" s="18" t="s">
         <v>0</v>
       </c>
@@ -5090,47 +5104,47 @@
         <v>3</v>
       </c>
       <c r="T51" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U51" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_departamento</v>
+        <v>Propriedade para administrar: é_órgão</v>
       </c>
       <c r="V51" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: departamento ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para administrar: órgão ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>52</v>
       </c>
       <c r="B52" s="19" t="str">
-        <f>B49</f>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C52" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>p_administrar</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>58</v>
+      <c r="D52" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E52" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>d_administrar</v>
+      </c>
+      <c r="G52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>unid_académica</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>d_administrar</v>
-      </c>
-      <c r="G52" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>divisão</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J52" s="21" t="s">
@@ -5164,15 +5178,15 @@
         <v>3</v>
       </c>
       <c r="T52" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U52" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_divisão</v>
+        <v>Propriedade para administrar: é_unid_académica</v>
       </c>
       <c r="V52" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: divisão ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: unid_académica ( xsd:string ) </v>
       </c>
     </row>
     <row r="53" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5180,29 +5194,29 @@
         <v>53</v>
       </c>
       <c r="B53" s="19" t="str">
-        <f>B43</f>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C53" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>p_administrar</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>d_administrar</v>
       </c>
       <c r="G53" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>núcleo</v>
+        <v>unid_administrativa</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>0</v>
@@ -5238,46 +5252,46 @@
         <v>3</v>
       </c>
       <c r="T53" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U53" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_núcleo</v>
+        <v>Propriedade para administrar: é_unid_administrativa</v>
       </c>
       <c r="V53" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: núcleo ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para administrar: unid_administrativa ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>54</v>
       </c>
       <c r="B54" s="19" t="str">
-        <f>B44</f>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C54" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>p_administrar</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E54" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>d_administrar</v>
+      </c>
+      <c r="G54" s="14" t="str">
+        <f t="shared" ref="G54" si="29">MID(D54,FIND("_",D54,1)+1,100)</f>
+        <v>unid_funcional</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>d_administrar</v>
-      </c>
-      <c r="G54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>setor</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="I54" s="18" t="s">
         <v>0</v>
       </c>
@@ -5312,46 +5326,46 @@
         <v>3</v>
       </c>
       <c r="T54" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U54" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_setor</v>
+        <f t="shared" ref="U54" si="30">_xlfn.CONCAT("Propriedade para ",MID(C54,FIND("p_",C54,1)+2,100),": ",D54)</f>
+        <v>Propriedade para administrar: é_unid_funcional</v>
       </c>
       <c r="V54" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: setor ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="V54" si="31">_xlfn.CONCAT("Dado para ",MID(F54,FIND("d_",F54,1)+2,100),": ",G54, " ( ",H54, " ) ")</f>
+        <v xml:space="preserve">Dado para administrar: unid_funcional ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>55</v>
       </c>
       <c r="B55" s="19" t="str">
-        <f>B45</f>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C55" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>p_administrar</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>59</v>
+      <c r="D55" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="E55" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>d_administrar</v>
+      </c>
+      <c r="G55" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>departamento</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>d_administrar</v>
-      </c>
-      <c r="G55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>zona</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="I55" s="18" t="s">
         <v>0</v>
       </c>
@@ -5386,46 +5400,47 @@
         <v>3</v>
       </c>
       <c r="T55" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U55" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_zona</v>
+        <v>Propriedade para administrar: é_departamento</v>
       </c>
       <c r="V55" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: zona ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para administrar: departamento ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>56</v>
       </c>
       <c r="B56" s="19" t="str">
-        <f t="shared" ref="B56:B88" si="22">B46</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>97</v>
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C56" s="11" t="str">
+        <f t="shared" si="27"/>
+        <v>p_administrar</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="E56" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>d_administrar</v>
+      </c>
+      <c r="G56" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>divisão</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="55" t="str">
-        <f t="shared" si="0"/>
-        <v>d_contratar</v>
-      </c>
-      <c r="G56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>contrato</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" s="23" t="s">
+      <c r="I56" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J56" s="21" t="s">
@@ -5459,15 +5474,15 @@
         <v>3</v>
       </c>
       <c r="T56" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U56" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_contrato</v>
+        <v>Propriedade para administrar: é_divisão</v>
       </c>
       <c r="V56" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: contrato ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: divisão ( xsd:string ) </v>
       </c>
     </row>
     <row r="57" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5475,30 +5490,30 @@
         <v>57</v>
       </c>
       <c r="B57" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C57" s="11" t="str">
-        <f>C55</f>
+        <f t="shared" si="27"/>
         <v>p_administrar</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="E57" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>d_administrar</v>
+      </c>
+      <c r="G57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>núcleo</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="6" t="str">
-        <f t="shared" ref="F57" si="23">_xlfn.CONCAT("d_",MID(C57,FIND("_",C57,1)+1,100))</f>
-        <v>d_administrar</v>
-      </c>
-      <c r="G57" s="6" t="str">
-        <f t="shared" ref="G57" si="24">MID(D57,FIND("_",D57,1)+1,100)</f>
-        <v>contratado</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="I57" s="18" t="s">
         <v>0</v>
       </c>
@@ -5533,15 +5548,15 @@
         <v>3</v>
       </c>
       <c r="T57" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U57" s="9" t="str">
-        <f t="shared" ref="U57" si="25">_xlfn.CONCAT("Propriedade para ",MID(C57,FIND("p_",C57,1)+2,100),": ",D57)</f>
-        <v>Propriedade para administrar: é_contratado</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para administrar: é_núcleo</v>
       </c>
       <c r="V57" s="9" t="str">
-        <f t="shared" ref="V57" si="26">_xlfn.CONCAT("Dado para ",MID(F57,FIND("d_",F57,1)+2,100),": ",G57, " ( ",H57, " ) ")</f>
-        <v xml:space="preserve">Dado para administrar: contratado ( xsd:string ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para administrar: núcleo ( xsd:string ) </v>
       </c>
     </row>
     <row r="58" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5549,29 +5564,29 @@
         <v>58</v>
       </c>
       <c r="B58" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C58" s="11" t="str">
-        <f>C56</f>
-        <v>p_contratar</v>
+        <f t="shared" si="27"/>
+        <v>p_administrar</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F58" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_contratar</v>
+        <f t="shared" si="28"/>
+        <v>d_administrar</v>
       </c>
       <c r="G58" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>contratante</v>
+        <v>setor</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>0</v>
@@ -5607,15 +5622,15 @@
         <v>3</v>
       </c>
       <c r="T58" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U58" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_contratante</v>
+        <v>Propriedade para administrar: é_setor</v>
       </c>
       <c r="V58" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: contratante ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: setor ( xsd:string ) </v>
       </c>
     </row>
     <row r="59" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5623,29 +5638,29 @@
         <v>59</v>
       </c>
       <c r="B59" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C59" s="11" t="str">
-        <f t="shared" ref="C59:C63" si="27">C58</f>
-        <v>p_contratar</v>
+        <f t="shared" si="27"/>
+        <v>p_administrar</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_contratar</v>
+        <f t="shared" si="28"/>
+        <v>d_administrar</v>
       </c>
       <c r="G59" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>subcontratista</v>
+        <v>zona</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I59" s="18" t="s">
         <v>0</v>
@@ -5681,15 +5696,15 @@
         <v>3</v>
       </c>
       <c r="T59" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U59" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_subcontratista</v>
+        <v>Propriedade para administrar: é_zona</v>
       </c>
       <c r="V59" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: subcontratista ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: zona ( xsd:string ) </v>
       </c>
     </row>
     <row r="60" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5697,31 +5712,30 @@
         <v>60</v>
       </c>
       <c r="B60" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C60" s="11" t="str">
-        <f t="shared" si="27"/>
-        <v>p_contratar</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>98</v>
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="6" t="str">
+        <v>41</v>
+      </c>
+      <c r="F60" s="55" t="str">
         <f t="shared" si="0"/>
         <v>d_contratar</v>
       </c>
-      <c r="G60" s="6" t="str">
+      <c r="G60" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>empresa</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I60" s="18" t="s">
+        <v>contrato</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J60" s="21" t="s">
@@ -5755,15 +5769,15 @@
         <v>3</v>
       </c>
       <c r="T60" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U60" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_empresa</v>
+        <v>Propriedade para contratar: é_contrato</v>
       </c>
       <c r="V60" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: empresa ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: contrato ( xsd:string ) </v>
       </c>
     </row>
     <row r="61" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5771,30 +5785,30 @@
         <v>61</v>
       </c>
       <c r="B61" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C61" s="11" t="str">
-        <f t="shared" si="27"/>
-        <v>p_contratar</v>
+        <f>C59</f>
+        <v>p_administrar</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E61" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="6" t="str">
+        <f t="shared" ref="F61" si="32">_xlfn.CONCAT("d_",MID(C61,FIND("_",C61,1)+1,100))</f>
+        <v>d_administrar</v>
+      </c>
+      <c r="G61" s="6" t="str">
+        <f t="shared" ref="G61" si="33">MID(D61,FIND("_",D61,1)+1,100)</f>
+        <v>contratado</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_contratar</v>
-      </c>
-      <c r="G61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>autor</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="I61" s="18" t="s">
         <v>0</v>
       </c>
@@ -5829,15 +5843,15 @@
         <v>3</v>
       </c>
       <c r="T61" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U61" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_autor</v>
+        <f t="shared" ref="U61" si="34">_xlfn.CONCAT("Propriedade para ",MID(C61,FIND("p_",C61,1)+2,100),": ",D61)</f>
+        <v>Propriedade para administrar: é_contratado</v>
       </c>
       <c r="V61" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: autor ( xsd:string ) </v>
+        <f t="shared" ref="V61" si="35">_xlfn.CONCAT("Dado para ",MID(F61,FIND("d_",F61,1)+2,100),": ",G61, " ( ",H61, " ) ")</f>
+        <v xml:space="preserve">Dado para administrar: contratado ( xsd:string ) </v>
       </c>
     </row>
     <row r="62" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5845,18 +5859,18 @@
         <v>62</v>
       </c>
       <c r="B62" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C62" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f>C60</f>
         <v>p_contratar</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F62" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5864,10 +5878,10 @@
       </c>
       <c r="G62" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>cnpj</v>
+        <v>contratante</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I62" s="18" t="s">
         <v>0</v>
@@ -5903,15 +5917,15 @@
         <v>3</v>
       </c>
       <c r="T62" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U62" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_cnpj</v>
+        <v>Propriedade para contratar: é_contratante</v>
       </c>
       <c r="V62" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: cnpj ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: contratante ( xsd:string ) </v>
       </c>
     </row>
     <row r="63" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5919,18 +5933,18 @@
         <v>63</v>
       </c>
       <c r="B63" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C63" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="C63:C67" si="36">C62</f>
         <v>p_contratar</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F63" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5938,10 +5952,10 @@
       </c>
       <c r="G63" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>cpf</v>
+        <v>subcontratista</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I63" s="18" t="s">
         <v>0</v>
@@ -5977,15 +5991,15 @@
         <v>3</v>
       </c>
       <c r="T63" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U63" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_cpf</v>
+        <v>Propriedade para contratar: é_subcontratista</v>
       </c>
       <c r="V63" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: cpf ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: subcontratista ( xsd:string ) </v>
       </c>
     </row>
     <row r="64" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5993,18 +6007,18 @@
         <v>64</v>
       </c>
       <c r="B64" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C64" s="11" t="str">
-        <f>C63</f>
+        <f t="shared" si="36"/>
         <v>p_contratar</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F64" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6012,10 +6026,10 @@
       </c>
       <c r="G64" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>processo</v>
+        <v>empresa</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I64" s="18" t="s">
         <v>0</v>
@@ -6051,15 +6065,15 @@
         <v>3</v>
       </c>
       <c r="T64" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U64" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_processo</v>
+        <v>Propriedade para contratar: é_empresa</v>
       </c>
       <c r="V64" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: processo ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: empresa ( xsd:string ) </v>
       </c>
     </row>
     <row r="65" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6067,18 +6081,18 @@
         <v>65</v>
       </c>
       <c r="B65" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C65" s="11" t="str">
-        <f>C64</f>
+        <f t="shared" si="36"/>
         <v>p_contratar</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F65" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6086,10 +6100,10 @@
       </c>
       <c r="G65" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>processo_sei</v>
+        <v>autor</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I65" s="18" t="s">
         <v>0</v>
@@ -6125,15 +6139,15 @@
         <v>3</v>
       </c>
       <c r="T65" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U65" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_processo_sei</v>
+        <v>Propriedade para contratar: é_autor</v>
       </c>
       <c r="V65" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: processo_sei ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: autor ( xsd:string ) </v>
       </c>
     </row>
     <row r="66" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6141,34 +6155,35 @@
         <v>66</v>
       </c>
       <c r="B66" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>113</v>
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C66" s="11" t="str">
+        <f t="shared" si="36"/>
+        <v>p_contratar</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="E66" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_contratar</v>
+      </c>
+      <c r="G66" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>cnpj</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="55" t="str">
-        <f t="shared" si="0"/>
-        <v>d_durar</v>
-      </c>
-      <c r="G66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>data</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I66" s="23" t="s">
+      <c r="I66" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J66" s="21" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K66" s="21" t="s">
         <v>0</v>
@@ -6198,15 +6213,15 @@
         <v>3</v>
       </c>
       <c r="T66" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U66" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para durar: tem_data</v>
+        <v>Propriedade para contratar: é_cnpj</v>
       </c>
       <c r="V66" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para durar: data ( xsd:dateTime ) </v>
+        <v xml:space="preserve">Dado para contratar: cnpj ( xsd:string ) </v>
       </c>
     </row>
     <row r="67" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6214,35 +6229,35 @@
         <v>67</v>
       </c>
       <c r="B67" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C67" s="11" t="str">
-        <f>C66</f>
-        <v>p_durar</v>
+        <f t="shared" si="36"/>
+        <v>p_contratar</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F67" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_durar</v>
+        <v>d_contratar</v>
       </c>
       <c r="G67" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>data_inicial</v>
+        <v>cpf</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="I67" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J67" s="21" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K67" s="21" t="s">
         <v>0</v>
@@ -6272,15 +6287,15 @@
         <v>3</v>
       </c>
       <c r="T67" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U67" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para durar: tem_data_inicial</v>
+        <v>Propriedade para contratar: é_cpf</v>
       </c>
       <c r="V67" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para durar: data_inicial ( xsd:dateTime ) </v>
+        <v xml:space="preserve">Dado para contratar: cpf ( xsd:string ) </v>
       </c>
     </row>
     <row r="68" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6288,35 +6303,35 @@
         <v>68</v>
       </c>
       <c r="B68" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C68" s="11" t="str">
-        <f t="shared" ref="C68:C70" si="28">C67</f>
-        <v>p_durar</v>
+        <f>C67</f>
+        <v>p_contratar</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F68" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_durar</v>
+        <v>d_contratar</v>
       </c>
       <c r="G68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>data_final</v>
+        <v>processo</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K68" s="21" t="s">
         <v>0</v>
@@ -6346,15 +6361,15 @@
         <v>3</v>
       </c>
       <c r="T68" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U68" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para durar: tem_data_final</v>
+        <v>Propriedade para contratar: é_processo</v>
       </c>
       <c r="V68" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para durar: data_final ( xsd:dateTime ) </v>
+        <v xml:space="preserve">Dado para contratar: processo ( xsd:string ) </v>
       </c>
     </row>
     <row r="69" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6362,35 +6377,35 @@
         <v>69</v>
       </c>
       <c r="B69" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C69" s="11" t="str">
-        <f t="shared" si="28"/>
-        <v>p_durar</v>
+        <f>C68</f>
+        <v>p_contratar</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E69" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_contratar</v>
+      </c>
+      <c r="G69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>processo_sei</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F69" s="6" t="str">
-        <f t="shared" ref="F69:F88" si="29">_xlfn.CONCAT("d_",MID(C69,FIND("_",C69,1)+1,100))</f>
-        <v>d_durar</v>
-      </c>
-      <c r="G69" s="6" t="str">
-        <f t="shared" ref="G69:G88" si="30">MID(D69,FIND("_",D69,1)+1,100)</f>
-        <v>duração</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="I69" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J69" s="21" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K69" s="21" t="s">
         <v>0</v>
@@ -6420,15 +6435,15 @@
         <v>3</v>
       </c>
       <c r="T69" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U69" s="9" t="str">
-        <f t="shared" ref="U69:U88" si="31">_xlfn.CONCAT("Propriedade para ",MID(C69,FIND("p_",C69,1)+2,100),": ",D69)</f>
-        <v>Propriedade para durar: tem_duração</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para contratar: é_processo_sei</v>
       </c>
       <c r="V69" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para durar: duração ( xsd:dateTime ) </v>
+        <v xml:space="preserve">Dado para contratar: processo_sei ( xsd:string ) </v>
       </c>
     </row>
     <row r="70" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6436,35 +6451,34 @@
         <v>70</v>
       </c>
       <c r="B70" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C70" s="11" t="str">
-        <f t="shared" si="28"/>
-        <v>p_durar</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>116</v>
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F70" s="6" t="str">
-        <f t="shared" si="29"/>
+        <v>41</v>
+      </c>
+      <c r="F70" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>d_durar</v>
       </c>
-      <c r="G70" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>horário</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I70" s="18" t="s">
+      <c r="G70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>data</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I70" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70" s="21" t="s">
         <v>0</v>
@@ -6494,15 +6508,15 @@
         <v>3</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U70" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para durar: tem_horário</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para durar: tem_data</v>
       </c>
       <c r="V70" s="9" t="str">
-        <f t="shared" ref="V70:V88" si="32">_xlfn.CONCAT("Dado para ",MID(F70,FIND("d_",F70,1)+2,100),": ",G70, " ( ",H70, " ) ")</f>
-        <v xml:space="preserve">Dado para durar: horário ( xsd:dateTime ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para durar: data ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="71" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6510,46 +6524,47 @@
         <v>71</v>
       </c>
       <c r="B71" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>118</v>
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C71" s="11" t="str">
+        <f>C70</f>
+        <v>p_durar</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="55" t="str">
-        <f t="shared" si="29"/>
-        <v>d_planejar</v>
-      </c>
-      <c r="G71" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>posterior_a</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I71" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_durar</v>
+      </c>
+      <c r="G71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>data_inicial</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I71" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J71" s="21" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K71" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M71" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N71" s="21" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="O71" s="21" t="s">
         <v>0</v>
@@ -6567,15 +6582,15 @@
         <v>3</v>
       </c>
       <c r="T71" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U71" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para planejar: é_posterior_a</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para durar: tem_data_inicial</v>
       </c>
       <c r="V71" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para planejar: posterior_a ( xsd:integer ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para durar: data_inicial ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="72" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6583,47 +6598,47 @@
         <v>72</v>
       </c>
       <c r="B72" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C72" s="11" t="str">
-        <f>C71</f>
-        <v>p_planejar</v>
+        <f t="shared" ref="C72:C74" si="37">C71</f>
+        <v>p_durar</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F72" s="6" t="str">
-        <f t="shared" si="29"/>
-        <v>d_planejar</v>
+        <f t="shared" si="0"/>
+        <v>d_durar</v>
       </c>
       <c r="G72" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>anterior_a</v>
+        <f t="shared" si="1"/>
+        <v>data_final</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="I72" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J72" s="21" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K72" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L72" s="21" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M72" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N72" s="21" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="O72" s="21" t="s">
         <v>0</v>
@@ -6641,15 +6656,15 @@
         <v>3</v>
       </c>
       <c r="T72" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U72" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para planejar: é_anterior_a</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para durar: tem_data_final</v>
       </c>
       <c r="V72" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para planejar: anterior_a ( xsd:integer ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para durar: data_final ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="73" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6657,44 +6672,44 @@
         <v>73</v>
       </c>
       <c r="B73" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C73" s="11" t="str">
-        <f t="shared" ref="C73:C74" si="33">C71</f>
-        <v>p_planejar</v>
+        <f t="shared" si="37"/>
+        <v>p_durar</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F73" s="6" t="str">
-        <f t="shared" si="29"/>
-        <v>d_planejar</v>
+        <f t="shared" ref="F73:F92" si="38">_xlfn.CONCAT("d_",MID(C73,FIND("_",C73,1)+1,100))</f>
+        <v>d_durar</v>
       </c>
       <c r="G73" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>concomitante_com</v>
+        <f t="shared" ref="G73:G92" si="39">MID(D73,FIND("_",D73,1)+1,100)</f>
+        <v>duração</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="I73" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J73" s="21" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K73" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M73" s="21" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="N73" s="21" t="s">
         <v>0</v>
@@ -6715,15 +6730,15 @@
         <v>3</v>
       </c>
       <c r="T73" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U73" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para planejar: é_concomitante_com</v>
+        <f t="shared" ref="U73:U92" si="40">_xlfn.CONCAT("Propriedade para ",MID(C73,FIND("p_",C73,1)+2,100),": ",D73)</f>
+        <v>Propriedade para durar: tem_duração</v>
       </c>
       <c r="V73" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para planejar: concomitante_com ( xsd:integer ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para durar: duração ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="74" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6731,44 +6746,44 @@
         <v>74</v>
       </c>
       <c r="B74" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C74" s="11" t="str">
-        <f t="shared" si="33"/>
-        <v>p_planejar</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>121</v>
+        <f t="shared" si="37"/>
+        <v>p_durar</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F74" s="6" t="str">
-        <f t="shared" si="29"/>
-        <v>d_planejar</v>
+        <f t="shared" si="38"/>
+        <v>d_durar</v>
       </c>
       <c r="G74" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>simultâneo_a</v>
+        <f t="shared" si="39"/>
+        <v>horário</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="I74" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J74" s="21" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K74" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L74" s="21" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M74" s="21" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="N74" s="21" t="s">
         <v>0</v>
@@ -6789,15 +6804,15 @@
         <v>3</v>
       </c>
       <c r="T74" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U74" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para planejar: é_simultâneo_a</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para durar: tem_horário</v>
       </c>
       <c r="V74" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para planejar: simultâneo_a ( xsd:integer ) </v>
+        <f t="shared" ref="V74:V92" si="41">_xlfn.CONCAT("Dado para ",MID(F74,FIND("d_",F74,1)+2,100),": ",G74, " ( ",H74, " ) ")</f>
+        <v xml:space="preserve">Dado para durar: horário ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="75" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6805,31 +6820,30 @@
         <v>75</v>
       </c>
       <c r="B75" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C75" s="11" t="str">
-        <f>C74</f>
-        <v>p_planejar</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>122</v>
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F75" s="6" t="str">
-        <f t="shared" si="29"/>
+        <v>41</v>
+      </c>
+      <c r="F75" s="55" t="str">
+        <f t="shared" si="38"/>
         <v>d_planejar</v>
       </c>
-      <c r="G75" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>marca_inicial</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" s="18" t="s">
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>posterior_a</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I75" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J75" s="21" t="s">
@@ -6839,13 +6853,13 @@
         <v>0</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M75" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N75" s="21" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="O75" s="21" t="s">
         <v>0</v>
@@ -6863,15 +6877,15 @@
         <v>3</v>
       </c>
       <c r="T75" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U75" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para planejar: é_marca_inicial</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para planejar: é_posterior_a</v>
       </c>
       <c r="V75" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para planejar: marca_inicial ( xsd:integer ) </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para planejar: posterior_a ( xsd:integer ) </v>
       </c>
     </row>
     <row r="76" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6879,7 +6893,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C76" s="11" t="str">
@@ -6887,21 +6901,21 @@
         <v>p_planejar</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F76" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>d_planejar</v>
       </c>
       <c r="G76" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>marca_final</v>
+        <f t="shared" si="39"/>
+        <v>anterior_a</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>0</v>
@@ -6913,13 +6927,13 @@
         <v>0</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M76" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N76" s="21" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="O76" s="21" t="s">
         <v>0</v>
@@ -6937,15 +6951,15 @@
         <v>3</v>
       </c>
       <c r="T76" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U76" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para planejar: é_marca_final</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para planejar: é_anterior_a</v>
       </c>
       <c r="V76" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para planejar: marca_final ( xsd:integer ) </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para planejar: anterior_a ( xsd:integer ) </v>
       </c>
     </row>
     <row r="77" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6953,29 +6967,29 @@
         <v>77</v>
       </c>
       <c r="B77" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C77" s="11" t="str">
-        <f>C76</f>
+        <f t="shared" ref="C77:C78" si="42">C75</f>
         <v>p_planejar</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F77" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>d_planejar</v>
       </c>
       <c r="G77" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>momento</v>
+        <f t="shared" si="39"/>
+        <v>concomitante_com</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>0</v>
@@ -6987,10 +7001,10 @@
         <v>0</v>
       </c>
       <c r="L77" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M77" s="21" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="N77" s="21" t="s">
         <v>0</v>
@@ -7011,15 +7025,15 @@
         <v>3</v>
       </c>
       <c r="T77" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U77" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para planejar: é_momento</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para planejar: é_concomitante_com</v>
       </c>
       <c r="V77" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para planejar: momento ( xsd:integer ) </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para planejar: concomitante_com ( xsd:integer ) </v>
       </c>
     </row>
     <row r="78" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7027,30 +7041,31 @@
         <v>78</v>
       </c>
       <c r="B78" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>126</v>
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C78" s="11" t="str">
+        <f t="shared" si="42"/>
+        <v>p_planejar</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78" s="55" t="str">
-        <f t="shared" si="29"/>
-        <v>d_acontecer</v>
-      </c>
-      <c r="G78" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>amanhecer</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I78" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v>d_planejar</v>
+      </c>
+      <c r="G78" s="6" t="str">
+        <f t="shared" si="39"/>
+        <v>simultâneo_a</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J78" s="21" t="s">
@@ -7060,10 +7075,10 @@
         <v>0</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="N78" s="21" t="s">
         <v>0</v>
@@ -7084,15 +7099,15 @@
         <v>3</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U78" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para acontecer: é_amanhecer</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para planejar: é_simultâneo_a</v>
       </c>
       <c r="V78" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para acontecer: amanhecer ( xsd:dateTime ) </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para planejar: simultâneo_a ( xsd:integer ) </v>
       </c>
     </row>
     <row r="79" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7100,29 +7115,29 @@
         <v>79</v>
       </c>
       <c r="B79" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C79" s="11" t="str">
         <f>C78</f>
-        <v>p_acontecer</v>
+        <v>p_planejar</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F79" s="6" t="str">
-        <f t="shared" si="29"/>
-        <v>d_acontecer</v>
+        <f t="shared" si="38"/>
+        <v>d_planejar</v>
       </c>
       <c r="G79" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>anoitecer</v>
+        <f t="shared" si="39"/>
+        <v>marca_inicial</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I79" s="18" t="s">
         <v>0</v>
@@ -7158,15 +7173,15 @@
         <v>3</v>
       </c>
       <c r="T79" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U79" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para acontecer: é_anoitecer</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para planejar: é_marca_inicial</v>
       </c>
       <c r="V79" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para acontecer: anoitecer ( xsd:dateTime ) </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para planejar: marca_inicial ( xsd:integer ) </v>
       </c>
     </row>
     <row r="80" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7174,29 +7189,29 @@
         <v>80</v>
       </c>
       <c r="B80" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C80" s="11" t="str">
-        <f t="shared" ref="C80" si="34">C79</f>
-        <v>p_acontecer</v>
+        <f>C79</f>
+        <v>p_planejar</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F80" s="6" t="str">
-        <f t="shared" si="29"/>
-        <v>d_acontecer</v>
+        <f t="shared" si="38"/>
+        <v>d_planejar</v>
       </c>
       <c r="G80" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>meiodia</v>
+        <f t="shared" si="39"/>
+        <v>marca_final</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>0</v>
@@ -7232,15 +7247,15 @@
         <v>3</v>
       </c>
       <c r="T80" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U80" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para acontecer: é_meiodia</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para planejar: é_marca_final</v>
       </c>
       <c r="V80" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para acontecer: meiodia ( xsd:dateTime ) </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para planejar: marca_final ( xsd:integer ) </v>
       </c>
     </row>
     <row r="81" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7248,29 +7263,29 @@
         <v>81</v>
       </c>
       <c r="B81" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C81" s="11" t="str">
         <f>C80</f>
-        <v>p_acontecer</v>
+        <v>p_planejar</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F81" s="6" t="str">
-        <f t="shared" si="29"/>
-        <v>d_acontecer</v>
+        <f t="shared" si="38"/>
+        <v>d_planejar</v>
       </c>
       <c r="G81" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>equinócio_primavera</v>
+        <f t="shared" si="39"/>
+        <v>momento</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I81" s="18" t="s">
         <v>0</v>
@@ -7306,15 +7321,15 @@
         <v>3</v>
       </c>
       <c r="T81" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U81" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para acontecer: é_equinócio_primavera</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para planejar: é_momento</v>
       </c>
       <c r="V81" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para acontecer: equinócio_primavera ( xsd:dateTime ) </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para planejar: momento ( xsd:integer ) </v>
       </c>
     </row>
     <row r="82" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7322,31 +7337,30 @@
         <v>82</v>
       </c>
       <c r="B82" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C82" s="11" t="str">
-        <f>C81</f>
-        <v>p_acontecer</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>130</v>
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F82" s="6" t="str">
-        <f t="shared" si="29"/>
+        <v>41</v>
+      </c>
+      <c r="F82" s="55" t="str">
+        <f t="shared" si="38"/>
         <v>d_acontecer</v>
       </c>
-      <c r="G82" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>equinócio_outono</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I82" s="18" t="s">
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>amanhecer</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J82" s="21" t="s">
@@ -7380,15 +7394,15 @@
         <v>3</v>
       </c>
       <c r="T82" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U82" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para acontecer: é_equinócio_outono</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para acontecer: é_amanhecer</v>
       </c>
       <c r="V82" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para acontecer: equinócio_outono ( xsd:dateTime ) </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para acontecer: amanhecer ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="83" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7396,7 +7410,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C83" s="11" t="str">
@@ -7404,21 +7418,21 @@
         <v>p_acontecer</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F83" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>d_acontecer</v>
       </c>
       <c r="G83" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>solstício_verão</v>
+        <f t="shared" si="39"/>
+        <v>anoitecer</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I83" s="18" t="s">
         <v>0</v>
@@ -7454,15 +7468,15 @@
         <v>3</v>
       </c>
       <c r="T83" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U83" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para acontecer: é_solstício_verão</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para acontecer: é_anoitecer</v>
       </c>
       <c r="V83" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para acontecer: solstício_verão ( xsd:dateTime ) </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para acontecer: anoitecer ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="84" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7470,29 +7484,29 @@
         <v>84</v>
       </c>
       <c r="B84" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>BIMProp</v>
       </c>
       <c r="C84" s="11" t="str">
-        <f>C83</f>
+        <f t="shared" ref="C84" si="43">C83</f>
         <v>p_acontecer</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F84" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>d_acontecer</v>
       </c>
       <c r="G84" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>solstício_inverno</v>
+        <f t="shared" si="39"/>
+        <v>meiodia</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I84" s="18" t="s">
         <v>0</v>
@@ -7528,320 +7542,616 @@
         <v>3</v>
       </c>
       <c r="T84" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U84" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para acontecer: é_solstício_inverno</v>
+        <f t="shared" si="40"/>
+        <v>Propriedade para acontecer: é_meiodia</v>
       </c>
       <c r="V84" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para acontecer: solstício_inverno ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para acontecer: meiodia ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>85</v>
       </c>
       <c r="B85" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C85" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="40" t="str">
-        <f t="shared" ref="E85:E88" si="35">E84</f>
-        <v>BIMData</v>
-      </c>
-      <c r="F85" s="54" t="str">
-        <f t="shared" si="29"/>
-        <v>d_normatizar</v>
-      </c>
-      <c r="G85" s="41" t="str">
-        <f t="shared" si="30"/>
-        <v>norma</v>
-      </c>
-      <c r="H85" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="I85" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="J85" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K85" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L85" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M85" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N85" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O85" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P85" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R85" s="44" t="s">
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C85" s="11" t="str">
+        <f>C84</f>
+        <v>p_acontecer</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v>d_acontecer</v>
+      </c>
+      <c r="G85" s="6" t="str">
+        <f t="shared" si="39"/>
+        <v>equinócio_primavera</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R85" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S85" s="22" t="s">
         <v>3</v>
       </c>
       <c r="T85" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="U85" s="45" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para normatizar: é_norma</v>
-      </c>
-      <c r="V85" s="45" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="U85" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>Propriedade para acontecer: é_equinócio_primavera</v>
+      </c>
+      <c r="V85" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para acontecer: equinócio_primavera ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>86</v>
       </c>
       <c r="B86" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C86" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C86" s="11" t="str">
         <f>C85</f>
-        <v>p_normatizar</v>
-      </c>
-      <c r="D86" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="40" t="str">
-        <f t="shared" si="35"/>
-        <v>BIMData</v>
-      </c>
-      <c r="F86" s="48" t="str">
-        <f t="shared" si="29"/>
-        <v>d_normatizar</v>
-      </c>
-      <c r="G86" s="48" t="str">
-        <f t="shared" si="30"/>
-        <v>parte</v>
-      </c>
-      <c r="H86" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I86" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="J86" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K86" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L86" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M86" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N86" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O86" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P86" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R86" s="44" t="s">
+        <v>p_acontecer</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v>d_acontecer</v>
+      </c>
+      <c r="G86" s="6" t="str">
+        <f t="shared" si="39"/>
+        <v>equinócio_outono</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K86" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L86" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M86" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N86" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O86" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P86" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R86" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S86" s="22" t="s">
         <v>3</v>
       </c>
       <c r="T86" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="U86" s="45" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para normatizar: é_parte</v>
-      </c>
-      <c r="V86" s="45" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="U86" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>Propriedade para acontecer: é_equinócio_outono</v>
+      </c>
+      <c r="V86" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para acontecer: equinócio_outono ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>87</v>
       </c>
       <c r="B87" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C87" s="46" t="str">
-        <f t="shared" ref="C87:C88" si="36">C86</f>
-        <v>p_normatizar</v>
-      </c>
-      <c r="D87" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="40" t="str">
-        <f t="shared" si="35"/>
-        <v>BIMData</v>
-      </c>
-      <c r="F87" s="48" t="str">
-        <f t="shared" si="29"/>
-        <v>d_normatizar</v>
-      </c>
-      <c r="G87" s="48" t="str">
-        <f t="shared" si="30"/>
-        <v>escopo</v>
-      </c>
-      <c r="H87" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I87" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="J87" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K87" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L87" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M87" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N87" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O87" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P87" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R87" s="44" t="s">
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C87" s="11" t="str">
+        <f>C86</f>
+        <v>p_acontecer</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v>d_acontecer</v>
+      </c>
+      <c r="G87" s="6" t="str">
+        <f t="shared" si="39"/>
+        <v>solstício_verão</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K87" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L87" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M87" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N87" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O87" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P87" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R87" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S87" s="22" t="s">
         <v>3</v>
       </c>
       <c r="T87" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="U87" s="45" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para normatizar: é_escopo</v>
-      </c>
-      <c r="V87" s="45" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="U87" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>Propriedade para acontecer: é_solstício_verão</v>
+      </c>
+      <c r="V87" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para acontecer: solstício_verão ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>88</v>
       </c>
       <c r="B88" s="19" t="str">
-        <f t="shared" si="22"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C88" s="46" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C88" s="11" t="str">
+        <f>C87</f>
+        <v>p_acontecer</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v>d_acontecer</v>
+      </c>
+      <c r="G88" s="6" t="str">
+        <f t="shared" si="39"/>
+        <v>solstício_inverno</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R88" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S88" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T88" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U88" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>Propriedade para acontecer: é_solstício_inverno</v>
+      </c>
+      <c r="V88" s="9" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para acontecer: solstício_inverno ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>89</v>
+      </c>
+      <c r="B89" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="40" t="str">
+        <f t="shared" ref="E89:E92" si="44">E88</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F89" s="54" t="str">
+        <f t="shared" si="38"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G89" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v>norma</v>
+      </c>
+      <c r="H89" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I89" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K89" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L89" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M89" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N89" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O89" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P89" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R89" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S89" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U89" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Propriedade para normatizar: é_norma</v>
+      </c>
+      <c r="V89" s="45" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>90</v>
+      </c>
+      <c r="B90" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C90" s="46" t="str">
+        <f>C89</f>
         <v>p_normatizar</v>
       </c>
-      <c r="D88" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="E88" s="40" t="str">
-        <f t="shared" si="35"/>
+      <c r="D90" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="40" t="str">
+        <f t="shared" si="44"/>
         <v>BIMData</v>
       </c>
-      <c r="F88" s="48" t="str">
-        <f t="shared" si="29"/>
+      <c r="F90" s="48" t="str">
+        <f t="shared" si="38"/>
         <v>d_normatizar</v>
       </c>
-      <c r="G88" s="48" t="str">
-        <f t="shared" si="30"/>
+      <c r="G90" s="48" t="str">
+        <f t="shared" si="39"/>
+        <v>parte</v>
+      </c>
+      <c r="H90" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I90" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K90" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L90" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M90" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N90" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O90" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P90" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R90" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S90" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T90" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U90" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Propriedade para normatizar: é_parte</v>
+      </c>
+      <c r="V90" s="45" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>91</v>
+      </c>
+      <c r="B91" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C91" s="46" t="str">
+        <f t="shared" ref="C91:C92" si="45">C90</f>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E91" s="40" t="str">
+        <f t="shared" si="44"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F91" s="48" t="str">
+        <f t="shared" si="38"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G91" s="48" t="str">
+        <f t="shared" si="39"/>
+        <v>escopo</v>
+      </c>
+      <c r="H91" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I91" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S91" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U91" s="45" t="str">
+        <f t="shared" si="40"/>
+        <v>Propriedade para normatizar: é_escopo</v>
+      </c>
+      <c r="V91" s="45" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>92</v>
+      </c>
+      <c r="B92" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C92" s="46" t="str">
+        <f t="shared" si="45"/>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="40" t="str">
+        <f t="shared" si="44"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F92" s="48" t="str">
+        <f t="shared" si="38"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G92" s="48" t="str">
+        <f t="shared" si="39"/>
         <v>regulamento</v>
       </c>
-      <c r="H88" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I88" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="J88" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K88" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L88" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M88" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N88" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O88" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P88" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R88" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="S88" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T88" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="U88" s="45" t="str">
-        <f t="shared" si="31"/>
+      <c r="H92" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I92" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K92" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L92" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M92" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N92" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O92" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P92" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R92" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S92" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T92" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U92" s="45" t="str">
+        <f t="shared" si="40"/>
         <v>Propriedade para normatizar: é_regulamento</v>
       </c>
-      <c r="V88" s="45" t="str">
-        <f t="shared" si="32"/>
+      <c r="V92" s="45" t="str">
+        <f t="shared" si="41"/>
         <v xml:space="preserve">Dado para normatizar: regulamento ( xsd:string ) </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="F46" formula="1"/>
+    <ignoredError sqref="F50" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A9345A-131B-4B7F-A2E7-6D0998D4B300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E19D5-B7A7-4EDD-AF7B-F4786179E2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="175">
   <si>
     <t>null</t>
   </si>
@@ -452,9 +452,6 @@
     <t>tem_grp</t>
   </si>
   <si>
-    <t>tem_blc</t>
-  </si>
-  <si>
     <t>é_unid_académica</t>
   </si>
   <si>
@@ -495,6 +492,78 @@
   </si>
   <si>
     <t>tem_tipo</t>
+  </si>
+  <si>
+    <t>tem_andar</t>
+  </si>
+  <si>
+    <t>tem_bloco</t>
+  </si>
+  <si>
+    <t>tem_área</t>
+  </si>
+  <si>
+    <t>tem_largura</t>
+  </si>
+  <si>
+    <t>tem_profundidade</t>
+  </si>
+  <si>
+    <t>tem_espessura</t>
+  </si>
+  <si>
+    <t>tem_altura</t>
+  </si>
+  <si>
+    <t>tem_diámetro</t>
+  </si>
+  <si>
+    <t>tem_raio</t>
+  </si>
+  <si>
+    <t>tem_volume</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>tem_pédireito</t>
+  </si>
+  <si>
+    <t>tem_peso</t>
+  </si>
+  <si>
+    <t>tem_densidade</t>
+  </si>
+  <si>
+    <t>p_pesar</t>
+  </si>
+  <si>
+    <t>p_medir</t>
+  </si>
+  <si>
+    <t>tem_diámetro_interno</t>
+  </si>
+  <si>
+    <t>tem_diámetro_externo</t>
+  </si>
+  <si>
+    <t>tem_área_útil</t>
+  </si>
+  <si>
+    <t>tem_área_bruta</t>
+  </si>
+  <si>
+    <t>p_contar</t>
+  </si>
+  <si>
+    <t>tem_quantidade</t>
+  </si>
+  <si>
+    <t>tem_comprimento</t>
+  </si>
+  <si>
+    <t>tem_módulo</t>
   </si>
 </sst>
 </file>
@@ -1324,11 +1393,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A92"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1441,11 +1510,11 @@
         <v>41</v>
       </c>
       <c r="F2" s="55" t="str">
-        <f t="shared" ref="F2:F72" si="0">_xlfn.CONCAT("d_",MID(C2,FIND("_",C2,1)+1,100))</f>
+        <f t="shared" ref="F2:F73" si="0">_xlfn.CONCAT("d_",MID(C2,FIND("_",C2,1)+1,100))</f>
         <v>d_endereçar</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f t="shared" ref="G2:G72" si="1">MID(D2,FIND("_",D2,1)+1,100)</f>
+        <f t="shared" ref="G2:G73" si="1">MID(D2,FIND("_",D2,1)+1,100)</f>
         <v>continente</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -1488,7 +1557,7 @@
         <v>68</v>
       </c>
       <c r="U2" s="9" t="str">
-        <f t="shared" ref="U2:U72" si="2">_xlfn.CONCAT("Propriedade para ",MID(C2,FIND("p_",C2,1)+2,100),": ",D2)</f>
+        <f t="shared" ref="U2:U73" si="2">_xlfn.CONCAT("Propriedade para ",MID(C2,FIND("p_",C2,1)+2,100),": ",D2)</f>
         <v>Propriedade para endereçar: tem_continente</v>
       </c>
       <c r="V2" s="9" t="str">
@@ -1505,7 +1574,7 @@
         <v>BIMProp</v>
       </c>
       <c r="C3" s="11" t="str">
-        <f t="shared" ref="C3:C15" si="3">C2</f>
+        <f t="shared" ref="C3:C18" si="3">C2</f>
         <v>p_endereçar</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1566,7 +1635,7 @@
         <v>Propriedade para endereçar: tem_país</v>
       </c>
       <c r="V3" s="9" t="str">
-        <f t="shared" ref="V3:V73" si="4">_xlfn.CONCAT("Dado para ",MID(F3,FIND("d_",F3,1)+2,100),": ",G3, " ( ",H3, " ) ")</f>
+        <f t="shared" ref="V3:V74" si="4">_xlfn.CONCAT("Dado para ",MID(F3,FIND("d_",F3,1)+2,100),": ",G3, " ( ",H3, " ) ")</f>
         <v xml:space="preserve">Dado para endereçar: país ( xsd:string ) </v>
       </c>
     </row>
@@ -1575,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f t="shared" ref="B4:B15" si="5">B3</f>
+        <f t="shared" ref="B4:B67" si="5">B3</f>
         <v>BIMProp</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -1731,18 +1800,18 @@
         <v>p_endereçar</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F6:F7" si="6">_xlfn.CONCAT("d_",MID(C6,FIND("_",C6,1)+1,100))</f>
         <v>d_endereçar</v>
       </c>
       <c r="G6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>distrito</v>
+        <f t="shared" ref="G6:G7" si="7">MID(D6,FIND("_",D6,1)+1,100)</f>
+        <v>area_planejamento</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>42</v>
@@ -1784,12 +1853,12 @@
         <v>68</v>
       </c>
       <c r="U6" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_distrito</v>
+        <f t="shared" ref="U6:U7" si="8">_xlfn.CONCAT("Propriedade para ",MID(C6,FIND("p_",C6,1)+2,100),": ",D6)</f>
+        <v>Propriedade para endereçar: tem_area_planejamento</v>
       </c>
       <c r="V6" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: distrito ( xsd:string ) </v>
+        <f t="shared" ref="V6:V7" si="9">_xlfn.CONCAT("Dado para ",MID(F6,FIND("d_",F6,1)+2,100),": ",G6, " ( ",H6, " ) ")</f>
+        <v xml:space="preserve">Dado para endereçar: area_planejamento ( xsd:string ) </v>
       </c>
     </row>
     <row r="7" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1805,18 +1874,18 @@
         <v>p_endereçar</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>d_endereçar</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>bairro</v>
+        <f t="shared" si="7"/>
+        <v>região_administrativa</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>42</v>
@@ -1858,12 +1927,12 @@
         <v>68</v>
       </c>
       <c r="U7" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_bairro</v>
+        <f t="shared" si="8"/>
+        <v>Propriedade para endereçar: tem_região_administrativa</v>
       </c>
       <c r="V7" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: bairro ( xsd:string ) </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Dado para endereçar: região_administrativa ( xsd:string ) </v>
       </c>
     </row>
     <row r="8" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1879,7 +1948,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>41</v>
@@ -1890,7 +1959,7 @@
       </c>
       <c r="G8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>nome_logradouro</v>
+        <v>distrito</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>42</v>
@@ -1933,11 +2002,11 @@
       </c>
       <c r="U8" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_nome_logradouro</v>
+        <v>Propriedade para endereçar: tem_distrito</v>
       </c>
       <c r="V8" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: nome_logradouro ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: distrito ( xsd:string ) </v>
       </c>
     </row>
     <row r="9" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1953,7 +2022,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>41</v>
@@ -1964,7 +2033,7 @@
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>número</v>
+        <v>bairro</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>42</v>
@@ -2007,11 +2076,11 @@
       </c>
       <c r="U9" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_número</v>
+        <v>Propriedade para endereçar: tem_bairro</v>
       </c>
       <c r="V9" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: número ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: bairro ( xsd:string ) </v>
       </c>
     </row>
     <row r="10" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2027,7 +2096,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>41</v>
@@ -2038,7 +2107,7 @@
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>cnj</v>
+        <v>nome_logradouro</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>42</v>
@@ -2081,11 +2150,11 @@
       </c>
       <c r="U10" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_cnj</v>
+        <v>Propriedade para endereçar: tem_nome_logradouro</v>
       </c>
       <c r="V10" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: cnj ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: nome_logradouro ( xsd:string ) </v>
       </c>
     </row>
     <row r="11" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2101,7 +2170,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>41</v>
@@ -2112,7 +2181,7 @@
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>grp</v>
+        <v>número</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>42</v>
@@ -2155,11 +2224,11 @@
       </c>
       <c r="U11" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_grp</v>
+        <v>Propriedade para endereçar: tem_número</v>
       </c>
       <c r="V11" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: grp ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: número ( xsd:string ) </v>
       </c>
     </row>
     <row r="12" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2175,7 +2244,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>41</v>
@@ -2186,7 +2255,7 @@
       </c>
       <c r="G12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>blc</v>
+        <v>cnj</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>42</v>
@@ -2229,11 +2298,11 @@
       </c>
       <c r="U12" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_blc</v>
+        <v>Propriedade para endereçar: tem_cnj</v>
       </c>
       <c r="V12" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: blc ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: cnj ( xsd:string ) </v>
       </c>
     </row>
     <row r="13" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2249,7 +2318,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>41</v>
@@ -2260,7 +2329,7 @@
       </c>
       <c r="G13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>area_planejamento</v>
+        <v>grp</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>42</v>
@@ -2303,11 +2372,11 @@
       </c>
       <c r="U13" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_area_planejamento</v>
+        <v>Propriedade para endereçar: tem_grp</v>
       </c>
       <c r="V13" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: area_planejamento ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: grp ( xsd:string ) </v>
       </c>
     </row>
     <row r="14" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2323,7 +2392,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>41</v>
@@ -2334,7 +2403,7 @@
       </c>
       <c r="G14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>região_administrativa</v>
+        <v>bloco</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>42</v>
@@ -2377,11 +2446,11 @@
       </c>
       <c r="U14" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_região_administrativa</v>
+        <v>Propriedade para endereçar: tem_bloco</v>
       </c>
       <c r="V14" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: região_administrativa ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: bloco ( xsd:string ) </v>
       </c>
     </row>
     <row r="15" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2397,7 +2466,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>41</v>
@@ -2408,12 +2477,12 @@
       </c>
       <c r="G15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>cep</v>
+        <v>andar</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="21" t="s">
@@ -2451,11 +2520,11 @@
       </c>
       <c r="U15" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_cep</v>
+        <v>Propriedade para endereçar: tem_andar</v>
       </c>
       <c r="V15" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: cep ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: andar ( xsd:string ) </v>
       </c>
     </row>
     <row r="16" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2463,15 +2532,15 @@
         <v>16</v>
       </c>
       <c r="B16" s="19" t="str">
-        <f>B11</f>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C16" s="11" t="str">
-        <f>C11</f>
+        <f t="shared" si="3"/>
         <v>p_endereçar</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>41</v>
@@ -2482,7 +2551,7 @@
       </c>
       <c r="G16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>cx_postal</v>
+        <v>cep</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>42</v>
@@ -2525,11 +2594,11 @@
       </c>
       <c r="U16" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_cx_postal</v>
+        <v>Propriedade para endereçar: tem_cep</v>
       </c>
       <c r="V16" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: cx_postal ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: cep ( xsd:string ) </v>
       </c>
     </row>
     <row r="17" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2537,15 +2606,15 @@
         <v>17</v>
       </c>
       <c r="B17" s="19" t="str">
-        <f>B12</f>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C17" s="11" t="str">
-        <f>C12</f>
+        <f t="shared" si="3"/>
         <v>p_endereçar</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>41</v>
@@ -2556,7 +2625,7 @@
       </c>
       <c r="G17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>e_mail</v>
+        <v>cx_postal</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>42</v>
@@ -2565,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>0</v>
@@ -2599,11 +2668,11 @@
       </c>
       <c r="U17" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para endereçar: tem_e_mail</v>
+        <v>Propriedade para endereçar: tem_cx_postal</v>
       </c>
       <c r="V17" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para endereçar: e_mail ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: cx_postal ( xsd:string ) </v>
       </c>
     </row>
     <row r="18" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2611,30 +2680,31 @@
         <v>18</v>
       </c>
       <c r="B18" s="19" t="str">
-        <f>B13</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>72</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>p_endereçar</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="55" t="str">
+      <c r="F18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_geolocalizar</v>
-      </c>
-      <c r="G18" s="5" t="str">
+        <v>d_endereçar</v>
+      </c>
+      <c r="G18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>latitude</v>
-      </c>
-      <c r="H18" s="15" t="s">
+        <v>e_mail</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="21" t="s">
@@ -2672,11 +2742,11 @@
       </c>
       <c r="U18" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para geolocalizar: tem_latitude</v>
+        <v>Propriedade para endereçar: tem_e_mail</v>
       </c>
       <c r="V18" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para geolocalizar: latitude ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para endereçar: e_mail ( xsd:string ) </v>
       </c>
     </row>
     <row r="19" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2684,31 +2754,30 @@
         <v>19</v>
       </c>
       <c r="B19" s="19" t="str">
-        <f>B14</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C19" s="11" t="str">
-        <f>C18</f>
-        <v>p_geolocalizar</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>73</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="6" t="str">
+      <c r="F19" s="55" t="str">
         <f t="shared" si="0"/>
         <v>d_geolocalizar</v>
       </c>
-      <c r="G19" s="6" t="str">
+      <c r="G19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>longitude</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>latitude</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J19" s="21" t="s">
@@ -2746,11 +2815,11 @@
       </c>
       <c r="U19" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para geolocalizar: tem_longitude</v>
+        <v>Propriedade para geolocalizar: tem_latitude</v>
       </c>
       <c r="V19" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para geolocalizar: longitude ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para geolocalizar: latitude ( xsd:string ) </v>
       </c>
     </row>
     <row r="20" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2758,15 +2827,15 @@
         <v>20</v>
       </c>
       <c r="B20" s="19" t="str">
-        <f>B14</f>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C20" s="11" t="str">
-        <f t="shared" ref="C20:C21" si="6">C19</f>
+        <f>C19</f>
         <v>p_geolocalizar</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>41</v>
@@ -2777,7 +2846,7 @@
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>altitude</v>
+        <v>longitude</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>42</v>
@@ -2820,11 +2889,11 @@
       </c>
       <c r="U20" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para geolocalizar: tem_altitude</v>
+        <v>Propriedade para geolocalizar: tem_longitude</v>
       </c>
       <c r="V20" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para geolocalizar: altitude ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para geolocalizar: longitude ( xsd:string ) </v>
       </c>
     </row>
     <row r="21" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2832,15 +2901,15 @@
         <v>21</v>
       </c>
       <c r="B21" s="19" t="str">
-        <f>B15</f>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C21" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C21:C22" si="10">C20</f>
         <v>p_geolocalizar</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>41</v>
@@ -2851,7 +2920,7 @@
       </c>
       <c r="G21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>geocode</v>
+        <v>altitude</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>42</v>
@@ -2894,42 +2963,43 @@
       </c>
       <c r="U21" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para geolocalizar: tem_geocode</v>
+        <v>Propriedade para geolocalizar: tem_altitude</v>
       </c>
       <c r="V21" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para geolocalizar: geocode ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para geolocalizar: altitude ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>22</v>
       </c>
       <c r="B22" s="19" t="str">
-        <f t="shared" ref="B22:B24" si="7">B16</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C22" s="11" t="str">
+        <f t="shared" si="10"/>
+        <v>p_geolocalizar</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="55" t="str">
+      <c r="F22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_relacionar</v>
-      </c>
-      <c r="G22" s="25" t="str">
+        <v>d_geolocalizar</v>
+      </c>
+      <c r="G22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>dentro_de</v>
-      </c>
-      <c r="H22" s="15" t="s">
+        <v>geocode</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J22" s="21" t="s">
@@ -2939,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M22" s="21" t="s">
         <v>0</v>
@@ -2967,11 +3037,11 @@
       </c>
       <c r="U22" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para relacionar: é_dentro_de</v>
+        <v>Propriedade para geolocalizar: tem_geocode</v>
       </c>
       <c r="V22" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para relacionar: dentro_de ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para geolocalizar: geocode ( xsd:string ) </v>
       </c>
     </row>
     <row r="23" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2979,31 +3049,30 @@
         <v>23</v>
       </c>
       <c r="B23" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C23" s="27" t="str">
-        <f>C22</f>
-        <v>p_relacionar</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>52</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>1</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="6" t="str">
+      <c r="F23" s="55" t="str">
         <f t="shared" si="0"/>
         <v>d_relacionar</v>
       </c>
-      <c r="G23" s="14" t="str">
+      <c r="G23" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>conectado_a</v>
-      </c>
-      <c r="H23" s="7" t="s">
+        <v>dentro_de</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J23" s="21" t="s">
@@ -3013,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M23" s="21" t="s">
         <v>0</v>
@@ -3041,11 +3110,11 @@
       </c>
       <c r="U23" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para relacionar: é_conectado_a</v>
+        <v>Propriedade para relacionar: é_dentro_de</v>
       </c>
       <c r="V23" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para relacionar: conectado_a ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para relacionar: dentro_de ( xsd:string ) </v>
       </c>
     </row>
     <row r="24" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3053,7 +3122,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C24" s="27" t="str">
@@ -3061,7 +3130,7 @@
         <v>p_relacionar</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>41</v>
@@ -3072,7 +3141,7 @@
       </c>
       <c r="G24" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>parte_de</v>
+        <v>conectado_a</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>42</v>
@@ -3115,11 +3184,11 @@
       </c>
       <c r="U24" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para relacionar: é_parte_de</v>
+        <v>Propriedade para relacionar: é_conectado_a</v>
       </c>
       <c r="V24" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para relacionar: parte_de ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para relacionar: conectado_a ( xsd:string ) </v>
       </c>
     </row>
     <row r="25" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3127,15 +3196,15 @@
         <v>25</v>
       </c>
       <c r="B25" s="19" t="str">
-        <f>B22</f>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C25" s="27" t="str">
-        <f t="shared" ref="C25" si="8">C24</f>
+        <f>C24</f>
         <v>p_relacionar</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>57</v>
+      <c r="D25" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>41</v>
@@ -3146,12 +3215,12 @@
       </c>
       <c r="G25" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>agrupado_com</v>
+        <v>parte_de</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="21" t="s">
@@ -3189,11 +3258,11 @@
       </c>
       <c r="U25" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para relacionar: é_agrupado_com</v>
+        <v>Propriedade para relacionar: é_parte_de</v>
       </c>
       <c r="V25" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para relacionar: agrupado_com ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para relacionar: parte_de ( xsd:string ) </v>
       </c>
     </row>
     <row r="26" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3201,34 +3270,35 @@
         <v>26</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f t="shared" ref="B26:B27" si="9">B16</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>150</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C26" s="27" t="str">
+        <f t="shared" ref="C26" si="11">C25</f>
+        <v>p_relacionar</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="55" t="str">
+      <c r="F26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_classificar</v>
-      </c>
-      <c r="G26" s="25" t="str">
+        <v>d_relacionar</v>
+      </c>
+      <c r="G26" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>categoria_revit</v>
-      </c>
-      <c r="H26" s="15" t="s">
+        <v>agrupado_com</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K26" s="21" t="s">
         <v>0</v>
@@ -3262,11 +3332,11 @@
       </c>
       <c r="U26" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_categoria_revit</v>
+        <v>Propriedade para relacionar: é_agrupado_com</v>
       </c>
       <c r="V26" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: categoria_revit ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para relacionar: agrupado_com ( xsd:string ) </v>
       </c>
     </row>
     <row r="27" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3274,31 +3344,30 @@
         <v>27</v>
       </c>
       <c r="B27" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C27" s="27" t="str">
-        <f>C26</f>
-        <v>p_classificar</v>
-      </c>
-      <c r="D27" s="29" t="s">
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>149</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="6" t="str">
+      <c r="F27" s="55" t="str">
         <f t="shared" si="0"/>
         <v>d_classificar</v>
       </c>
-      <c r="G27" s="14" t="str">
+      <c r="G27" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>classe_ifc</v>
-      </c>
-      <c r="H27" s="7" t="s">
+        <v>categoria_revit</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J27" s="21" t="s">
@@ -3336,11 +3405,11 @@
       </c>
       <c r="U27" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_classe_ifc</v>
+        <v>Propriedade para classificar: é_categoria_revit</v>
       </c>
       <c r="V27" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: classe_ifc ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para classificar: categoria_revit ( xsd:string ) </v>
       </c>
     </row>
     <row r="28" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3348,7 +3417,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="19" t="str">
-        <f>B19</f>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C28" s="27" t="str">
@@ -3356,7 +3425,7 @@
         <v>p_classificar</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>41</v>
@@ -3367,7 +3436,7 @@
       </c>
       <c r="G28" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>entidade</v>
+        <v>classe_ifc</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>42</v>
@@ -3376,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>0</v>
@@ -3410,11 +3479,11 @@
       </c>
       <c r="U28" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_entidade</v>
+        <v>Propriedade para classificar: é_classe_ifc</v>
       </c>
       <c r="V28" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: entidade ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para classificar: classe_ifc ( xsd:string ) </v>
       </c>
     </row>
     <row r="29" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3422,15 +3491,15 @@
         <v>29</v>
       </c>
       <c r="B29" s="19" t="str">
-        <f>B20</f>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C29" s="27" t="str">
-        <f t="shared" ref="C29:C30" si="10">C28</f>
+        <f>C28</f>
         <v>p_classificar</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>41</v>
@@ -3441,7 +3510,7 @@
       </c>
       <c r="G29" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>link</v>
+        <v>entidade</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>42</v>
@@ -3484,11 +3553,11 @@
       </c>
       <c r="U29" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_link</v>
+        <v>Propriedade para classificar: é_entidade</v>
       </c>
       <c r="V29" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: link ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para classificar: entidade ( xsd:string ) </v>
       </c>
     </row>
     <row r="30" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3496,15 +3565,15 @@
         <v>30</v>
       </c>
       <c r="B30" s="19" t="str">
-        <f>B21</f>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C30" s="27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="C30:C31" si="12">C29</f>
         <v>p_classificar</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>41</v>
@@ -3515,7 +3584,7 @@
       </c>
       <c r="G30" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>grupo</v>
+        <v>link</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>42</v>
@@ -3558,11 +3627,11 @@
       </c>
       <c r="U30" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_grupo</v>
+        <v>Propriedade para classificar: é_link</v>
       </c>
       <c r="V30" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: grupo ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para classificar: link ( xsd:string ) </v>
       </c>
     </row>
     <row r="31" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3570,34 +3639,35 @@
         <v>31</v>
       </c>
       <c r="B31" s="19" t="str">
-        <f>B26</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>47</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C31" s="27" t="str">
+        <f t="shared" si="12"/>
+        <v>p_classificar</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="55" t="str">
+      <c r="F31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_identificar</v>
-      </c>
-      <c r="G31" s="25" t="str">
+        <v>d_classificar</v>
+      </c>
+      <c r="G31" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>código</v>
-      </c>
-      <c r="H31" s="15" t="s">
+        <v>grupo</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>0</v>
@@ -3631,11 +3701,11 @@
       </c>
       <c r="U31" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_código</v>
+        <v>Propriedade para classificar: é_grupo</v>
       </c>
       <c r="V31" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: código ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para classificar: grupo ( xsd:string ) </v>
       </c>
     </row>
     <row r="32" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3643,31 +3713,30 @@
         <v>32</v>
       </c>
       <c r="B32" s="19" t="str">
-        <f>B27</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C32" s="27" t="str">
-        <f>C31</f>
-        <v>p_identificar</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="6" t="str">
+      <c r="F32" s="55" t="str">
         <f t="shared" si="0"/>
         <v>d_identificar</v>
       </c>
-      <c r="G32" s="14" t="str">
+      <c r="G32" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>nome</v>
-      </c>
-      <c r="H32" s="7" t="s">
+        <v>código</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="16" t="s">
         <v>0</v>
       </c>
       <c r="J32" s="21" t="s">
@@ -3705,11 +3774,11 @@
       </c>
       <c r="U32" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_nome</v>
+        <v>Propriedade para identificar: tem_código</v>
       </c>
       <c r="V32" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: nome ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para identificar: código ( xsd:string ) </v>
       </c>
     </row>
     <row r="33" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3717,15 +3786,15 @@
         <v>33</v>
       </c>
       <c r="B33" s="19" t="str">
-        <f t="shared" ref="B33:B92" si="11">B28</f>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C33" s="27" t="str">
-        <f t="shared" ref="C33:C34" si="12">C32</f>
+        <f>C32</f>
         <v>p_identificar</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>41</v>
@@ -3736,7 +3805,7 @@
       </c>
       <c r="G33" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>id</v>
+        <v>nome</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>42</v>
@@ -3760,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="P33" s="21" t="s">
         <v>0</v>
@@ -3779,27 +3848,27 @@
       </c>
       <c r="U33" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_id</v>
+        <v>Propriedade para identificar: tem_nome</v>
       </c>
       <c r="V33" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: id ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para identificar: nome ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>34</v>
       </c>
       <c r="B34" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C34" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C34" s="27" t="str">
+        <f t="shared" ref="C34:C35" si="13">C33</f>
         <v>p_identificar</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>78</v>
+      <c r="D34" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>41</v>
@@ -3808,17 +3877,17 @@
         <f t="shared" si="0"/>
         <v>d_identificar</v>
       </c>
-      <c r="G34" s="6" t="str">
+      <c r="G34" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>uri</v>
+        <v>id</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="34" t="s">
+      <c r="I34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="21" t="s">
         <v>43</v>
       </c>
       <c r="K34" s="21" t="s">
@@ -3834,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="P34" s="21" t="s">
         <v>0</v>
@@ -3853,11 +3922,11 @@
       </c>
       <c r="U34" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para identificar: tem_uri</v>
+        <v>Propriedade para identificar: tem_id</v>
       </c>
       <c r="V34" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para identificar: uri ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para identificar: id ( xsd:string ) </v>
       </c>
     </row>
     <row r="35" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3865,146 +3934,146 @@
         <v>35</v>
       </c>
       <c r="B35" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>144</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C35" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>p_identificar</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="55" t="str">
+      <c r="F35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_identificar</v>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>uri</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U35" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para identificar: tem_uri</v>
+      </c>
+      <c r="V35" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para identificar: uri ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>36</v>
+      </c>
+      <c r="B36" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="55" t="str">
         <f t="shared" si="0"/>
         <v>d_catalogar</v>
       </c>
-      <c r="G35" s="25" t="str">
+      <c r="G36" s="25" t="str">
         <f t="shared" si="1"/>
         <v>modelo</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H36" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U35" s="9" t="str">
+      <c r="I36" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U36" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para catalogar: tem_modelo</v>
       </c>
-      <c r="V35" s="9" t="str">
+      <c r="V36" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para catalogar: modelo ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>36</v>
-      </c>
-      <c r="B36" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C36" s="27" t="str">
-        <f>C35</f>
-        <v>p_catalogar</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_catalogar</v>
-      </c>
-      <c r="G36" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>tema</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S36" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T36" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U36" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para catalogar: tem_tema</v>
-      </c>
-      <c r="V36" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para catalogar: tema ( xsd:string ) </v>
       </c>
     </row>
     <row r="37" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4012,26 +4081,26 @@
         <v>37</v>
       </c>
       <c r="B37" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C37" s="27" t="str">
-        <f t="shared" ref="C37:C41" si="13">C36</f>
+        <f>C36</f>
         <v>p_catalogar</v>
       </c>
-      <c r="D37" s="29" t="s">
-        <v>151</v>
+      <c r="D37" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="6" t="str">
-        <f t="shared" ref="F37" si="14">_xlfn.CONCAT("d_",MID(C37,FIND("_",C37,1)+1,100))</f>
+        <f t="shared" si="0"/>
         <v>d_catalogar</v>
       </c>
       <c r="G37" s="14" t="str">
-        <f t="shared" ref="G37" si="15">MID(D37,FIND("_",D37,1)+1,100)</f>
-        <v>tipo</v>
+        <f t="shared" si="1"/>
+        <v>tema</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>42</v>
@@ -4073,12 +4142,12 @@
         <v>68</v>
       </c>
       <c r="U37" s="9" t="str">
-        <f t="shared" ref="U37" si="16">_xlfn.CONCAT("Propriedade para ",MID(C37,FIND("p_",C37,1)+2,100),": ",D37)</f>
-        <v>Propriedade para catalogar: tem_tipo</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para catalogar: tem_tema</v>
       </c>
       <c r="V37" s="9" t="str">
-        <f t="shared" ref="V37" si="17">_xlfn.CONCAT("Dado para ",MID(F37,FIND("d_",F37,1)+2,100),": ",G37, " ( ",H37, " ) ")</f>
-        <v xml:space="preserve">Dado para catalogar: tipo ( xsd:string ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para catalogar: tema ( xsd:string ) </v>
       </c>
     </row>
     <row r="38" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4086,26 +4155,26 @@
         <v>38</v>
       </c>
       <c r="B38" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C38" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C38:C42" si="14">C37</f>
         <v>p_catalogar</v>
       </c>
-      <c r="D38" s="31" t="s">
-        <v>145</v>
+      <c r="D38" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F38" si="15">_xlfn.CONCAT("d_",MID(C38,FIND("_",C38,1)+1,100))</f>
         <v>d_catalogar</v>
       </c>
       <c r="G38" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>série</v>
+        <f t="shared" ref="G38" si="16">MID(D38,FIND("_",D38,1)+1,100)</f>
+        <v>tipo</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>42</v>
@@ -4147,12 +4216,12 @@
         <v>68</v>
       </c>
       <c r="U38" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para catalogar: tem_série</v>
+        <f t="shared" ref="U38" si="17">_xlfn.CONCAT("Propriedade para ",MID(C38,FIND("p_",C38,1)+2,100),": ",D38)</f>
+        <v>Propriedade para catalogar: tem_tipo</v>
       </c>
       <c r="V38" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para catalogar: série ( xsd:string ) </v>
+        <f t="shared" ref="V38" si="18">_xlfn.CONCAT("Dado para ",MID(F38,FIND("d_",F38,1)+2,100),": ",G38, " ( ",H38, " ) ")</f>
+        <v xml:space="preserve">Dado para catalogar: tipo ( xsd:string ) </v>
       </c>
     </row>
     <row r="39" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4160,26 +4229,26 @@
         <v>39</v>
       </c>
       <c r="B39" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C39" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>p_catalogar</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="6" t="str">
-        <f t="shared" ref="F39:F40" si="18">_xlfn.CONCAT("d_",MID(C39,FIND("_",C39,1)+1,100))</f>
+        <f t="shared" si="0"/>
         <v>d_catalogar</v>
       </c>
       <c r="G39" s="14" t="str">
-        <f t="shared" ref="G39:G40" si="19">MID(D39,FIND("_",D39,1)+1,100)</f>
-        <v>linha</v>
+        <f t="shared" si="1"/>
+        <v>série</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>42</v>
@@ -4221,44 +4290,44 @@
         <v>68</v>
       </c>
       <c r="U39" s="9" t="str">
-        <f t="shared" ref="U39:U40" si="20">_xlfn.CONCAT("Propriedade para ",MID(C39,FIND("p_",C39,1)+2,100),": ",D39)</f>
-        <v>Propriedade para catalogar: tem_linha</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para catalogar: tem_série</v>
       </c>
       <c r="V39" s="9" t="str">
-        <f t="shared" ref="V39:V40" si="21">_xlfn.CONCAT("Dado para ",MID(F39,FIND("d_",F39,1)+2,100),": ",G39, " ( ",H39, " ) ")</f>
-        <v xml:space="preserve">Dado para catalogar: linha ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para catalogar: série ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>40</v>
       </c>
       <c r="B40" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C40" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>p_catalogar</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>147</v>
+      <c r="D40" s="31" t="s">
+        <v>145</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="F40:F41" si="19">_xlfn.CONCAT("d_",MID(C40,FIND("_",C40,1)+1,100))</f>
         <v>d_catalogar</v>
       </c>
-      <c r="G40" s="6" t="str">
-        <f t="shared" si="19"/>
-        <v>item</v>
+      <c r="G40" s="14" t="str">
+        <f t="shared" ref="G40:G41" si="20">MID(D40,FIND("_",D40,1)+1,100)</f>
+        <v>linha</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J40" s="21" t="s">
@@ -4295,12 +4364,12 @@
         <v>68</v>
       </c>
       <c r="U40" s="9" t="str">
-        <f t="shared" si="20"/>
-        <v>Propriedade para catalogar: tem_item</v>
+        <f t="shared" ref="U40:U41" si="21">_xlfn.CONCAT("Propriedade para ",MID(C40,FIND("p_",C40,1)+2,100),": ",D40)</f>
+        <v>Propriedade para catalogar: tem_linha</v>
       </c>
       <c r="V40" s="9" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">Dado para catalogar: item ( xsd:string ) </v>
+        <f t="shared" ref="V40:V41" si="22">_xlfn.CONCAT("Dado para ",MID(F40,FIND("d_",F40,1)+2,100),": ",G40, " ( ",H40, " ) ")</f>
+        <v xml:space="preserve">Dado para catalogar: linha ( xsd:string ) </v>
       </c>
     </row>
     <row r="41" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4308,26 +4377,26 @@
         <v>41</v>
       </c>
       <c r="B41" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C41" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>p_catalogar</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F41" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="19"/>
         <v>d_catalogar</v>
       </c>
       <c r="G41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>vol</v>
+        <f t="shared" si="20"/>
+        <v>item</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>42</v>
@@ -4369,28 +4438,28 @@
         <v>68</v>
       </c>
       <c r="U41" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para catalogar: tem_vol</v>
+        <f t="shared" si="21"/>
+        <v>Propriedade para catalogar: tem_item</v>
       </c>
       <c r="V41" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para catalogar: vol ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">Dado para catalogar: item ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>42</v>
       </c>
       <c r="B42" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C42" s="27" t="str">
-        <f t="shared" ref="C42" si="22">C41</f>
+        <f t="shared" si="14"/>
         <v>p_catalogar</v>
       </c>
-      <c r="D42" s="31" t="s">
-        <v>50</v>
+      <c r="D42" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>41</v>
@@ -4399,129 +4468,130 @@
         <f t="shared" si="0"/>
         <v>d_catalogar</v>
       </c>
-      <c r="G42" s="14" t="str">
+      <c r="G42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>vol</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S42" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U42" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para catalogar: tem_vol</v>
+      </c>
+      <c r="V42" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para catalogar: vol ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>43</v>
+      </c>
+      <c r="B43" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C43" s="27" t="str">
+        <f t="shared" ref="C43" si="23">C42</f>
+        <v>p_catalogar</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_catalogar</v>
+      </c>
+      <c r="G43" s="14" t="str">
         <f t="shared" si="1"/>
         <v>descrição</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S42" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U42" s="9" t="str">
+      <c r="I43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U43" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para catalogar: tem_descrição</v>
       </c>
-      <c r="V42" s="9" t="str">
+      <c r="V43" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para catalogar: descrição ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>43</v>
-      </c>
-      <c r="B43" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="55" t="str">
-        <f t="shared" si="0"/>
-        <v>d_definir</v>
-      </c>
-      <c r="G43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>ambiente</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S43" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T43" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U43" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_ambiente</v>
-      </c>
-      <c r="V43" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: ambiente ( xsd:string ) </v>
       </c>
     </row>
     <row r="44" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4529,31 +4599,30 @@
         <v>44</v>
       </c>
       <c r="B44" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C44" s="11" t="str">
-        <f t="shared" ref="C44:C46" si="23">C43</f>
-        <v>p_definir</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>81</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="6" t="str">
+      <c r="F44" s="55" t="str">
         <f t="shared" si="0"/>
         <v>d_definir</v>
       </c>
-      <c r="G44" s="6" t="str">
+      <c r="G44" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>equipamento</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" s="18" t="s">
+        <v>ambiente</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J44" s="21" t="s">
@@ -4591,11 +4660,11 @@
       </c>
       <c r="U44" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_equipamento</v>
+        <v>Propriedade para definir: é_ambiente</v>
       </c>
       <c r="V44" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: equipamento ( xsd:integer ) </v>
+        <v xml:space="preserve">Dado para definir: ambiente ( xsd:string ) </v>
       </c>
     </row>
     <row r="45" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4603,15 +4672,15 @@
         <v>45</v>
       </c>
       <c r="B45" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C45" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="C45:C47" si="24">C44</f>
         <v>p_definir</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>41</v>
@@ -4622,7 +4691,7 @@
       </c>
       <c r="G45" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>dispositivo</v>
+        <v>equipamento</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>82</v>
@@ -4665,11 +4734,11 @@
       </c>
       <c r="U45" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_dispositivo</v>
+        <v>Propriedade para definir: é_equipamento</v>
       </c>
       <c r="V45" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: dispositivo ( xsd:integer ) </v>
+        <v xml:space="preserve">Dado para definir: equipamento ( xsd:integer ) </v>
       </c>
     </row>
     <row r="46" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4677,15 +4746,15 @@
         <v>46</v>
       </c>
       <c r="B46" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C46" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>p_definir</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>41</v>
@@ -4696,7 +4765,7 @@
       </c>
       <c r="G46" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>aparelho</v>
+        <v>dispositivo</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>82</v>
@@ -4739,11 +4808,11 @@
       </c>
       <c r="U46" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_aparelho</v>
+        <v>Propriedade para definir: é_dispositivo</v>
       </c>
       <c r="V46" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: aparelho ( xsd:integer ) </v>
+        <v xml:space="preserve">Dado para definir: dispositivo ( xsd:integer ) </v>
       </c>
     </row>
     <row r="47" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4751,15 +4820,15 @@
         <v>47</v>
       </c>
       <c r="B47" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C47" s="11" t="str">
-        <f>C44</f>
+        <f t="shared" si="24"/>
         <v>p_definir</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>41</v>
@@ -4770,7 +4839,7 @@
       </c>
       <c r="G47" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>instrumento</v>
+        <v>aparelho</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>82</v>
@@ -4813,11 +4882,11 @@
       </c>
       <c r="U47" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_instrumento</v>
+        <v>Propriedade para definir: é_aparelho</v>
       </c>
       <c r="V47" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: instrumento ( xsd:integer ) </v>
+        <v xml:space="preserve">Dado para definir: aparelho ( xsd:integer ) </v>
       </c>
     </row>
     <row r="48" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4825,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C48" s="11" t="str">
@@ -4833,7 +4902,7 @@
         <v>p_definir</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>41</v>
@@ -4844,7 +4913,7 @@
       </c>
       <c r="G48" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>mobiliário</v>
+        <v>instrumento</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>82</v>
@@ -4887,11 +4956,11 @@
       </c>
       <c r="U48" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_mobiliário</v>
+        <v>Propriedade para definir: é_instrumento</v>
       </c>
       <c r="V48" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: mobiliário ( xsd:integer ) </v>
+        <v xml:space="preserve">Dado para definir: instrumento ( xsd:integer ) </v>
       </c>
     </row>
     <row r="49" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4899,30 +4968,31 @@
         <v>49</v>
       </c>
       <c r="B49" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>88</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C49" s="11" t="str">
+        <f>C46</f>
+        <v>p_definir</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="55" t="str">
+      <c r="F49" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_administrar</v>
-      </c>
-      <c r="G49" s="5" t="str">
+        <v>d_definir</v>
+      </c>
+      <c r="G49" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>público</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="23" t="s">
+        <v>mobiliário</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J49" s="21" t="s">
@@ -4960,11 +5030,11 @@
       </c>
       <c r="U49" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_público</v>
+        <v>Propriedade para definir: é_mobiliário</v>
       </c>
       <c r="V49" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: público ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para definir: mobiliário ( xsd:integer ) </v>
       </c>
     </row>
     <row r="50" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4972,31 +5042,30 @@
         <v>50</v>
       </c>
       <c r="B50" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C50" s="11" t="str">
-        <f>C49</f>
-        <v>p_administrar</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>143</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="6" t="str">
-        <f>F49</f>
+      <c r="F50" s="55" t="str">
+        <f t="shared" si="0"/>
         <v>d_administrar</v>
       </c>
-      <c r="G50" s="6" t="str">
-        <f t="shared" ref="G50" si="24">MID(D50,FIND("_",D50,1)+1,100)</f>
-        <v>privado</v>
-      </c>
-      <c r="H50" s="7" t="s">
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>público</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J50" s="21" t="s">
@@ -5033,12 +5102,12 @@
         <v>68</v>
       </c>
       <c r="U50" s="9" t="str">
-        <f t="shared" ref="U50" si="25">_xlfn.CONCAT("Propriedade para ",MID(C50,FIND("p_",C50,1)+2,100),": ",D50)</f>
-        <v>Propriedade para administrar: é_privado</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para administrar: é_público</v>
       </c>
       <c r="V50" s="9" t="str">
-        <f t="shared" ref="V50" si="26">_xlfn.CONCAT("Dado para ",MID(F50,FIND("d_",F50,1)+2,100),": ",G50, " ( ",H50, " ) ")</f>
-        <v xml:space="preserve">Dado para administrar: privado ( xsd:string ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para administrar: público ( xsd:string ) </v>
       </c>
     </row>
     <row r="51" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5046,26 +5115,26 @@
         <v>51</v>
       </c>
       <c r="B51" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C51" s="11" t="str">
-        <f t="shared" ref="C51:C59" si="27">C50</f>
+        <f>C50</f>
         <v>p_administrar</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F51" s="6" t="str">
-        <f t="shared" ref="F51:F59" si="28">F50</f>
+        <f>F50</f>
         <v>d_administrar</v>
       </c>
       <c r="G51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>órgão</v>
+        <f t="shared" ref="G51" si="25">MID(D51,FIND("_",D51,1)+1,100)</f>
+        <v>privado</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>42</v>
@@ -5107,12 +5176,12 @@
         <v>68</v>
       </c>
       <c r="U51" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_órgão</v>
+        <f t="shared" ref="U51" si="26">_xlfn.CONCAT("Propriedade para ",MID(C51,FIND("p_",C51,1)+2,100),": ",D51)</f>
+        <v>Propriedade para administrar: é_privado</v>
       </c>
       <c r="V51" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: órgão ( xsd:string ) </v>
+        <f t="shared" ref="V51" si="27">_xlfn.CONCAT("Dado para ",MID(F51,FIND("d_",F51,1)+2,100),": ",G51, " ( ",H51, " ) ")</f>
+        <v xml:space="preserve">Dado para administrar: privado ( xsd:string ) </v>
       </c>
     </row>
     <row r="52" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5120,26 +5189,26 @@
         <v>52</v>
       </c>
       <c r="B52" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C52" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="C52:C60" si="28">C51</f>
         <v>p_administrar</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F52" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="F52:F60" si="29">F51</f>
         <v>d_administrar</v>
       </c>
       <c r="G52" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>unid_académica</v>
+        <v>órgão</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>42</v>
@@ -5182,11 +5251,11 @@
       </c>
       <c r="U52" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_unid_académica</v>
+        <v>Propriedade para administrar: é_órgão</v>
       </c>
       <c r="V52" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: unid_académica ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: órgão ( xsd:string ) </v>
       </c>
     </row>
     <row r="53" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5194,26 +5263,26 @@
         <v>53</v>
       </c>
       <c r="B53" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C53" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>p_administrar</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F53" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>d_administrar</v>
       </c>
       <c r="G53" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>unid_administrativa</v>
+        <v>unid_académica</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>42</v>
@@ -5256,38 +5325,38 @@
       </c>
       <c r="U53" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_unid_administrativa</v>
+        <v>Propriedade para administrar: é_unid_académica</v>
       </c>
       <c r="V53" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: unid_administrativa ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para administrar: unid_académica ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>54</v>
       </c>
       <c r="B54" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C54" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>p_administrar</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F54" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>d_administrar</v>
       </c>
-      <c r="G54" s="14" t="str">
-        <f t="shared" ref="G54" si="29">MID(D54,FIND("_",D54,1)+1,100)</f>
-        <v>unid_funcional</v>
+      <c r="G54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>unid_administrativa</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>42</v>
@@ -5329,12 +5398,12 @@
         <v>68</v>
       </c>
       <c r="U54" s="9" t="str">
-        <f t="shared" ref="U54" si="30">_xlfn.CONCAT("Propriedade para ",MID(C54,FIND("p_",C54,1)+2,100),": ",D54)</f>
-        <v>Propriedade para administrar: é_unid_funcional</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para administrar: é_unid_administrativa</v>
       </c>
       <c r="V54" s="9" t="str">
-        <f t="shared" ref="V54" si="31">_xlfn.CONCAT("Dado para ",MID(F54,FIND("d_",F54,1)+2,100),": ",G54, " ( ",H54, " ) ")</f>
-        <v xml:space="preserve">Dado para administrar: unid_funcional ( xsd:string ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para administrar: unid_administrativa ( xsd:string ) </v>
       </c>
     </row>
     <row r="55" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5342,26 +5411,26 @@
         <v>55</v>
       </c>
       <c r="B55" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C55" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>p_administrar</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>92</v>
+      <c r="D55" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F55" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>d_administrar</v>
       </c>
       <c r="G55" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>departamento</v>
+        <f t="shared" ref="G55" si="30">MID(D55,FIND("_",D55,1)+1,100)</f>
+        <v>unid_funcional</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>42</v>
@@ -5403,12 +5472,12 @@
         <v>68</v>
       </c>
       <c r="U55" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_departamento</v>
+        <f t="shared" ref="U55" si="31">_xlfn.CONCAT("Propriedade para ",MID(C55,FIND("p_",C55,1)+2,100),": ",D55)</f>
+        <v>Propriedade para administrar: é_unid_funcional</v>
       </c>
       <c r="V55" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: departamento ( xsd:string ) </v>
+        <f t="shared" ref="V55" si="32">_xlfn.CONCAT("Dado para ",MID(F55,FIND("d_",F55,1)+2,100),": ",G55, " ( ",H55, " ) ")</f>
+        <v xml:space="preserve">Dado para administrar: unid_funcional ( xsd:string ) </v>
       </c>
     </row>
     <row r="56" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5416,31 +5485,31 @@
         <v>56</v>
       </c>
       <c r="B56" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C56" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>p_administrar</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F56" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>d_administrar</v>
       </c>
       <c r="G56" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>divisão</v>
+        <v>departamento</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J56" s="21" t="s">
@@ -5478,43 +5547,43 @@
       </c>
       <c r="U56" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_divisão</v>
+        <v>Propriedade para administrar: é_departamento</v>
       </c>
       <c r="V56" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: divisão ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para administrar: departamento ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>57</v>
       </c>
       <c r="B57" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C57" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>p_administrar</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>59</v>
+      <c r="D57" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F57" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>d_administrar</v>
       </c>
-      <c r="G57" s="6" t="str">
+      <c r="G57" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>núcleo</v>
+        <v>divisão</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J57" s="21" t="s">
@@ -5552,11 +5621,11 @@
       </c>
       <c r="U57" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_núcleo</v>
+        <v>Propriedade para administrar: é_divisão</v>
       </c>
       <c r="V57" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: núcleo ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: divisão ( xsd:string ) </v>
       </c>
     </row>
     <row r="58" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5564,26 +5633,26 @@
         <v>58</v>
       </c>
       <c r="B58" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C58" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>p_administrar</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F58" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>d_administrar</v>
       </c>
       <c r="G58" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>setor</v>
+        <v>núcleo</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>42</v>
@@ -5626,11 +5695,11 @@
       </c>
       <c r="U58" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_setor</v>
+        <v>Propriedade para administrar: é_núcleo</v>
       </c>
       <c r="V58" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: setor ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: núcleo ( xsd:string ) </v>
       </c>
     </row>
     <row r="59" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5638,26 +5707,26 @@
         <v>59</v>
       </c>
       <c r="B59" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C59" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>p_administrar</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F59" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>d_administrar</v>
       </c>
       <c r="G59" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>zona</v>
+        <v>setor</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>42</v>
@@ -5700,11 +5769,11 @@
       </c>
       <c r="U59" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para administrar: é_zona</v>
+        <v>Propriedade para administrar: é_setor</v>
       </c>
       <c r="V59" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para administrar: zona ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: setor ( xsd:string ) </v>
       </c>
     </row>
     <row r="60" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5712,30 +5781,31 @@
         <v>60</v>
       </c>
       <c r="B60" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C60" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>94</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C60" s="11" t="str">
+        <f t="shared" si="28"/>
+        <v>p_administrar</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="55" t="str">
-        <f t="shared" si="0"/>
-        <v>d_contratar</v>
-      </c>
-      <c r="G60" s="5" t="str">
+      <c r="F60" s="6" t="str">
+        <f t="shared" si="29"/>
+        <v>d_administrar</v>
+      </c>
+      <c r="G60" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>contrato</v>
-      </c>
-      <c r="H60" s="15" t="s">
+        <v>zona</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="I60" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J60" s="21" t="s">
@@ -5773,11 +5843,11 @@
       </c>
       <c r="U60" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_contrato</v>
+        <v>Propriedade para administrar: é_zona</v>
       </c>
       <c r="V60" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: contrato ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: zona ( xsd:string ) </v>
       </c>
     </row>
     <row r="61" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5785,31 +5855,30 @@
         <v>61</v>
       </c>
       <c r="B61" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C61" s="11" t="str">
-        <f>C59</f>
-        <v>p_administrar</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>139</v>
+        <f t="shared" si="5"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="6" t="str">
-        <f t="shared" ref="F61" si="32">_xlfn.CONCAT("d_",MID(C61,FIND("_",C61,1)+1,100))</f>
-        <v>d_administrar</v>
-      </c>
-      <c r="G61" s="6" t="str">
-        <f t="shared" ref="G61" si="33">MID(D61,FIND("_",D61,1)+1,100)</f>
-        <v>contratado</v>
-      </c>
-      <c r="H61" s="7" t="s">
+      <c r="F61" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>d_contratar</v>
+      </c>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>contrato</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="18" t="s">
+      <c r="I61" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J61" s="21" t="s">
@@ -5846,12 +5915,12 @@
         <v>68</v>
       </c>
       <c r="U61" s="9" t="str">
-        <f t="shared" ref="U61" si="34">_xlfn.CONCAT("Propriedade para ",MID(C61,FIND("p_",C61,1)+2,100),": ",D61)</f>
-        <v>Propriedade para administrar: é_contratado</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para contratar: é_contrato</v>
       </c>
       <c r="V61" s="9" t="str">
-        <f t="shared" ref="V61" si="35">_xlfn.CONCAT("Dado para ",MID(F61,FIND("d_",F61,1)+2,100),": ",G61, " ( ",H61, " ) ")</f>
-        <v xml:space="preserve">Dado para administrar: contratado ( xsd:string ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para contratar: contrato ( xsd:string ) </v>
       </c>
     </row>
     <row r="62" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5859,26 +5928,26 @@
         <v>62</v>
       </c>
       <c r="B62" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C62" s="11" t="str">
         <f>C60</f>
-        <v>p_contratar</v>
+        <v>p_administrar</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F62" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_contratar</v>
+        <f t="shared" ref="F62" si="33">_xlfn.CONCAT("d_",MID(C62,FIND("_",C62,1)+1,100))</f>
+        <v>d_administrar</v>
       </c>
       <c r="G62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>contratante</v>
+        <f t="shared" ref="G62" si="34">MID(D62,FIND("_",D62,1)+1,100)</f>
+        <v>contratado</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>42</v>
@@ -5920,12 +5989,12 @@
         <v>68</v>
       </c>
       <c r="U62" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_contratante</v>
+        <f t="shared" ref="U62" si="35">_xlfn.CONCAT("Propriedade para ",MID(C62,FIND("p_",C62,1)+2,100),": ",D62)</f>
+        <v>Propriedade para administrar: é_contratado</v>
       </c>
       <c r="V62" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: contratante ( xsd:string ) </v>
+        <f t="shared" ref="V62" si="36">_xlfn.CONCAT("Dado para ",MID(F62,FIND("d_",F62,1)+2,100),": ",G62, " ( ",H62, " ) ")</f>
+        <v xml:space="preserve">Dado para administrar: contratado ( xsd:string ) </v>
       </c>
     </row>
     <row r="63" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5933,15 +6002,15 @@
         <v>63</v>
       </c>
       <c r="B63" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C63" s="11" t="str">
-        <f t="shared" ref="C63:C67" si="36">C62</f>
+        <f>C61</f>
         <v>p_contratar</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>41</v>
@@ -5952,7 +6021,7 @@
       </c>
       <c r="G63" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>subcontratista</v>
+        <v>contratante</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>42</v>
@@ -5995,11 +6064,11 @@
       </c>
       <c r="U63" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_subcontratista</v>
+        <v>Propriedade para contratar: é_contratante</v>
       </c>
       <c r="V63" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: subcontratista ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: contratante ( xsd:string ) </v>
       </c>
     </row>
     <row r="64" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6007,15 +6076,15 @@
         <v>64</v>
       </c>
       <c r="B64" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C64" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="C64:C68" si="37">C63</f>
         <v>p_contratar</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>41</v>
@@ -6026,7 +6095,7 @@
       </c>
       <c r="G64" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>empresa</v>
+        <v>subcontratista</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>42</v>
@@ -6069,11 +6138,11 @@
       </c>
       <c r="U64" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_empresa</v>
+        <v>Propriedade para contratar: é_subcontratista</v>
       </c>
       <c r="V64" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: empresa ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: subcontratista ( xsd:string ) </v>
       </c>
     </row>
     <row r="65" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6081,15 +6150,15 @@
         <v>65</v>
       </c>
       <c r="B65" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C65" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>p_contratar</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>41</v>
@@ -6100,7 +6169,7 @@
       </c>
       <c r="G65" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>autor</v>
+        <v>empresa</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>42</v>
@@ -6143,11 +6212,11 @@
       </c>
       <c r="U65" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_autor</v>
+        <v>Propriedade para contratar: é_empresa</v>
       </c>
       <c r="V65" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: autor ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: empresa ( xsd:string ) </v>
       </c>
     </row>
     <row r="66" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6155,15 +6224,15 @@
         <v>66</v>
       </c>
       <c r="B66" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C66" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>p_contratar</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>41</v>
@@ -6174,7 +6243,7 @@
       </c>
       <c r="G66" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>cnpj</v>
+        <v>autor</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>42</v>
@@ -6217,11 +6286,11 @@
       </c>
       <c r="U66" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_cnpj</v>
+        <v>Propriedade para contratar: é_autor</v>
       </c>
       <c r="V66" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: cnpj ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: autor ( xsd:string ) </v>
       </c>
     </row>
     <row r="67" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6229,15 +6298,15 @@
         <v>67</v>
       </c>
       <c r="B67" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
       <c r="C67" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>p_contratar</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>41</v>
@@ -6248,7 +6317,7 @@
       </c>
       <c r="G67" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>cpf</v>
+        <v>cnpj</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>42</v>
@@ -6291,11 +6360,11 @@
       </c>
       <c r="U67" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_cpf</v>
+        <v>Propriedade para contratar: é_cnpj</v>
       </c>
       <c r="V67" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: cpf ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: cnpj ( xsd:string ) </v>
       </c>
     </row>
     <row r="68" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6303,15 +6372,15 @@
         <v>68</v>
       </c>
       <c r="B68" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B68:B93" si="38">B67</f>
         <v>BIMProp</v>
       </c>
       <c r="C68" s="11" t="str">
-        <f>C67</f>
+        <f t="shared" si="37"/>
         <v>p_contratar</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>41</v>
@@ -6322,7 +6391,7 @@
       </c>
       <c r="G68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>processo</v>
+        <v>cpf</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>42</v>
@@ -6365,11 +6434,11 @@
       </c>
       <c r="U68" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_processo</v>
+        <v>Propriedade para contratar: é_cpf</v>
       </c>
       <c r="V68" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: processo ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: cpf ( xsd:string ) </v>
       </c>
     </row>
     <row r="69" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6377,7 +6446,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C69" s="11" t="str">
@@ -6385,7 +6454,7 @@
         <v>p_contratar</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>41</v>
@@ -6396,7 +6465,7 @@
       </c>
       <c r="G69" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>processo_sei</v>
+        <v>processo</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>42</v>
@@ -6439,11 +6508,11 @@
       </c>
       <c r="U69" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_processo_sei</v>
+        <v>Propriedade para contratar: é_processo</v>
       </c>
       <c r="V69" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: processo_sei ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para contratar: processo ( xsd:string ) </v>
       </c>
     </row>
     <row r="70" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6451,34 +6520,35 @@
         <v>70</v>
       </c>
       <c r="B70" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C70" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>110</v>
+        <f t="shared" si="38"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C70" s="11" t="str">
+        <f>C69</f>
+        <v>p_contratar</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="55" t="str">
+      <c r="F70" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>d_durar</v>
-      </c>
-      <c r="G70" s="5" t="str">
+        <v>d_contratar</v>
+      </c>
+      <c r="G70" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>data</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I70" s="23" t="s">
+        <v>processo_sei</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I70" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K70" s="21" t="s">
         <v>0</v>
@@ -6512,11 +6582,11 @@
       </c>
       <c r="U70" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para durar: tem_data</v>
+        <v>Propriedade para contratar: é_processo_sei</v>
       </c>
       <c r="V70" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para durar: data ( xsd:dateTime ) </v>
+        <v xml:space="preserve">Dado para contratar: processo_sei ( xsd:string ) </v>
       </c>
     </row>
     <row r="71" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6524,31 +6594,30 @@
         <v>71</v>
       </c>
       <c r="B71" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C71" s="11" t="str">
-        <f>C70</f>
-        <v>p_durar</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>111</v>
+        <f t="shared" si="38"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="6" t="str">
+      <c r="F71" s="55" t="str">
         <f t="shared" si="0"/>
         <v>d_durar</v>
       </c>
-      <c r="G71" s="6" t="str">
+      <c r="G71" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>data_inicial</v>
-      </c>
-      <c r="H71" s="7" t="s">
+        <v>data</v>
+      </c>
+      <c r="H71" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I71" s="18" t="s">
+      <c r="I71" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J71" s="21" t="s">
@@ -6586,11 +6655,11 @@
       </c>
       <c r="U71" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para durar: tem_data_inicial</v>
+        <v>Propriedade para durar: tem_data</v>
       </c>
       <c r="V71" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para durar: data_inicial ( xsd:dateTime ) </v>
+        <v xml:space="preserve">Dado para durar: data ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="72" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6598,15 +6667,15 @@
         <v>72</v>
       </c>
       <c r="B72" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C72" s="11" t="str">
-        <f t="shared" ref="C72:C74" si="37">C71</f>
+        <f>C71</f>
         <v>p_durar</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>41</v>
@@ -6617,7 +6686,7 @@
       </c>
       <c r="G72" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>data_final</v>
+        <v>data_inicial</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>109</v>
@@ -6660,11 +6729,11 @@
       </c>
       <c r="U72" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para durar: tem_data_final</v>
+        <v>Propriedade para durar: tem_data_inicial</v>
       </c>
       <c r="V72" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para durar: data_final ( xsd:dateTime ) </v>
+        <v xml:space="preserve">Dado para durar: data_inicial ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="73" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6672,26 +6741,26 @@
         <v>73</v>
       </c>
       <c r="B73" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C73" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="C73:C75" si="39">C72</f>
         <v>p_durar</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F73" s="6" t="str">
-        <f t="shared" ref="F73:F92" si="38">_xlfn.CONCAT("d_",MID(C73,FIND("_",C73,1)+1,100))</f>
+        <f t="shared" si="0"/>
         <v>d_durar</v>
       </c>
       <c r="G73" s="6" t="str">
-        <f t="shared" ref="G73:G92" si="39">MID(D73,FIND("_",D73,1)+1,100)</f>
-        <v>duração</v>
+        <f t="shared" si="1"/>
+        <v>data_final</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>109</v>
@@ -6733,12 +6802,12 @@
         <v>68</v>
       </c>
       <c r="U73" s="9" t="str">
-        <f t="shared" ref="U73:U92" si="40">_xlfn.CONCAT("Propriedade para ",MID(C73,FIND("p_",C73,1)+2,100),": ",D73)</f>
-        <v>Propriedade para durar: tem_duração</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para durar: tem_data_final</v>
       </c>
       <c r="V73" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para durar: duração ( xsd:dateTime ) </v>
+        <v xml:space="preserve">Dado para durar: data_final ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="74" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6746,26 +6815,26 @@
         <v>74</v>
       </c>
       <c r="B74" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C74" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>p_durar</v>
       </c>
-      <c r="D74" s="35" t="s">
-        <v>113</v>
+      <c r="D74" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F74" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="F74:F93" si="40">_xlfn.CONCAT("d_",MID(C74,FIND("_",C74,1)+1,100))</f>
         <v>d_durar</v>
       </c>
       <c r="G74" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>horário</v>
+        <f t="shared" ref="G74:G93" si="41">MID(D74,FIND("_",D74,1)+1,100)</f>
+        <v>duração</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>109</v>
@@ -6807,12 +6876,12 @@
         <v>68</v>
       </c>
       <c r="U74" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para durar: tem_horário</v>
+        <f t="shared" ref="U74:U93" si="42">_xlfn.CONCAT("Propriedade para ",MID(C74,FIND("p_",C74,1)+2,100),": ",D74)</f>
+        <v>Propriedade para durar: tem_duração</v>
       </c>
       <c r="V74" s="9" t="str">
-        <f t="shared" ref="V74:V92" si="41">_xlfn.CONCAT("Dado para ",MID(F74,FIND("d_",F74,1)+2,100),": ",G74, " ( ",H74, " ) ")</f>
-        <v xml:space="preserve">Dado para durar: horário ( xsd:dateTime ) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para durar: duração ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="75" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6820,46 +6889,47 @@
         <v>75</v>
       </c>
       <c r="B75" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>115</v>
+        <f t="shared" si="38"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C75" s="11" t="str">
+        <f t="shared" si="39"/>
+        <v>p_durar</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="55" t="str">
-        <f t="shared" si="38"/>
-        <v>d_planejar</v>
-      </c>
-      <c r="G75" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>posterior_a</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I75" s="23" t="s">
+      <c r="F75" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>d_durar</v>
+      </c>
+      <c r="G75" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>horário</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I75" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J75" s="21" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K75" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M75" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N75" s="21" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="O75" s="21" t="s">
         <v>0</v>
@@ -6880,12 +6950,12 @@
         <v>68</v>
       </c>
       <c r="U75" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para planejar: é_posterior_a</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para durar: tem_horário</v>
       </c>
       <c r="V75" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para planejar: posterior_a ( xsd:integer ) </v>
+        <f t="shared" ref="V75:V93" si="43">_xlfn.CONCAT("Dado para ",MID(F75,FIND("d_",F75,1)+2,100),": ",G75, " ( ",H75, " ) ")</f>
+        <v xml:space="preserve">Dado para durar: horário ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="76" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6893,31 +6963,30 @@
         <v>76</v>
       </c>
       <c r="B76" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C76" s="11" t="str">
-        <f>C75</f>
-        <v>p_planejar</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>116</v>
+        <f t="shared" si="38"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F76" s="6" t="str">
-        <f t="shared" si="38"/>
+      <c r="F76" s="55" t="str">
+        <f t="shared" si="40"/>
         <v>d_planejar</v>
       </c>
-      <c r="G76" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>anterior_a</v>
-      </c>
-      <c r="H76" s="7" t="s">
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>posterior_a</v>
+      </c>
+      <c r="H76" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I76" s="18" t="s">
+      <c r="I76" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J76" s="21" t="s">
@@ -6933,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O76" s="21" t="s">
         <v>0</v>
@@ -6954,12 +7023,12 @@
         <v>68</v>
       </c>
       <c r="U76" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para planejar: é_anterior_a</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para planejar: é_posterior_a</v>
       </c>
       <c r="V76" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para planejar: anterior_a ( xsd:integer ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para planejar: posterior_a ( xsd:integer ) </v>
       </c>
     </row>
     <row r="77" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6967,26 +7036,26 @@
         <v>77</v>
       </c>
       <c r="B77" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C77" s="11" t="str">
-        <f t="shared" ref="C77:C78" si="42">C75</f>
+        <f>C76</f>
         <v>p_planejar</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F77" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_planejar</v>
       </c>
       <c r="G77" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>concomitante_com</v>
+        <f t="shared" si="41"/>
+        <v>anterior_a</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>82</v>
@@ -7004,11 +7073,11 @@
         <v>51</v>
       </c>
       <c r="M77" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N77" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="N77" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="O77" s="21" t="s">
         <v>0</v>
       </c>
@@ -7028,12 +7097,12 @@
         <v>68</v>
       </c>
       <c r="U77" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para planejar: é_concomitante_com</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para planejar: é_anterior_a</v>
       </c>
       <c r="V77" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para planejar: concomitante_com ( xsd:integer ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para planejar: anterior_a ( xsd:integer ) </v>
       </c>
     </row>
     <row r="78" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7041,26 +7110,26 @@
         <v>78</v>
       </c>
       <c r="B78" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C78" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="C78:C79" si="44">C76</f>
         <v>p_planejar</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F78" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_planejar</v>
       </c>
       <c r="G78" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>simultâneo_a</v>
+        <f t="shared" si="41"/>
+        <v>concomitante_com</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>82</v>
@@ -7078,7 +7147,7 @@
         <v>51</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N78" s="21" t="s">
         <v>0</v>
@@ -7102,12 +7171,12 @@
         <v>68</v>
       </c>
       <c r="U78" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para planejar: é_simultâneo_a</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para planejar: é_concomitante_com</v>
       </c>
       <c r="V78" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para planejar: simultâneo_a ( xsd:integer ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para planejar: concomitante_com ( xsd:integer ) </v>
       </c>
     </row>
     <row r="79" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7115,26 +7184,26 @@
         <v>79</v>
       </c>
       <c r="B79" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C79" s="11" t="str">
-        <f>C78</f>
+        <f t="shared" si="44"/>
         <v>p_planejar</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F79" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_planejar</v>
       </c>
       <c r="G79" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>marca_inicial</v>
+        <f t="shared" si="41"/>
+        <v>simultâneo_a</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>82</v>
@@ -7149,10 +7218,10 @@
         <v>0</v>
       </c>
       <c r="L79" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="N79" s="21" t="s">
         <v>0</v>
@@ -7176,12 +7245,12 @@
         <v>68</v>
       </c>
       <c r="U79" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para planejar: é_marca_inicial</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para planejar: é_simultâneo_a</v>
       </c>
       <c r="V79" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para planejar: marca_inicial ( xsd:integer ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para planejar: simultâneo_a ( xsd:integer ) </v>
       </c>
     </row>
     <row r="80" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7189,7 +7258,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C80" s="11" t="str">
@@ -7197,18 +7266,18 @@
         <v>p_planejar</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_planejar</v>
       </c>
       <c r="G80" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>marca_final</v>
+        <f t="shared" si="41"/>
+        <v>marca_inicial</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>82</v>
@@ -7250,12 +7319,12 @@
         <v>68</v>
       </c>
       <c r="U80" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para planejar: é_marca_final</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para planejar: é_marca_inicial</v>
       </c>
       <c r="V80" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para planejar: marca_final ( xsd:integer ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para planejar: marca_inicial ( xsd:integer ) </v>
       </c>
     </row>
     <row r="81" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7263,7 +7332,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C81" s="11" t="str">
@@ -7271,18 +7340,18 @@
         <v>p_planejar</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_planejar</v>
       </c>
       <c r="G81" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>momento</v>
+        <f t="shared" si="41"/>
+        <v>marca_final</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>82</v>
@@ -7324,12 +7393,12 @@
         <v>68</v>
       </c>
       <c r="U81" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para planejar: é_momento</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para planejar: é_marca_final</v>
       </c>
       <c r="V81" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para planejar: momento ( xsd:integer ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para planejar: marca_final ( xsd:integer ) </v>
       </c>
     </row>
     <row r="82" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7337,30 +7406,31 @@
         <v>82</v>
       </c>
       <c r="B82" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>123</v>
+        <f t="shared" si="38"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C82" s="11" t="str">
+        <f>C81</f>
+        <v>p_planejar</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F82" s="55" t="str">
-        <f t="shared" si="38"/>
-        <v>d_acontecer</v>
-      </c>
-      <c r="G82" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>amanhecer</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I82" s="23" t="s">
+      <c r="F82" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>d_planejar</v>
+      </c>
+      <c r="G82" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>momento</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J82" s="21" t="s">
@@ -7397,12 +7467,12 @@
         <v>68</v>
       </c>
       <c r="U82" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para acontecer: é_amanhecer</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para planejar: é_momento</v>
       </c>
       <c r="V82" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para acontecer: amanhecer ( xsd:dateTime ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para planejar: momento ( xsd:integer ) </v>
       </c>
     </row>
     <row r="83" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7410,31 +7480,30 @@
         <v>83</v>
       </c>
       <c r="B83" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C83" s="11" t="str">
-        <f>C82</f>
-        <v>p_acontecer</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>124</v>
+        <f t="shared" si="38"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="6" t="str">
-        <f t="shared" si="38"/>
+      <c r="F83" s="55" t="str">
+        <f t="shared" si="40"/>
         <v>d_acontecer</v>
       </c>
-      <c r="G83" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>anoitecer</v>
-      </c>
-      <c r="H83" s="7" t="s">
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>amanhecer</v>
+      </c>
+      <c r="H83" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I83" s="18" t="s">
+      <c r="I83" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J83" s="21" t="s">
@@ -7471,12 +7540,12 @@
         <v>68</v>
       </c>
       <c r="U83" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para acontecer: é_anoitecer</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para acontecer: é_amanhecer</v>
       </c>
       <c r="V83" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para acontecer: anoitecer ( xsd:dateTime ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para acontecer: amanhecer ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="84" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7484,26 +7553,26 @@
         <v>84</v>
       </c>
       <c r="B84" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C84" s="11" t="str">
-        <f t="shared" ref="C84" si="43">C83</f>
+        <f>C83</f>
         <v>p_acontecer</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_acontecer</v>
       </c>
       <c r="G84" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>meiodia</v>
+        <f t="shared" si="41"/>
+        <v>anoitecer</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>109</v>
@@ -7545,12 +7614,12 @@
         <v>68</v>
       </c>
       <c r="U84" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para acontecer: é_meiodia</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para acontecer: é_anoitecer</v>
       </c>
       <c r="V84" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para acontecer: meiodia ( xsd:dateTime ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para acontecer: anoitecer ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="85" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7558,26 +7627,26 @@
         <v>85</v>
       </c>
       <c r="B85" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C85" s="11" t="str">
-        <f>C84</f>
+        <f t="shared" ref="C85" si="45">C84</f>
         <v>p_acontecer</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_acontecer</v>
       </c>
       <c r="G85" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>equinócio_primavera</v>
+        <f t="shared" si="41"/>
+        <v>meiodia</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>109</v>
@@ -7619,12 +7688,12 @@
         <v>68</v>
       </c>
       <c r="U85" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para acontecer: é_equinócio_primavera</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para acontecer: é_meiodia</v>
       </c>
       <c r="V85" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para acontecer: equinócio_primavera ( xsd:dateTime ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para acontecer: meiodia ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="86" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7632,7 +7701,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C86" s="11" t="str">
@@ -7640,18 +7709,18 @@
         <v>p_acontecer</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_acontecer</v>
       </c>
       <c r="G86" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>equinócio_outono</v>
+        <f t="shared" si="41"/>
+        <v>equinócio_primavera</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>109</v>
@@ -7693,12 +7762,12 @@
         <v>68</v>
       </c>
       <c r="U86" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para acontecer: é_equinócio_outono</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para acontecer: é_equinócio_primavera</v>
       </c>
       <c r="V86" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para acontecer: equinócio_outono ( xsd:dateTime ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para acontecer: equinócio_primavera ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="87" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7706,7 +7775,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C87" s="11" t="str">
@@ -7714,18 +7783,18 @@
         <v>p_acontecer</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F87" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_acontecer</v>
       </c>
       <c r="G87" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>solstício_verão</v>
+        <f t="shared" si="41"/>
+        <v>equinócio_outono</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>109</v>
@@ -7767,12 +7836,12 @@
         <v>68</v>
       </c>
       <c r="U87" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para acontecer: é_solstício_verão</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para acontecer: é_equinócio_outono</v>
       </c>
       <c r="V87" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para acontecer: solstício_verão ( xsd:dateTime ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para acontecer: equinócio_outono ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="88" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7780,7 +7849,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C88" s="11" t="str">
@@ -7788,18 +7857,18 @@
         <v>p_acontecer</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F88" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_acontecer</v>
       </c>
       <c r="G88" s="6" t="str">
-        <f t="shared" si="39"/>
-        <v>solstício_inverno</v>
+        <f t="shared" si="41"/>
+        <v>solstício_verão</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>109</v>
@@ -7841,71 +7910,71 @@
         <v>68</v>
       </c>
       <c r="U88" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para acontecer: é_solstício_inverno</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para acontecer: é_solstício_verão</v>
       </c>
       <c r="V88" s="9" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para acontecer: solstício_inverno ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para acontecer: solstício_verão ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>89</v>
       </c>
       <c r="B89" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C89" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" s="40" t="str">
-        <f t="shared" ref="E89:E92" si="44">E88</f>
-        <v>BIMData</v>
-      </c>
-      <c r="F89" s="54" t="str">
         <f t="shared" si="38"/>
-        <v>d_normatizar</v>
-      </c>
-      <c r="G89" s="41" t="str">
-        <f t="shared" si="39"/>
-        <v>norma</v>
-      </c>
-      <c r="H89" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I89" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="J89" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K89" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L89" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M89" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N89" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O89" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P89" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R89" s="44" t="s">
+        <v>BIMProp</v>
+      </c>
+      <c r="C89" s="11" t="str">
+        <f>C88</f>
+        <v>p_acontecer</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>d_acontecer</v>
+      </c>
+      <c r="G89" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>solstício_inverno</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K89" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L89" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M89" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N89" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O89" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P89" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R89" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S89" s="22" t="s">
@@ -7914,13 +7983,13 @@
       <c r="T89" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U89" s="45" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para normatizar: é_norma</v>
-      </c>
-      <c r="V89" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
+      <c r="U89" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>Propriedade para acontecer: é_solstício_inverno</v>
+      </c>
+      <c r="V89" s="9" t="str">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para acontecer: solstício_inverno ( xsd:dateTime ) </v>
       </c>
     </row>
     <row r="90" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7928,32 +7997,31 @@
         <v>90</v>
       </c>
       <c r="B90" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C90" s="46" t="str">
-        <f>C89</f>
-        <v>p_normatizar</v>
-      </c>
-      <c r="D90" s="47" t="s">
-        <v>132</v>
+        <f t="shared" si="38"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="E90" s="40" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="E90:E102" si="46">E89</f>
         <v>BIMData</v>
       </c>
-      <c r="F90" s="48" t="str">
-        <f t="shared" si="38"/>
+      <c r="F90" s="54" t="str">
+        <f t="shared" si="40"/>
         <v>d_normatizar</v>
       </c>
-      <c r="G90" s="48" t="str">
-        <f t="shared" si="39"/>
-        <v>parte</v>
-      </c>
-      <c r="H90" s="49" t="s">
+      <c r="G90" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v>norma</v>
+      </c>
+      <c r="H90" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I90" s="50" t="s">
+      <c r="I90" s="43" t="s">
         <v>0</v>
       </c>
       <c r="J90" s="44" t="s">
@@ -7990,12 +8058,12 @@
         <v>68</v>
       </c>
       <c r="U90" s="45" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para normatizar: é_parte</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para normatizar: é_norma</v>
       </c>
       <c r="V90" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
       </c>
     </row>
     <row r="91" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8003,27 +8071,27 @@
         <v>91</v>
       </c>
       <c r="B91" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C91" s="46" t="str">
-        <f t="shared" ref="C91:C92" si="45">C90</f>
+        <f>C90</f>
         <v>p_normatizar</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E91" s="40" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>BIMData</v>
       </c>
       <c r="F91" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_normatizar</v>
       </c>
       <c r="G91" s="48" t="str">
-        <f t="shared" si="39"/>
-        <v>escopo</v>
+        <f t="shared" si="41"/>
+        <v>parte</v>
       </c>
       <c r="H91" s="49" t="s">
         <v>42</v>
@@ -8065,12 +8133,12 @@
         <v>68</v>
       </c>
       <c r="U91" s="45" t="str">
-        <f t="shared" si="40"/>
-        <v>Propriedade para normatizar: é_escopo</v>
+        <f t="shared" si="42"/>
+        <v>Propriedade para normatizar: é_parte</v>
       </c>
       <c r="V91" s="45" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
       </c>
     </row>
     <row r="92" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8078,27 +8146,27 @@
         <v>92</v>
       </c>
       <c r="B92" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>BIMProp</v>
       </c>
       <c r="C92" s="46" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="C92:C93" si="47">C91</f>
         <v>p_normatizar</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E92" s="40" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>BIMData</v>
       </c>
       <c r="F92" s="48" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>d_normatizar</v>
       </c>
       <c r="G92" s="48" t="str">
-        <f t="shared" si="39"/>
-        <v>regulamento</v>
+        <f t="shared" si="41"/>
+        <v>escopo</v>
       </c>
       <c r="H92" s="49" t="s">
         <v>42</v>
@@ -8140,18 +8208,1440 @@
         <v>68</v>
       </c>
       <c r="U92" s="45" t="str">
+        <f t="shared" si="42"/>
+        <v>Propriedade para normatizar: é_escopo</v>
+      </c>
+      <c r="V92" s="45" t="str">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>93</v>
+      </c>
+      <c r="B93" s="19" t="str">
+        <f t="shared" si="38"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C93" s="46" t="str">
+        <f t="shared" si="47"/>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F93" s="48" t="str">
         <f t="shared" si="40"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G93" s="48" t="str">
+        <f t="shared" si="41"/>
+        <v>regulamento</v>
+      </c>
+      <c r="H93" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I93" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J93" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K93" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L93" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M93" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N93" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O93" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P93" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R93" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S93" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T93" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U93" s="45" t="str">
+        <f t="shared" si="42"/>
         <v>Propriedade para normatizar: é_regulamento</v>
       </c>
-      <c r="V92" s="45" t="str">
-        <f t="shared" si="41"/>
+      <c r="V93" s="45" t="str">
+        <f t="shared" si="43"/>
         <v xml:space="preserve">Dado para normatizar: regulamento ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>94</v>
+      </c>
+      <c r="B94" s="19" t="str">
+        <f t="shared" ref="B94" si="48">B93</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C94" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E94" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F94" s="54" t="str">
+        <f t="shared" ref="F94:F107" si="49">_xlfn.CONCAT("d_",MID(C94,FIND("_",C94,1)+1,100))</f>
+        <v>d_medir</v>
+      </c>
+      <c r="G94" s="41" t="str">
+        <f t="shared" ref="G94:G107" si="50">MID(D94,FIND("_",D94,1)+1,100)</f>
+        <v>volume</v>
+      </c>
+      <c r="H94" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I94" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J94" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L94" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M94" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N94" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O94" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P94" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R94" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S94" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U94" s="45" t="str">
+        <f t="shared" ref="U94:U107" si="51">_xlfn.CONCAT("Propriedade para ",MID(C94,FIND("p_",C94,1)+2,100),": ",D94)</f>
+        <v>Propriedade para medir: tem_volume</v>
+      </c>
+      <c r="V94" s="45" t="str">
+        <f t="shared" ref="V94:V107" si="52">_xlfn.CONCAT("Dado para ",MID(F94,FIND("d_",F94,1)+2,100),": ",G94, " ( ",H94, " ) ")</f>
+        <v xml:space="preserve">Dado para medir: volume ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>95</v>
+      </c>
+      <c r="B95" s="19" t="str">
+        <f>B91</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C95" s="46" t="str">
+        <f>C94</f>
+        <v>p_medir</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E95" s="40" t="str">
+        <f>E91</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F95" s="48" t="str">
+        <f t="shared" ref="F95:F96" si="53">_xlfn.CONCAT("d_",MID(C95,FIND("_",C95,1)+1,100))</f>
+        <v>d_medir</v>
+      </c>
+      <c r="G95" s="48" t="str">
+        <f t="shared" ref="G95:G96" si="54">MID(D95,FIND("_",D95,1)+1,100)</f>
+        <v>área</v>
+      </c>
+      <c r="H95" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I95" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K95" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L95" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M95" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N95" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O95" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P95" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R95" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S95" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T95" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U95" s="45" t="str">
+        <f t="shared" ref="U95:U96" si="55">_xlfn.CONCAT("Propriedade para ",MID(C95,FIND("p_",C95,1)+2,100),": ",D95)</f>
+        <v>Propriedade para medir: tem_área</v>
+      </c>
+      <c r="V95" s="45" t="str">
+        <f t="shared" ref="V95:V96" si="56">_xlfn.CONCAT("Dado para ",MID(F95,FIND("d_",F95,1)+2,100),": ",G95, " ( ",H95, " ) ")</f>
+        <v xml:space="preserve">Dado para medir: área ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>96</v>
+      </c>
+      <c r="B96" s="19" t="str">
+        <f>B91</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C96" s="46" t="str">
+        <f t="shared" ref="C96:C107" si="57">C95</f>
+        <v>p_medir</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E96" s="40" t="str">
+        <f>E91</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F96" s="48" t="str">
+        <f t="shared" si="53"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G96" s="48" t="str">
+        <f t="shared" si="54"/>
+        <v>área_bruta</v>
+      </c>
+      <c r="H96" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I96" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L96" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M96" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N96" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O96" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P96" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R96" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S96" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T96" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U96" s="45" t="str">
+        <f t="shared" si="55"/>
+        <v>Propriedade para medir: tem_área_bruta</v>
+      </c>
+      <c r="V96" s="45" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">Dado para medir: área_bruta ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>97</v>
+      </c>
+      <c r="B97" s="19" t="str">
+        <f>B92</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C97" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E97" s="40" t="str">
+        <f>E92</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F97" s="48" t="str">
+        <f t="shared" si="49"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G97" s="48" t="str">
+        <f t="shared" si="50"/>
+        <v>área_útil</v>
+      </c>
+      <c r="H97" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I97" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K97" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L97" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M97" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N97" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O97" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P97" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R97" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S97" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T97" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U97" s="45" t="str">
+        <f t="shared" si="51"/>
+        <v>Propriedade para medir: tem_área_útil</v>
+      </c>
+      <c r="V97" s="45" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">Dado para medir: área_útil ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>98</v>
+      </c>
+      <c r="B98" s="19" t="str">
+        <f>B93</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C98" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D98" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E98" s="40" t="str">
+        <f>E93</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F98" s="48" t="str">
+        <f t="shared" ref="F98:F100" si="58">_xlfn.CONCAT("d_",MID(C98,FIND("_",C98,1)+1,100))</f>
+        <v>d_medir</v>
+      </c>
+      <c r="G98" s="48" t="str">
+        <f t="shared" ref="G98:G100" si="59">MID(D98,FIND("_",D98,1)+1,100)</f>
+        <v>altura</v>
+      </c>
+      <c r="H98" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I98" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J98" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K98" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L98" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M98" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N98" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O98" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P98" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R98" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S98" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T98" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U98" s="45" t="str">
+        <f t="shared" ref="U98:U100" si="60">_xlfn.CONCAT("Propriedade para ",MID(C98,FIND("p_",C98,1)+2,100),": ",D98)</f>
+        <v>Propriedade para medir: tem_altura</v>
+      </c>
+      <c r="V98" s="45" t="str">
+        <f t="shared" ref="V98:V100" si="61">_xlfn.CONCAT("Dado para ",MID(F98,FIND("d_",F98,1)+2,100),": ",G98, " ( ",H98, " ) ")</f>
+        <v xml:space="preserve">Dado para medir: altura ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>99</v>
+      </c>
+      <c r="B99" s="19" t="str">
+        <f t="shared" ref="B99:B101" si="62">B94</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C99" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="40" t="str">
+        <f>E94</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F99" s="48" t="str">
+        <f t="shared" si="58"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G99" s="48" t="str">
+        <f t="shared" si="59"/>
+        <v>comprimento</v>
+      </c>
+      <c r="H99" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I99" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J99" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K99" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L99" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M99" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N99" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O99" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P99" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R99" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S99" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T99" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U99" s="45" t="str">
+        <f t="shared" ref="U99" si="63">_xlfn.CONCAT("Propriedade para ",MID(C99,FIND("p_",C99,1)+2,100),": ",D99)</f>
+        <v>Propriedade para medir: tem_comprimento</v>
+      </c>
+      <c r="V99" s="45" t="str">
+        <f t="shared" ref="V99" si="64">_xlfn.CONCAT("Dado para ",MID(F99,FIND("d_",F99,1)+2,100),": ",G99, " ( ",H99, " ) ")</f>
+        <v xml:space="preserve">Dado para medir: comprimento ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>100</v>
+      </c>
+      <c r="B100" s="19" t="str">
+        <f t="shared" si="62"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C100" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="40" t="str">
+        <f>E93</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F100" s="48" t="str">
+        <f t="shared" si="58"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G100" s="48" t="str">
+        <f t="shared" si="59"/>
+        <v>largura</v>
+      </c>
+      <c r="H100" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I100" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L100" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M100" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N100" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O100" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P100" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R100" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S100" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U100" s="45" t="str">
+        <f t="shared" si="60"/>
+        <v>Propriedade para medir: tem_largura</v>
+      </c>
+      <c r="V100" s="45" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">Dado para medir: largura ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>101</v>
+      </c>
+      <c r="B101" s="19" t="str">
+        <f t="shared" si="62"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C101" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" s="40" t="str">
+        <f>E94</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F101" s="48" t="str">
+        <f t="shared" si="49"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G101" s="48" t="str">
+        <f t="shared" si="50"/>
+        <v>profundidade</v>
+      </c>
+      <c r="H101" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I101" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L101" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M101" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N101" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O101" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P101" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R101" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S101" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U101" s="45" t="str">
+        <f t="shared" si="51"/>
+        <v>Propriedade para medir: tem_profundidade</v>
+      </c>
+      <c r="V101" s="45" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">Dado para medir: profundidade ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>102</v>
+      </c>
+      <c r="B102" s="19" t="str">
+        <f t="shared" ref="B102:B111" si="65">B100</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C102" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E102" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F102" s="48" t="str">
+        <f t="shared" si="49"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G102" s="48" t="str">
+        <f t="shared" si="50"/>
+        <v>espessura</v>
+      </c>
+      <c r="H102" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I102" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L102" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M102" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N102" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O102" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P102" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R102" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S102" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U102" s="45" t="str">
+        <f t="shared" si="51"/>
+        <v>Propriedade para medir: tem_espessura</v>
+      </c>
+      <c r="V102" s="45" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">Dado para medir: espessura ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>103</v>
+      </c>
+      <c r="B103" s="19" t="str">
+        <f t="shared" si="65"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C103" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" s="40" t="str">
+        <f>E100</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F103" s="48" t="str">
+        <f t="shared" si="49"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G103" s="48" t="str">
+        <f t="shared" si="50"/>
+        <v>pédireito</v>
+      </c>
+      <c r="H103" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I103" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J103" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L103" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M103" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N103" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O103" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P103" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R103" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S103" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T103" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U103" s="45" t="str">
+        <f t="shared" si="51"/>
+        <v>Propriedade para medir: tem_pédireito</v>
+      </c>
+      <c r="V103" s="45" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">Dado para medir: pédireito ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>104</v>
+      </c>
+      <c r="B104" s="19" t="str">
+        <f t="shared" si="65"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C104" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" s="40" t="str">
+        <f>E98</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F104" s="48" t="str">
+        <f t="shared" ref="F104" si="66">_xlfn.CONCAT("d_",MID(C104,FIND("_",C104,1)+1,100))</f>
+        <v>d_medir</v>
+      </c>
+      <c r="G104" s="48" t="str">
+        <f t="shared" ref="G104" si="67">MID(D104,FIND("_",D104,1)+1,100)</f>
+        <v>diámetro</v>
+      </c>
+      <c r="H104" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I104" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J104" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L104" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M104" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N104" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O104" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P104" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R104" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S104" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T104" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U104" s="45" t="str">
+        <f t="shared" ref="U104" si="68">_xlfn.CONCAT("Propriedade para ",MID(C104,FIND("p_",C104,1)+2,100),": ",D104)</f>
+        <v>Propriedade para medir: tem_diámetro</v>
+      </c>
+      <c r="V104" s="45" t="str">
+        <f t="shared" ref="V104" si="69">_xlfn.CONCAT("Dado para ",MID(F104,FIND("d_",F104,1)+2,100),": ",G104, " ( ",H104, " ) ")</f>
+        <v xml:space="preserve">Dado para medir: diámetro ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>105</v>
+      </c>
+      <c r="B105" s="19" t="str">
+        <f t="shared" si="65"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C105" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D105" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105" s="40" t="str">
+        <f>E100</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F105" s="48" t="str">
+        <f t="shared" si="49"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G105" s="48" t="str">
+        <f t="shared" si="50"/>
+        <v>diámetro_interno</v>
+      </c>
+      <c r="H105" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I105" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J105" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L105" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M105" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N105" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O105" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P105" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R105" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S105" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T105" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U105" s="45" t="str">
+        <f t="shared" si="51"/>
+        <v>Propriedade para medir: tem_diámetro_interno</v>
+      </c>
+      <c r="V105" s="45" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">Dado para medir: diámetro_interno ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>106</v>
+      </c>
+      <c r="B106" s="19" t="str">
+        <f t="shared" si="65"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C106" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D106" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" s="40" t="str">
+        <f>E101</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F106" s="48" t="str">
+        <f t="shared" ref="F106" si="70">_xlfn.CONCAT("d_",MID(C106,FIND("_",C106,1)+1,100))</f>
+        <v>d_medir</v>
+      </c>
+      <c r="G106" s="48" t="str">
+        <f t="shared" ref="G106" si="71">MID(D106,FIND("_",D106,1)+1,100)</f>
+        <v>diámetro_externo</v>
+      </c>
+      <c r="H106" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I106" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S106" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T106" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U106" s="45" t="str">
+        <f t="shared" ref="U106" si="72">_xlfn.CONCAT("Propriedade para ",MID(C106,FIND("p_",C106,1)+2,100),": ",D106)</f>
+        <v>Propriedade para medir: tem_diámetro_externo</v>
+      </c>
+      <c r="V106" s="45" t="str">
+        <f t="shared" ref="V106" si="73">_xlfn.CONCAT("Dado para ",MID(F106,FIND("d_",F106,1)+2,100),": ",G106, " ( ",H106, " ) ")</f>
+        <v xml:space="preserve">Dado para medir: diámetro_externo ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>107</v>
+      </c>
+      <c r="B107" s="19" t="str">
+        <f t="shared" si="65"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C107" s="46" t="str">
+        <f t="shared" si="57"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D107" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107" s="40" t="str">
+        <f>E102</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F107" s="48" t="str">
+        <f t="shared" si="49"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G107" s="48" t="str">
+        <f t="shared" si="50"/>
+        <v>raio</v>
+      </c>
+      <c r="H107" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I107" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L107" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M107" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N107" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O107" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P107" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R107" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S107" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T107" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U107" s="45" t="str">
+        <f t="shared" si="51"/>
+        <v>Propriedade para medir: tem_raio</v>
+      </c>
+      <c r="V107" s="45" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">Dado para medir: raio ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>108</v>
+      </c>
+      <c r="B108" s="19" t="str">
+        <f t="shared" si="65"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C108" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D108" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E108" s="40" t="str">
+        <f>E103</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F108" s="54" t="str">
+        <f t="shared" ref="F108:F109" si="74">_xlfn.CONCAT("d_",MID(C108,FIND("_",C108,1)+1,100))</f>
+        <v>d_contar</v>
+      </c>
+      <c r="G108" s="41" t="str">
+        <f t="shared" ref="G108:G109" si="75">MID(D108,FIND("_",D108,1)+1,100)</f>
+        <v>quantidade</v>
+      </c>
+      <c r="H108" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I108" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J108" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K108" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L108" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M108" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N108" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O108" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P108" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R108" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S108" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T108" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U108" s="45" t="str">
+        <f t="shared" ref="U108:U109" si="76">_xlfn.CONCAT("Propriedade para ",MID(C108,FIND("p_",C108,1)+2,100),": ",D108)</f>
+        <v>Propriedade para contar: tem_quantidade</v>
+      </c>
+      <c r="V108" s="45" t="str">
+        <f t="shared" ref="V108:V109" si="77">_xlfn.CONCAT("Dado para ",MID(F108,FIND("d_",F108,1)+2,100),": ",G108, " ( ",H108, " ) ")</f>
+        <v xml:space="preserve">Dado para contar: quantidade ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>109</v>
+      </c>
+      <c r="B109" s="19" t="str">
+        <f t="shared" si="65"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C109" s="46" t="str">
+        <f>C108</f>
+        <v>p_contar</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E109" s="40" t="str">
+        <f t="shared" ref="E109:E111" si="78">E104</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F109" s="48" t="str">
+        <f t="shared" si="74"/>
+        <v>d_contar</v>
+      </c>
+      <c r="G109" s="48" t="str">
+        <f t="shared" si="75"/>
+        <v>módulo</v>
+      </c>
+      <c r="H109" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J109" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K109" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L109" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M109" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N109" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O109" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P109" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R109" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S109" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T109" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U109" s="45" t="str">
+        <f t="shared" si="76"/>
+        <v>Propriedade para contar: tem_módulo</v>
+      </c>
+      <c r="V109" s="45" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve">Dado para contar: módulo ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>110</v>
+      </c>
+      <c r="B110" s="19" t="str">
+        <f t="shared" si="65"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C110" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E110" s="40" t="str">
+        <f t="shared" si="78"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F110" s="54" t="str">
+        <f t="shared" ref="F110:F111" si="79">_xlfn.CONCAT("d_",MID(C110,FIND("_",C110,1)+1,100))</f>
+        <v>d_pesar</v>
+      </c>
+      <c r="G110" s="41" t="str">
+        <f t="shared" ref="G110:G111" si="80">MID(D110,FIND("_",D110,1)+1,100)</f>
+        <v>densidade</v>
+      </c>
+      <c r="H110" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I110" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J110" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L110" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M110" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N110" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O110" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P110" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R110" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S110" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T110" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U110" s="45" t="str">
+        <f t="shared" ref="U110:U111" si="81">_xlfn.CONCAT("Propriedade para ",MID(C110,FIND("p_",C110,1)+2,100),": ",D110)</f>
+        <v>Propriedade para pesar: tem_densidade</v>
+      </c>
+      <c r="V110" s="45" t="str">
+        <f t="shared" ref="V110:V111" si="82">_xlfn.CONCAT("Dado para ",MID(F110,FIND("d_",F110,1)+2,100),": ",G110, " ( ",H110, " ) ")</f>
+        <v xml:space="preserve">Dado para pesar: densidade ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>111</v>
+      </c>
+      <c r="B111" s="19" t="str">
+        <f t="shared" si="65"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C111" s="46" t="str">
+        <f>C110</f>
+        <v>p_pesar</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E111" s="40" t="str">
+        <f t="shared" si="78"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F111" s="48" t="str">
+        <f t="shared" si="79"/>
+        <v>d_pesar</v>
+      </c>
+      <c r="G111" s="48" t="str">
+        <f t="shared" si="80"/>
+        <v>peso</v>
+      </c>
+      <c r="H111" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I111" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S111" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T111" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U111" s="45" t="str">
+        <f t="shared" si="81"/>
+        <v>Propriedade para pesar: tem_peso</v>
+      </c>
+      <c r="V111" s="45" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para pesar: peso ( xsd:double ) </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="F50" formula="1"/>
+    <ignoredError sqref="F51" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E19D5-B7A7-4EDD-AF7B-F4786179E2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8DD3EE-E873-42C9-A224-4EC46A43D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Anotar" sheetId="33" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="178">
   <si>
     <t>null</t>
   </si>
@@ -386,12 +386,6 @@
     <t>p_planejar</t>
   </si>
   <si>
-    <t>é_posterior_a</t>
-  </si>
-  <si>
-    <t>é_anterior_a</t>
-  </si>
-  <si>
     <t>é_concomitante_com</t>
   </si>
   <si>
@@ -564,6 +558,21 @@
   </si>
   <si>
     <t>tem_módulo</t>
+  </si>
+  <si>
+    <t>é_fora_de</t>
+  </si>
+  <si>
+    <t>é_acima_de</t>
+  </si>
+  <si>
+    <t>é_abaixo_de</t>
+  </si>
+  <si>
+    <t>é_previo_a</t>
+  </si>
+  <si>
+    <t>é_depois_a</t>
   </si>
 </sst>
 </file>
@@ -633,7 +642,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,12 +759,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0CECE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
@@ -820,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -952,22 +955,19 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,11 +1322,11 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.44140625" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="13"/>
+    <col min="1" max="1" width="2.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.42578125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1393,39 +1393,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.21875" style="36" customWidth="1"/>
-    <col min="11" max="12" width="5.33203125" style="36" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" style="36" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" style="36" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.88671875" style="37" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.88671875" style="37" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.109375" style="38"/>
+    <col min="1" max="1" width="2.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="36" customWidth="1"/>
+    <col min="10" max="13" width="5.28515625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="36" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.85546875" style="37" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
@@ -1493,14 +1491,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -1509,12 +1507,12 @@
       <c r="E2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="55" t="str">
-        <f t="shared" ref="F2:F73" si="0">_xlfn.CONCAT("d_",MID(C2,FIND("_",C2,1)+1,100))</f>
+      <c r="F2" s="54" t="str">
+        <f t="shared" ref="F2:F76" si="0">_xlfn.CONCAT("d_",MID(C2,FIND("_",C2,1)+1,100))</f>
         <v>d_endereçar</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f t="shared" ref="G2:G73" si="1">MID(D2,FIND("_",D2,1)+1,100)</f>
+        <f t="shared" ref="G2:G76" si="1">MID(D2,FIND("_",D2,1)+1,100)</f>
         <v>continente</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -1557,7 +1555,7 @@
         <v>68</v>
       </c>
       <c r="U2" s="9" t="str">
-        <f t="shared" ref="U2:U73" si="2">_xlfn.CONCAT("Propriedade para ",MID(C2,FIND("p_",C2,1)+2,100),": ",D2)</f>
+        <f t="shared" ref="U2:U76" si="2">_xlfn.CONCAT("Propriedade para ",MID(C2,FIND("p_",C2,1)+2,100),": ",D2)</f>
         <v>Propriedade para endereçar: tem_continente</v>
       </c>
       <c r="V2" s="9" t="str">
@@ -1565,7 +1563,7 @@
         <v xml:space="preserve">Dado para endereçar: continente ( xsd:string ) </v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -1635,16 +1633,16 @@
         <v>Propriedade para endereçar: tem_país</v>
       </c>
       <c r="V3" s="9" t="str">
-        <f t="shared" ref="V3:V74" si="4">_xlfn.CONCAT("Dado para ",MID(F3,FIND("d_",F3,1)+2,100),": ",G3, " ( ",H3, " ) ")</f>
+        <f t="shared" ref="V3:V66" si="4">_xlfn.CONCAT("Dado para ",MID(F3,FIND("d_",F3,1)+2,100),": ",G3, " ( ",H3, " ) ")</f>
         <v xml:space="preserve">Dado para endereçar: país ( xsd:string ) </v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f t="shared" ref="B4:B67" si="5">B3</f>
+        <f t="shared" ref="B4:B70" si="5">B3</f>
         <v>BIMProp</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -1713,7 +1711,7 @@
         <v xml:space="preserve">Dado para endereçar: estado ( xsd:string ) </v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -1787,7 +1785,7 @@
         <v xml:space="preserve">Dado para endereçar: cidade ( xsd:string ) </v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -1853,15 +1851,15 @@
         <v>68</v>
       </c>
       <c r="U6" s="9" t="str">
-        <f t="shared" ref="U6:U7" si="8">_xlfn.CONCAT("Propriedade para ",MID(C6,FIND("p_",C6,1)+2,100),": ",D6)</f>
+        <f t="shared" si="2"/>
         <v>Propriedade para endereçar: tem_area_planejamento</v>
       </c>
       <c r="V6" s="9" t="str">
-        <f t="shared" ref="V6:V7" si="9">_xlfn.CONCAT("Dado para ",MID(F6,FIND("d_",F6,1)+2,100),": ",G6, " ( ",H6, " ) ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para endereçar: area_planejamento ( xsd:string ) </v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -1927,15 +1925,15 @@
         <v>68</v>
       </c>
       <c r="U7" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Propriedade para endereçar: tem_região_administrativa</v>
       </c>
       <c r="V7" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para endereçar: região_administrativa ( xsd:string ) </v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -2009,7 +2007,7 @@
         <v xml:space="preserve">Dado para endereçar: distrito ( xsd:string ) </v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v xml:space="preserve">Dado para endereçar: bairro ( xsd:string ) </v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -2157,7 +2155,7 @@
         <v xml:space="preserve">Dado para endereçar: nome_logradouro ( xsd:string ) </v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -2231,7 +2229,7 @@
         <v xml:space="preserve">Dado para endereçar: número ( xsd:string ) </v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>41</v>
@@ -2305,7 +2303,7 @@
         <v xml:space="preserve">Dado para endereçar: cnj ( xsd:string ) </v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>41</v>
@@ -2379,7 +2377,7 @@
         <v xml:space="preserve">Dado para endereçar: grp ( xsd:string ) </v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -2392,7 +2390,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>41</v>
@@ -2453,7 +2451,7 @@
         <v xml:space="preserve">Dado para endereçar: bloco ( xsd:string ) </v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -2466,7 +2464,7 @@
         <v>p_endereçar</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>41</v>
@@ -2527,7 +2525,7 @@
         <v xml:space="preserve">Dado para endereçar: andar ( xsd:string ) </v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -2601,7 +2599,7 @@
         <v xml:space="preserve">Dado para endereçar: cep ( xsd:string ) </v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -2675,7 +2673,7 @@
         <v xml:space="preserve">Dado para endereçar: cx_postal ( xsd:string ) </v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -2749,7 +2747,7 @@
         <v xml:space="preserve">Dado para endereçar: e_mail ( xsd:string ) </v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -2757,7 +2755,7 @@
         <f t="shared" si="5"/>
         <v>BIMProp</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="50" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -2766,7 +2764,7 @@
       <c r="E19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="55" t="str">
+      <c r="F19" s="54" t="str">
         <f t="shared" si="0"/>
         <v>d_geolocalizar</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v xml:space="preserve">Dado para geolocalizar: latitude ( xsd:string ) </v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -2896,7 +2894,7 @@
         <v xml:space="preserve">Dado para geolocalizar: longitude ( xsd:string ) </v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -2905,7 +2903,7 @@
         <v>BIMProp</v>
       </c>
       <c r="C21" s="11" t="str">
-        <f t="shared" ref="C21:C22" si="10">C20</f>
+        <f t="shared" ref="C21:C22" si="8">C20</f>
         <v>p_geolocalizar</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -2970,7 +2968,7 @@
         <v xml:space="preserve">Dado para geolocalizar: altitude ( xsd:string ) </v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -2979,7 +2977,7 @@
         <v>BIMProp</v>
       </c>
       <c r="C22" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>p_geolocalizar</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -3044,35 +3042,35 @@
         <v xml:space="preserve">Dado para geolocalizar: geocode ( xsd:string ) </v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>23</v>
       </c>
       <c r="B23" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C23" s="52" t="s">
+        <f>B21</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>102</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="55" t="str">
-        <f t="shared" si="0"/>
+      <c r="F23" s="54" t="str">
+        <f t="shared" ref="F23" si="9">_xlfn.CONCAT("d_",MID(C23,FIND("_",C23,1)+1,100))</f>
         <v>d_relacionar</v>
       </c>
-      <c r="G23" s="25" t="str">
+      <c r="G23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>dentro_de</v>
+        <v>conectado_a</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J23" s="21" t="s">
@@ -3082,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M23" s="21" t="s">
         <v>0</v>
@@ -3110,19 +3108,19 @@
       </c>
       <c r="U23" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para relacionar: é_dentro_de</v>
+        <v>Propriedade para relacionar: é_conectado_a</v>
       </c>
       <c r="V23" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para relacionar: dentro_de ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para relacionar: conectado_a ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>24</v>
       </c>
       <c r="B24" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f>B22</f>
         <v>BIMProp</v>
       </c>
       <c r="C24" s="27" t="str">
@@ -3130,18 +3128,18 @@
         <v>p_relacionar</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F24:F27" si="10">_xlfn.CONCAT("d_",MID(C24,FIND("_",C24,1)+1,100))</f>
         <v>d_relacionar</v>
       </c>
       <c r="G24" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>conectado_a</v>
+        <v>dentro_de</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>42</v>
@@ -3156,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M24" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="O24" s="21" t="s">
         <v>0</v>
@@ -3171,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="R24" s="21" t="s">
         <v>0</v>
@@ -3184,19 +3182,19 @@
       </c>
       <c r="U24" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para relacionar: é_conectado_a</v>
+        <v>Propriedade para relacionar: é_dentro_de</v>
       </c>
       <c r="V24" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para relacionar: conectado_a ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para relacionar: dentro_de ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>25</v>
       </c>
       <c r="B25" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f>B22</f>
         <v>BIMProp</v>
       </c>
       <c r="C25" s="27" t="str">
@@ -3204,450 +3202,450 @@
         <v>p_relacionar</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>d_relacionar</v>
+      </c>
+      <c r="G25" s="14" t="str">
+        <f t="shared" ref="G25:G27" si="11">MID(D25,FIND("_",D25,1)+1,100)</f>
+        <v>fora_de</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U25" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para relacionar: é_fora_de</v>
+      </c>
+      <c r="V25" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para relacionar: fora_de ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19" t="str">
+        <f>B21</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C26" s="27" t="str">
+        <f t="shared" ref="C26:C29" si="12">C25</f>
+        <v>p_relacionar</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f t="shared" ref="F26" si="13">_xlfn.CONCAT("d_",MID(C26,FIND("_",C26,1)+1,100))</f>
+        <v>d_relacionar</v>
+      </c>
+      <c r="G26" s="14" t="str">
+        <f t="shared" ref="G26" si="14">MID(D26,FIND("_",D26,1)+1,100)</f>
+        <v>abaixo_de</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U26" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para relacionar: é_abaixo_de</v>
+      </c>
+      <c r="V26" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para relacionar: abaixo_de ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="19" t="str">
+        <f>B22</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C27" s="27" t="str">
+        <f t="shared" si="12"/>
+        <v>p_relacionar</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>d_relacionar</v>
+      </c>
+      <c r="G27" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>acima_de</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U27" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para relacionar: é_acima_de</v>
+      </c>
+      <c r="V27" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para relacionar: acima_de ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="19" t="str">
+        <f t="shared" ref="B28:B91" si="15">B23</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C28" s="27" t="str">
+        <f t="shared" si="12"/>
+        <v>p_relacionar</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_relacionar</v>
       </c>
-      <c r="G25" s="14" t="str">
+      <c r="G28" s="14" t="str">
         <f t="shared" si="1"/>
         <v>parte_de</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T25" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U25" s="9" t="str">
+      <c r="I28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U28" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para relacionar: é_parte_de</v>
       </c>
-      <c r="V25" s="9" t="str">
+      <c r="V28" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para relacionar: parte_de ( xsd:string ) </v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>26</v>
-      </c>
-      <c r="B26" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C26" s="27" t="str">
-        <f t="shared" ref="C26" si="11">C25</f>
+    <row r="29" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>29</v>
+      </c>
+      <c r="B29" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C29" s="27" t="str">
+        <f t="shared" si="12"/>
         <v>p_relacionar</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D29" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="6" t="str">
+      <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_relacionar</v>
       </c>
-      <c r="G26" s="14" t="str">
+      <c r="G29" s="14" t="str">
         <f t="shared" si="1"/>
         <v>agrupado_com</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U26" s="9" t="str">
+      <c r="I29" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U29" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para relacionar: é_agrupado_com</v>
       </c>
-      <c r="V26" s="9" t="str">
+      <c r="V29" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para relacionar: agrupado_com ( xsd:string ) </v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>27</v>
-      </c>
-      <c r="B27" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C27" s="52" t="s">
+    <row r="30" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>30</v>
+      </c>
+      <c r="B30" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C30" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="17" t="s">
+      <c r="D30" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="55" t="str">
+      <c r="F30" s="54" t="str">
         <f t="shared" si="0"/>
         <v>d_classificar</v>
       </c>
-      <c r="G27" s="25" t="str">
+      <c r="G30" s="25" t="str">
         <f t="shared" si="1"/>
         <v>categoria_revit</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H30" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="21" t="s">
+      <c r="I30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S27" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U27" s="9" t="str">
+      <c r="K30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U30" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para classificar: é_categoria_revit</v>
       </c>
-      <c r="V27" s="9" t="str">
+      <c r="V30" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para classificar: categoria_revit ( xsd:string ) </v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>28</v>
-      </c>
-      <c r="B28" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C28" s="27" t="str">
-        <f>C27</f>
-        <v>p_classificar</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_classificar</v>
-      </c>
-      <c r="G28" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>classe_ifc</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S28" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T28" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U28" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_classe_ifc</v>
-      </c>
-      <c r="V28" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: classe_ifc ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>29</v>
-      </c>
-      <c r="B29" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C29" s="27" t="str">
-        <f>C28</f>
-        <v>p_classificar</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_classificar</v>
-      </c>
-      <c r="G29" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>entidade</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S29" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T29" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U29" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_entidade</v>
-      </c>
-      <c r="V29" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: entidade ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>30</v>
-      </c>
-      <c r="B30" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C30" s="27" t="str">
-        <f t="shared" ref="C30:C31" si="12">C29</f>
-        <v>p_classificar</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_classificar</v>
-      </c>
-      <c r="G30" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>link</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T30" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U30" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_link</v>
-      </c>
-      <c r="V30" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: link ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>31</v>
       </c>
       <c r="B31" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C31" s="27" t="str">
-        <f t="shared" si="12"/>
+        <f>C30</f>
         <v>p_classificar</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>41</v>
@@ -3658,7 +3656,7 @@
       </c>
       <c r="G31" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>grupo</v>
+        <v>classe_ifc</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>42</v>
@@ -3667,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>0</v>
@@ -3701,707 +3699,707 @@
       </c>
       <c r="U31" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para classificar: é_grupo</v>
+        <v>Propriedade para classificar: é_classe_ifc</v>
       </c>
       <c r="V31" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para classificar: grupo ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para classificar: classe_ifc ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>32</v>
       </c>
       <c r="B32" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>47</v>
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C32" s="27" t="str">
+        <f>C31</f>
+        <v>p_classificar</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="55" t="str">
+      <c r="F32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_classificar</v>
+      </c>
+      <c r="G32" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>entidade</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para classificar: é_entidade</v>
+      </c>
+      <c r="V32" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para classificar: entidade ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>33</v>
+      </c>
+      <c r="B33" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C33" s="27" t="str">
+        <f t="shared" ref="C33:C34" si="16">C32</f>
+        <v>p_classificar</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_classificar</v>
+      </c>
+      <c r="G33" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>link</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U33" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para classificar: é_link</v>
+      </c>
+      <c r="V33" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para classificar: link ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>34</v>
+      </c>
+      <c r="B34" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C34" s="27" t="str">
+        <f t="shared" si="16"/>
+        <v>p_classificar</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_classificar</v>
+      </c>
+      <c r="G34" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>grupo</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U34" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para classificar: é_grupo</v>
+      </c>
+      <c r="V34" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para classificar: grupo ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>35</v>
+      </c>
+      <c r="B35" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="54" t="str">
         <f t="shared" si="0"/>
         <v>d_identificar</v>
       </c>
-      <c r="G32" s="25" t="str">
+      <c r="G35" s="25" t="str">
         <f t="shared" si="1"/>
         <v>código</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="21" t="s">
+      <c r="I35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U32" s="9" t="str">
+      <c r="K35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U35" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para identificar: tem_código</v>
       </c>
-      <c r="V32" s="9" t="str">
+      <c r="V35" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para identificar: código ( xsd:string ) </v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>33</v>
-      </c>
-      <c r="B33" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C33" s="27" t="str">
-        <f>C32</f>
+    <row r="36" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>36</v>
+      </c>
+      <c r="B36" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C36" s="27" t="str">
+        <f>C35</f>
         <v>p_identificar</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D36" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="6" t="str">
+      <c r="F36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_identificar</v>
       </c>
-      <c r="G33" s="14" t="str">
+      <c r="G36" s="14" t="str">
         <f t="shared" si="1"/>
         <v>nome</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" s="21" t="s">
+      <c r="I36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S33" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U33" s="9" t="str">
+      <c r="K36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U36" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para identificar: tem_nome</v>
       </c>
-      <c r="V33" s="9" t="str">
+      <c r="V36" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para identificar: nome ( xsd:string ) </v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>34</v>
-      </c>
-      <c r="B34" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C34" s="27" t="str">
-        <f t="shared" ref="C34:C35" si="13">C33</f>
+    <row r="37" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>37</v>
+      </c>
+      <c r="B37" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C37" s="27" t="str">
+        <f t="shared" ref="C37:C38" si="17">C36</f>
         <v>p_identificar</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D37" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="6" t="str">
+      <c r="F37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_identificar</v>
       </c>
-      <c r="G34" s="14" t="str">
+      <c r="G37" s="14" t="str">
         <f t="shared" si="1"/>
         <v>id</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="21" t="s">
+      <c r="I37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="21" t="s">
+      <c r="K37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="P34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S34" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T34" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U34" s="9" t="str">
+      <c r="P37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U37" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para identificar: tem_id</v>
       </c>
-      <c r="V34" s="9" t="str">
+      <c r="V37" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para identificar: id ( xsd:string ) </v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>35</v>
-      </c>
-      <c r="B35" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C35" s="11" t="str">
-        <f t="shared" si="13"/>
+    <row r="38" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>38</v>
+      </c>
+      <c r="B38" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C38" s="11" t="str">
+        <f t="shared" si="17"/>
         <v>p_identificar</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E38" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="6" t="str">
+      <c r="F38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_identificar</v>
       </c>
-      <c r="G35" s="6" t="str">
+      <c r="G38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>uri</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="34" t="s">
+      <c r="I38" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U35" s="9" t="str">
+      <c r="K38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U38" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para identificar: tem_uri</v>
       </c>
-      <c r="V35" s="9" t="str">
+      <c r="V38" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para identificar: uri ( xsd:string ) </v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>36</v>
-      </c>
-      <c r="B36" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="17" t="s">
+    <row r="39" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>39</v>
+      </c>
+      <c r="B39" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="55" t="str">
+      <c r="F39" s="54" t="str">
         <f t="shared" si="0"/>
         <v>d_catalogar</v>
       </c>
-      <c r="G36" s="25" t="str">
+      <c r="G39" s="25" t="str">
         <f t="shared" si="1"/>
         <v>modelo</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H39" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S36" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T36" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U36" s="9" t="str">
+      <c r="I39" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U39" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para catalogar: tem_modelo</v>
       </c>
-      <c r="V36" s="9" t="str">
+      <c r="V39" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para catalogar: modelo ( xsd:string ) </v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>37</v>
-      </c>
-      <c r="B37" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C37" s="27" t="str">
-        <f>C36</f>
+    <row r="40" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>40</v>
+      </c>
+      <c r="B40" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C40" s="27" t="str">
+        <f>C39</f>
         <v>p_catalogar</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D40" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="6" t="str">
+      <c r="F40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_catalogar</v>
       </c>
-      <c r="G37" s="14" t="str">
+      <c r="G40" s="14" t="str">
         <f t="shared" si="1"/>
         <v>tema</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S37" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T37" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U37" s="9" t="str">
+      <c r="I40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U40" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para catalogar: tem_tema</v>
       </c>
-      <c r="V37" s="9" t="str">
+      <c r="V40" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para catalogar: tema ( xsd:string ) </v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>38</v>
-      </c>
-      <c r="B38" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C38" s="27" t="str">
-        <f t="shared" ref="C38:C42" si="14">C37</f>
-        <v>p_catalogar</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="6" t="str">
-        <f t="shared" ref="F38" si="15">_xlfn.CONCAT("d_",MID(C38,FIND("_",C38,1)+1,100))</f>
-        <v>d_catalogar</v>
-      </c>
-      <c r="G38" s="14" t="str">
-        <f t="shared" ref="G38" si="16">MID(D38,FIND("_",D38,1)+1,100)</f>
-        <v>tipo</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U38" s="9" t="str">
-        <f t="shared" ref="U38" si="17">_xlfn.CONCAT("Propriedade para ",MID(C38,FIND("p_",C38,1)+2,100),": ",D38)</f>
-        <v>Propriedade para catalogar: tem_tipo</v>
-      </c>
-      <c r="V38" s="9" t="str">
-        <f t="shared" ref="V38" si="18">_xlfn.CONCAT("Dado para ",MID(F38,FIND("d_",F38,1)+2,100),": ",G38, " ( ",H38, " ) ")</f>
-        <v xml:space="preserve">Dado para catalogar: tipo ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>39</v>
-      </c>
-      <c r="B39" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C39" s="27" t="str">
-        <f t="shared" si="14"/>
-        <v>p_catalogar</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_catalogar</v>
-      </c>
-      <c r="G39" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>série</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S39" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T39" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U39" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para catalogar: tem_série</v>
-      </c>
-      <c r="V39" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para catalogar: série ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>40</v>
-      </c>
-      <c r="B40" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C40" s="27" t="str">
-        <f t="shared" si="14"/>
-        <v>p_catalogar</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="6" t="str">
-        <f t="shared" ref="F40:F41" si="19">_xlfn.CONCAT("d_",MID(C40,FIND("_",C40,1)+1,100))</f>
-        <v>d_catalogar</v>
-      </c>
-      <c r="G40" s="14" t="str">
-        <f t="shared" ref="G40:G41" si="20">MID(D40,FIND("_",D40,1)+1,100)</f>
-        <v>linha</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S40" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T40" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U40" s="9" t="str">
-        <f t="shared" ref="U40:U41" si="21">_xlfn.CONCAT("Propriedade para ",MID(C40,FIND("p_",C40,1)+2,100),": ",D40)</f>
-        <v>Propriedade para catalogar: tem_linha</v>
-      </c>
-      <c r="V40" s="9" t="str">
-        <f t="shared" ref="V40:V41" si="22">_xlfn.CONCAT("Dado para ",MID(F40,FIND("d_",F40,1)+2,100),": ",G40, " ( ",H40, " ) ")</f>
-        <v xml:space="preserve">Dado para catalogar: linha ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>41</v>
       </c>
       <c r="B41" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C41" s="27" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="C41:C45" si="18">C40</f>
         <v>p_catalogar</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>146</v>
+      <c r="D41" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F41" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F41" si="19">_xlfn.CONCAT("d_",MID(C41,FIND("_",C41,1)+1,100))</f>
         <v>d_catalogar</v>
       </c>
-      <c r="G41" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>item</v>
+      <c r="G41" s="14" t="str">
+        <f t="shared" ref="G41" si="20">MID(D41,FIND("_",D41,1)+1,100)</f>
+        <v>tipo</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J41" s="21" t="s">
@@ -4438,28 +4436,28 @@
         <v>68</v>
       </c>
       <c r="U41" s="9" t="str">
-        <f t="shared" si="21"/>
-        <v>Propriedade para catalogar: tem_item</v>
+        <f t="shared" si="2"/>
+        <v>Propriedade para catalogar: tem_tipo</v>
       </c>
       <c r="V41" s="9" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">Dado para catalogar: item ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para catalogar: tipo ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>42</v>
       </c>
       <c r="B42" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C42" s="27" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>p_catalogar</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>79</v>
+      <c r="D42" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>41</v>
@@ -4468,441 +4466,441 @@
         <f t="shared" si="0"/>
         <v>d_catalogar</v>
       </c>
-      <c r="G42" s="6" t="str">
+      <c r="G42" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>série</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S42" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U42" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para catalogar: tem_série</v>
+      </c>
+      <c r="V42" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para catalogar: série ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43</v>
+      </c>
+      <c r="B43" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C43" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>p_catalogar</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f t="shared" ref="F43:F44" si="21">_xlfn.CONCAT("d_",MID(C43,FIND("_",C43,1)+1,100))</f>
+        <v>d_catalogar</v>
+      </c>
+      <c r="G43" s="14" t="str">
+        <f t="shared" ref="G43:G44" si="22">MID(D43,FIND("_",D43,1)+1,100)</f>
+        <v>linha</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U43" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para catalogar: tem_linha</v>
+      </c>
+      <c r="V43" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para catalogar: linha ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>44</v>
+      </c>
+      <c r="B44" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C44" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>p_catalogar</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>d_catalogar</v>
+      </c>
+      <c r="G44" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v>item</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S44" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U44" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para catalogar: tem_item</v>
+      </c>
+      <c r="V44" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para catalogar: item ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>45</v>
+      </c>
+      <c r="B45" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C45" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>p_catalogar</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_catalogar</v>
+      </c>
+      <c r="G45" s="6" t="str">
         <f t="shared" si="1"/>
         <v>vol</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S42" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U42" s="9" t="str">
+      <c r="I45" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U45" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para catalogar: tem_vol</v>
       </c>
-      <c r="V42" s="9" t="str">
+      <c r="V45" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para catalogar: vol ( xsd:string ) </v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>43</v>
-      </c>
-      <c r="B43" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C43" s="27" t="str">
-        <f t="shared" ref="C43" si="23">C42</f>
+    <row r="46" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>46</v>
+      </c>
+      <c r="B46" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C46" s="27" t="str">
+        <f t="shared" ref="C46" si="23">C45</f>
         <v>p_catalogar</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D46" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E46" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="6" t="str">
+      <c r="F46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_catalogar</v>
       </c>
-      <c r="G43" s="14" t="str">
+      <c r="G46" s="14" t="str">
         <f t="shared" si="1"/>
         <v>descrição</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S43" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T43" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U43" s="9" t="str">
+      <c r="I46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S46" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U46" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para catalogar: tem_descrição</v>
       </c>
-      <c r="V43" s="9" t="str">
+      <c r="V46" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para catalogar: descrição ( xsd:string ) </v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>44</v>
-      </c>
-      <c r="B44" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C44" s="51" t="s">
+    <row r="47" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>47</v>
+      </c>
+      <c r="B47" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C47" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D47" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E47" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="55" t="str">
+      <c r="F47" s="54" t="str">
         <f t="shared" si="0"/>
         <v>d_definir</v>
       </c>
-      <c r="G44" s="5" t="str">
+      <c r="G47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>ambiente</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S44" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T44" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U44" s="9" t="str">
+      <c r="I47" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U47" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para definir: é_ambiente</v>
       </c>
-      <c r="V44" s="9" t="str">
+      <c r="V47" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para definir: ambiente ( xsd:string ) </v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>45</v>
-      </c>
-      <c r="B45" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C45" s="11" t="str">
-        <f t="shared" ref="C45:C47" si="24">C44</f>
-        <v>p_definir</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_definir</v>
-      </c>
-      <c r="G45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>equipamento</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S45" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U45" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_equipamento</v>
-      </c>
-      <c r="V45" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: equipamento ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>46</v>
-      </c>
-      <c r="B46" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C46" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>p_definir</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_definir</v>
-      </c>
-      <c r="G46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>dispositivo</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L46" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M46" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N46" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O46" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P46" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S46" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U46" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_dispositivo</v>
-      </c>
-      <c r="V46" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: dispositivo ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>47</v>
-      </c>
-      <c r="B47" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C47" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>p_definir</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_definir</v>
-      </c>
-      <c r="G47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>aparelho</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S47" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U47" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_aparelho</v>
-      </c>
-      <c r="V47" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: aparelho ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>48</v>
       </c>
       <c r="B48" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C48" s="11" t="str">
-        <f>C45</f>
+        <f t="shared" ref="C48:C50" si="24">C47</f>
         <v>p_definir</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>41</v>
@@ -4913,7 +4911,7 @@
       </c>
       <c r="G48" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>instrumento</v>
+        <v>equipamento</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>82</v>
@@ -4956,27 +4954,27 @@
       </c>
       <c r="U48" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_instrumento</v>
+        <v>Propriedade para definir: é_equipamento</v>
       </c>
       <c r="V48" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: instrumento ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para definir: equipamento ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>49</v>
       </c>
       <c r="B49" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C49" s="11" t="str">
-        <f>C46</f>
+        <f t="shared" si="24"/>
         <v>p_definir</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>41</v>
@@ -4987,7 +4985,7 @@
       </c>
       <c r="G49" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>mobiliário</v>
+        <v>dispositivo</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>82</v>
@@ -5030,1146 +5028,1146 @@
       </c>
       <c r="U49" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para definir: é_mobiliário</v>
+        <v>Propriedade para definir: é_dispositivo</v>
       </c>
       <c r="V49" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para definir: mobiliário ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para definir: dispositivo ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>50</v>
       </c>
       <c r="B50" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>88</v>
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C50" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>p_definir</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="55" t="str">
+      <c r="F50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_definir</v>
+      </c>
+      <c r="G50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>aparelho</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S50" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T50" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U50" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para definir: é_aparelho</v>
+      </c>
+      <c r="V50" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para definir: aparelho ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>51</v>
+      </c>
+      <c r="B51" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C51" s="11" t="str">
+        <f>C48</f>
+        <v>p_definir</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_definir</v>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>instrumento</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T51" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U51" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para definir: é_instrumento</v>
+      </c>
+      <c r="V51" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para definir: instrumento ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>52</v>
+      </c>
+      <c r="B52" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C52" s="11" t="str">
+        <f>C49</f>
+        <v>p_definir</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_definir</v>
+      </c>
+      <c r="G52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>mobiliário</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S52" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U52" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para definir: é_mobiliário</v>
+      </c>
+      <c r="V52" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Dado para definir: mobiliário ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>53</v>
+      </c>
+      <c r="B53" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="54" t="str">
         <f t="shared" si="0"/>
         <v>d_administrar</v>
       </c>
-      <c r="G50" s="5" t="str">
+      <c r="G53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>público</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H53" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S50" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T50" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U50" s="9" t="str">
+      <c r="I53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S53" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T53" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U53" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_público</v>
       </c>
-      <c r="V50" s="9" t="str">
+      <c r="V53" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: público ( xsd:string ) </v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>51</v>
-      </c>
-      <c r="B51" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C51" s="11" t="str">
-        <f>C50</f>
+    <row r="54" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>54</v>
+      </c>
+      <c r="B54" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C54" s="11" t="str">
+        <f>C53</f>
         <v>p_administrar</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="17" t="s">
+      <c r="D54" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="6" t="str">
-        <f>F50</f>
+      <c r="F54" s="6" t="str">
+        <f>F53</f>
         <v>d_administrar</v>
       </c>
-      <c r="G51" s="6" t="str">
-        <f t="shared" ref="G51" si="25">MID(D51,FIND("_",D51,1)+1,100)</f>
+      <c r="G54" s="6" t="str">
+        <f t="shared" ref="G54" si="25">MID(D54,FIND("_",D54,1)+1,100)</f>
         <v>privado</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S51" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T51" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U51" s="9" t="str">
-        <f t="shared" ref="U51" si="26">_xlfn.CONCAT("Propriedade para ",MID(C51,FIND("p_",C51,1)+2,100),": ",D51)</f>
+      <c r="I54" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U54" s="9" t="str">
+        <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_privado</v>
       </c>
-      <c r="V51" s="9" t="str">
-        <f t="shared" ref="V51" si="27">_xlfn.CONCAT("Dado para ",MID(F51,FIND("d_",F51,1)+2,100),": ",G51, " ( ",H51, " ) ")</f>
+      <c r="V54" s="9" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: privado ( xsd:string ) </v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>52</v>
-      </c>
-      <c r="B52" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C52" s="11" t="str">
-        <f t="shared" ref="C52:C60" si="28">C51</f>
+    <row r="55" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>55</v>
+      </c>
+      <c r="B55" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C55" s="11" t="str">
+        <f t="shared" ref="C55:C63" si="26">C54</f>
         <v>p_administrar</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E55" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="6" t="str">
-        <f t="shared" ref="F52:F60" si="29">F51</f>
+      <c r="F55" s="6" t="str">
+        <f t="shared" ref="F55:F63" si="27">F54</f>
         <v>d_administrar</v>
       </c>
-      <c r="G52" s="6" t="str">
+      <c r="G55" s="6" t="str">
         <f t="shared" si="1"/>
         <v>órgão</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S52" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U52" s="9" t="str">
+      <c r="I55" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R55" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S55" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T55" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U55" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_órgão</v>
       </c>
-      <c r="V52" s="9" t="str">
+      <c r="V55" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: órgão ( xsd:string ) </v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>53</v>
-      </c>
-      <c r="B53" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C53" s="11" t="str">
-        <f t="shared" si="28"/>
+    <row r="56" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>56</v>
+      </c>
+      <c r="B56" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C56" s="11" t="str">
+        <f t="shared" si="26"/>
         <v>p_administrar</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="17" t="s">
+      <c r="D56" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="6" t="str">
-        <f t="shared" si="29"/>
+      <c r="F56" s="6" t="str">
+        <f t="shared" si="27"/>
         <v>d_administrar</v>
       </c>
-      <c r="G53" s="6" t="str">
+      <c r="G56" s="6" t="str">
         <f t="shared" si="1"/>
         <v>unid_académica</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S53" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T53" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U53" s="9" t="str">
+      <c r="I56" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R56" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S56" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T56" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U56" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_unid_académica</v>
       </c>
-      <c r="V53" s="9" t="str">
+      <c r="V56" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: unid_académica ( xsd:string ) </v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>54</v>
-      </c>
-      <c r="B54" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C54" s="11" t="str">
-        <f t="shared" si="28"/>
+    <row r="57" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>57</v>
+      </c>
+      <c r="B57" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C57" s="11" t="str">
+        <f t="shared" si="26"/>
         <v>p_administrar</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D57" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E57" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="6" t="str">
-        <f t="shared" si="29"/>
+      <c r="F57" s="6" t="str">
+        <f t="shared" si="27"/>
         <v>d_administrar</v>
       </c>
-      <c r="G54" s="6" t="str">
+      <c r="G57" s="6" t="str">
         <f t="shared" si="1"/>
         <v>unid_administrativa</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S54" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U54" s="9" t="str">
+      <c r="I57" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S57" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U57" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_unid_administrativa</v>
       </c>
-      <c r="V54" s="9" t="str">
+      <c r="V57" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: unid_administrativa ( xsd:string ) </v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>55</v>
-      </c>
-      <c r="B55" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C55" s="11" t="str">
-        <f t="shared" si="28"/>
+    <row r="58" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>58</v>
+      </c>
+      <c r="B58" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C58" s="11" t="str">
+        <f t="shared" si="26"/>
         <v>p_administrar</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D58" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E58" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="6" t="str">
-        <f t="shared" si="29"/>
+      <c r="F58" s="6" t="str">
+        <f t="shared" si="27"/>
         <v>d_administrar</v>
       </c>
-      <c r="G55" s="14" t="str">
-        <f t="shared" ref="G55" si="30">MID(D55,FIND("_",D55,1)+1,100)</f>
+      <c r="G58" s="14" t="str">
+        <f t="shared" ref="G58" si="28">MID(D58,FIND("_",D58,1)+1,100)</f>
         <v>unid_funcional</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S55" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T55" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U55" s="9" t="str">
-        <f t="shared" ref="U55" si="31">_xlfn.CONCAT("Propriedade para ",MID(C55,FIND("p_",C55,1)+2,100),": ",D55)</f>
+      <c r="I58" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R58" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S58" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U58" s="9" t="str">
+        <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_unid_funcional</v>
       </c>
-      <c r="V55" s="9" t="str">
-        <f t="shared" ref="V55" si="32">_xlfn.CONCAT("Dado para ",MID(F55,FIND("d_",F55,1)+2,100),": ",G55, " ( ",H55, " ) ")</f>
+      <c r="V58" s="9" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: unid_funcional ( xsd:string ) </v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>56</v>
-      </c>
-      <c r="B56" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C56" s="11" t="str">
-        <f t="shared" si="28"/>
+    <row r="59" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>59</v>
+      </c>
+      <c r="B59" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C59" s="11" t="str">
+        <f t="shared" si="26"/>
         <v>p_administrar</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D59" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E59" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="6" t="str">
-        <f t="shared" si="29"/>
+      <c r="F59" s="6" t="str">
+        <f t="shared" si="27"/>
         <v>d_administrar</v>
       </c>
-      <c r="G56" s="14" t="str">
+      <c r="G59" s="14" t="str">
         <f t="shared" si="1"/>
         <v>departamento</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S56" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T56" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U56" s="9" t="str">
+      <c r="I59" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S59" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U59" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_departamento</v>
       </c>
-      <c r="V56" s="9" t="str">
+      <c r="V59" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: departamento ( xsd:string ) </v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>57</v>
-      </c>
-      <c r="B57" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C57" s="11" t="str">
-        <f t="shared" si="28"/>
+    <row r="60" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>60</v>
+      </c>
+      <c r="B60" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C60" s="11" t="str">
+        <f t="shared" si="26"/>
         <v>p_administrar</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D60" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E60" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="6" t="str">
-        <f t="shared" si="29"/>
+      <c r="F60" s="6" t="str">
+        <f t="shared" si="27"/>
         <v>d_administrar</v>
       </c>
-      <c r="G57" s="14" t="str">
+      <c r="G60" s="14" t="str">
         <f t="shared" si="1"/>
         <v>divisão</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S57" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U57" s="9" t="str">
+      <c r="I60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S60" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U60" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_divisão</v>
       </c>
-      <c r="V57" s="9" t="str">
+      <c r="V60" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: divisão ( xsd:string ) </v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>58</v>
-      </c>
-      <c r="B58" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C58" s="11" t="str">
-        <f t="shared" si="28"/>
+    <row r="61" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>61</v>
+      </c>
+      <c r="B61" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C61" s="11" t="str">
+        <f t="shared" si="26"/>
         <v>p_administrar</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D61" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E61" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="6" t="str">
-        <f t="shared" si="29"/>
+      <c r="F61" s="6" t="str">
+        <f t="shared" si="27"/>
         <v>d_administrar</v>
       </c>
-      <c r="G58" s="6" t="str">
+      <c r="G61" s="6" t="str">
         <f t="shared" si="1"/>
         <v>núcleo</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I58" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S58" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U58" s="9" t="str">
+      <c r="I61" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S61" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T61" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U61" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_núcleo</v>
       </c>
-      <c r="V58" s="9" t="str">
+      <c r="V61" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: núcleo ( xsd:string ) </v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>59</v>
-      </c>
-      <c r="B59" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C59" s="11" t="str">
-        <f t="shared" si="28"/>
+    <row r="62" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>62</v>
+      </c>
+      <c r="B62" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C62" s="11" t="str">
+        <f t="shared" si="26"/>
         <v>p_administrar</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D62" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E62" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F59" s="6" t="str">
-        <f t="shared" si="29"/>
+      <c r="F62" s="6" t="str">
+        <f t="shared" si="27"/>
         <v>d_administrar</v>
       </c>
-      <c r="G59" s="6" t="str">
+      <c r="G62" s="6" t="str">
         <f t="shared" si="1"/>
         <v>setor</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S59" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U59" s="9" t="str">
+      <c r="I62" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R62" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S62" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U62" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_setor</v>
       </c>
-      <c r="V59" s="9" t="str">
+      <c r="V62" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: setor ( xsd:string ) </v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>60</v>
-      </c>
-      <c r="B60" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C60" s="11" t="str">
-        <f t="shared" si="28"/>
+    <row r="63" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>63</v>
+      </c>
+      <c r="B63" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C63" s="11" t="str">
+        <f t="shared" si="26"/>
         <v>p_administrar</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D63" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E63" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="6" t="str">
-        <f t="shared" si="29"/>
+      <c r="F63" s="6" t="str">
+        <f t="shared" si="27"/>
         <v>d_administrar</v>
       </c>
-      <c r="G60" s="6" t="str">
+      <c r="G63" s="6" t="str">
         <f t="shared" si="1"/>
         <v>zona</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I60" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S60" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U60" s="9" t="str">
+      <c r="I63" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T63" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U63" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para administrar: é_zona</v>
       </c>
-      <c r="V60" s="9" t="str">
+      <c r="V63" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para administrar: zona ( xsd:string ) </v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>61</v>
-      </c>
-      <c r="B61" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C61" s="51" t="s">
+    <row r="64" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>64</v>
+      </c>
+      <c r="B64" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C64" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D64" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E64" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="55" t="str">
+      <c r="F64" s="54" t="str">
         <f t="shared" si="0"/>
         <v>d_contratar</v>
       </c>
-      <c r="G61" s="5" t="str">
+      <c r="G64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>contrato</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H64" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S61" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T61" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U61" s="9" t="str">
+      <c r="I64" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U64" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Propriedade para contratar: é_contrato</v>
       </c>
-      <c r="V61" s="9" t="str">
+      <c r="V64" s="9" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Dado para contratar: contrato ( xsd:string ) </v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>62</v>
-      </c>
-      <c r="B62" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C62" s="11" t="str">
-        <f>C60</f>
-        <v>p_administrar</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="6" t="str">
-        <f t="shared" ref="F62" si="33">_xlfn.CONCAT("d_",MID(C62,FIND("_",C62,1)+1,100))</f>
-        <v>d_administrar</v>
-      </c>
-      <c r="G62" s="6" t="str">
-        <f t="shared" ref="G62" si="34">MID(D62,FIND("_",D62,1)+1,100)</f>
-        <v>contratado</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S62" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U62" s="9" t="str">
-        <f t="shared" ref="U62" si="35">_xlfn.CONCAT("Propriedade para ",MID(C62,FIND("p_",C62,1)+2,100),": ",D62)</f>
-        <v>Propriedade para administrar: é_contratado</v>
-      </c>
-      <c r="V62" s="9" t="str">
-        <f t="shared" ref="V62" si="36">_xlfn.CONCAT("Dado para ",MID(F62,FIND("d_",F62,1)+2,100),": ",G62, " ( ",H62, " ) ")</f>
-        <v xml:space="preserve">Dado para administrar: contratado ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>63</v>
-      </c>
-      <c r="B63" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C63" s="11" t="str">
-        <f>C61</f>
-        <v>p_contratar</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_contratar</v>
-      </c>
-      <c r="G63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>contratante</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L63" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M63" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N63" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O63" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P63" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R63" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S63" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T63" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U63" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_contratante</v>
-      </c>
-      <c r="V63" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: contratante ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>64</v>
-      </c>
-      <c r="B64" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C64" s="11" t="str">
-        <f t="shared" ref="C64:C68" si="37">C63</f>
-        <v>p_contratar</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_contratar</v>
-      </c>
-      <c r="G64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>subcontratista</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S64" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T64" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U64" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_subcontratista</v>
-      </c>
-      <c r="V64" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: subcontratista ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>65</v>
       </c>
       <c r="B65" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C65" s="11" t="str">
-        <f t="shared" si="37"/>
-        <v>p_contratar</v>
+        <f>C63</f>
+        <v>p_administrar</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F65" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>d_contratar</v>
+        <f t="shared" ref="F65" si="29">_xlfn.CONCAT("d_",MID(C65,FIND("_",C65,1)+1,100))</f>
+        <v>d_administrar</v>
       </c>
       <c r="G65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>empresa</v>
+        <f t="shared" ref="G65" si="30">MID(D65,FIND("_",D65,1)+1,100)</f>
+        <v>contratado</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>42</v>
@@ -6212,27 +6210,27 @@
       </c>
       <c r="U65" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_empresa</v>
+        <v>Propriedade para administrar: é_contratado</v>
       </c>
       <c r="V65" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: empresa ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para administrar: contratado ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>66</v>
       </c>
       <c r="B66" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C66" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f>C64</f>
         <v>p_contratar</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>41</v>
@@ -6243,7 +6241,7 @@
       </c>
       <c r="G66" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>autor</v>
+        <v>contratante</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>42</v>
@@ -6286,27 +6284,27 @@
       </c>
       <c r="U66" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_autor</v>
+        <v>Propriedade para contratar: é_contratante</v>
       </c>
       <c r="V66" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: autor ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dado para contratar: contratante ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>67</v>
       </c>
       <c r="B67" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C67" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="C67:C71" si="31">C66</f>
         <v>p_contratar</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>41</v>
@@ -6317,7 +6315,7 @@
       </c>
       <c r="G67" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>cnpj</v>
+        <v>subcontratista</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>42</v>
@@ -6360,27 +6358,27 @@
       </c>
       <c r="U67" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_cnpj</v>
+        <v>Propriedade para contratar: é_subcontratista</v>
       </c>
       <c r="V67" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: cnpj ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="V67:V114" si="32">_xlfn.CONCAT("Dado para ",MID(F67,FIND("d_",F67,1)+2,100),": ",G67, " ( ",H67, " ) ")</f>
+        <v xml:space="preserve">Dado para contratar: subcontratista ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>68</v>
       </c>
       <c r="B68" s="19" t="str">
-        <f t="shared" ref="B68:B93" si="38">B67</f>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C68" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>p_contratar</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>41</v>
@@ -6391,7 +6389,7 @@
       </c>
       <c r="G68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>cpf</v>
+        <v>empresa</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>42</v>
@@ -6434,27 +6432,27 @@
       </c>
       <c r="U68" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_cpf</v>
+        <v>Propriedade para contratar: é_empresa</v>
       </c>
       <c r="V68" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: cpf ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para contratar: empresa ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>69</v>
       </c>
       <c r="B69" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C69" s="11" t="str">
-        <f>C68</f>
+        <f t="shared" si="31"/>
         <v>p_contratar</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>41</v>
@@ -6465,7 +6463,7 @@
       </c>
       <c r="G69" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>processo</v>
+        <v>autor</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>42</v>
@@ -6508,27 +6506,27 @@
       </c>
       <c r="U69" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_processo</v>
+        <v>Propriedade para contratar: é_autor</v>
       </c>
       <c r="V69" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: processo ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para contratar: autor ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>70</v>
       </c>
       <c r="B70" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C70" s="11" t="str">
-        <f>C69</f>
+        <f t="shared" si="31"/>
         <v>p_contratar</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>41</v>
@@ -6539,7 +6537,7 @@
       </c>
       <c r="G70" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>processo_sei</v>
+        <v>cnpj</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>42</v>
@@ -6582,501 +6580,502 @@
       </c>
       <c r="U70" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>Propriedade para contratar: é_processo_sei</v>
+        <v>Propriedade para contratar: é_cnpj</v>
       </c>
       <c r="V70" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para contratar: processo_sei ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para contratar: cnpj ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>71</v>
       </c>
       <c r="B71" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>110</v>
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C71" s="11" t="str">
+        <f t="shared" si="31"/>
+        <v>p_contratar</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="55" t="str">
+      <c r="F71" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_contratar</v>
+      </c>
+      <c r="G71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>cpf</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R71" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S71" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T71" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U71" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Propriedade para contratar: é_cpf</v>
+      </c>
+      <c r="V71" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para contratar: cpf ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>72</v>
+      </c>
+      <c r="B72" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C72" s="11" t="str">
+        <f>C71</f>
+        <v>p_contratar</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_contratar</v>
+      </c>
+      <c r="G72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>processo</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R72" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S72" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U72" s="9" t="str">
+        <f t="shared" ref="U72:U114" si="33">_xlfn.CONCAT("Propriedade para ",MID(C72,FIND("p_",C72,1)+2,100),": ",D72)</f>
+        <v>Propriedade para contratar: é_processo</v>
+      </c>
+      <c r="V72" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para contratar: processo ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>73</v>
+      </c>
+      <c r="B73" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C73" s="11" t="str">
+        <f>C72</f>
+        <v>p_contratar</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>d_contratar</v>
+      </c>
+      <c r="G73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>processo_sei</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S73" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T73" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U73" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para contratar: é_processo_sei</v>
+      </c>
+      <c r="V73" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para contratar: processo_sei ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>74</v>
+      </c>
+      <c r="B74" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="54" t="str">
         <f t="shared" si="0"/>
         <v>d_durar</v>
       </c>
-      <c r="G71" s="5" t="str">
+      <c r="G74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>data</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H74" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I71" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J71" s="21" t="s">
+      <c r="I74" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S71" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T71" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U71" s="9" t="str">
-        <f t="shared" si="2"/>
+      <c r="K74" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L74" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M74" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N74" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P74" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R74" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S74" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T74" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U74" s="9" t="str">
+        <f t="shared" si="33"/>
         <v>Propriedade para durar: tem_data</v>
       </c>
-      <c r="V71" s="9" t="str">
-        <f t="shared" si="4"/>
+      <c r="V74" s="9" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Dado para durar: data ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="72" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>72</v>
-      </c>
-      <c r="B72" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C72" s="11" t="str">
-        <f>C71</f>
+    <row r="75" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>75</v>
+      </c>
+      <c r="B75" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C75" s="11" t="str">
+        <f>C74</f>
         <v>p_durar</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D75" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E75" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="6" t="str">
+      <c r="F75" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_durar</v>
       </c>
-      <c r="G72" s="6" t="str">
+      <c r="G75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>data_inicial</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I72" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J72" s="21" t="s">
+      <c r="I75" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K72" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L72" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M72" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N72" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O72" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P72" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R72" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S72" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U72" s="9" t="str">
-        <f t="shared" si="2"/>
+      <c r="K75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S75" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T75" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U75" s="9" t="str">
+        <f t="shared" si="33"/>
         <v>Propriedade para durar: tem_data_inicial</v>
       </c>
-      <c r="V72" s="9" t="str">
-        <f t="shared" si="4"/>
+      <c r="V75" s="9" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Dado para durar: data_inicial ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
-        <v>73</v>
-      </c>
-      <c r="B73" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C73" s="11" t="str">
-        <f t="shared" ref="C73:C75" si="39">C72</f>
+    <row r="76" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>76</v>
+      </c>
+      <c r="B76" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C76" s="11" t="str">
+        <f t="shared" ref="C76:C78" si="34">C75</f>
         <v>p_durar</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D76" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E76" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="6" t="str">
+      <c r="F76" s="6" t="str">
         <f t="shared" si="0"/>
         <v>d_durar</v>
       </c>
-      <c r="G73" s="6" t="str">
+      <c r="G76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>data_final</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I73" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J73" s="21" t="s">
+      <c r="I76" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S73" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T73" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U73" s="9" t="str">
-        <f t="shared" si="2"/>
+      <c r="K76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U76" s="9" t="str">
+        <f t="shared" si="33"/>
         <v>Propriedade para durar: tem_data_final</v>
       </c>
-      <c r="V73" s="9" t="str">
-        <f t="shared" si="4"/>
+      <c r="V76" s="9" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Dado para durar: data_final ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>74</v>
-      </c>
-      <c r="B74" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C74" s="11" t="str">
-        <f t="shared" si="39"/>
-        <v>p_durar</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="6" t="str">
-        <f t="shared" ref="F74:F93" si="40">_xlfn.CONCAT("d_",MID(C74,FIND("_",C74,1)+1,100))</f>
-        <v>d_durar</v>
-      </c>
-      <c r="G74" s="6" t="str">
-        <f t="shared" ref="G74:G93" si="41">MID(D74,FIND("_",D74,1)+1,100)</f>
-        <v>duração</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J74" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K74" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L74" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M74" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N74" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O74" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P74" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R74" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S74" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T74" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U74" s="9" t="str">
-        <f t="shared" ref="U74:U93" si="42">_xlfn.CONCAT("Propriedade para ",MID(C74,FIND("p_",C74,1)+2,100),": ",D74)</f>
-        <v>Propriedade para durar: tem_duração</v>
-      </c>
-      <c r="V74" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">Dado para durar: duração ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>75</v>
-      </c>
-      <c r="B75" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C75" s="11" t="str">
-        <f t="shared" si="39"/>
-        <v>p_durar</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v>d_durar</v>
-      </c>
-      <c r="G75" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>horário</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I75" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J75" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K75" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L75" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M75" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N75" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O75" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P75" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R75" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S75" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T75" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U75" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para durar: tem_horário</v>
-      </c>
-      <c r="V75" s="9" t="str">
-        <f t="shared" ref="V75:V93" si="43">_xlfn.CONCAT("Dado para ",MID(F75,FIND("d_",F75,1)+2,100),": ",G75, " ( ",H75, " ) ")</f>
-        <v xml:space="preserve">Dado para durar: horário ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
-        <v>76</v>
-      </c>
-      <c r="B76" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" s="55" t="str">
-        <f t="shared" si="40"/>
-        <v>d_planejar</v>
-      </c>
-      <c r="G76" s="5" t="str">
-        <f t="shared" si="41"/>
-        <v>posterior_a</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L76" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N76" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="O76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S76" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U76" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para planejar: é_posterior_a</v>
-      </c>
-      <c r="V76" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para planejar: posterior_a ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>77</v>
       </c>
       <c r="B77" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C77" s="11" t="str">
-        <f>C76</f>
-        <v>p_planejar</v>
+        <f t="shared" si="34"/>
+        <v>p_durar</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F77" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v>d_planejar</v>
+        <f t="shared" ref="F77:F96" si="35">_xlfn.CONCAT("d_",MID(C77,FIND("_",C77,1)+1,100))</f>
+        <v>d_durar</v>
       </c>
       <c r="G77" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>anterior_a</v>
+        <f t="shared" ref="G77:G96" si="36">MID(D77,FIND("_",D77,1)+1,100)</f>
+        <v>duração</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J77" s="21" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K77" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L77" s="21" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M77" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N77" s="21" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="O77" s="21" t="s">
         <v>0</v>
@@ -7097,57 +7096,57 @@
         <v>68</v>
       </c>
       <c r="U77" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para planejar: é_anterior_a</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para durar: tem_duração</v>
       </c>
       <c r="V77" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para planejar: anterior_a ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para durar: duração ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>78</v>
       </c>
       <c r="B78" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C78" s="11" t="str">
-        <f t="shared" ref="C78:C79" si="44">C76</f>
-        <v>p_planejar</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>117</v>
+        <f t="shared" si="34"/>
+        <v>p_durar</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F78" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v>d_planejar</v>
+        <f t="shared" si="35"/>
+        <v>d_durar</v>
       </c>
       <c r="G78" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>concomitante_com</v>
+        <f t="shared" si="36"/>
+        <v>horário</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J78" s="21" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K78" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M78" s="21" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="N78" s="21" t="s">
         <v>0</v>
@@ -7171,44 +7170,43 @@
         <v>68</v>
       </c>
       <c r="U78" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para planejar: é_concomitante_com</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para durar: tem_horário</v>
       </c>
       <c r="V78" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para planejar: concomitante_com ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para durar: horário ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>79</v>
       </c>
       <c r="B79" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C79" s="11" t="str">
-        <f t="shared" si="44"/>
-        <v>p_planejar</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>118</v>
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="6" t="str">
-        <f t="shared" si="40"/>
+      <c r="F79" s="54" t="str">
+        <f t="shared" si="35"/>
         <v>d_planejar</v>
       </c>
-      <c r="G79" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>simultâneo_a</v>
-      </c>
-      <c r="H79" s="7" t="s">
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>depois_a</v>
+      </c>
+      <c r="H79" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I79" s="18" t="s">
+      <c r="I79" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J79" s="21" t="s">
@@ -7221,10 +7219,10 @@
         <v>51</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="N79" s="21" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="O79" s="21" t="s">
         <v>0</v>
@@ -7233,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="21" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="R79" s="21" t="s">
         <v>0</v>
@@ -7245,20 +7243,20 @@
         <v>68</v>
       </c>
       <c r="U79" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para planejar: é_simultâneo_a</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para planejar: é_depois_a</v>
       </c>
       <c r="V79" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para planejar: simultâneo_a ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para planejar: depois_a ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>80</v>
       </c>
       <c r="B80" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C80" s="11" t="str">
@@ -7266,18 +7264,18 @@
         <v>p_planejar</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F80" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>d_planejar</v>
       </c>
       <c r="G80" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>marca_inicial</v>
+        <f t="shared" si="36"/>
+        <v>previo_a</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>82</v>
@@ -7292,13 +7290,13 @@
         <v>0</v>
       </c>
       <c r="L80" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M80" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N80" s="21" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="O80" s="21" t="s">
         <v>0</v>
@@ -7319,39 +7317,39 @@
         <v>68</v>
       </c>
       <c r="U80" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para planejar: é_marca_inicial</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para planejar: é_previo_a</v>
       </c>
       <c r="V80" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para planejar: marca_inicial ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para planejar: previo_a ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>81</v>
       </c>
       <c r="B81" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C81" s="11" t="str">
-        <f>C80</f>
+        <f t="shared" ref="C81:C82" si="37">C79</f>
         <v>p_planejar</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F81" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>d_planejar</v>
       </c>
       <c r="G81" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>marca_final</v>
+        <f t="shared" si="36"/>
+        <v>concomitante_com</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>82</v>
@@ -7366,10 +7364,10 @@
         <v>0</v>
       </c>
       <c r="L81" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="N81" s="21" t="s">
         <v>0</v>
@@ -7393,39 +7391,39 @@
         <v>68</v>
       </c>
       <c r="U81" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para planejar: é_marca_final</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para planejar: é_concomitante_com</v>
       </c>
       <c r="V81" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para planejar: marca_final ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para planejar: concomitante_com ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>82</v>
       </c>
       <c r="B82" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C82" s="11" t="str">
-        <f>C81</f>
+        <f t="shared" si="37"/>
         <v>p_planejar</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F82" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>d_planejar</v>
       </c>
       <c r="G82" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>momento</v>
+        <f t="shared" si="36"/>
+        <v>simultâneo_a</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>82</v>
@@ -7440,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M82" s="21" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="N82" s="21" t="s">
         <v>0</v>
@@ -7467,43 +7465,44 @@
         <v>68</v>
       </c>
       <c r="U82" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para planejar: é_momento</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para planejar: é_simultâneo_a</v>
       </c>
       <c r="V82" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para planejar: momento ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para planejar: simultâneo_a ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>83</v>
       </c>
       <c r="B83" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>123</v>
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C83" s="11" t="str">
+        <f>C82</f>
+        <v>p_planejar</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="55" t="str">
-        <f t="shared" si="40"/>
-        <v>d_acontecer</v>
-      </c>
-      <c r="G83" s="5" t="str">
-        <f t="shared" si="41"/>
-        <v>amanhecer</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I83" s="23" t="s">
+      <c r="F83" s="6" t="str">
+        <f t="shared" si="35"/>
+        <v>d_planejar</v>
+      </c>
+      <c r="G83" s="6" t="str">
+        <f t="shared" si="36"/>
+        <v>marca_inicial</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I83" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J83" s="21" t="s">
@@ -7540,42 +7539,42 @@
         <v>68</v>
       </c>
       <c r="U83" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para acontecer: é_amanhecer</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para planejar: é_marca_inicial</v>
       </c>
       <c r="V83" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para acontecer: amanhecer ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para planejar: marca_inicial ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>84</v>
       </c>
       <c r="B84" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C84" s="11" t="str">
         <f>C83</f>
-        <v>p_acontecer</v>
+        <v>p_planejar</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F84" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v>d_acontecer</v>
+        <f t="shared" si="35"/>
+        <v>d_planejar</v>
       </c>
       <c r="G84" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>anoitecer</v>
+        <f t="shared" si="36"/>
+        <v>marca_final</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="I84" s="18" t="s">
         <v>0</v>
@@ -7614,42 +7613,42 @@
         <v>68</v>
       </c>
       <c r="U84" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para acontecer: é_anoitecer</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para planejar: é_marca_final</v>
       </c>
       <c r="V84" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para acontecer: anoitecer ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para planejar: marca_final ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>85</v>
       </c>
       <c r="B85" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C85" s="11" t="str">
-        <f t="shared" ref="C85" si="45">C84</f>
-        <v>p_acontecer</v>
+        <f>C84</f>
+        <v>p_planejar</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F85" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v>d_acontecer</v>
+        <f t="shared" si="35"/>
+        <v>d_planejar</v>
       </c>
       <c r="G85" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>meiodia</v>
+        <f t="shared" si="36"/>
+        <v>momento</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="I85" s="18" t="s">
         <v>0</v>
@@ -7688,44 +7687,43 @@
         <v>68</v>
       </c>
       <c r="U85" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para acontecer: é_meiodia</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para planejar: é_momento</v>
       </c>
       <c r="V85" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para acontecer: meiodia ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para planejar: momento ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>86</v>
       </c>
       <c r="B86" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C86" s="11" t="str">
-        <f>C85</f>
-        <v>p_acontecer</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>126</v>
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C86" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F86" s="6" t="str">
-        <f t="shared" si="40"/>
+      <c r="F86" s="54" t="str">
+        <f t="shared" si="35"/>
         <v>d_acontecer</v>
       </c>
-      <c r="G86" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>equinócio_primavera</v>
-      </c>
-      <c r="H86" s="7" t="s">
+      <c r="G86" s="5" t="str">
+        <f t="shared" si="36"/>
+        <v>amanhecer</v>
+      </c>
+      <c r="H86" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I86" s="18" t="s">
+      <c r="I86" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J86" s="21" t="s">
@@ -7762,20 +7760,20 @@
         <v>68</v>
       </c>
       <c r="U86" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para acontecer: é_equinócio_primavera</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para acontecer: é_amanhecer</v>
       </c>
       <c r="V86" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para acontecer: equinócio_primavera ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para acontecer: amanhecer ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>87</v>
       </c>
       <c r="B87" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C87" s="11" t="str">
@@ -7783,18 +7781,18 @@
         <v>p_acontecer</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F87" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>d_acontecer</v>
       </c>
       <c r="G87" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>equinócio_outono</v>
+        <f t="shared" si="36"/>
+        <v>anoitecer</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>109</v>
@@ -7836,39 +7834,39 @@
         <v>68</v>
       </c>
       <c r="U87" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para acontecer: é_equinócio_outono</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para acontecer: é_anoitecer</v>
       </c>
       <c r="V87" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para acontecer: equinócio_outono ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para acontecer: anoitecer ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>88</v>
       </c>
       <c r="B88" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C88" s="11" t="str">
-        <f>C87</f>
+        <f t="shared" ref="C88" si="38">C87</f>
         <v>p_acontecer</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F88" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>d_acontecer</v>
       </c>
       <c r="G88" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>solstício_verão</v>
+        <f t="shared" si="36"/>
+        <v>meiodia</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>109</v>
@@ -7910,20 +7908,20 @@
         <v>68</v>
       </c>
       <c r="U88" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para acontecer: é_solstício_verão</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para acontecer: é_meiodia</v>
       </c>
       <c r="V88" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para acontecer: solstício_verão ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para acontecer: meiodia ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>89</v>
       </c>
       <c r="B89" s="19" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="15"/>
         <v>BIMProp</v>
       </c>
       <c r="C89" s="11" t="str">
@@ -7931,18 +7929,18 @@
         <v>p_acontecer</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F89" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>d_acontecer</v>
       </c>
       <c r="G89" s="6" t="str">
-        <f t="shared" si="41"/>
-        <v>solstício_inverno</v>
+        <f t="shared" si="36"/>
+        <v>equinócio_primavera</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>109</v>
@@ -7984,71 +7982,71 @@
         <v>68</v>
       </c>
       <c r="U89" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para acontecer: é_solstício_inverno</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade para acontecer: é_equinócio_primavera</v>
       </c>
       <c r="V89" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para acontecer: solstício_inverno ( xsd:dateTime ) </v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para acontecer: equinócio_primavera ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>90</v>
       </c>
       <c r="B90" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C90" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" s="40" t="str">
-        <f t="shared" ref="E90:E102" si="46">E89</f>
-        <v>BIMData</v>
-      </c>
-      <c r="F90" s="54" t="str">
-        <f t="shared" si="40"/>
-        <v>d_normatizar</v>
-      </c>
-      <c r="G90" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v>norma</v>
-      </c>
-      <c r="H90" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I90" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="J90" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K90" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L90" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M90" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N90" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O90" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P90" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R90" s="44" t="s">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C90" s="11" t="str">
+        <f>C89</f>
+        <v>p_acontecer</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="6" t="str">
+        <f t="shared" si="35"/>
+        <v>d_acontecer</v>
+      </c>
+      <c r="G90" s="6" t="str">
+        <f t="shared" si="36"/>
+        <v>equinócio_outono</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K90" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L90" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M90" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N90" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O90" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P90" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R90" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S90" s="22" t="s">
@@ -8057,73 +8055,72 @@
       <c r="T90" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U90" s="45" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para normatizar: é_norma</v>
-      </c>
-      <c r="V90" s="45" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U90" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para acontecer: é_equinócio_outono</v>
+      </c>
+      <c r="V90" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para acontecer: equinócio_outono ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>91</v>
       </c>
       <c r="B91" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C91" s="46" t="str">
+        <f t="shared" si="15"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C91" s="11" t="str">
         <f>C90</f>
-        <v>p_normatizar</v>
-      </c>
-      <c r="D91" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" s="40" t="str">
-        <f t="shared" si="46"/>
-        <v>BIMData</v>
-      </c>
-      <c r="F91" s="48" t="str">
-        <f t="shared" si="40"/>
-        <v>d_normatizar</v>
-      </c>
-      <c r="G91" s="48" t="str">
-        <f t="shared" si="41"/>
-        <v>parte</v>
-      </c>
-      <c r="H91" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I91" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="J91" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K91" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L91" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M91" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N91" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O91" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P91" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R91" s="44" t="s">
+        <v>p_acontecer</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="6" t="str">
+        <f t="shared" si="35"/>
+        <v>d_acontecer</v>
+      </c>
+      <c r="G91" s="6" t="str">
+        <f t="shared" si="36"/>
+        <v>solstício_verão</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J91" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L91" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M91" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N91" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O91" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P91" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R91" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S91" s="22" t="s">
@@ -8132,73 +8129,72 @@
       <c r="T91" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U91" s="45" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para normatizar: é_parte</v>
-      </c>
-      <c r="V91" s="45" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U91" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para acontecer: é_solstício_verão</v>
+      </c>
+      <c r="V91" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para acontecer: solstício_verão ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>92</v>
       </c>
       <c r="B92" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C92" s="46" t="str">
-        <f t="shared" ref="C92:C93" si="47">C91</f>
-        <v>p_normatizar</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" s="40" t="str">
-        <f t="shared" si="46"/>
-        <v>BIMData</v>
-      </c>
-      <c r="F92" s="48" t="str">
-        <f t="shared" si="40"/>
-        <v>d_normatizar</v>
-      </c>
-      <c r="G92" s="48" t="str">
-        <f t="shared" si="41"/>
-        <v>escopo</v>
-      </c>
-      <c r="H92" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I92" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="J92" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K92" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L92" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M92" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N92" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O92" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P92" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R92" s="44" t="s">
+        <f t="shared" ref="B92:B114" si="39">B87</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C92" s="11" t="str">
+        <f>C91</f>
+        <v>p_acontecer</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="6" t="str">
+        <f t="shared" si="35"/>
+        <v>d_acontecer</v>
+      </c>
+      <c r="G92" s="6" t="str">
+        <f t="shared" si="36"/>
+        <v>solstício_inverno</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R92" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S92" s="22" t="s">
@@ -8207,46 +8203,45 @@
       <c r="T92" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U92" s="45" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para normatizar: é_escopo</v>
-      </c>
-      <c r="V92" s="45" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U92" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para acontecer: é_solstício_inverno</v>
+      </c>
+      <c r="V92" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para acontecer: solstício_inverno ( xsd:dateTime ) </v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>93</v>
       </c>
       <c r="B93" s="19" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C93" s="46" t="str">
-        <f t="shared" si="47"/>
-        <v>p_normatizar</v>
-      </c>
-      <c r="D93" s="47" t="s">
-        <v>134</v>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="E93" s="40" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="E93:E105" si="40">E92</f>
         <v>BIMData</v>
       </c>
-      <c r="F93" s="48" t="str">
-        <f t="shared" si="40"/>
+      <c r="F93" s="53" t="str">
+        <f t="shared" si="35"/>
         <v>d_normatizar</v>
       </c>
-      <c r="G93" s="48" t="str">
-        <f t="shared" si="41"/>
-        <v>regulamento</v>
-      </c>
-      <c r="H93" s="49" t="s">
+      <c r="G93" s="41" t="str">
+        <f t="shared" si="36"/>
+        <v>norma</v>
+      </c>
+      <c r="H93" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I93" s="50" t="s">
+      <c r="I93" s="43" t="s">
         <v>0</v>
       </c>
       <c r="J93" s="44" t="s">
@@ -8282,49 +8277,50 @@
       <c r="T93" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U93" s="45" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para normatizar: é_regulamento</v>
-      </c>
-      <c r="V93" s="45" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para normatizar: regulamento ( xsd:string ) </v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U93" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para normatizar: é_norma</v>
+      </c>
+      <c r="V93" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>94</v>
       </c>
       <c r="B94" s="19" t="str">
-        <f t="shared" ref="B94" si="48">B93</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C94" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="D94" s="39" t="s">
-        <v>160</v>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C94" s="45" t="str">
+        <f>C93</f>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D94" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="E94" s="40" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>BIMData</v>
       </c>
-      <c r="F94" s="54" t="str">
-        <f t="shared" ref="F94:F107" si="49">_xlfn.CONCAT("d_",MID(C94,FIND("_",C94,1)+1,100))</f>
-        <v>d_medir</v>
-      </c>
-      <c r="G94" s="41" t="str">
-        <f t="shared" ref="G94:G107" si="50">MID(D94,FIND("_",D94,1)+1,100)</f>
-        <v>volume</v>
-      </c>
-      <c r="H94" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="I94" s="43" t="s">
+      <c r="F94" s="47" t="str">
+        <f t="shared" si="35"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G94" s="47" t="str">
+        <f t="shared" si="36"/>
+        <v>parte</v>
+      </c>
+      <c r="H94" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I94" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J94" s="44" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K94" s="44" t="s">
         <v>0</v>
@@ -8356,50 +8352,50 @@
       <c r="T94" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U94" s="45" t="str">
-        <f t="shared" ref="U94:U107" si="51">_xlfn.CONCAT("Propriedade para ",MID(C94,FIND("p_",C94,1)+2,100),": ",D94)</f>
-        <v>Propriedade para medir: tem_volume</v>
-      </c>
-      <c r="V94" s="45" t="str">
-        <f t="shared" ref="V94:V107" si="52">_xlfn.CONCAT("Dado para ",MID(F94,FIND("d_",F94,1)+2,100),": ",G94, " ( ",H94, " ) ")</f>
-        <v xml:space="preserve">Dado para medir: volume ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U94" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para normatizar: é_parte</v>
+      </c>
+      <c r="V94" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>95</v>
       </c>
       <c r="B95" s="19" t="str">
-        <f>B91</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C95" s="46" t="str">
-        <f>C94</f>
-        <v>p_medir</v>
-      </c>
-      <c r="D95" s="47" t="s">
-        <v>153</v>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C95" s="45" t="str">
+        <f t="shared" ref="C95:C96" si="41">C94</f>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>131</v>
       </c>
       <c r="E95" s="40" t="str">
-        <f>E91</f>
+        <f t="shared" si="40"/>
         <v>BIMData</v>
       </c>
-      <c r="F95" s="48" t="str">
-        <f t="shared" ref="F95:F96" si="53">_xlfn.CONCAT("d_",MID(C95,FIND("_",C95,1)+1,100))</f>
-        <v>d_medir</v>
-      </c>
-      <c r="G95" s="48" t="str">
-        <f t="shared" ref="G95:G96" si="54">MID(D95,FIND("_",D95,1)+1,100)</f>
-        <v>área</v>
-      </c>
-      <c r="H95" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I95" s="50" t="s">
+      <c r="F95" s="47" t="str">
+        <f t="shared" si="35"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G95" s="47" t="str">
+        <f t="shared" si="36"/>
+        <v>escopo</v>
+      </c>
+      <c r="H95" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I95" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J95" s="44" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K95" s="44" t="s">
         <v>0</v>
@@ -8431,50 +8427,50 @@
       <c r="T95" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U95" s="45" t="str">
-        <f t="shared" ref="U95:U96" si="55">_xlfn.CONCAT("Propriedade para ",MID(C95,FIND("p_",C95,1)+2,100),": ",D95)</f>
-        <v>Propriedade para medir: tem_área</v>
-      </c>
-      <c r="V95" s="45" t="str">
-        <f t="shared" ref="V95:V96" si="56">_xlfn.CONCAT("Dado para ",MID(F95,FIND("d_",F95,1)+2,100),": ",G95, " ( ",H95, " ) ")</f>
-        <v xml:space="preserve">Dado para medir: área ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U95" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para normatizar: é_escopo</v>
+      </c>
+      <c r="V95" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>96</v>
       </c>
       <c r="B96" s="19" t="str">
-        <f>B91</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C96" s="46" t="str">
-        <f t="shared" ref="C96:C107" si="57">C95</f>
-        <v>p_medir</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>170</v>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C96" s="45" t="str">
+        <f t="shared" si="41"/>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D96" s="46" t="s">
+        <v>132</v>
       </c>
       <c r="E96" s="40" t="str">
-        <f>E91</f>
+        <f t="shared" si="40"/>
         <v>BIMData</v>
       </c>
-      <c r="F96" s="48" t="str">
-        <f t="shared" si="53"/>
-        <v>d_medir</v>
-      </c>
-      <c r="G96" s="48" t="str">
-        <f t="shared" si="54"/>
-        <v>área_bruta</v>
-      </c>
-      <c r="H96" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I96" s="50" t="s">
+      <c r="F96" s="47" t="str">
+        <f t="shared" si="35"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G96" s="47" t="str">
+        <f t="shared" si="36"/>
+        <v>regulamento</v>
+      </c>
+      <c r="H96" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I96" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J96" s="44" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K96" s="44" t="s">
         <v>0</v>
@@ -8506,46 +8502,45 @@
       <c r="T96" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U96" s="45" t="str">
-        <f t="shared" si="55"/>
-        <v>Propriedade para medir: tem_área_bruta</v>
-      </c>
-      <c r="V96" s="45" t="str">
-        <f t="shared" si="56"/>
-        <v xml:space="preserve">Dado para medir: área_bruta ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U96" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para normatizar: é_regulamento</v>
+      </c>
+      <c r="V96" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para normatizar: regulamento ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>97</v>
       </c>
       <c r="B97" s="19" t="str">
-        <f>B92</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C97" s="46" t="str">
-        <f t="shared" si="57"/>
-        <v>p_medir</v>
-      </c>
-      <c r="D97" s="47" t="s">
-        <v>169</v>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="E97" s="40" t="str">
-        <f>E92</f>
+        <f t="shared" si="40"/>
         <v>BIMData</v>
       </c>
-      <c r="F97" s="48" t="str">
-        <f t="shared" si="49"/>
+      <c r="F97" s="53" t="str">
+        <f t="shared" ref="F97:F110" si="42">_xlfn.CONCAT("d_",MID(C97,FIND("_",C97,1)+1,100))</f>
         <v>d_medir</v>
       </c>
-      <c r="G97" s="48" t="str">
-        <f t="shared" si="50"/>
-        <v>área_útil</v>
-      </c>
-      <c r="H97" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I97" s="50" t="s">
+      <c r="G97" s="41" t="str">
+        <f t="shared" ref="G97:G110" si="43">MID(D97,FIND("_",D97,1)+1,100)</f>
+        <v>volume</v>
+      </c>
+      <c r="H97" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="I97" s="43" t="s">
         <v>0</v>
       </c>
       <c r="J97" s="44" t="s">
@@ -8581,46 +8576,46 @@
       <c r="T97" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U97" s="45" t="str">
-        <f t="shared" si="51"/>
-        <v>Propriedade para medir: tem_área_útil</v>
-      </c>
-      <c r="V97" s="45" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">Dado para medir: área_útil ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U97" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_volume</v>
+      </c>
+      <c r="V97" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: volume ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>98</v>
       </c>
       <c r="B98" s="19" t="str">
-        <f>B93</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C98" s="46" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C98" s="45" t="str">
+        <f>C97</f>
         <v>p_medir</v>
       </c>
-      <c r="D98" s="47" t="s">
-        <v>157</v>
+      <c r="D98" s="46" t="s">
+        <v>151</v>
       </c>
       <c r="E98" s="40" t="str">
-        <f>E93</f>
+        <f>E94</f>
         <v>BIMData</v>
       </c>
-      <c r="F98" s="48" t="str">
-        <f t="shared" ref="F98:F100" si="58">_xlfn.CONCAT("d_",MID(C98,FIND("_",C98,1)+1,100))</f>
+      <c r="F98" s="47" t="str">
+        <f t="shared" ref="F98:F99" si="44">_xlfn.CONCAT("d_",MID(C98,FIND("_",C98,1)+1,100))</f>
         <v>d_medir</v>
       </c>
-      <c r="G98" s="48" t="str">
-        <f t="shared" ref="G98:G100" si="59">MID(D98,FIND("_",D98,1)+1,100)</f>
-        <v>altura</v>
-      </c>
-      <c r="H98" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I98" s="50" t="s">
+      <c r="G98" s="47" t="str">
+        <f t="shared" ref="G98:G99" si="45">MID(D98,FIND("_",D98,1)+1,100)</f>
+        <v>área</v>
+      </c>
+      <c r="H98" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I98" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J98" s="44" t="s">
@@ -8656,46 +8651,46 @@
       <c r="T98" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U98" s="45" t="str">
-        <f t="shared" ref="U98:U100" si="60">_xlfn.CONCAT("Propriedade para ",MID(C98,FIND("p_",C98,1)+2,100),": ",D98)</f>
-        <v>Propriedade para medir: tem_altura</v>
-      </c>
-      <c r="V98" s="45" t="str">
-        <f t="shared" ref="V98:V100" si="61">_xlfn.CONCAT("Dado para ",MID(F98,FIND("d_",F98,1)+2,100),": ",G98, " ( ",H98, " ) ")</f>
-        <v xml:space="preserve">Dado para medir: altura ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U98" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_área</v>
+      </c>
+      <c r="V98" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: área ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>99</v>
       </c>
       <c r="B99" s="19" t="str">
-        <f t="shared" ref="B99:B101" si="62">B94</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C99" s="46" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C99" s="45" t="str">
+        <f t="shared" ref="C99:C110" si="46">C98</f>
         <v>p_medir</v>
       </c>
-      <c r="D99" s="47" t="s">
-        <v>173</v>
+      <c r="D99" s="46" t="s">
+        <v>168</v>
       </c>
       <c r="E99" s="40" t="str">
         <f>E94</f>
         <v>BIMData</v>
       </c>
-      <c r="F99" s="48" t="str">
-        <f t="shared" si="58"/>
+      <c r="F99" s="47" t="str">
+        <f t="shared" si="44"/>
         <v>d_medir</v>
       </c>
-      <c r="G99" s="48" t="str">
-        <f t="shared" si="59"/>
-        <v>comprimento</v>
-      </c>
-      <c r="H99" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I99" s="50" t="s">
+      <c r="G99" s="47" t="str">
+        <f t="shared" si="45"/>
+        <v>área_bruta</v>
+      </c>
+      <c r="H99" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I99" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J99" s="44" t="s">
@@ -8731,46 +8726,46 @@
       <c r="T99" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U99" s="45" t="str">
-        <f t="shared" ref="U99" si="63">_xlfn.CONCAT("Propriedade para ",MID(C99,FIND("p_",C99,1)+2,100),": ",D99)</f>
-        <v>Propriedade para medir: tem_comprimento</v>
-      </c>
-      <c r="V99" s="45" t="str">
-        <f t="shared" ref="V99" si="64">_xlfn.CONCAT("Dado para ",MID(F99,FIND("d_",F99,1)+2,100),": ",G99, " ( ",H99, " ) ")</f>
-        <v xml:space="preserve">Dado para medir: comprimento ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U99" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_área_bruta</v>
+      </c>
+      <c r="V99" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: área_bruta ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>100</v>
       </c>
       <c r="B100" s="19" t="str">
-        <f t="shared" si="62"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C100" s="46" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C100" s="45" t="str">
+        <f t="shared" si="46"/>
         <v>p_medir</v>
       </c>
-      <c r="D100" s="47" t="s">
-        <v>154</v>
+      <c r="D100" s="46" t="s">
+        <v>167</v>
       </c>
       <c r="E100" s="40" t="str">
-        <f>E93</f>
+        <f>E95</f>
         <v>BIMData</v>
       </c>
-      <c r="F100" s="48" t="str">
-        <f t="shared" si="58"/>
+      <c r="F100" s="47" t="str">
+        <f t="shared" si="42"/>
         <v>d_medir</v>
       </c>
-      <c r="G100" s="48" t="str">
-        <f t="shared" si="59"/>
-        <v>largura</v>
-      </c>
-      <c r="H100" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I100" s="50" t="s">
+      <c r="G100" s="47" t="str">
+        <f t="shared" si="43"/>
+        <v>área_útil</v>
+      </c>
+      <c r="H100" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I100" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J100" s="44" t="s">
@@ -8806,46 +8801,46 @@
       <c r="T100" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U100" s="45" t="str">
-        <f t="shared" si="60"/>
-        <v>Propriedade para medir: tem_largura</v>
-      </c>
-      <c r="V100" s="45" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve">Dado para medir: largura ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U100" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_área_útil</v>
+      </c>
+      <c r="V100" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: área_útil ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>101</v>
       </c>
       <c r="B101" s="19" t="str">
-        <f t="shared" si="62"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C101" s="46" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C101" s="45" t="str">
+        <f t="shared" si="46"/>
         <v>p_medir</v>
       </c>
-      <c r="D101" s="47" t="s">
+      <c r="D101" s="46" t="s">
         <v>155</v>
       </c>
       <c r="E101" s="40" t="str">
-        <f>E94</f>
+        <f>E96</f>
         <v>BIMData</v>
       </c>
-      <c r="F101" s="48" t="str">
-        <f t="shared" si="49"/>
+      <c r="F101" s="47" t="str">
+        <f t="shared" ref="F101:F103" si="47">_xlfn.CONCAT("d_",MID(C101,FIND("_",C101,1)+1,100))</f>
         <v>d_medir</v>
       </c>
-      <c r="G101" s="48" t="str">
-        <f t="shared" si="50"/>
-        <v>profundidade</v>
-      </c>
-      <c r="H101" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I101" s="50" t="s">
+      <c r="G101" s="47" t="str">
+        <f t="shared" ref="G101:G103" si="48">MID(D101,FIND("_",D101,1)+1,100)</f>
+        <v>altura</v>
+      </c>
+      <c r="H101" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I101" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J101" s="44" t="s">
@@ -8881,46 +8876,46 @@
       <c r="T101" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U101" s="45" t="str">
-        <f t="shared" si="51"/>
-        <v>Propriedade para medir: tem_profundidade</v>
-      </c>
-      <c r="V101" s="45" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">Dado para medir: profundidade ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U101" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_altura</v>
+      </c>
+      <c r="V101" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: altura ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>102</v>
       </c>
       <c r="B102" s="19" t="str">
-        <f t="shared" ref="B102:B111" si="65">B100</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C102" s="46" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C102" s="45" t="str">
+        <f t="shared" si="46"/>
         <v>p_medir</v>
       </c>
-      <c r="D102" s="47" t="s">
-        <v>156</v>
+      <c r="D102" s="46" t="s">
+        <v>171</v>
       </c>
       <c r="E102" s="40" t="str">
-        <f t="shared" si="46"/>
+        <f>E97</f>
         <v>BIMData</v>
       </c>
-      <c r="F102" s="48" t="str">
-        <f t="shared" si="49"/>
+      <c r="F102" s="47" t="str">
+        <f t="shared" si="47"/>
         <v>d_medir</v>
       </c>
-      <c r="G102" s="48" t="str">
-        <f t="shared" si="50"/>
-        <v>espessura</v>
-      </c>
-      <c r="H102" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I102" s="50" t="s">
+      <c r="G102" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>comprimento</v>
+      </c>
+      <c r="H102" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I102" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J102" s="44" t="s">
@@ -8956,46 +8951,46 @@
       <c r="T102" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U102" s="45" t="str">
-        <f t="shared" si="51"/>
-        <v>Propriedade para medir: tem_espessura</v>
-      </c>
-      <c r="V102" s="45" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">Dado para medir: espessura ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U102" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_comprimento</v>
+      </c>
+      <c r="V102" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: comprimento ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>103</v>
       </c>
       <c r="B103" s="19" t="str">
-        <f t="shared" si="65"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C103" s="46" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C103" s="45" t="str">
+        <f t="shared" si="46"/>
         <v>p_medir</v>
       </c>
-      <c r="D103" s="47" t="s">
-        <v>162</v>
+      <c r="D103" s="46" t="s">
+        <v>152</v>
       </c>
       <c r="E103" s="40" t="str">
-        <f>E100</f>
+        <f>E96</f>
         <v>BIMData</v>
       </c>
-      <c r="F103" s="48" t="str">
-        <f t="shared" si="49"/>
+      <c r="F103" s="47" t="str">
+        <f t="shared" si="47"/>
         <v>d_medir</v>
       </c>
-      <c r="G103" s="48" t="str">
-        <f t="shared" si="50"/>
-        <v>pédireito</v>
-      </c>
-      <c r="H103" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I103" s="50" t="s">
+      <c r="G103" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>largura</v>
+      </c>
+      <c r="H103" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I103" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J103" s="44" t="s">
@@ -9031,46 +9026,46 @@
       <c r="T103" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U103" s="45" t="str">
-        <f t="shared" si="51"/>
-        <v>Propriedade para medir: tem_pédireito</v>
-      </c>
-      <c r="V103" s="45" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">Dado para medir: pédireito ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U103" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_largura</v>
+      </c>
+      <c r="V103" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: largura ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>104</v>
       </c>
       <c r="B104" s="19" t="str">
-        <f t="shared" si="65"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C104" s="46" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C104" s="45" t="str">
+        <f t="shared" si="46"/>
         <v>p_medir</v>
       </c>
-      <c r="D104" s="47" t="s">
-        <v>158</v>
+      <c r="D104" s="46" t="s">
+        <v>153</v>
       </c>
       <c r="E104" s="40" t="str">
-        <f>E98</f>
+        <f>E97</f>
         <v>BIMData</v>
       </c>
-      <c r="F104" s="48" t="str">
-        <f t="shared" ref="F104" si="66">_xlfn.CONCAT("d_",MID(C104,FIND("_",C104,1)+1,100))</f>
+      <c r="F104" s="47" t="str">
+        <f t="shared" si="42"/>
         <v>d_medir</v>
       </c>
-      <c r="G104" s="48" t="str">
-        <f t="shared" ref="G104" si="67">MID(D104,FIND("_",D104,1)+1,100)</f>
-        <v>diámetro</v>
-      </c>
-      <c r="H104" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I104" s="50" t="s">
+      <c r="G104" s="47" t="str">
+        <f t="shared" si="43"/>
+        <v>profundidade</v>
+      </c>
+      <c r="H104" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I104" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J104" s="44" t="s">
@@ -9106,46 +9101,46 @@
       <c r="T104" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U104" s="45" t="str">
-        <f t="shared" ref="U104" si="68">_xlfn.CONCAT("Propriedade para ",MID(C104,FIND("p_",C104,1)+2,100),": ",D104)</f>
-        <v>Propriedade para medir: tem_diámetro</v>
-      </c>
-      <c r="V104" s="45" t="str">
-        <f t="shared" ref="V104" si="69">_xlfn.CONCAT("Dado para ",MID(F104,FIND("d_",F104,1)+2,100),": ",G104, " ( ",H104, " ) ")</f>
-        <v xml:space="preserve">Dado para medir: diámetro ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U104" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_profundidade</v>
+      </c>
+      <c r="V104" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: profundidade ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>105</v>
       </c>
       <c r="B105" s="19" t="str">
-        <f t="shared" si="65"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C105" s="46" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C105" s="45" t="str">
+        <f t="shared" si="46"/>
         <v>p_medir</v>
       </c>
-      <c r="D105" s="47" t="s">
-        <v>167</v>
+      <c r="D105" s="46" t="s">
+        <v>154</v>
       </c>
       <c r="E105" s="40" t="str">
-        <f>E100</f>
+        <f t="shared" si="40"/>
         <v>BIMData</v>
       </c>
-      <c r="F105" s="48" t="str">
-        <f t="shared" si="49"/>
+      <c r="F105" s="47" t="str">
+        <f t="shared" si="42"/>
         <v>d_medir</v>
       </c>
-      <c r="G105" s="48" t="str">
-        <f t="shared" si="50"/>
-        <v>diámetro_interno</v>
-      </c>
-      <c r="H105" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I105" s="50" t="s">
+      <c r="G105" s="47" t="str">
+        <f t="shared" si="43"/>
+        <v>espessura</v>
+      </c>
+      <c r="H105" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I105" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J105" s="44" t="s">
@@ -9181,121 +9176,121 @@
       <c r="T105" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U105" s="45" t="str">
-        <f t="shared" si="51"/>
-        <v>Propriedade para medir: tem_diámetro_interno</v>
-      </c>
-      <c r="V105" s="45" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">Dado para medir: diámetro_interno ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U105" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_espessura</v>
+      </c>
+      <c r="V105" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: espessura ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>106</v>
       </c>
       <c r="B106" s="19" t="str">
-        <f t="shared" si="65"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C106" s="46" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C106" s="45" t="str">
+        <f t="shared" si="46"/>
         <v>p_medir</v>
       </c>
-      <c r="D106" s="47" t="s">
-        <v>168</v>
+      <c r="D106" s="46" t="s">
+        <v>160</v>
       </c>
       <c r="E106" s="40" t="str">
+        <f>E103</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F106" s="47" t="str">
+        <f t="shared" si="42"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G106" s="47" t="str">
+        <f t="shared" si="43"/>
+        <v>pédireito</v>
+      </c>
+      <c r="H106" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I106" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R106" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S106" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T106" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U106" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_pédireito</v>
+      </c>
+      <c r="V106" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: pédireito ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>107</v>
+      </c>
+      <c r="B107" s="19" t="str">
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C107" s="45" t="str">
+        <f t="shared" si="46"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D107" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E107" s="40" t="str">
         <f>E101</f>
         <v>BIMData</v>
       </c>
-      <c r="F106" s="48" t="str">
-        <f t="shared" ref="F106" si="70">_xlfn.CONCAT("d_",MID(C106,FIND("_",C106,1)+1,100))</f>
+      <c r="F107" s="47" t="str">
+        <f t="shared" ref="F107" si="49">_xlfn.CONCAT("d_",MID(C107,FIND("_",C107,1)+1,100))</f>
         <v>d_medir</v>
       </c>
-      <c r="G106" s="48" t="str">
-        <f t="shared" ref="G106" si="71">MID(D106,FIND("_",D106,1)+1,100)</f>
-        <v>diámetro_externo</v>
-      </c>
-      <c r="H106" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I106" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="J106" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="K106" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L106" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M106" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N106" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O106" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P106" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R106" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="S106" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T106" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U106" s="45" t="str">
-        <f t="shared" ref="U106" si="72">_xlfn.CONCAT("Propriedade para ",MID(C106,FIND("p_",C106,1)+2,100),": ",D106)</f>
-        <v>Propriedade para medir: tem_diámetro_externo</v>
-      </c>
-      <c r="V106" s="45" t="str">
-        <f t="shared" ref="V106" si="73">_xlfn.CONCAT("Dado para ",MID(F106,FIND("d_",F106,1)+2,100),": ",G106, " ( ",H106, " ) ")</f>
-        <v xml:space="preserve">Dado para medir: diámetro_externo ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
-        <v>107</v>
-      </c>
-      <c r="B107" s="19" t="str">
-        <f t="shared" si="65"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C107" s="46" t="str">
-        <f t="shared" si="57"/>
-        <v>p_medir</v>
-      </c>
-      <c r="D107" s="47" t="s">
+      <c r="G107" s="47" t="str">
+        <f t="shared" ref="G107" si="50">MID(D107,FIND("_",D107,1)+1,100)</f>
+        <v>diámetro</v>
+      </c>
+      <c r="H107" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="E107" s="40" t="str">
-        <f>E102</f>
-        <v>BIMData</v>
-      </c>
-      <c r="F107" s="48" t="str">
-        <f t="shared" si="49"/>
-        <v>d_medir</v>
-      </c>
-      <c r="G107" s="48" t="str">
-        <f t="shared" si="50"/>
-        <v>raio</v>
-      </c>
-      <c r="H107" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I107" s="50" t="s">
+      <c r="I107" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J107" s="44" t="s">
@@ -9331,49 +9326,50 @@
       <c r="T107" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U107" s="45" t="str">
-        <f t="shared" si="51"/>
-        <v>Propriedade para medir: tem_raio</v>
-      </c>
-      <c r="V107" s="45" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">Dado para medir: raio ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U107" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_diámetro</v>
+      </c>
+      <c r="V107" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: diámetro ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>108</v>
       </c>
       <c r="B108" s="19" t="str">
-        <f t="shared" si="65"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C108" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="D108" s="39" t="s">
-        <v>172</v>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C108" s="45" t="str">
+        <f t="shared" si="46"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D108" s="46" t="s">
+        <v>165</v>
       </c>
       <c r="E108" s="40" t="str">
         <f>E103</f>
         <v>BIMData</v>
       </c>
-      <c r="F108" s="54" t="str">
-        <f t="shared" ref="F108:F109" si="74">_xlfn.CONCAT("d_",MID(C108,FIND("_",C108,1)+1,100))</f>
-        <v>d_contar</v>
-      </c>
-      <c r="G108" s="41" t="str">
-        <f t="shared" ref="G108:G109" si="75">MID(D108,FIND("_",D108,1)+1,100)</f>
-        <v>quantidade</v>
-      </c>
-      <c r="H108" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="I108" s="43" t="s">
+      <c r="F108" s="47" t="str">
+        <f t="shared" si="42"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G108" s="47" t="str">
+        <f t="shared" si="43"/>
+        <v>diámetro_interno</v>
+      </c>
+      <c r="H108" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I108" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J108" s="44" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K108" s="44" t="s">
         <v>0</v>
@@ -9405,50 +9401,50 @@
       <c r="T108" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U108" s="45" t="str">
-        <f t="shared" ref="U108:U109" si="76">_xlfn.CONCAT("Propriedade para ",MID(C108,FIND("p_",C108,1)+2,100),": ",D108)</f>
-        <v>Propriedade para contar: tem_quantidade</v>
-      </c>
-      <c r="V108" s="45" t="str">
-        <f t="shared" ref="V108:V109" si="77">_xlfn.CONCAT("Dado para ",MID(F108,FIND("d_",F108,1)+2,100),": ",G108, " ( ",H108, " ) ")</f>
-        <v xml:space="preserve">Dado para contar: quantidade ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U108" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_diámetro_interno</v>
+      </c>
+      <c r="V108" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: diámetro_interno ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>109</v>
       </c>
       <c r="B109" s="19" t="str">
-        <f t="shared" si="65"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C109" s="46" t="str">
-        <f>C108</f>
-        <v>p_contar</v>
-      </c>
-      <c r="D109" s="47" t="s">
-        <v>174</v>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C109" s="45" t="str">
+        <f t="shared" si="46"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D109" s="46" t="s">
+        <v>166</v>
       </c>
       <c r="E109" s="40" t="str">
-        <f t="shared" ref="E109:E111" si="78">E104</f>
+        <f>E104</f>
         <v>BIMData</v>
       </c>
-      <c r="F109" s="48" t="str">
-        <f t="shared" si="74"/>
-        <v>d_contar</v>
-      </c>
-      <c r="G109" s="48" t="str">
-        <f t="shared" si="75"/>
-        <v>módulo</v>
-      </c>
-      <c r="H109" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I109" s="50" t="s">
+      <c r="F109" s="47" t="str">
+        <f t="shared" ref="F109" si="51">_xlfn.CONCAT("d_",MID(C109,FIND("_",C109,1)+1,100))</f>
+        <v>d_medir</v>
+      </c>
+      <c r="G109" s="47" t="str">
+        <f t="shared" ref="G109" si="52">MID(D109,FIND("_",D109,1)+1,100)</f>
+        <v>diámetro_externo</v>
+      </c>
+      <c r="H109" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I109" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J109" s="44" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K109" s="44" t="s">
         <v>0</v>
@@ -9480,49 +9476,50 @@
       <c r="T109" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U109" s="45" t="str">
-        <f t="shared" si="76"/>
-        <v>Propriedade para contar: tem_módulo</v>
-      </c>
-      <c r="V109" s="45" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve">Dado para contar: módulo ( xsd:integer ) </v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U109" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_diámetro_externo</v>
+      </c>
+      <c r="V109" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: diámetro_externo ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>110</v>
       </c>
       <c r="B110" s="19" t="str">
-        <f t="shared" si="65"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C110" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="D110" s="39" t="s">
-        <v>164</v>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C110" s="45" t="str">
+        <f t="shared" si="46"/>
+        <v>p_medir</v>
+      </c>
+      <c r="D110" s="46" t="s">
+        <v>157</v>
       </c>
       <c r="E110" s="40" t="str">
-        <f t="shared" si="78"/>
+        <f>E105</f>
         <v>BIMData</v>
       </c>
-      <c r="F110" s="54" t="str">
-        <f t="shared" ref="F110:F111" si="79">_xlfn.CONCAT("d_",MID(C110,FIND("_",C110,1)+1,100))</f>
-        <v>d_pesar</v>
-      </c>
-      <c r="G110" s="41" t="str">
-        <f t="shared" ref="G110:G111" si="80">MID(D110,FIND("_",D110,1)+1,100)</f>
-        <v>densidade</v>
-      </c>
-      <c r="H110" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="I110" s="43" t="s">
+      <c r="F110" s="47" t="str">
+        <f t="shared" si="42"/>
+        <v>d_medir</v>
+      </c>
+      <c r="G110" s="47" t="str">
+        <f t="shared" si="43"/>
+        <v>raio</v>
+      </c>
+      <c r="H110" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I110" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J110" s="44" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K110" s="44" t="s">
         <v>0</v>
@@ -9554,94 +9551,317 @@
       <c r="T110" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="U110" s="45" t="str">
-        <f t="shared" ref="U110:U111" si="81">_xlfn.CONCAT("Propriedade para ",MID(C110,FIND("p_",C110,1)+2,100),": ",D110)</f>
-        <v>Propriedade para pesar: tem_densidade</v>
-      </c>
-      <c r="V110" s="45" t="str">
-        <f t="shared" ref="V110:V111" si="82">_xlfn.CONCAT("Dado para ",MID(F110,FIND("d_",F110,1)+2,100),": ",G110, " ( ",H110, " ) ")</f>
-        <v xml:space="preserve">Dado para pesar: densidade ( xsd:double ) </v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U110" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para medir: tem_raio</v>
+      </c>
+      <c r="V110" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para medir: raio ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>111</v>
       </c>
       <c r="B111" s="19" t="str">
-        <f t="shared" si="65"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C111" s="46" t="str">
-        <f>C110</f>
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C111" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E111" s="40" t="str">
+        <f>E106</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F111" s="53" t="str">
+        <f t="shared" ref="F111:F112" si="53">_xlfn.CONCAT("d_",MID(C111,FIND("_",C111,1)+1,100))</f>
+        <v>d_contar</v>
+      </c>
+      <c r="G111" s="41" t="str">
+        <f t="shared" ref="G111:G112" si="54">MID(D111,FIND("_",D111,1)+1,100)</f>
+        <v>quantidade</v>
+      </c>
+      <c r="H111" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I111" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S111" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T111" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U111" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para contar: tem_quantidade</v>
+      </c>
+      <c r="V111" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para contar: quantidade ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>112</v>
+      </c>
+      <c r="B112" s="19" t="str">
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C112" s="45" t="str">
+        <f>C111</f>
+        <v>p_contar</v>
+      </c>
+      <c r="D112" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E112" s="40" t="str">
+        <f t="shared" ref="E112:E114" si="55">E107</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F112" s="47" t="str">
+        <f t="shared" si="53"/>
+        <v>d_contar</v>
+      </c>
+      <c r="G112" s="47" t="str">
+        <f t="shared" si="54"/>
+        <v>módulo</v>
+      </c>
+      <c r="H112" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I112" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S112" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T112" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U112" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para contar: tem_módulo</v>
+      </c>
+      <c r="V112" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para contar: módulo ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>113</v>
+      </c>
+      <c r="B113" s="19" t="str">
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C113" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E113" s="40" t="str">
+        <f t="shared" si="55"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F113" s="53" t="str">
+        <f t="shared" ref="F113:F114" si="56">_xlfn.CONCAT("d_",MID(C113,FIND("_",C113,1)+1,100))</f>
+        <v>d_pesar</v>
+      </c>
+      <c r="G113" s="41" t="str">
+        <f t="shared" ref="G113:G114" si="57">MID(D113,FIND("_",D113,1)+1,100)</f>
+        <v>densidade</v>
+      </c>
+      <c r="H113" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="I113" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S113" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T113" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U113" s="9" t="str">
+        <f t="shared" si="33"/>
+        <v>Propriedade para pesar: tem_densidade</v>
+      </c>
+      <c r="V113" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">Dado para pesar: densidade ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>114</v>
+      </c>
+      <c r="B114" s="19" t="str">
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C114" s="45" t="str">
+        <f>C113</f>
         <v>p_pesar</v>
       </c>
-      <c r="D111" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E111" s="40" t="str">
-        <f t="shared" si="78"/>
+      <c r="D114" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E114" s="40" t="str">
+        <f t="shared" si="55"/>
         <v>BIMData</v>
       </c>
-      <c r="F111" s="48" t="str">
-        <f t="shared" si="79"/>
+      <c r="F114" s="47" t="str">
+        <f t="shared" si="56"/>
         <v>d_pesar</v>
       </c>
-      <c r="G111" s="48" t="str">
-        <f t="shared" si="80"/>
+      <c r="G114" s="47" t="str">
+        <f t="shared" si="57"/>
         <v>peso</v>
       </c>
-      <c r="H111" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I111" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="J111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="S111" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T111" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="U111" s="45" t="str">
-        <f t="shared" si="81"/>
+      <c r="H114" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I114" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K114" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L114" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M114" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N114" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O114" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P114" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R114" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S114" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T114" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U114" s="9" t="str">
+        <f t="shared" si="33"/>
         <v>Propriedade para pesar: tem_peso</v>
       </c>
-      <c r="V111" s="45" t="str">
-        <f t="shared" si="82"/>
+      <c r="V114" s="9" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">Dado para pesar: peso ( xsd:double ) </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="F51" formula="1"/>
+    <ignoredError sqref="F54" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8DD3EE-E873-42C9-A224-4EC46A43D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F6F20-2CA1-42C8-85B4-633B9B6DA685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="184">
   <si>
     <t>null</t>
   </si>
@@ -573,6 +573,24 @@
   </si>
   <si>
     <t>é_depois_a</t>
+  </si>
+  <si>
+    <t>tem_cor</t>
+  </si>
+  <si>
+    <t>tem_red</t>
+  </si>
+  <si>
+    <t>tem_green</t>
+  </si>
+  <si>
+    <t>tem_blue</t>
+  </si>
+  <si>
+    <t>tem_alfa</t>
+  </si>
+  <si>
+    <t>p_pintar</t>
   </si>
 </sst>
 </file>
@@ -1393,22 +1411,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q82" sqref="Q82"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="37" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="6" style="37" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="36" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="36" customWidth="1"/>
     <col min="10" max="13" width="5.28515625" style="36" customWidth="1"/>
@@ -1555,7 +1573,7 @@
         <v>68</v>
       </c>
       <c r="U2" s="9" t="str">
-        <f t="shared" ref="U2:U76" si="2">_xlfn.CONCAT("Propriedade para ",MID(C2,FIND("p_",C2,1)+2,100),": ",D2)</f>
+        <f t="shared" ref="U2:U71" si="2">_xlfn.CONCAT("Propriedade para ",MID(C2,FIND("p_",C2,1)+2,100),": ",D2)</f>
         <v>Propriedade para endereçar: tem_continente</v>
       </c>
       <c r="V2" s="9" t="str">
@@ -1642,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f t="shared" ref="B4:B70" si="5">B3</f>
+        <f t="shared" ref="B4:B22" si="5">B3</f>
         <v>BIMProp</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -8143,7 +8161,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="19" t="str">
-        <f t="shared" ref="B92:B114" si="39">B87</f>
+        <f t="shared" ref="B92:B119" si="39">B87</f>
         <v>BIMProp</v>
       </c>
       <c r="C92" s="11" t="str">
@@ -9650,7 +9668,7 @@
         <v>172</v>
       </c>
       <c r="E112" s="40" t="str">
-        <f t="shared" ref="E112:E114" si="55">E107</f>
+        <f t="shared" ref="E112:E119" si="55">E107</f>
         <v>BIMData</v>
       </c>
       <c r="F112" s="47" t="str">
@@ -9856,6 +9874,380 @@
       <c r="V114" s="9" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">Dado para pesar: peso ( xsd:double ) </v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>115</v>
+      </c>
+      <c r="B115" s="19" t="str">
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D115" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E115" s="40" t="str">
+        <f t="shared" si="55"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F115" s="53" t="str">
+        <f t="shared" ref="F115:F116" si="58">_xlfn.CONCAT("d_",MID(C115,FIND("_",C115,1)+1,100))</f>
+        <v>d_pintar</v>
+      </c>
+      <c r="G115" s="41" t="str">
+        <f t="shared" ref="G115:G116" si="59">MID(D115,FIND("_",D115,1)+1,100)</f>
+        <v>cor</v>
+      </c>
+      <c r="H115" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I115" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J115" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K115" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L115" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M115" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N115" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O115" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P115" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R115" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S115" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T115" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U115" s="9" t="str">
+        <f t="shared" ref="U115:U116" si="60">_xlfn.CONCAT("Propriedade para ",MID(C115,FIND("p_",C115,1)+2,100),": ",D115)</f>
+        <v>Propriedade para pintar: tem_cor</v>
+      </c>
+      <c r="V115" s="9" t="str">
+        <f t="shared" ref="V115:V116" si="61">_xlfn.CONCAT("Dado para ",MID(F115,FIND("d_",F115,1)+2,100),": ",G115, " ( ",H115, " ) ")</f>
+        <v xml:space="preserve">Dado para pintar: cor ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>116</v>
+      </c>
+      <c r="B116" s="19" t="str">
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C116" s="45" t="str">
+        <f>C115</f>
+        <v>p_pintar</v>
+      </c>
+      <c r="D116" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E116" s="40" t="str">
+        <f t="shared" si="55"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F116" s="47" t="str">
+        <f t="shared" si="58"/>
+        <v>d_pintar</v>
+      </c>
+      <c r="G116" s="47" t="str">
+        <f t="shared" si="59"/>
+        <v>red</v>
+      </c>
+      <c r="H116" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I116" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J116" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K116" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L116" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M116" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N116" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O116" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P116" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R116" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S116" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T116" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U116" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>Propriedade para pintar: tem_red</v>
+      </c>
+      <c r="V116" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">Dado para pintar: red ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>117</v>
+      </c>
+      <c r="B117" s="19" t="str">
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C117" s="45" t="str">
+        <f>C116</f>
+        <v>p_pintar</v>
+      </c>
+      <c r="D117" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E117" s="40" t="str">
+        <f t="shared" si="55"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F117" s="47" t="str">
+        <f t="shared" ref="F117:F118" si="62">_xlfn.CONCAT("d_",MID(C117,FIND("_",C117,1)+1,100))</f>
+        <v>d_pintar</v>
+      </c>
+      <c r="G117" s="47" t="str">
+        <f t="shared" ref="G117:G118" si="63">MID(D117,FIND("_",D117,1)+1,100)</f>
+        <v>green</v>
+      </c>
+      <c r="H117" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I117" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J117" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K117" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L117" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M117" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N117" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O117" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P117" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R117" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S117" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T117" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U117" s="9" t="str">
+        <f t="shared" ref="U117:U118" si="64">_xlfn.CONCAT("Propriedade para ",MID(C117,FIND("p_",C117,1)+2,100),": ",D117)</f>
+        <v>Propriedade para pintar: tem_green</v>
+      </c>
+      <c r="V117" s="9" t="str">
+        <f t="shared" ref="V117:V118" si="65">_xlfn.CONCAT("Dado para ",MID(F117,FIND("d_",F117,1)+2,100),": ",G117, " ( ",H117, " ) ")</f>
+        <v xml:space="preserve">Dado para pintar: green ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>118</v>
+      </c>
+      <c r="B118" s="19" t="str">
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C118" s="45" t="str">
+        <f>C117</f>
+        <v>p_pintar</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E118" s="40" t="str">
+        <f t="shared" si="55"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F118" s="47" t="str">
+        <f t="shared" si="62"/>
+        <v>d_pintar</v>
+      </c>
+      <c r="G118" s="47" t="str">
+        <f t="shared" si="63"/>
+        <v>blue</v>
+      </c>
+      <c r="H118" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I118" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K118" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L118" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M118" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N118" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O118" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P118" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R118" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S118" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T118" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U118" s="9" t="str">
+        <f t="shared" si="64"/>
+        <v>Propriedade para pintar: tem_blue</v>
+      </c>
+      <c r="V118" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve">Dado para pintar: blue ( xsd:integer ) </v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>119</v>
+      </c>
+      <c r="B119" s="19" t="str">
+        <f t="shared" si="39"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C119" s="45" t="str">
+        <f>C118</f>
+        <v>p_pintar</v>
+      </c>
+      <c r="D119" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E119" s="40" t="str">
+        <f t="shared" si="55"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F119" s="47" t="str">
+        <f t="shared" ref="F119" si="66">_xlfn.CONCAT("d_",MID(C119,FIND("_",C119,1)+1,100))</f>
+        <v>d_pintar</v>
+      </c>
+      <c r="G119" s="47" t="str">
+        <f t="shared" ref="G119" si="67">MID(D119,FIND("_",D119,1)+1,100)</f>
+        <v>alfa</v>
+      </c>
+      <c r="H119" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I119" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K119" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L119" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M119" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N119" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O119" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P119" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R119" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S119" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T119" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="U119" s="9" t="str">
+        <f t="shared" ref="U119" si="68">_xlfn.CONCAT("Propriedade para ",MID(C119,FIND("p_",C119,1)+2,100),": ",D119)</f>
+        <v>Propriedade para pintar: tem_alfa</v>
+      </c>
+      <c r="V119" s="9" t="str">
+        <f t="shared" ref="V119" si="69">_xlfn.CONCAT("Dado para ",MID(F119,FIND("d_",F119,1)+2,100),": ",G119, " ( ",H119, " ) ")</f>
+        <v xml:space="preserve">Dado para pintar: alfa ( xsd:integer ) </v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F6F20-2CA1-42C8-85B4-633B9B6DA685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D3C2A-0411-4000-B2E9-2BB5238CE665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Anotar" sheetId="33" r:id="rId1"/>
@@ -1340,11 +1340,11 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9.42578125" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="2.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.44140625" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1414,34 +1414,34 @@
   <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="37" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="36" customWidth="1"/>
     <col min="5" max="5" width="6" style="37" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="36" customWidth="1"/>
-    <col min="10" max="13" width="5.28515625" style="36" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="36" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.85546875" style="37" customWidth="1"/>
-    <col min="21" max="21" width="31.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.140625" style="38"/>
+    <col min="6" max="6" width="8.44140625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="36" customWidth="1"/>
+    <col min="10" max="13" width="5.33203125" style="36" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" style="36" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.88671875" style="37" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.88671875" style="37" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v xml:space="preserve">Dado para endereçar: continente ( xsd:string ) </v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v xml:space="preserve">Dado para endereçar: país ( xsd:string ) </v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v xml:space="preserve">Dado para endereçar: estado ( xsd:string ) </v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v xml:space="preserve">Dado para endereçar: cidade ( xsd:string ) </v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v xml:space="preserve">Dado para endereçar: area_planejamento ( xsd:string ) </v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v xml:space="preserve">Dado para endereçar: região_administrativa ( xsd:string ) </v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v xml:space="preserve">Dado para endereçar: distrito ( xsd:string ) </v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v xml:space="preserve">Dado para endereçar: bairro ( xsd:string ) </v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v xml:space="preserve">Dado para endereçar: nome_logradouro ( xsd:string ) </v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v xml:space="preserve">Dado para endereçar: número ( xsd:string ) </v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v xml:space="preserve">Dado para endereçar: cnj ( xsd:string ) </v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v xml:space="preserve">Dado para endereçar: grp ( xsd:string ) </v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v xml:space="preserve">Dado para endereçar: bloco ( xsd:string ) </v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v xml:space="preserve">Dado para endereçar: andar ( xsd:string ) </v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v xml:space="preserve">Dado para endereçar: cep ( xsd:string ) </v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v xml:space="preserve">Dado para endereçar: cx_postal ( xsd:string ) </v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v xml:space="preserve">Dado para endereçar: e_mail ( xsd:string ) </v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v xml:space="preserve">Dado para geolocalizar: latitude ( xsd:string ) </v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v xml:space="preserve">Dado para geolocalizar: longitude ( xsd:string ) </v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v xml:space="preserve">Dado para geolocalizar: altitude ( xsd:string ) </v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v xml:space="preserve">Dado para geolocalizar: geocode ( xsd:string ) </v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v xml:space="preserve">Dado para relacionar: conectado_a ( xsd:string ) </v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v xml:space="preserve">Dado para relacionar: dentro_de ( xsd:string ) </v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v xml:space="preserve">Dado para relacionar: fora_de ( xsd:string ) </v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v xml:space="preserve">Dado para relacionar: abaixo_de ( xsd:string ) </v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v xml:space="preserve">Dado para relacionar: acima_de ( xsd:string ) </v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v xml:space="preserve">Dado para relacionar: parte_de ( xsd:string ) </v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v xml:space="preserve">Dado para relacionar: agrupado_com ( xsd:string ) </v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v xml:space="preserve">Dado para classificar: categoria_revit ( xsd:string ) </v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>31</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v xml:space="preserve">Dado para classificar: classe_ifc ( xsd:string ) </v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v xml:space="preserve">Dado para classificar: entidade ( xsd:string ) </v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>33</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v xml:space="preserve">Dado para classificar: link ( xsd:string ) </v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v xml:space="preserve">Dado para classificar: grupo ( xsd:string ) </v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v xml:space="preserve">Dado para identificar: código ( xsd:string ) </v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v xml:space="preserve">Dado para identificar: nome ( xsd:string ) </v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v xml:space="preserve">Dado para identificar: id ( xsd:string ) </v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v xml:space="preserve">Dado para identificar: uri ( xsd:string ) </v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v xml:space="preserve">Dado para catalogar: modelo ( xsd:string ) </v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v xml:space="preserve">Dado para catalogar: tema ( xsd:string ) </v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v xml:space="preserve">Dado para catalogar: tipo ( xsd:string ) </v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v xml:space="preserve">Dado para catalogar: série ( xsd:string ) </v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v xml:space="preserve">Dado para catalogar: linha ( xsd:string ) </v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v xml:space="preserve">Dado para catalogar: item ( xsd:string ) </v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v xml:space="preserve">Dado para catalogar: vol ( xsd:string ) </v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v xml:space="preserve">Dado para catalogar: descrição ( xsd:string ) </v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v xml:space="preserve">Dado para definir: ambiente ( xsd:string ) </v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v xml:space="preserve">Dado para definir: equipamento ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v xml:space="preserve">Dado para definir: dispositivo ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v xml:space="preserve">Dado para definir: aparelho ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v xml:space="preserve">Dado para definir: instrumento ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v xml:space="preserve">Dado para definir: mobiliário ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>53</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v xml:space="preserve">Dado para administrar: público ( xsd:string ) </v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>54</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v xml:space="preserve">Dado para administrar: privado ( xsd:string ) </v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>55</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v xml:space="preserve">Dado para administrar: órgão ( xsd:string ) </v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>56</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v xml:space="preserve">Dado para administrar: unid_académica ( xsd:string ) </v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>57</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v xml:space="preserve">Dado para administrar: unid_administrativa ( xsd:string ) </v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>58</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v xml:space="preserve">Dado para administrar: unid_funcional ( xsd:string ) </v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>59</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v xml:space="preserve">Dado para administrar: departamento ( xsd:string ) </v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" s="26" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>60</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v xml:space="preserve">Dado para administrar: divisão ( xsd:string ) </v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>61</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v xml:space="preserve">Dado para administrar: núcleo ( xsd:string ) </v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>62</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v xml:space="preserve">Dado para administrar: setor ( xsd:string ) </v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>63</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v xml:space="preserve">Dado para administrar: zona ( xsd:string ) </v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>64</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v xml:space="preserve">Dado para contratar: contrato ( xsd:string ) </v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>65</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v xml:space="preserve">Dado para administrar: contratado ( xsd:string ) </v>
       </c>
     </row>
-    <row r="66" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>66</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v xml:space="preserve">Dado para contratar: contratante ( xsd:string ) </v>
       </c>
     </row>
-    <row r="67" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>67</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v xml:space="preserve">Dado para contratar: subcontratista ( xsd:string ) </v>
       </c>
     </row>
-    <row r="68" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>68</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v xml:space="preserve">Dado para contratar: empresa ( xsd:string ) </v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>69</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v xml:space="preserve">Dado para contratar: autor ( xsd:string ) </v>
       </c>
     </row>
-    <row r="70" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>70</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v xml:space="preserve">Dado para contratar: cnpj ( xsd:string ) </v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>71</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v xml:space="preserve">Dado para contratar: cpf ( xsd:string ) </v>
       </c>
     </row>
-    <row r="72" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>72</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v xml:space="preserve">Dado para contratar: processo ( xsd:string ) </v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>73</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v xml:space="preserve">Dado para contratar: processo_sei ( xsd:string ) </v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>74</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v xml:space="preserve">Dado para durar: data ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="75" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>75</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v xml:space="preserve">Dado para durar: data_inicial ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="76" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>76</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v xml:space="preserve">Dado para durar: data_final ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>77</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v xml:space="preserve">Dado para durar: duração ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="78" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>78</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v xml:space="preserve">Dado para durar: horário ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="79" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>79</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v xml:space="preserve">Dado para planejar: depois_a ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="80" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>80</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v xml:space="preserve">Dado para planejar: previo_a ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>81</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v xml:space="preserve">Dado para planejar: concomitante_com ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>82</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v xml:space="preserve">Dado para planejar: simultâneo_a ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>83</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v xml:space="preserve">Dado para planejar: marca_inicial ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>84</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v xml:space="preserve">Dado para planejar: marca_final ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v xml:space="preserve">Dado para planejar: momento ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>86</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v xml:space="preserve">Dado para acontecer: amanhecer ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v xml:space="preserve">Dado para acontecer: anoitecer ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>88</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v xml:space="preserve">Dado para acontecer: meiodia ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v xml:space="preserve">Dado para acontecer: equinócio_primavera ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>90</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v xml:space="preserve">Dado para acontecer: equinócio_outono ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v xml:space="preserve">Dado para acontecer: solstício_verão ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" s="12" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>92</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v xml:space="preserve">Dado para acontecer: solstício_inverno ( xsd:dateTime ) </v>
       </c>
     </row>
-    <row r="93" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>93</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
       </c>
     </row>
-    <row r="94" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>94</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
       </c>
     </row>
-    <row r="95" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
       </c>
     </row>
-    <row r="96" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>96</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v xml:space="preserve">Dado para normatizar: regulamento ( xsd:string ) </v>
       </c>
     </row>
-    <row r="97" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>97</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v xml:space="preserve">Dado para medir: volume ( xsd:double ) </v>
       </c>
     </row>
-    <row r="98" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>98</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v xml:space="preserve">Dado para medir: área ( xsd:double ) </v>
       </c>
     </row>
-    <row r="99" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>99</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v xml:space="preserve">Dado para medir: área_bruta ( xsd:double ) </v>
       </c>
     </row>
-    <row r="100" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>100</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v xml:space="preserve">Dado para medir: área_útil ( xsd:double ) </v>
       </c>
     </row>
-    <row r="101" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>101</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v xml:space="preserve">Dado para medir: altura ( xsd:double ) </v>
       </c>
     </row>
-    <row r="102" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>102</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v xml:space="preserve">Dado para medir: comprimento ( xsd:double ) </v>
       </c>
     </row>
-    <row r="103" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>103</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v xml:space="preserve">Dado para medir: largura ( xsd:double ) </v>
       </c>
     </row>
-    <row r="104" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>104</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v xml:space="preserve">Dado para medir: profundidade ( xsd:double ) </v>
       </c>
     </row>
-    <row r="105" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>105</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v xml:space="preserve">Dado para medir: espessura ( xsd:double ) </v>
       </c>
     </row>
-    <row r="106" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>106</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v xml:space="preserve">Dado para medir: pédireito ( xsd:double ) </v>
       </c>
     </row>
-    <row r="107" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>107</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v xml:space="preserve">Dado para medir: diámetro ( xsd:double ) </v>
       </c>
     </row>
-    <row r="108" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>108</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v xml:space="preserve">Dado para medir: diámetro_interno ( xsd:double ) </v>
       </c>
     </row>
-    <row r="109" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>109</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v xml:space="preserve">Dado para medir: diámetro_externo ( xsd:double ) </v>
       </c>
     </row>
-    <row r="110" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>110</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v xml:space="preserve">Dado para medir: raio ( xsd:double ) </v>
       </c>
     </row>
-    <row r="111" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>111</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v xml:space="preserve">Dado para contar: quantidade ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="112" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>112</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v xml:space="preserve">Dado para contar: módulo ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="113" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>113</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v xml:space="preserve">Dado para pesar: densidade ( xsd:double ) </v>
       </c>
     </row>
-    <row r="114" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>114</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v xml:space="preserve">Dado para pesar: peso ( xsd:double ) </v>
       </c>
     </row>
-    <row r="115" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>115</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v xml:space="preserve">Dado para pintar: cor ( xsd:string ) </v>
       </c>
     </row>
-    <row r="116" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>116</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v xml:space="preserve">Dado para pintar: red ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="117" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>117</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v xml:space="preserve">Dado para pintar: green ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="118" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>118</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v xml:space="preserve">Dado para pintar: blue ( xsd:integer ) </v>
       </c>
     </row>
-    <row r="119" spans="1:22" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>119</v>
       </c>

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931651F1-E79D-45E8-8B3E-66F92A72F535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0CFB0-7387-404C-A21C-4F834FF780FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -1536,9 +1536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W80" sqref="W80"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0CFB0-7387-404C-A21C-4F834FF780FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657B8A42-3FF2-4CFC-B961-22E2B7A828E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="312">
   <si>
     <t>null</t>
   </si>
@@ -708,6 +708,273 @@
   </si>
   <si>
     <t>Nome do autor do projeto</t>
+  </si>
+  <si>
+    <t>tem.vida.útil</t>
+  </si>
+  <si>
+    <t>Vida útil de algum componente expressa em horas</t>
+  </si>
+  <si>
+    <t>é.agente.extintor</t>
+  </si>
+  <si>
+    <t>p.extinguir</t>
+  </si>
+  <si>
+    <t>Classe de fogo: A (solidos), B (combustíveis) C (elétricos) D (metais) K (óleos)</t>
+  </si>
+  <si>
+    <t>é.tipo.de.extintor</t>
+  </si>
+  <si>
+    <t>é.carga.do.extintor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga do extintor. Pode ser em kg. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de extintor: CO2, H2O, mangueira ou coluna </t>
+  </si>
+  <si>
+    <t>Visibilidade da placa de sinalização. Valor 134</t>
+  </si>
+  <si>
+    <t>é.código.de.sinalização</t>
+  </si>
+  <si>
+    <t>Código de sinalização. Valores 23 ou 25.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agente do extintor. Valores possíveis CO2, H2O, H2O pressurizada, H2O de rede pressurizada </t>
+  </si>
+  <si>
+    <t>Data de validade do extintor</t>
+  </si>
+  <si>
+    <t>Data de verificação do extintor</t>
+  </si>
+  <si>
+    <t>Canal Azul do RGB</t>
+  </si>
+  <si>
+    <t>Canal Verde do RGB</t>
+  </si>
+  <si>
+    <t>Canal Vermelho do RGB</t>
+  </si>
+  <si>
+    <t>Uma cor definida por canais RGB ou RGBA</t>
+  </si>
+  <si>
+    <t>Canal alfa para transparências RGBA</t>
+  </si>
+  <si>
+    <t>Valor numérico inteiro modular</t>
+  </si>
+  <si>
+    <t>é.validade</t>
+  </si>
+  <si>
+    <t>é.classe.de.fogo</t>
+  </si>
+  <si>
+    <t>é.visibilidade.da.placa</t>
+  </si>
+  <si>
+    <t>é.data.de.verificação</t>
+  </si>
+  <si>
+    <t>é.classe.de.luminária</t>
+  </si>
+  <si>
+    <t>p.plantar</t>
+  </si>
+  <si>
+    <t>tem.data.de.plantio</t>
+  </si>
+  <si>
+    <t>tem.estado.de.conservação</t>
+  </si>
+  <si>
+    <t>Data de plantio do indivíduo</t>
+  </si>
+  <si>
+    <t>Estado de conservação do indivíduo</t>
+  </si>
+  <si>
+    <t>tem.tcr</t>
+  </si>
+  <si>
+    <t>Taxa de crescimento relativo. Proporção entre tamanho inicial e tamanho após uma fração temporal (Mi - Mf / Mi * Tempo)</t>
+  </si>
+  <si>
+    <t>tem.espécie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define a classe de dispositivo de iluminação. </t>
+  </si>
+  <si>
+    <t>Espécie de árvore ou planta</t>
+  </si>
+  <si>
+    <t>Uma data específica</t>
+  </si>
+  <si>
+    <t>Uma data considerada o dia de finalização de um processo</t>
+  </si>
+  <si>
+    <t>Uma data considerada o dia de inicialização de um processo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificação de processo SEI. Sistema Eletrônico de Informação do serviço publico brasileiro. </t>
+  </si>
+  <si>
+    <t>Identificação de um processo.</t>
+  </si>
+  <si>
+    <t>Valor OST de uma categoria de Revit</t>
+  </si>
+  <si>
+    <t>Valor de uma classe de Ifc</t>
+  </si>
+  <si>
+    <t>Valor de identificação de uma entidade de AutoCAD ou outro programa</t>
+  </si>
+  <si>
+    <t>Identificador único de objeto. Pode ser um Handle de AutoCAD ou número ID de objeto Revit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo definido pelo fabricante de um determinado produto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série definida pelo fabricante de um determinado produto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linha definida pelo fabricante de um determinado produto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo definido pelo fabricante de um determinado produto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item definido pelo fabricante de um determinado produto </t>
+  </si>
+  <si>
+    <t>Descrição de um determinado objeto</t>
+  </si>
+  <si>
+    <t>Nome de um ambiente</t>
+  </si>
+  <si>
+    <t>Se é equipamento = 1 senão 0</t>
+  </si>
+  <si>
+    <t>Se é dispositivo = 1 senão 0</t>
+  </si>
+  <si>
+    <t>Se é aparelho = 1 senão 0</t>
+  </si>
+  <si>
+    <t>Se é instrumento = 1 senão 0</t>
+  </si>
+  <si>
+    <t>Se é mobiliário = 1 senão 0</t>
+  </si>
+  <si>
+    <t>Valor de órgão de instituição publica brasileira</t>
+  </si>
+  <si>
+    <t>Nome de Unidade Acadêmica de instituição de ensino brasileira</t>
+  </si>
+  <si>
+    <t>Unidade funcional do Sistema Único de Saúde</t>
+  </si>
+  <si>
+    <t>Nome de departamento</t>
+  </si>
+  <si>
+    <t>é.sigla.departamento</t>
+  </si>
+  <si>
+    <t>Sigla de departamento</t>
+  </si>
+  <si>
+    <t>Nome de zona de alguma instituição ou edifício</t>
+  </si>
+  <si>
+    <t>Nome de setor de alguma instituição ou edifício</t>
+  </si>
+  <si>
+    <t>Nome de núcleo de alguma instituição ou edifício</t>
+  </si>
+  <si>
+    <t>Nome de divisão de alguma instituição ou edifício</t>
+  </si>
+  <si>
+    <t>Nome de Unidade Administrativa alguma instituição ou edifício</t>
+  </si>
+  <si>
+    <t>Se é público = 1 senão 0</t>
+  </si>
+  <si>
+    <t>Se é privado = 1 senão 0</t>
+  </si>
+  <si>
+    <t>Volume do SomaSUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tema definido pelo fabricante de um determinado produto </t>
+  </si>
+  <si>
+    <t>Nome de algum objeto definido</t>
+  </si>
+  <si>
+    <t>Código de algum objeto definido</t>
+  </si>
+  <si>
+    <t>Grupo de objetos de um modelo BIM ou arquivo CAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link de vínculação entre arquivos de modelos </t>
+  </si>
+  <si>
+    <t>Uniform Resource Identification</t>
+  </si>
+  <si>
+    <t>Nome do continente</t>
+  </si>
+  <si>
+    <t>Nome do país</t>
+  </si>
+  <si>
+    <t>Nome do estado</t>
+  </si>
+  <si>
+    <t>Nome da cidade</t>
+  </si>
+  <si>
+    <t>Código de Area de Planejamento (AP.01 por exemplo)</t>
+  </si>
+  <si>
+    <t>Código de Região Administrativa (RA.20  por exemplo)</t>
+  </si>
+  <si>
+    <t>Número de endereço</t>
+  </si>
+  <si>
+    <t>Nome do bairro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em alguns endereços pode haver Bloco </t>
+  </si>
+  <si>
+    <t>Nome do Andar</t>
+  </si>
+  <si>
+    <t>tem.cota</t>
+  </si>
+  <si>
+    <t>Valor numérico da cota de um andar ou curva de nível</t>
   </si>
 </sst>
 </file>
@@ -783,7 +1050,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,6 +1177,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -964,7 +1243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1126,11 +1405,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1524,7 +1819,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:H1 A1:A2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1534,22 +1829,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
-  <dimension ref="A1:W130"/>
+  <dimension ref="A1:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="36" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="37" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="36" customWidth="1"/>
     <col min="5" max="5" width="6" style="37" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="36" customWidth="1"/>
     <col min="10" max="13" width="5.28515625" style="36" customWidth="1"/>
@@ -1561,11 +1856,11 @@
     <col min="19" max="20" width="5.85546875" style="37" customWidth="1"/>
     <col min="21" max="21" width="24.5703125" style="37" customWidth="1"/>
     <col min="22" max="22" width="27.28515625" style="37" customWidth="1"/>
-    <col min="23" max="23" width="35.140625" style="37" customWidth="1"/>
+    <col min="23" max="23" width="51.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="11.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
@@ -1636,7 +1931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -1708,10 +2003,10 @@
         <v xml:space="preserve">Dado para endereçar: continente ( xsd:string ) </v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -1785,10 +2080,10 @@
         <v xml:space="preserve">Dado para endereçar: país ( xsd:string ) </v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -1862,10 +2157,10 @@
         <v xml:space="preserve">Dado para endereçar: estado ( xsd:string ) </v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -1939,10 +2234,10 @@
         <v xml:space="preserve">Dado para endereçar: cidade ( xsd:string ) </v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -2016,10 +2311,10 @@
         <v xml:space="preserve">Dado para endereçar: area.planejamento ( xsd:string ) </v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -2093,10 +2388,10 @@
         <v xml:space="preserve">Dado para endereçar: região.administrativa ( xsd:string ) </v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -2173,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -2247,10 +2542,10 @@
         <v xml:space="preserve">Dado para endereçar: bairro ( xsd:string ) </v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -2327,7 +2622,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -2401,10 +2696,10 @@
         <v xml:space="preserve">Dado para endereçar: número ( xsd:string ) </v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -2481,7 +2776,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -2558,7 +2853,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -2632,10 +2927,10 @@
         <v xml:space="preserve">Dado para endereçar: bloco ( xsd:string ) </v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -2709,10 +3004,10 @@
         <v xml:space="preserve">Dado para endereçar: andar ( xsd:string ) </v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -2789,7 +3084,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -2866,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -2943,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -3019,7 +3314,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -3096,7 +3391,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -3173,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -3250,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -3326,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -3403,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -3480,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -3557,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -3634,12 +3929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>28</v>
       </c>
       <c r="B28" s="19" t="str">
-        <f t="shared" ref="B28:B68" si="8">B23</f>
+        <f t="shared" ref="B28:B69" si="8">B23</f>
         <v>BIMProp</v>
       </c>
       <c r="C28" s="27" t="str">
@@ -3711,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -3788,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -3861,10 +4156,10 @@
         <v xml:space="preserve">Dado para classificar: categoria.revit ( xsd:string ) </v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>31</v>
       </c>
@@ -3938,10 +4233,10 @@
         <v xml:space="preserve">Dado para classificar: classe.ifc ( xsd:string ) </v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -4015,10 +4310,10 @@
         <v xml:space="preserve">Dado para classificar: entidade ( xsd:string ) </v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>33</v>
       </c>
@@ -4092,10 +4387,10 @@
         <v xml:space="preserve">Dado para classificar: link ( xsd:string ) </v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -4118,7 +4413,7 @@
         <v>d.classificar</v>
       </c>
       <c r="G34" s="14" t="str">
-        <f t="shared" ref="G34:G65" si="11">MID(D34,FIND(".",D34,1)+1,100)</f>
+        <f t="shared" ref="G34:G66" si="11">MID(D34,FIND(".",D34,1)+1,100)</f>
         <v>grupo</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -4161,18 +4456,18 @@
         <v>43</v>
       </c>
       <c r="U34" s="9" t="str">
-        <f t="shared" ref="U34:U65" si="12">_xlfn.CONCAT("Propriedade para ",MID(C34,FIND("p.",C34,1)+2,100),": ",D34)</f>
+        <f t="shared" ref="U34:U66" si="12">_xlfn.CONCAT("Propriedade para ",MID(C34,FIND("p.",C34,1)+2,100),": ",D34)</f>
         <v>Propriedade para classificar: é.grupo</v>
       </c>
       <c r="V34" s="9" t="str">
-        <f t="shared" ref="V34:V65" si="13">_xlfn.CONCAT("Dado para ",MID(F34,FIND("d.",F34,1)+2,100),": ",G34, " ( ",H34, " ) ")</f>
+        <f t="shared" ref="V34:V66" si="13">_xlfn.CONCAT("Dado para ",MID(F34,FIND("d.",F34,1)+2,100),": ",G34, " ( ",H34, " ) ")</f>
         <v xml:space="preserve">Dado para classificar: grupo ( xsd:string ) </v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -4245,10 +4540,10 @@
         <v xml:space="preserve">Dado para identificar: código ( xsd:string ) </v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -4322,10 +4617,10 @@
         <v xml:space="preserve">Dado para identificar: nome ( xsd:string ) </v>
       </c>
       <c r="W36" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -4399,10 +4694,10 @@
         <v xml:space="preserve">Dado para identificar: id ( xsd:string ) </v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -4476,10 +4771,10 @@
         <v xml:space="preserve">Dado para identificar: uri ( xsd:string ) </v>
       </c>
       <c r="W38" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -4552,10 +4847,10 @@
         <v xml:space="preserve">Dado para catalogar: modelo ( xsd:string ) </v>
       </c>
       <c r="W39" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -4629,10 +4924,10 @@
         <v xml:space="preserve">Dado para catalogar: tema ( xsd:string ) </v>
       </c>
       <c r="W40" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -4706,10 +5001,10 @@
         <v xml:space="preserve">Dado para catalogar: tipo ( xsd:string ) </v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -4783,10 +5078,10 @@
         <v xml:space="preserve">Dado para catalogar: série ( xsd:string ) </v>
       </c>
       <c r="W42" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -4860,10 +5155,10 @@
         <v xml:space="preserve">Dado para catalogar: linha ( xsd:string ) </v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -4937,10 +5232,10 @@
         <v xml:space="preserve">Dado para catalogar: item ( xsd:string ) </v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -5014,10 +5309,10 @@
         <v xml:space="preserve">Dado para catalogar: vol ( xsd:string ) </v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -5091,10 +5386,10 @@
         <v xml:space="preserve">Dado para catalogar: descrição ( xsd:string ) </v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -5167,10 +5462,10 @@
         <v xml:space="preserve">Dado para definir: ambiente ( xsd:string ) </v>
       </c>
       <c r="W47" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -5244,10 +5539,10 @@
         <v xml:space="preserve">Dado para definir: equipamento ( xsd:integer ) </v>
       </c>
       <c r="W48" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -5321,10 +5616,10 @@
         <v xml:space="preserve">Dado para definir: dispositivo ( xsd:integer ) </v>
       </c>
       <c r="W49" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -5398,10 +5693,10 @@
         <v xml:space="preserve">Dado para definir: aparelho ( xsd:integer ) </v>
       </c>
       <c r="W50" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -5475,10 +5770,10 @@
         <v xml:space="preserve">Dado para definir: instrumento ( xsd:integer ) </v>
       </c>
       <c r="W51" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -5552,10 +5847,10 @@
         <v xml:space="preserve">Dado para definir: mobiliário ( xsd:integer ) </v>
       </c>
       <c r="W52" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>53</v>
       </c>
@@ -5581,7 +5876,7 @@
         <v>público</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I53" s="23" t="s">
         <v>0</v>
@@ -5625,13 +5920,13 @@
       </c>
       <c r="V53" s="9" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Dado para administrar: público ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: público ( xsd:integer ) </v>
       </c>
       <c r="W53" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>54</v>
       </c>
@@ -5658,7 +5953,7 @@
         <v>privado</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>0</v>
@@ -5702,13 +5997,13 @@
       </c>
       <c r="V54" s="9" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Dado para administrar: privado ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: privado ( xsd:integer ) </v>
       </c>
       <c r="W54" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>55</v>
       </c>
@@ -5717,7 +6012,7 @@
         <v>BIMProp</v>
       </c>
       <c r="C55" s="11" t="str">
-        <f t="shared" ref="C55:C63" si="18">C54</f>
+        <f t="shared" ref="C55:C64" si="18">C54</f>
         <v>p.administrar</v>
       </c>
       <c r="D55" s="10" t="s">
@@ -5727,7 +6022,7 @@
         <v>38</v>
       </c>
       <c r="F55" s="6" t="str">
-        <f t="shared" ref="F55:F63" si="19">F54</f>
+        <f t="shared" ref="F55:F64" si="19">F54</f>
         <v>d.administrar</v>
       </c>
       <c r="G55" s="6" t="str">
@@ -5782,10 +6077,10 @@
         <v xml:space="preserve">Dado para administrar: órgão ( xsd:string ) </v>
       </c>
       <c r="W55" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>56</v>
       </c>
@@ -5859,10 +6154,10 @@
         <v xml:space="preserve">Dado para administrar: unid.académica ( xsd:string ) </v>
       </c>
       <c r="W56" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>57</v>
       </c>
@@ -5936,10 +6231,10 @@
         <v xml:space="preserve">Dado para administrar: unid.administrativa ( xsd:string ) </v>
       </c>
       <c r="W57" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>58</v>
       </c>
@@ -6013,19 +6308,19 @@
         <v xml:space="preserve">Dado para administrar: unid.funcional ( xsd:string ) </v>
       </c>
       <c r="W58" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>59</v>
       </c>
       <c r="B59" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f>B53</f>
         <v>BIMProp</v>
       </c>
       <c r="C59" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f>C57</f>
         <v>p.administrar</v>
       </c>
       <c r="D59" s="27" t="s">
@@ -6035,11 +6330,11 @@
         <v>38</v>
       </c>
       <c r="F59" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f>F57</f>
         <v>d.administrar</v>
       </c>
       <c r="G59" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G59" si="20">MID(D59,FIND(".",D59,1)+1,100)</f>
         <v>departamento</v>
       </c>
       <c r="H59" s="7" t="s">
@@ -6082,47 +6377,47 @@
         <v>43</v>
       </c>
       <c r="U59" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="U59" si="21">_xlfn.CONCAT("Propriedade para ",MID(C59,FIND("p.",C59,1)+2,100),": ",D59)</f>
         <v>Propriedade para administrar: é.departamento</v>
       </c>
       <c r="V59" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="V59" si="22">_xlfn.CONCAT("Dado para ",MID(F59,FIND("d.",F59,1)+2,100),": ",G59, " ( ",H59, " ) ")</f>
         <v xml:space="preserve">Dado para administrar: departamento ( xsd:string ) </v>
       </c>
       <c r="W59" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" s="26" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>60</v>
       </c>
       <c r="B60" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f>B54</f>
         <v>BIMProp</v>
       </c>
       <c r="C60" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f>C58</f>
         <v>p.administrar</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F60" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f>F58</f>
         <v>d.administrar</v>
       </c>
       <c r="G60" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>divisão</v>
+        <v>sigla.departamento</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J60" s="21" t="s">
@@ -6160,30 +6455,30 @@
       </c>
       <c r="U60" s="9" t="str">
         <f t="shared" si="12"/>
-        <v>Propriedade para administrar: é.divisão</v>
+        <v>Propriedade para administrar: é.sigla.departamento</v>
       </c>
       <c r="V60" s="9" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Dado para administrar: divisão ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: sigla.departamento ( xsd:string ) </v>
       </c>
       <c r="W60" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" s="26" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>61</v>
       </c>
       <c r="B61" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f>B55</f>
         <v>BIMProp</v>
       </c>
       <c r="C61" s="11" t="str">
         <f t="shared" si="18"/>
         <v>p.administrar</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>115</v>
+      <c r="D61" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>38</v>
@@ -6192,14 +6487,14 @@
         <f t="shared" si="19"/>
         <v>d.administrar</v>
       </c>
-      <c r="G61" s="6" t="str">
+      <c r="G61" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>núcleo</v>
+        <v>divisão</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I61" s="18" t="s">
+      <c r="I61" s="8" t="s">
         <v>0</v>
       </c>
       <c r="J61" s="21" t="s">
@@ -6237,22 +6532,22 @@
       </c>
       <c r="U61" s="9" t="str">
         <f t="shared" si="12"/>
-        <v>Propriedade para administrar: é.núcleo</v>
+        <v>Propriedade para administrar: é.divisão</v>
       </c>
       <c r="V61" s="9" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Dado para administrar: núcleo ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: divisão ( xsd:string ) </v>
       </c>
       <c r="W61" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>62</v>
       </c>
       <c r="B62" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f>B56</f>
         <v>BIMProp</v>
       </c>
       <c r="C62" s="11" t="str">
@@ -6260,7 +6555,7 @@
         <v>p.administrar</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>38</v>
@@ -6271,7 +6566,7 @@
       </c>
       <c r="G62" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>setor</v>
+        <v>núcleo</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>39</v>
@@ -6314,22 +6609,22 @@
       </c>
       <c r="U62" s="9" t="str">
         <f t="shared" si="12"/>
-        <v>Propriedade para administrar: é.setor</v>
+        <v>Propriedade para administrar: é.núcleo</v>
       </c>
       <c r="V62" s="9" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Dado para administrar: setor ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: núcleo ( xsd:string ) </v>
       </c>
       <c r="W62" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>63</v>
       </c>
       <c r="B63" s="19" t="str">
-        <f t="shared" si="8"/>
+        <f>B57</f>
         <v>BIMProp</v>
       </c>
       <c r="C63" s="11" t="str">
@@ -6337,7 +6632,7 @@
         <v>p.administrar</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>38</v>
@@ -6348,7 +6643,7 @@
       </c>
       <c r="G63" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>zona</v>
+        <v>setor</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>39</v>
@@ -6391,247 +6686,247 @@
       </c>
       <c r="U63" s="9" t="str">
         <f t="shared" si="12"/>
-        <v>Propriedade para administrar: é.zona</v>
+        <v>Propriedade para administrar: é.setor</v>
       </c>
       <c r="V63" s="9" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">Dado para administrar: zona ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para administrar: setor ( xsd:string ) </v>
       </c>
       <c r="W63" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>64</v>
       </c>
       <c r="B64" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C64" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>118</v>
+        <f>B58</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C64" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>p.administrar</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="54" t="str">
-        <f t="shared" ref="F64:F100" si="20">_xlfn.CONCAT("d.",MID(C64,FIND(".",C64,1)+1,100))</f>
+      <c r="F64" s="6" t="str">
+        <f t="shared" si="19"/>
+        <v>d.administrar</v>
+      </c>
+      <c r="G64" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>zona</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T64" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U64" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>Propriedade para administrar: é.zona</v>
+      </c>
+      <c r="V64" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Dado para administrar: zona ( xsd:string ) </v>
+      </c>
+      <c r="W64" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>65</v>
+      </c>
+      <c r="B65" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="54" t="str">
+        <f t="shared" ref="F65:F102" si="23">_xlfn.CONCAT("d.",MID(C65,FIND(".",C65,1)+1,100))</f>
         <v>d.contratar</v>
       </c>
-      <c r="G64" s="5" t="str">
+      <c r="G65" s="5" t="str">
         <f t="shared" si="11"/>
         <v>contrato</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H65" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I64" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S64" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T64" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U64" s="9" t="str">
+      <c r="I65" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S65" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T65" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U65" s="9" t="str">
         <f t="shared" si="12"/>
         <v>Propriedade para contratar: é.contrato</v>
       </c>
-      <c r="V64" s="9" t="str">
+      <c r="V65" s="9" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Dado para contratar: contrato ( xsd:string ) </v>
       </c>
-      <c r="W64" s="9" t="s">
+      <c r="W65" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>65</v>
-      </c>
-      <c r="B65" s="19" t="str">
+    <row r="66" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>66</v>
+      </c>
+      <c r="B66" s="19" t="str">
         <f t="shared" si="8"/>
         <v>BIMProp</v>
       </c>
-      <c r="C65" s="11" t="str">
-        <f>C64</f>
+      <c r="C66" s="11" t="str">
+        <f>C65</f>
         <v>p.contratar</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D66" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E66" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="6" t="str">
-        <f t="shared" si="20"/>
+      <c r="F66" s="6" t="str">
+        <f t="shared" si="23"/>
         <v>d.contratar</v>
       </c>
-      <c r="G65" s="6" t="str">
+      <c r="G66" s="6" t="str">
         <f t="shared" si="11"/>
         <v>contratado</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I65" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S65" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T65" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U65" s="9" t="str">
+      <c r="I66" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R66" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S66" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T66" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U66" s="9" t="str">
         <f t="shared" si="12"/>
         <v>Propriedade para contratar: é.contratado</v>
       </c>
-      <c r="V65" s="9" t="str">
+      <c r="V66" s="9" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Dado para contratar: contratado ( xsd:string ) </v>
       </c>
-      <c r="W65" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>66</v>
-      </c>
-      <c r="B66" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C66" s="11" t="str">
-        <f t="shared" ref="C66:C73" si="21">C65</f>
-        <v>p.contratar</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>d.contratar</v>
-      </c>
-      <c r="G66" s="6" t="str">
-        <f t="shared" ref="G66:G102" si="22">MID(D66,FIND(".",D66,1)+1,100)</f>
-        <v>contratante</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S66" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T66" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U66" s="9" t="str">
-        <f t="shared" ref="U66:U102" si="23">_xlfn.CONCAT("Propriedade para ",MID(C66,FIND("p.",C66,1)+2,100),": ",D66)</f>
-        <v>Propriedade para contratar: é.contratante</v>
-      </c>
-      <c r="V66" s="9" t="str">
-        <f t="shared" ref="V66:V102" si="24">_xlfn.CONCAT("Dado para ",MID(F66,FIND("d.",F66,1)+2,100),": ",G66, " ( ",H66, " ) ")</f>
-        <v xml:space="preserve">Dado para contratar: contratante ( xsd:string ) </v>
-      </c>
       <c r="W66" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>67</v>
       </c>
@@ -6640,22 +6935,22 @@
         <v>BIMProp</v>
       </c>
       <c r="C67" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="C67:C74" si="24">C66</f>
         <v>p.contratar</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F67" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.contratar</v>
       </c>
       <c r="G67" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>subcontratista</v>
+        <f t="shared" ref="G67:G104" si="25">MID(D67,FIND(".",D67,1)+1,100)</f>
+        <v>contratante</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>39</v>
@@ -6697,18 +6992,18 @@
         <v>43</v>
       </c>
       <c r="U67" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para contratar: é.subcontratista</v>
+        <f t="shared" ref="U67:U104" si="26">_xlfn.CONCAT("Propriedade para ",MID(C67,FIND("p.",C67,1)+2,100),": ",D67)</f>
+        <v>Propriedade para contratar: é.contratante</v>
       </c>
       <c r="V67" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para contratar: subcontratista ( xsd:string ) </v>
+        <f t="shared" ref="V67:V104" si="27">_xlfn.CONCAT("Dado para ",MID(F67,FIND("d.",F67,1)+2,100),": ",G67, " ( ",H67, " ) ")</f>
+        <v xml:space="preserve">Dado para contratar: contratante ( xsd:string ) </v>
       </c>
       <c r="W67" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>68</v>
       </c>
@@ -6717,22 +7012,22 @@
         <v>BIMProp</v>
       </c>
       <c r="C68" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>p.contratar</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.contratar</v>
       </c>
       <c r="G68" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>empresa</v>
+        <f t="shared" si="25"/>
+        <v>subcontratista</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>39</v>
@@ -6774,42 +7069,42 @@
         <v>43</v>
       </c>
       <c r="U68" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para contratar: é.empresa</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para contratar: é.subcontratista</v>
       </c>
       <c r="V68" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para contratar: empresa ( xsd:string ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para contratar: subcontratista ( xsd:string ) </v>
       </c>
       <c r="W68" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>69</v>
       </c>
       <c r="B69" s="19" t="str">
-        <f>B62</f>
+        <f t="shared" si="8"/>
         <v>BIMProp</v>
       </c>
       <c r="C69" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>p.contratar</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F69" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.contratar</v>
       </c>
       <c r="G69" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>proprietário</v>
+        <f t="shared" si="25"/>
+        <v>empresa</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>39</v>
@@ -6851,42 +7146,42 @@
         <v>43</v>
       </c>
       <c r="U69" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para contratar: é.proprietário</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para contratar: é.empresa</v>
       </c>
       <c r="V69" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para contratar: proprietário ( xsd:string ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para contratar: empresa ( xsd:string ) </v>
       </c>
       <c r="W69" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>70</v>
       </c>
       <c r="B70" s="19" t="str">
-        <f>B56</f>
+        <f>B63</f>
         <v>BIMProp</v>
       </c>
       <c r="C70" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>p.contratar</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F70" s="6" t="str">
-        <f t="shared" ref="F70:F73" si="25">_xlfn.CONCAT("d.",MID(C70,FIND(".",C70,1)+1,100))</f>
+        <f t="shared" si="23"/>
         <v>d.contratar</v>
       </c>
       <c r="G70" s="6" t="str">
-        <f t="shared" ref="G70:G73" si="26">MID(D70,FIND(".",D70,1)+1,100)</f>
-        <v>cnpj</v>
+        <f t="shared" si="25"/>
+        <v>proprietário</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>39</v>
@@ -6928,42 +7223,42 @@
         <v>43</v>
       </c>
       <c r="U70" s="9" t="str">
-        <f t="shared" ref="U70:U73" si="27">_xlfn.CONCAT("Propriedade para ",MID(C70,FIND("p.",C70,1)+2,100),": ",D70)</f>
-        <v>Propriedade para contratar: é.cnpj</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para contratar: é.proprietário</v>
       </c>
       <c r="V70" s="9" t="str">
-        <f t="shared" ref="V70:V73" si="28">_xlfn.CONCAT("Dado para ",MID(F70,FIND("d.",F70,1)+2,100),": ",G70, " ( ",H70, " ) ")</f>
-        <v xml:space="preserve">Dado para contratar: cnpj ( xsd:string ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para contratar: proprietário ( xsd:string ) </v>
       </c>
       <c r="W70" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>71</v>
       </c>
       <c r="B71" s="19" t="str">
-        <f>B57</f>
+        <f>B56</f>
         <v>BIMProp</v>
       </c>
       <c r="C71" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>p.contratar</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F71" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="F71:F74" si="28">_xlfn.CONCAT("d.",MID(C71,FIND(".",C71,1)+1,100))</f>
         <v>d.contratar</v>
       </c>
       <c r="G71" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v>cpf</v>
+        <f t="shared" ref="G71:G74" si="29">MID(D71,FIND(".",D71,1)+1,100)</f>
+        <v>cnpj</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>39</v>
@@ -7005,42 +7300,42 @@
         <v>43</v>
       </c>
       <c r="U71" s="9" t="str">
-        <f t="shared" si="27"/>
-        <v>Propriedade para contratar: é.cpf</v>
+        <f t="shared" ref="U71:U74" si="30">_xlfn.CONCAT("Propriedade para ",MID(C71,FIND("p.",C71,1)+2,100),": ",D71)</f>
+        <v>Propriedade para contratar: é.cnpj</v>
       </c>
       <c r="V71" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">Dado para contratar: cpf ( xsd:string ) </v>
+        <f t="shared" ref="V71:V74" si="31">_xlfn.CONCAT("Dado para ",MID(F71,FIND("d.",F71,1)+2,100),": ",G71, " ( ",H71, " ) ")</f>
+        <v xml:space="preserve">Dado para contratar: cnpj ( xsd:string ) </v>
       </c>
       <c r="W71" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>72</v>
       </c>
       <c r="B72" s="19" t="str">
-        <f>B58</f>
+        <f>B57</f>
         <v>BIMProp</v>
       </c>
       <c r="C72" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>p.contratar</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F72" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>d.contratar</v>
       </c>
       <c r="G72" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v>processo</v>
+        <f t="shared" si="29"/>
+        <v>cpf</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>39</v>
@@ -7082,42 +7377,42 @@
         <v>43</v>
       </c>
       <c r="U72" s="9" t="str">
-        <f t="shared" si="27"/>
-        <v>Propriedade para contratar: é.processo</v>
+        <f t="shared" si="30"/>
+        <v>Propriedade para contratar: é.cpf</v>
       </c>
       <c r="V72" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">Dado para contratar: processo ( xsd:string ) </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Dado para contratar: cpf ( xsd:string ) </v>
       </c>
       <c r="W72" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>73</v>
       </c>
       <c r="B73" s="19" t="str">
-        <f>B59</f>
+        <f>B58</f>
         <v>BIMProp</v>
       </c>
       <c r="C73" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>p.contratar</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F73" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>d.contratar</v>
       </c>
       <c r="G73" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v>processo.sei</v>
+        <f t="shared" si="29"/>
+        <v>processo</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>39</v>
@@ -7159,46 +7454,47 @@
         <v>43</v>
       </c>
       <c r="U73" s="9" t="str">
-        <f t="shared" si="27"/>
-        <v>Propriedade para contratar: é.processo.sei</v>
+        <f t="shared" si="30"/>
+        <v>Propriedade para contratar: é.processo</v>
       </c>
       <c r="V73" s="9" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">Dado para contratar: processo.sei ( xsd:string ) </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Dado para contratar: processo ( xsd:string ) </v>
       </c>
       <c r="W73" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>74</v>
       </c>
       <c r="B74" s="19" t="str">
-        <f>B62</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C74" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>123</v>
+        <f>B60</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C74" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>p.contratar</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="54" t="str">
-        <f t="shared" si="20"/>
-        <v>d.produzir</v>
-      </c>
-      <c r="G74" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v>autor</v>
-      </c>
-      <c r="H74" s="15" t="s">
+      <c r="F74" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>d.contratar</v>
+      </c>
+      <c r="G74" s="6" t="str">
+        <f t="shared" si="29"/>
+        <v>processo.sei</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I74" s="23" t="s">
+      <c r="I74" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J74" s="21" t="s">
@@ -7235,18 +7531,18 @@
         <v>43</v>
       </c>
       <c r="U74" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para produzir: é.autor</v>
+        <f t="shared" si="30"/>
+        <v>Propriedade para contratar: é.processo.sei</v>
       </c>
       <c r="V74" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para produzir: autor ( xsd:string ) </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Dado para contratar: processo.sei ( xsd:string ) </v>
       </c>
       <c r="W74" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" s="12" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>75</v>
       </c>
@@ -7254,28 +7550,27 @@
         <f>B63</f>
         <v>BIMProp</v>
       </c>
-      <c r="C75" s="11" t="str">
-        <f>C74</f>
-        <v>p.produzir</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>212</v>
+      <c r="C75" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="6" t="str">
-        <f t="shared" ref="F75:F77" si="29">_xlfn.CONCAT("d.",MID(C75,FIND(".",C75,1)+1,100))</f>
+      <c r="F75" s="54" t="str">
+        <f t="shared" si="23"/>
         <v>d.produzir</v>
       </c>
-      <c r="G75" s="6" t="str">
-        <f t="shared" ref="G75:G77" si="30">MID(D75,FIND(".",D75,1)+1,100)</f>
-        <v>coordenador</v>
-      </c>
-      <c r="H75" s="7" t="s">
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>autor</v>
+      </c>
+      <c r="H75" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I75" s="18" t="s">
+      <c r="I75" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J75" s="21" t="s">
@@ -7312,42 +7607,42 @@
         <v>43</v>
       </c>
       <c r="U75" s="9" t="str">
-        <f t="shared" ref="U75:U77" si="31">_xlfn.CONCAT("Propriedade para ",MID(C75,FIND("p.",C75,1)+2,100),": ",D75)</f>
-        <v>Propriedade para produzir: é.coordenador</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para produzir: é.autor</v>
       </c>
       <c r="V75" s="9" t="str">
-        <f t="shared" ref="V75:V77" si="32">_xlfn.CONCAT("Dado para ",MID(F75,FIND("d.",F75,1)+2,100),": ",G75, " ( ",H75, " ) ")</f>
-        <v xml:space="preserve">Dado para produzir: coordenador ( xsd:string ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para produzir: autor ( xsd:string ) </v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>76</v>
       </c>
       <c r="B76" s="19" t="str">
-        <f>B63</f>
+        <f>B64</f>
         <v>BIMProp</v>
       </c>
       <c r="C76" s="11" t="str">
-        <f t="shared" ref="C76" si="33">C75</f>
+        <f>C75</f>
         <v>p.produzir</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="F76:F78" si="32">_xlfn.CONCAT("d.",MID(C76,FIND(".",C76,1)+1,100))</f>
         <v>d.produzir</v>
       </c>
       <c r="G76" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>desenhista</v>
+        <f t="shared" ref="G76:G78" si="33">MID(D76,FIND(".",D76,1)+1,100)</f>
+        <v>coordenador</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>39</v>
@@ -7389,42 +7684,42 @@
         <v>43</v>
       </c>
       <c r="U76" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para produzir: é.desenhista</v>
+        <f t="shared" ref="U76:U78" si="34">_xlfn.CONCAT("Propriedade para ",MID(C76,FIND("p.",C76,1)+2,100),": ",D76)</f>
+        <v>Propriedade para produzir: é.coordenador</v>
       </c>
       <c r="V76" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para produzir: desenhista ( xsd:string ) </v>
+        <f t="shared" ref="V76:V78" si="35">_xlfn.CONCAT("Dado para ",MID(F76,FIND("d.",F76,1)+2,100),": ",G76, " ( ",H76, " ) ")</f>
+        <v xml:space="preserve">Dado para produzir: coordenador ( xsd:string ) </v>
       </c>
       <c r="W76" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>77</v>
       </c>
       <c r="B77" s="19" t="str">
-        <f>B63</f>
+        <f>B64</f>
         <v>BIMProp</v>
       </c>
       <c r="C77" s="11" t="str">
-        <f>C75</f>
+        <f t="shared" ref="C77" si="36">C76</f>
         <v>p.produzir</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F77" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>d.produzir</v>
       </c>
       <c r="G77" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>colaborador</v>
+        <f t="shared" si="33"/>
+        <v>desenhista</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>39</v>
@@ -7466,18 +7761,18 @@
         <v>43</v>
       </c>
       <c r="U77" s="9" t="str">
-        <f t="shared" si="31"/>
-        <v>Propriedade para produzir: é.colaborador</v>
+        <f t="shared" si="34"/>
+        <v>Propriedade para produzir: é.desenhista</v>
       </c>
       <c r="V77" s="9" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">Dado para produzir: colaborador ( xsd:string ) </v>
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">Dado para produzir: desenhista ( xsd:string ) </v>
       </c>
       <c r="W77" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>78</v>
       </c>
@@ -7490,18 +7785,18 @@
         <v>p.produzir</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F78" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>d.produzir</v>
       </c>
       <c r="G78" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>revisor</v>
+        <f t="shared" si="33"/>
+        <v>colaborador</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>39</v>
@@ -7543,50 +7838,51 @@
         <v>43</v>
       </c>
       <c r="U78" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para produzir: é.revisor</v>
+        <f t="shared" si="34"/>
+        <v>Propriedade para produzir: é.colaborador</v>
       </c>
       <c r="V78" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para produzir: revisor ( xsd:string ) </v>
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">Dado para produzir: colaborador ( xsd:string ) </v>
       </c>
       <c r="W78" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>79</v>
       </c>
       <c r="B79" s="19" t="str">
-        <f>B78</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C79" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>128</v>
+        <f>B65</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C79" s="11" t="str">
+        <f>C77</f>
+        <v>p.produzir</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F79" s="54" t="str">
-        <f t="shared" si="20"/>
-        <v>d.durar</v>
-      </c>
-      <c r="G79" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v>data</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I79" s="23" t="s">
+      <c r="F79" s="6" t="str">
+        <f t="shared" si="23"/>
+        <v>d.produzir</v>
+      </c>
+      <c r="G79" s="6" t="str">
+        <f t="shared" si="25"/>
+        <v>revisor</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J79" s="21" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K79" s="21" t="s">
         <v>0</v>
@@ -7619,47 +7915,46 @@
         <v>43</v>
       </c>
       <c r="U79" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para durar: tem.data</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para produzir: é.revisor</v>
       </c>
       <c r="V79" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para durar: data ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para produzir: revisor ( xsd:string ) </v>
       </c>
       <c r="W79" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>80</v>
       </c>
       <c r="B80" s="19" t="str">
-        <f t="shared" ref="B80:B130" si="34">B79</f>
-        <v>BIMProp</v>
-      </c>
-      <c r="C80" s="11" t="str">
-        <f>C79</f>
-        <v>p.durar</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>129</v>
+        <f>B79</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C80" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="6" t="str">
-        <f t="shared" si="20"/>
+      <c r="F80" s="54" t="str">
+        <f t="shared" si="23"/>
         <v>d.durar</v>
       </c>
-      <c r="G80" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>data.inicial</v>
-      </c>
-      <c r="H80" s="7" t="s">
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>data</v>
+      </c>
+      <c r="H80" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I80" s="18" t="s">
+      <c r="I80" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J80" s="21" t="s">
@@ -7696,42 +7991,42 @@
         <v>43</v>
       </c>
       <c r="U80" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para durar: tem.data.inicial</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para durar: tem.data</v>
       </c>
       <c r="V80" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para durar: data.inicial ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para durar: data ( xsd:dateTime ) </v>
       </c>
       <c r="W80" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>81</v>
       </c>
       <c r="B81" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="B81:C142" si="37">B80</f>
         <v>BIMProp</v>
       </c>
       <c r="C81" s="11" t="str">
-        <f t="shared" ref="C81:C83" si="35">C80</f>
+        <f>C80</f>
         <v>p.durar</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F81" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.durar</v>
       </c>
       <c r="G81" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>data.final</v>
+        <f t="shared" si="25"/>
+        <v>data.inicial</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>45</v>
@@ -7773,42 +8068,42 @@
         <v>43</v>
       </c>
       <c r="U81" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para durar: tem.data.final</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para durar: tem.data.inicial</v>
       </c>
       <c r="V81" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para durar: data.final ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para durar: data.inicial ( xsd:dateTime ) </v>
       </c>
       <c r="W81" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>82</v>
       </c>
       <c r="B82" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C82" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="C82:C84" si="38">C81</f>
         <v>p.durar</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F82" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.durar</v>
       </c>
       <c r="G82" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>duração</v>
+        <f t="shared" si="25"/>
+        <v>data.final</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>45</v>
@@ -7850,42 +8145,42 @@
         <v>43</v>
       </c>
       <c r="U82" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para durar: tem.duração</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para durar: tem.data.final</v>
       </c>
       <c r="V82" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para durar: duração ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para durar: data.final ( xsd:dateTime ) </v>
       </c>
       <c r="W82" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>83</v>
       </c>
       <c r="B83" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C83" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>p.durar</v>
       </c>
-      <c r="D83" s="35" t="s">
-        <v>132</v>
+      <c r="D83" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.durar</v>
       </c>
       <c r="G83" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>horário</v>
+        <f t="shared" si="25"/>
+        <v>duração</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>45</v>
@@ -7927,62 +8222,63 @@
         <v>43</v>
       </c>
       <c r="U83" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para durar: tem.horário</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para durar: tem.duração</v>
       </c>
       <c r="V83" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para durar: horário ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para durar: duração ( xsd:dateTime ) </v>
       </c>
       <c r="W83" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>84</v>
       </c>
       <c r="B84" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C84" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>197</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C84" s="11" t="str">
+        <f t="shared" si="38"/>
+        <v>p.durar</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="54" t="str">
-        <f t="shared" si="20"/>
-        <v>d.planejar</v>
-      </c>
-      <c r="G84" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v>depois.de</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I84" s="23" t="s">
+      <c r="F84" s="6" t="str">
+        <f t="shared" si="23"/>
+        <v>d.durar</v>
+      </c>
+      <c r="G84" s="6" t="str">
+        <f t="shared" si="25"/>
+        <v>horário</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J84" s="21" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K84" s="21" t="s">
         <v>0</v>
       </c>
       <c r="L84" s="21" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="M84" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N84" s="21" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="O84" s="21" t="s">
         <v>0</v>
@@ -7991,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="21" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="R84" s="21" t="s">
         <v>0</v>
@@ -8003,47 +8299,46 @@
         <v>43</v>
       </c>
       <c r="U84" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para planejar: é.depois.de</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para durar: tem.horário</v>
       </c>
       <c r="V84" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para planejar: depois.de ( xsd:integer ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para durar: horário ( xsd:dateTime ) </v>
       </c>
       <c r="W84" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>85</v>
       </c>
       <c r="B85" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C85" s="11" t="str">
-        <f>C84</f>
-        <v>p.planejar</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>133</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>197</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F85" s="6" t="str">
-        <f t="shared" si="20"/>
+      <c r="F85" s="54" t="str">
+        <f t="shared" si="23"/>
         <v>d.planejar</v>
       </c>
-      <c r="G85" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>previo.a</v>
-      </c>
-      <c r="H85" s="7" t="s">
+      <c r="G85" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>depois.de</v>
+      </c>
+      <c r="H85" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J85" s="21" t="s">
@@ -8068,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="21" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="R85" s="21" t="s">
         <v>0</v>
@@ -8080,42 +8375,42 @@
         <v>43</v>
       </c>
       <c r="U85" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para planejar: é.previo.a</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para planejar: é.depois.de</v>
       </c>
       <c r="V85" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para planejar: previo.a ( xsd:integer ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para planejar: depois.de ( xsd:integer ) </v>
       </c>
       <c r="W85" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>86</v>
       </c>
       <c r="B86" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C86" s="11" t="str">
-        <f t="shared" ref="C86:C87" si="36">C84</f>
+        <f>C85</f>
         <v>p.planejar</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F86" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.planejar</v>
       </c>
       <c r="G86" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>concomitante.a</v>
+        <f t="shared" si="25"/>
+        <v>previo.a</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>44</v>
@@ -8133,10 +8428,10 @@
         <v>42</v>
       </c>
       <c r="M86" s="21" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="N86" s="21" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O86" s="21" t="s">
         <v>0</v>
@@ -8157,42 +8452,42 @@
         <v>43</v>
       </c>
       <c r="U86" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para planejar: é.concomitante.a</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para planejar: é.previo.a</v>
       </c>
       <c r="V86" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para planejar: concomitante.a ( xsd:integer ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para planejar: previo.a ( xsd:integer ) </v>
       </c>
       <c r="W86" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>87</v>
       </c>
       <c r="B87" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C87" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="C87:C88" si="39">C85</f>
         <v>p.planejar</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F87" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.planejar</v>
       </c>
       <c r="G87" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>simultâneo.a</v>
+        <f t="shared" si="25"/>
+        <v>concomitante.a</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>44</v>
@@ -8234,42 +8529,42 @@
         <v>43</v>
       </c>
       <c r="U87" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para planejar: é.simultâneo.a</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para planejar: é.concomitante.a</v>
       </c>
       <c r="V87" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para planejar: simultâneo.a ( xsd:integer ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para planejar: concomitante.a ( xsd:integer ) </v>
       </c>
       <c r="W87" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>88</v>
       </c>
       <c r="B88" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C88" s="11" t="str">
-        <f>C87</f>
+        <f t="shared" si="39"/>
         <v>p.planejar</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.planejar</v>
       </c>
       <c r="G88" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>marca.inicial</v>
+        <f t="shared" si="25"/>
+        <v>simultâneo.a</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>44</v>
@@ -8284,10 +8579,10 @@
         <v>0</v>
       </c>
       <c r="L88" s="21" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M88" s="21" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="N88" s="21" t="s">
         <v>0</v>
@@ -8311,23 +8606,23 @@
         <v>43</v>
       </c>
       <c r="U88" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para planejar: é.marca.inicial</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para planejar: é.simultâneo.a</v>
       </c>
       <c r="V88" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para planejar: marca.inicial ( xsd:integer ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para planejar: simultâneo.a ( xsd:integer ) </v>
       </c>
       <c r="W88" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>89</v>
       </c>
       <c r="B89" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C89" s="11" t="str">
@@ -8335,18 +8630,18 @@
         <v>p.planejar</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F89" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.planejar</v>
       </c>
       <c r="G89" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>marca.final</v>
+        <f t="shared" si="25"/>
+        <v>marca.inicial</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>44</v>
@@ -8388,23 +8683,23 @@
         <v>43</v>
       </c>
       <c r="U89" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para planejar: é.marca.final</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para planejar: é.marca.inicial</v>
       </c>
       <c r="V89" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para planejar: marca.final ( xsd:integer ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para planejar: marca.inicial ( xsd:integer ) </v>
       </c>
       <c r="W89" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>90</v>
       </c>
       <c r="B90" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C90" s="11" t="str">
@@ -8412,18 +8707,18 @@
         <v>p.planejar</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F90" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.planejar</v>
       </c>
       <c r="G90" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>momento</v>
+        <f t="shared" si="25"/>
+        <v>marca.final</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>44</v>
@@ -8465,46 +8760,47 @@
         <v>43</v>
       </c>
       <c r="U90" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para planejar: é.momento</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para planejar: é.marca.final</v>
       </c>
       <c r="V90" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para planejar: momento ( xsd:integer ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para planejar: marca.final ( xsd:integer ) </v>
       </c>
       <c r="W90" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>91</v>
       </c>
       <c r="B91" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C91" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>138</v>
+        <f>B89</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C91" s="11" t="str">
+        <f>C89</f>
+        <v>p.planejar</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F91" s="54" t="str">
-        <f t="shared" si="20"/>
-        <v>d.acontecer</v>
-      </c>
-      <c r="G91" s="5" t="str">
-        <f t="shared" si="22"/>
-        <v>amanhecer</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I91" s="23" t="s">
+      <c r="F91" s="6" t="str">
+        <f t="shared" ref="F91" si="40">_xlfn.CONCAT("d.",MID(C91,FIND(".",C91,1)+1,100))</f>
+        <v>d.planejar</v>
+      </c>
+      <c r="G91" s="6" t="str">
+        <f t="shared" ref="G91" si="41">MID(D91,FIND(".",D91,1)+1,100)</f>
+        <v>momento</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I91" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J91" s="21" t="s">
@@ -8541,45 +8837,45 @@
         <v>43</v>
       </c>
       <c r="U91" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para acontecer: é.amanhecer</v>
+        <f t="shared" ref="U91" si="42">_xlfn.CONCAT("Propriedade para ",MID(C91,FIND("p.",C91,1)+2,100),": ",D91)</f>
+        <v>Propriedade para planejar: é.momento</v>
       </c>
       <c r="V91" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para acontecer: amanhecer ( xsd:dateTime ) </v>
+        <f t="shared" ref="V91" si="43">_xlfn.CONCAT("Dado para ",MID(F91,FIND("d.",F91,1)+2,100),": ",G91, " ( ",H91, " ) ")</f>
+        <v xml:space="preserve">Dado para planejar: momento ( xsd:integer ) </v>
       </c>
       <c r="W91" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>92</v>
       </c>
       <c r="B92" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f>B90</f>
         <v>BIMProp</v>
       </c>
       <c r="C92" s="11" t="str">
-        <f>C91</f>
-        <v>p.acontecer</v>
+        <f>C90</f>
+        <v>p.planejar</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F92" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v>d.acontecer</v>
+        <f t="shared" si="23"/>
+        <v>d.planejar</v>
       </c>
       <c r="G92" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>anoitecer</v>
+        <f t="shared" si="25"/>
+        <v>vida.útil</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I92" s="18" t="s">
         <v>0</v>
@@ -8618,47 +8914,46 @@
         <v>43</v>
       </c>
       <c r="U92" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para acontecer: é.anoitecer</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para planejar: tem.vida.útil</v>
       </c>
       <c r="V92" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para acontecer: anoitecer ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para planejar: vida.útil ( xsd:integer ) </v>
       </c>
       <c r="W92" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>93</v>
       </c>
       <c r="B93" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C93" s="11" t="str">
-        <f t="shared" ref="C93" si="37">C92</f>
-        <v>p.acontecer</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>140</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F93" s="6" t="str">
-        <f t="shared" si="20"/>
+      <c r="F93" s="54" t="str">
+        <f t="shared" si="23"/>
         <v>d.acontecer</v>
       </c>
-      <c r="G93" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>meiodia</v>
-      </c>
-      <c r="H93" s="7" t="s">
+      <c r="G93" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>amanhecer</v>
+      </c>
+      <c r="H93" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I93" s="18" t="s">
+      <c r="I93" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J93" s="21" t="s">
@@ -8695,23 +8990,23 @@
         <v>43</v>
       </c>
       <c r="U93" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para acontecer: é.meiodia</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para acontecer: é.amanhecer</v>
       </c>
       <c r="V93" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para acontecer: meiodia ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para acontecer: amanhecer ( xsd:dateTime ) </v>
       </c>
       <c r="W93" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>94</v>
       </c>
       <c r="B94" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C94" s="11" t="str">
@@ -8719,18 +9014,18 @@
         <v>p.acontecer</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F94" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.acontecer</v>
       </c>
       <c r="G94" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>equinócio.primavera</v>
+        <f t="shared" si="25"/>
+        <v>anoitecer</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>45</v>
@@ -8772,42 +9067,42 @@
         <v>43</v>
       </c>
       <c r="U94" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para acontecer: é.equinócio.primavera</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para acontecer: é.anoitecer</v>
       </c>
       <c r="V94" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para acontecer: equinócio.primavera ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para acontecer: anoitecer ( xsd:dateTime ) </v>
       </c>
       <c r="W94" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>95</v>
       </c>
       <c r="B95" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C95" s="11" t="str">
-        <f>C94</f>
+        <f t="shared" ref="C95" si="44">C94</f>
         <v>p.acontecer</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F95" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.acontecer</v>
       </c>
       <c r="G95" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>equinócio.outono</v>
+        <f t="shared" si="25"/>
+        <v>meiodia</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>45</v>
@@ -8849,23 +9144,23 @@
         <v>43</v>
       </c>
       <c r="U95" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para acontecer: é.equinócio.outono</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para acontecer: é.meiodia</v>
       </c>
       <c r="V95" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para acontecer: equinócio.outono ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para acontecer: meiodia ( xsd:dateTime ) </v>
       </c>
       <c r="W95" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>96</v>
       </c>
       <c r="B96" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C96" s="11" t="str">
@@ -8873,18 +9168,18 @@
         <v>p.acontecer</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F96" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.acontecer</v>
       </c>
       <c r="G96" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>solstício.verão</v>
+        <f t="shared" si="25"/>
+        <v>equinócio.primavera</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>45</v>
@@ -8926,23 +9221,23 @@
         <v>43</v>
       </c>
       <c r="U96" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para acontecer: é.solstício.verão</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para acontecer: é.equinócio.primavera</v>
       </c>
       <c r="V96" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para acontecer: solstício.verão ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para acontecer: equinócio.primavera ( xsd:dateTime ) </v>
       </c>
       <c r="W96" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" s="12" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>97</v>
       </c>
       <c r="B97" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C97" s="11" t="str">
@@ -8950,18 +9245,18 @@
         <v>p.acontecer</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F97" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>d.acontecer</v>
       </c>
       <c r="G97" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>solstício.inverno</v>
+        <f t="shared" si="25"/>
+        <v>equinócio.outono</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>45</v>
@@ -9003,74 +9298,74 @@
         <v>43</v>
       </c>
       <c r="U97" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para acontecer: é.solstício.inverno</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para acontecer: é.equinócio.outono</v>
       </c>
       <c r="V97" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para acontecer: solstício.inverno ( xsd:dateTime ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para acontecer: equinócio.outono ( xsd:dateTime ) </v>
       </c>
       <c r="W97" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>98</v>
       </c>
       <c r="B98" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C98" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="D98" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E98" s="40" t="str">
-        <f t="shared" ref="E98:E110" si="38">E97</f>
-        <v>BIMData</v>
-      </c>
-      <c r="F98" s="53" t="str">
-        <f t="shared" si="20"/>
-        <v>d.normatizar</v>
-      </c>
-      <c r="G98" s="41" t="str">
-        <f t="shared" si="22"/>
-        <v>norma</v>
-      </c>
-      <c r="H98" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I98" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="J98" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K98" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L98" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M98" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N98" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O98" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P98" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R98" s="44" t="s">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C98" s="11" t="str">
+        <f>C97</f>
+        <v>p.acontecer</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="6" t="str">
+        <f t="shared" si="23"/>
+        <v>d.acontecer</v>
+      </c>
+      <c r="G98" s="6" t="str">
+        <f t="shared" si="25"/>
+        <v>solstício.verão</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I98" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R98" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S98" s="22" t="s">
@@ -9080,75 +9375,74 @@
         <v>43</v>
       </c>
       <c r="U98" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para normatizar: é.norma</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para acontecer: é.solstício.verão</v>
       </c>
       <c r="V98" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para acontecer: solstício.verão ( xsd:dateTime ) </v>
       </c>
       <c r="W98" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>99</v>
       </c>
       <c r="B99" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C99" s="45" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C99" s="11" t="str">
         <f>C98</f>
-        <v>p.normatizar</v>
-      </c>
-      <c r="D99" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="E99" s="40" t="str">
-        <f t="shared" si="38"/>
-        <v>BIMData</v>
-      </c>
-      <c r="F99" s="47" t="str">
-        <f t="shared" si="20"/>
-        <v>d.normatizar</v>
-      </c>
-      <c r="G99" s="47" t="str">
-        <f t="shared" si="22"/>
-        <v>parte</v>
-      </c>
-      <c r="H99" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I99" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J99" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K99" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L99" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M99" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N99" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O99" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P99" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R99" s="44" t="s">
+        <v>p.acontecer</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="6" t="str">
+        <f t="shared" si="23"/>
+        <v>d.acontecer</v>
+      </c>
+      <c r="G99" s="6" t="str">
+        <f t="shared" si="25"/>
+        <v>solstício.inverno</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J99" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K99" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L99" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M99" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N99" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O99" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P99" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R99" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S99" s="22" t="s">
@@ -9158,48 +9452,47 @@
         <v>43</v>
       </c>
       <c r="U99" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para normatizar: é.parte</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para acontecer: é.solstício.inverno</v>
       </c>
       <c r="V99" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para acontecer: solstício.inverno ( xsd:dateTime ) </v>
       </c>
       <c r="W99" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>100</v>
       </c>
       <c r="B100" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C100" s="45" t="str">
-        <f t="shared" ref="C100:C101" si="39">C99</f>
-        <v>p.normatizar</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>147</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D100" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="E100" s="40" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="E100:E112" si="45">E99</f>
         <v>BIMData</v>
       </c>
-      <c r="F100" s="47" t="str">
-        <f t="shared" si="20"/>
+      <c r="F100" s="53" t="str">
+        <f t="shared" si="23"/>
         <v>d.normatizar</v>
       </c>
-      <c r="G100" s="47" t="str">
-        <f t="shared" si="22"/>
-        <v>escopo</v>
-      </c>
-      <c r="H100" s="48" t="s">
+      <c r="G100" s="41" t="str">
+        <f t="shared" si="25"/>
+        <v>norma</v>
+      </c>
+      <c r="H100" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I100" s="49" t="s">
+      <c r="I100" s="43" t="s">
         <v>0</v>
       </c>
       <c r="J100" s="44" t="s">
@@ -9236,43 +9529,43 @@
         <v>43</v>
       </c>
       <c r="U100" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para normatizar: é.escopo</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para normatizar: é.norma</v>
       </c>
       <c r="V100" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
       </c>
       <c r="W100" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>101</v>
       </c>
       <c r="B101" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C101" s="45" t="str">
-        <f t="shared" si="39"/>
+        <f>C100</f>
         <v>p.normatizar</v>
       </c>
       <c r="D101" s="46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E101" s="40" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>BIMData</v>
       </c>
       <c r="F101" s="47" t="str">
-        <f t="shared" ref="F101:F130" si="40">_xlfn.CONCAT("d.",MID(C101,FIND(".",C101,1)+1,100))</f>
+        <f t="shared" si="23"/>
         <v>d.normatizar</v>
       </c>
       <c r="G101" s="47" t="str">
-        <f t="shared" si="22"/>
-        <v>regulamento</v>
+        <f t="shared" si="25"/>
+        <v>parte</v>
       </c>
       <c r="H101" s="48" t="s">
         <v>39</v>
@@ -9314,51 +9607,52 @@
         <v>43</v>
       </c>
       <c r="U101" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para normatizar: é.regulamento</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para normatizar: é.parte</v>
       </c>
       <c r="V101" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para normatizar: regulamento ( xsd:string ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
       </c>
       <c r="W101" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>102</v>
       </c>
       <c r="B102" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C102" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D102" s="39" t="s">
-        <v>149</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C102" s="45" t="str">
+        <f t="shared" ref="C102:C103" si="46">C101</f>
+        <v>p.normatizar</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>147</v>
       </c>
       <c r="E102" s="40" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>BIMData</v>
       </c>
-      <c r="F102" s="53" t="str">
-        <f t="shared" si="40"/>
-        <v>d.medir</v>
-      </c>
-      <c r="G102" s="41" t="str">
-        <f t="shared" si="22"/>
-        <v>volume</v>
-      </c>
-      <c r="H102" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="I102" s="43" t="s">
+      <c r="F102" s="47" t="str">
+        <f t="shared" si="23"/>
+        <v>d.normatizar</v>
+      </c>
+      <c r="G102" s="47" t="str">
+        <f t="shared" si="25"/>
+        <v>escopo</v>
+      </c>
+      <c r="H102" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J102" s="44" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K102" s="44" t="s">
         <v>0</v>
@@ -9391,52 +9685,52 @@
         <v>43</v>
       </c>
       <c r="U102" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>Propriedade para medir: tem.volume</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para normatizar: é.escopo</v>
       </c>
       <c r="V102" s="9" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">Dado para medir: volume ( xsd:double ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
       </c>
       <c r="W102" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>103</v>
       </c>
       <c r="B103" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C103" s="45" t="str">
-        <f>C102</f>
-        <v>p.medir</v>
+        <f t="shared" si="46"/>
+        <v>p.normatizar</v>
       </c>
       <c r="D103" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E103" s="40" t="str">
-        <f>E99</f>
+        <f t="shared" si="45"/>
         <v>BIMData</v>
       </c>
       <c r="F103" s="47" t="str">
-        <f t="shared" si="40"/>
-        <v>d.medir</v>
+        <f t="shared" ref="F103:F134" si="47">_xlfn.CONCAT("d.",MID(C103,FIND(".",C103,1)+1,100))</f>
+        <v>d.normatizar</v>
       </c>
       <c r="G103" s="47" t="str">
-        <f t="shared" ref="G103:G130" si="41">MID(D103,FIND(".",D103,1)+1,100)</f>
-        <v>área</v>
+        <f t="shared" si="25"/>
+        <v>regulamento</v>
       </c>
       <c r="H103" s="48" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I103" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J103" s="44" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K103" s="44" t="s">
         <v>0</v>
@@ -9469,48 +9763,47 @@
         <v>43</v>
       </c>
       <c r="U103" s="9" t="str">
-        <f t="shared" ref="U103:U130" si="42">_xlfn.CONCAT("Propriedade para ",MID(C103,FIND("p.",C103,1)+2,100),": ",D103)</f>
-        <v>Propriedade para medir: tem.área</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para normatizar: é.regulamento</v>
       </c>
       <c r="V103" s="9" t="str">
-        <f t="shared" ref="V103:V130" si="43">_xlfn.CONCAT("Dado para ",MID(F103,FIND("d.",F103,1)+2,100),": ",G103, " ( ",H103, " ) ")</f>
-        <v xml:space="preserve">Dado para medir: área ( xsd:double ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para normatizar: regulamento ( xsd:string ) </v>
       </c>
       <c r="W103" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>104</v>
       </c>
       <c r="B104" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C104" s="45" t="str">
-        <f t="shared" ref="C104:C115" si="44">C103</f>
-        <v>p.medir</v>
-      </c>
-      <c r="D104" s="46" t="s">
-        <v>151</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C104" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="E104" s="40" t="str">
-        <f>E99</f>
+        <f t="shared" si="45"/>
         <v>BIMData</v>
       </c>
-      <c r="F104" s="47" t="str">
-        <f t="shared" si="40"/>
+      <c r="F104" s="53" t="str">
+        <f t="shared" si="47"/>
         <v>d.medir</v>
       </c>
-      <c r="G104" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>área.bruta</v>
-      </c>
-      <c r="H104" s="48" t="s">
+      <c r="G104" s="41" t="str">
+        <f t="shared" si="25"/>
+        <v>volume</v>
+      </c>
+      <c r="H104" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I104" s="49" t="s">
+      <c r="I104" s="43" t="s">
         <v>0</v>
       </c>
       <c r="J104" s="44" t="s">
@@ -9547,43 +9840,43 @@
         <v>43</v>
       </c>
       <c r="U104" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.área.bruta</v>
+        <f t="shared" si="26"/>
+        <v>Propriedade para medir: tem.volume</v>
       </c>
       <c r="V104" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: área.bruta ( xsd:double ) </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">Dado para medir: volume ( xsd:double ) </v>
       </c>
       <c r="W104" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>105</v>
       </c>
       <c r="B105" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C105" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f>C104</f>
         <v>p.medir</v>
       </c>
       <c r="D105" s="46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E105" s="40" t="str">
-        <f>E100</f>
+        <f>E101</f>
         <v>BIMData</v>
       </c>
       <c r="F105" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>d.medir</v>
       </c>
       <c r="G105" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>área.útil</v>
+        <f t="shared" ref="G105:G134" si="48">MID(D105,FIND(".",D105,1)+1,100)</f>
+        <v>área</v>
       </c>
       <c r="H105" s="48" t="s">
         <v>48</v>
@@ -9625,43 +9918,43 @@
         <v>43</v>
       </c>
       <c r="U105" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.área.útil</v>
+        <f t="shared" ref="U105:U134" si="49">_xlfn.CONCAT("Propriedade para ",MID(C105,FIND("p.",C105,1)+2,100),": ",D105)</f>
+        <v>Propriedade para medir: tem.área</v>
       </c>
       <c r="V105" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: área.útil ( xsd:double ) </v>
+        <f t="shared" ref="V105:V134" si="50">_xlfn.CONCAT("Dado para ",MID(F105,FIND("d.",F105,1)+2,100),": ",G105, " ( ",H105, " ) ")</f>
+        <v xml:space="preserve">Dado para medir: área ( xsd:double ) </v>
       </c>
       <c r="W105" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>106</v>
       </c>
       <c r="B106" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C106" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="C106:C116" si="51">C105</f>
         <v>p.medir</v>
       </c>
       <c r="D106" s="46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E106" s="40" t="str">
         <f>E101</f>
         <v>BIMData</v>
       </c>
       <c r="F106" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>d.medir</v>
       </c>
       <c r="G106" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>altura</v>
+        <f t="shared" si="48"/>
+        <v>área.bruta</v>
       </c>
       <c r="H106" s="48" t="s">
         <v>48</v>
@@ -9703,43 +9996,43 @@
         <v>43</v>
       </c>
       <c r="U106" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.altura</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.área.bruta</v>
       </c>
       <c r="V106" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: altura ( xsd:double ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: área.bruta ( xsd:double ) </v>
       </c>
       <c r="W106" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>107</v>
       </c>
       <c r="B107" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C107" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>p.medir</v>
       </c>
       <c r="D107" s="46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E107" s="40" t="str">
         <f>E102</f>
         <v>BIMData</v>
       </c>
       <c r="F107" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>d.medir</v>
       </c>
       <c r="G107" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>comprimento</v>
+        <f t="shared" si="48"/>
+        <v>área.útil</v>
       </c>
       <c r="H107" s="48" t="s">
         <v>48</v>
@@ -9781,43 +10074,43 @@
         <v>43</v>
       </c>
       <c r="U107" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.comprimento</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.área.útil</v>
       </c>
       <c r="V107" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: comprimento ( xsd:double ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: área.útil ( xsd:double ) </v>
       </c>
       <c r="W107" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>108</v>
       </c>
       <c r="B108" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C108" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>p.medir</v>
       </c>
       <c r="D108" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E108" s="40" t="str">
-        <f>E101</f>
+        <f>E103</f>
         <v>BIMData</v>
       </c>
       <c r="F108" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>d.medir</v>
       </c>
       <c r="G108" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>largura</v>
+        <f t="shared" si="48"/>
+        <v>altura</v>
       </c>
       <c r="H108" s="48" t="s">
         <v>48</v>
@@ -9859,43 +10152,43 @@
         <v>43</v>
       </c>
       <c r="U108" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.largura</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.altura</v>
       </c>
       <c r="V108" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: largura ( xsd:double ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: altura ( xsd:double ) </v>
       </c>
       <c r="W108" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>109</v>
       </c>
       <c r="B109" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C109" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>p.medir</v>
       </c>
       <c r="D109" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E109" s="40" t="str">
-        <f>E102</f>
+        <f>E104</f>
         <v>BIMData</v>
       </c>
       <c r="F109" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>d.medir</v>
       </c>
       <c r="G109" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>profundidade</v>
+        <f t="shared" si="48"/>
+        <v>comprimento</v>
       </c>
       <c r="H109" s="48" t="s">
         <v>48</v>
@@ -9937,43 +10230,43 @@
         <v>43</v>
       </c>
       <c r="U109" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.profundidade</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.comprimento</v>
       </c>
       <c r="V109" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: profundidade ( xsd:double ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: comprimento ( xsd:double ) </v>
       </c>
       <c r="W109" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>110</v>
       </c>
       <c r="B110" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C110" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>p.medir</v>
       </c>
       <c r="D110" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E110" s="40" t="str">
-        <f t="shared" si="38"/>
+        <f>E103</f>
         <v>BIMData</v>
       </c>
       <c r="F110" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>d.medir</v>
       </c>
       <c r="G110" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>espessura</v>
+        <f t="shared" si="48"/>
+        <v>largura</v>
       </c>
       <c r="H110" s="48" t="s">
         <v>48</v>
@@ -10015,277 +10308,277 @@
         <v>43</v>
       </c>
       <c r="U110" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.espessura</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.largura</v>
       </c>
       <c r="V110" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: espessura ( xsd:double ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: largura ( xsd:double ) </v>
       </c>
       <c r="W110" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>111</v>
       </c>
       <c r="B111" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C111" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>p.medir</v>
       </c>
       <c r="D111" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E111" s="40" t="str">
+        <f>E104</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F111" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.medir</v>
+      </c>
+      <c r="G111" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>profundidade</v>
+      </c>
+      <c r="H111" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I111" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R111" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S111" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T111" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U111" s="9" t="str">
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.profundidade</v>
+      </c>
+      <c r="V111" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: profundidade ( xsd:double ) </v>
+      </c>
+      <c r="W111" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>112</v>
+      </c>
+      <c r="B112" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C112" s="45" t="str">
+        <f t="shared" si="51"/>
+        <v>p.medir</v>
+      </c>
+      <c r="D112" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E112" s="40" t="str">
+        <f t="shared" si="45"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F112" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.medir</v>
+      </c>
+      <c r="G112" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>espessura</v>
+      </c>
+      <c r="H112" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J112" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R112" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S112" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T112" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U112" s="9" t="str">
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.espessura</v>
+      </c>
+      <c r="V112" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: espessura ( xsd:double ) </v>
+      </c>
+      <c r="W112" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>113</v>
+      </c>
+      <c r="B113" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C113" s="45" t="str">
+        <f t="shared" si="51"/>
+        <v>p.medir</v>
+      </c>
+      <c r="D113" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="E111" s="40" t="str">
+      <c r="E113" s="40" t="str">
+        <f>E110</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F113" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.medir</v>
+      </c>
+      <c r="G113" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>pédireito</v>
+      </c>
+      <c r="H113" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J113" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R113" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S113" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T113" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U113" s="9" t="str">
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.pédireito</v>
+      </c>
+      <c r="V113" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: pédireito ( xsd:double ) </v>
+      </c>
+      <c r="W113" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>114</v>
+      </c>
+      <c r="B114" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C114" s="45" t="str">
+        <f t="shared" si="51"/>
+        <v>p.medir</v>
+      </c>
+      <c r="D114" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="40" t="str">
         <f>E108</f>
         <v>BIMData</v>
       </c>
-      <c r="F111" s="47" t="str">
-        <f t="shared" si="40"/>
+      <c r="F114" s="47" t="str">
+        <f t="shared" si="47"/>
         <v>d.medir</v>
       </c>
-      <c r="G111" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>pédireito</v>
-      </c>
-      <c r="H111" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I111" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J111" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R111" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="S111" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T111" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U111" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.pédireito</v>
-      </c>
-      <c r="V111" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: pédireito ( xsd:double ) </v>
-      </c>
-      <c r="W111" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
-        <v>112</v>
-      </c>
-      <c r="B112" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C112" s="45" t="str">
-        <f t="shared" si="44"/>
-        <v>p.medir</v>
-      </c>
-      <c r="D112" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="E112" s="40" t="str">
-        <f>E106</f>
-        <v>BIMData</v>
-      </c>
-      <c r="F112" s="47" t="str">
-        <f t="shared" si="40"/>
-        <v>d.medir</v>
-      </c>
-      <c r="G112" s="47" t="str">
-        <f t="shared" si="41"/>
+      <c r="G114" s="47" t="str">
+        <f t="shared" si="48"/>
         <v>diámetro</v>
-      </c>
-      <c r="H112" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I112" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J112" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K112" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L112" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M112" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N112" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O112" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P112" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R112" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="S112" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T112" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U112" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.diámetro</v>
-      </c>
-      <c r="V112" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: diámetro ( xsd:double ) </v>
-      </c>
-      <c r="W112" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
-        <v>113</v>
-      </c>
-      <c r="B113" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C113" s="45" t="str">
-        <f t="shared" si="44"/>
-        <v>p.medir</v>
-      </c>
-      <c r="D113" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="E113" s="40" t="str">
-        <f>E108</f>
-        <v>BIMData</v>
-      </c>
-      <c r="F113" s="47" t="str">
-        <f t="shared" si="40"/>
-        <v>d.medir</v>
-      </c>
-      <c r="G113" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>diámetro.interno</v>
-      </c>
-      <c r="H113" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I113" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J113" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K113" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L113" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M113" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N113" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O113" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P113" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R113" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="S113" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T113" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U113" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.diámetro.interno</v>
-      </c>
-      <c r="V113" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: diámetro.interno ( xsd:double ) </v>
-      </c>
-      <c r="W113" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
-        <v>114</v>
-      </c>
-      <c r="B114" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C114" s="45" t="str">
-        <f t="shared" si="44"/>
-        <v>p.medir</v>
-      </c>
-      <c r="D114" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E114" s="40" t="str">
-        <f>E109</f>
-        <v>BIMData</v>
-      </c>
-      <c r="F114" s="47" t="str">
-        <f t="shared" si="40"/>
-        <v>d.medir</v>
-      </c>
-      <c r="G114" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>diámetro.externo</v>
       </c>
       <c r="H114" s="48" t="s">
         <v>48</v>
@@ -10327,43 +10620,43 @@
         <v>43</v>
       </c>
       <c r="U114" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.diámetro.externo</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.diámetro</v>
       </c>
       <c r="V114" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: diámetro.externo ( xsd:double ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: diámetro ( xsd:double ) </v>
       </c>
       <c r="W114" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>115</v>
       </c>
       <c r="B115" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C115" s="45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>p.medir</v>
       </c>
       <c r="D115" s="46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E115" s="40" t="str">
         <f>E110</f>
         <v>BIMData</v>
       </c>
       <c r="F115" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>d.medir</v>
       </c>
       <c r="G115" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>raio</v>
+        <f t="shared" si="48"/>
+        <v>diámetro.interno</v>
       </c>
       <c r="H115" s="48" t="s">
         <v>48</v>
@@ -10405,51 +10698,52 @@
         <v>43</v>
       </c>
       <c r="U115" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para medir: tem.raio</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.diámetro.interno</v>
       </c>
       <c r="V115" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para medir: raio ( xsd:double ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: diámetro.interno ( xsd:double ) </v>
       </c>
       <c r="W115" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>116</v>
       </c>
       <c r="B116" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C116" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="D116" s="39" t="s">
-        <v>163</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C116" s="45" t="str">
+        <f t="shared" si="51"/>
+        <v>p.medir</v>
+      </c>
+      <c r="D116" s="46" t="s">
+        <v>161</v>
       </c>
       <c r="E116" s="40" t="str">
         <f>E111</f>
         <v>BIMData</v>
       </c>
-      <c r="F116" s="53" t="str">
-        <f t="shared" si="40"/>
-        <v>d.contar</v>
-      </c>
-      <c r="G116" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v>quantidade</v>
-      </c>
-      <c r="H116" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="I116" s="43" t="s">
+      <c r="F116" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.medir</v>
+      </c>
+      <c r="G116" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>diámetro.externo</v>
+      </c>
+      <c r="H116" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I116" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J116" s="44" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K116" s="44" t="s">
         <v>0</v>
@@ -10482,52 +10776,52 @@
         <v>43</v>
       </c>
       <c r="U116" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para contar: tem.quantidade</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.diámetro.externo</v>
       </c>
       <c r="V116" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para contar: quantidade ( xsd:integer ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: diámetro.externo ( xsd:double ) </v>
       </c>
       <c r="W116" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>117</v>
       </c>
       <c r="B117" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f>B115</f>
         <v>BIMProp</v>
       </c>
       <c r="C117" s="45" t="str">
-        <f>C116</f>
-        <v>p.contar</v>
+        <f>C115</f>
+        <v>p.medir</v>
       </c>
       <c r="D117" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E117" s="40" t="str">
-        <f t="shared" ref="E117:E130" si="45">E112</f>
+        <f>E111</f>
         <v>BIMData</v>
       </c>
       <c r="F117" s="47" t="str">
-        <f t="shared" si="40"/>
-        <v>d.contar</v>
+        <f t="shared" ref="F117" si="52">_xlfn.CONCAT("d.",MID(C117,FIND(".",C117,1)+1,100))</f>
+        <v>d.medir</v>
       </c>
       <c r="G117" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>módulo</v>
+        <f t="shared" ref="G117" si="53">MID(D117,FIND(".",D117,1)+1,100)</f>
+        <v>raio</v>
       </c>
       <c r="H117" s="48" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I117" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J117" s="44" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K117" s="44" t="s">
         <v>0</v>
@@ -10560,51 +10854,52 @@
         <v>43</v>
       </c>
       <c r="U117" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para contar: tem.módulo</v>
+        <f t="shared" ref="U117" si="54">_xlfn.CONCAT("Propriedade para ",MID(C117,FIND("p.",C117,1)+2,100),": ",D117)</f>
+        <v>Propriedade para medir: tem.raio</v>
       </c>
       <c r="V117" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para contar: módulo ( xsd:integer ) </v>
+        <f t="shared" ref="V117" si="55">_xlfn.CONCAT("Dado para ",MID(F117,FIND("d.",F117,1)+2,100),": ",G117, " ( ",H117, " ) ")</f>
+        <v xml:space="preserve">Dado para medir: raio ( xsd:double ) </v>
       </c>
       <c r="W117" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>118</v>
       </c>
       <c r="B118" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C118" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D118" s="39" t="s">
-        <v>165</v>
+        <f>B116</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C118" s="45" t="str">
+        <f>C116</f>
+        <v>p.medir</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>310</v>
       </c>
       <c r="E118" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f>E112</f>
         <v>BIMData</v>
       </c>
-      <c r="F118" s="53" t="str">
-        <f t="shared" si="40"/>
-        <v>d.pesar</v>
-      </c>
-      <c r="G118" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v>densidade</v>
-      </c>
-      <c r="H118" s="42" t="s">
+      <c r="F118" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.medir</v>
+      </c>
+      <c r="G118" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>cota</v>
+      </c>
+      <c r="H118" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I118" s="43" t="s">
+      <c r="I118" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J118" s="44" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K118" s="44" t="s">
         <v>0</v>
@@ -10637,48 +10932,47 @@
         <v>43</v>
       </c>
       <c r="U118" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para pesar: tem.densidade</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para medir: tem.cota</v>
       </c>
       <c r="V118" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para pesar: densidade ( xsd:double ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para medir: cota ( xsd:double ) </v>
       </c>
       <c r="W118" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>119</v>
       </c>
       <c r="B119" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C119" s="45" t="str">
-        <f>C118</f>
-        <v>p.pesar</v>
-      </c>
-      <c r="D119" s="46" t="s">
-        <v>166</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C119" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D119" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="E119" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f>E113</f>
         <v>BIMData</v>
       </c>
-      <c r="F119" s="47" t="str">
-        <f t="shared" si="40"/>
-        <v>d.pesar</v>
-      </c>
-      <c r="G119" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>peso</v>
-      </c>
-      <c r="H119" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I119" s="49" t="s">
+      <c r="F119" s="53" t="str">
+        <f t="shared" si="47"/>
+        <v>d.contar</v>
+      </c>
+      <c r="G119" s="41" t="str">
+        <f t="shared" si="48"/>
+        <v>quantidade</v>
+      </c>
+      <c r="H119" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I119" s="43" t="s">
         <v>0</v>
       </c>
       <c r="J119" s="44" t="s">
@@ -10715,47 +11009,48 @@
         <v>43</v>
       </c>
       <c r="U119" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para pesar: tem.peso</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para contar: tem.quantidade</v>
       </c>
       <c r="V119" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para pesar: peso ( xsd:double ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para contar: quantidade ( xsd:integer ) </v>
       </c>
       <c r="W119" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>120</v>
       </c>
       <c r="B120" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C120" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="D120" s="39" t="s">
-        <v>167</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C120" s="45" t="str">
+        <f>C119</f>
+        <v>p.contar</v>
+      </c>
+      <c r="D120" s="46" t="s">
+        <v>164</v>
       </c>
       <c r="E120" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f>E114</f>
         <v>BIMData</v>
       </c>
-      <c r="F120" s="53" t="str">
-        <f t="shared" si="40"/>
-        <v>d.pintar</v>
-      </c>
-      <c r="G120" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v>cor</v>
-      </c>
-      <c r="H120" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I120" s="43" t="s">
+      <c r="F120" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.contar</v>
+      </c>
+      <c r="G120" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>módulo</v>
+      </c>
+      <c r="H120" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I120" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J120" s="44" t="s">
@@ -10792,48 +11087,47 @@
         <v>43</v>
       </c>
       <c r="U120" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para pintar: tem.cor</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para contar: tem.módulo</v>
       </c>
       <c r="V120" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para pintar: cor ( xsd:string ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para contar: módulo ( xsd:integer ) </v>
       </c>
       <c r="W120" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>121</v>
       </c>
       <c r="B121" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C121" s="45" t="str">
-        <f>C120</f>
-        <v>p.pintar</v>
-      </c>
-      <c r="D121" s="46" t="s">
-        <v>168</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C121" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D121" s="39" t="s">
+        <v>165</v>
       </c>
       <c r="E121" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f>E115</f>
         <v>BIMData</v>
       </c>
-      <c r="F121" s="47" t="str">
-        <f t="shared" si="40"/>
-        <v>d.pintar</v>
-      </c>
-      <c r="G121" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>red</v>
-      </c>
-      <c r="H121" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="I121" s="49" t="s">
+      <c r="F121" s="53" t="str">
+        <f t="shared" si="47"/>
+        <v>d.pesar</v>
+      </c>
+      <c r="G121" s="41" t="str">
+        <f t="shared" si="48"/>
+        <v>densidade</v>
+      </c>
+      <c r="H121" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I121" s="43" t="s">
         <v>0</v>
       </c>
       <c r="J121" s="44" t="s">
@@ -10870,46 +11164,46 @@
         <v>43</v>
       </c>
       <c r="U121" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para pintar: tem.red</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para pesar: tem.densidade</v>
       </c>
       <c r="V121" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para pintar: red ( xsd:integer ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para pesar: densidade ( xsd:double ) </v>
       </c>
       <c r="W121" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>122</v>
       </c>
       <c r="B122" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C122" s="45" t="str">
         <f>C121</f>
-        <v>p.pintar</v>
+        <v>p.pesar</v>
       </c>
       <c r="D122" s="46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E122" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f>E116</f>
         <v>BIMData</v>
       </c>
       <c r="F122" s="47" t="str">
-        <f t="shared" si="40"/>
-        <v>d.pintar</v>
+        <f t="shared" si="47"/>
+        <v>d.pesar</v>
       </c>
       <c r="G122" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>green</v>
+        <f t="shared" si="48"/>
+        <v>peso</v>
       </c>
       <c r="H122" s="48" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I122" s="49" t="s">
         <v>0</v>
@@ -10948,48 +11242,47 @@
         <v>43</v>
       </c>
       <c r="U122" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para pintar: tem.green</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para pesar: tem.peso</v>
       </c>
       <c r="V122" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para pintar: green ( xsd:integer ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para pesar: peso ( xsd:double ) </v>
       </c>
       <c r="W122" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>123</v>
       </c>
       <c r="B123" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C123" s="45" t="str">
-        <f>C122</f>
-        <v>p.pintar</v>
-      </c>
-      <c r="D123" s="46" t="s">
-        <v>170</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C123" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D123" s="39" t="s">
+        <v>167</v>
       </c>
       <c r="E123" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="E123:E136" si="56">E118</f>
         <v>BIMData</v>
       </c>
-      <c r="F123" s="47" t="str">
-        <f t="shared" si="40"/>
+      <c r="F123" s="53" t="str">
+        <f t="shared" si="47"/>
         <v>d.pintar</v>
       </c>
-      <c r="G123" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>blue</v>
-      </c>
-      <c r="H123" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="I123" s="49" t="s">
+      <c r="G123" s="41" t="str">
+        <f t="shared" si="48"/>
+        <v>cor</v>
+      </c>
+      <c r="H123" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I123" s="43" t="s">
         <v>0</v>
       </c>
       <c r="J123" s="44" t="s">
@@ -11026,23 +11319,23 @@
         <v>43</v>
       </c>
       <c r="U123" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para pintar: tem.blue</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para pintar: tem.cor</v>
       </c>
       <c r="V123" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para pintar: blue ( xsd:integer ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para pintar: cor ( xsd:string ) </v>
       </c>
       <c r="W123" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>124</v>
       </c>
       <c r="B124" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C124" s="45" t="str">
@@ -11050,19 +11343,19 @@
         <v>p.pintar</v>
       </c>
       <c r="D124" s="46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E124" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>BIMData</v>
       </c>
       <c r="F124" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>d.pintar</v>
       </c>
       <c r="G124" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>alfa</v>
+        <f t="shared" si="48"/>
+        <v>red</v>
       </c>
       <c r="H124" s="48" t="s">
         <v>44</v>
@@ -11104,47 +11397,48 @@
         <v>43</v>
       </c>
       <c r="U124" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para pintar: tem.alfa</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para pintar: tem.red</v>
       </c>
       <c r="V124" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para pintar: alfa ( xsd:integer ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para pintar: red ( xsd:integer ) </v>
       </c>
       <c r="W124" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>125</v>
       </c>
       <c r="B125" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C125" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D125" s="39" t="s">
-        <v>172</v>
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C125" s="45" t="str">
+        <f>C124</f>
+        <v>p.pintar</v>
+      </c>
+      <c r="D125" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="E125" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>BIMData</v>
       </c>
-      <c r="F125" s="53" t="str">
-        <f t="shared" si="40"/>
-        <v>d.iluminar</v>
-      </c>
-      <c r="G125" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v>iluminância</v>
-      </c>
-      <c r="H125" s="42" t="s">
+      <c r="F125" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.pintar</v>
+      </c>
+      <c r="G125" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>green</v>
+      </c>
+      <c r="H125" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="I125" s="43" t="s">
+      <c r="I125" s="49" t="s">
         <v>0</v>
       </c>
       <c r="J125" s="44" t="s">
@@ -11181,43 +11475,43 @@
         <v>43</v>
       </c>
       <c r="U125" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para iluminar: tem.iluminância</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para pintar: tem.green</v>
       </c>
       <c r="V125" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para iluminar: iluminância ( xsd:integer ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para pintar: green ( xsd:integer ) </v>
       </c>
       <c r="W125" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>126</v>
       </c>
       <c r="B126" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C126" s="45" t="str">
         <f>C125</f>
-        <v>p.iluminar</v>
+        <v>p.pintar</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E126" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>BIMData</v>
       </c>
       <c r="F126" s="47" t="str">
-        <f t="shared" si="40"/>
-        <v>d.iluminar</v>
+        <f t="shared" si="47"/>
+        <v>d.pintar</v>
       </c>
       <c r="G126" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>fluxo.luminoso</v>
+        <f t="shared" si="48"/>
+        <v>blue</v>
       </c>
       <c r="H126" s="48" t="s">
         <v>44</v>
@@ -11259,43 +11553,43 @@
         <v>43</v>
       </c>
       <c r="U126" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para iluminar: tem.fluxo.luminoso</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para pintar: tem.blue</v>
       </c>
       <c r="V126" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para iluminar: fluxo.luminoso ( xsd:integer ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para pintar: blue ( xsd:integer ) </v>
       </c>
       <c r="W126" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>127</v>
       </c>
       <c r="B127" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C127" s="45" t="str">
         <f>C126</f>
-        <v>p.iluminar</v>
+        <v>p.pintar</v>
       </c>
       <c r="D127" s="46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E127" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>BIMData</v>
       </c>
       <c r="F127" s="47" t="str">
-        <f t="shared" si="40"/>
-        <v>d.iluminar</v>
+        <f t="shared" si="47"/>
+        <v>d.pintar</v>
       </c>
       <c r="G127" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>eficiência.luminosa</v>
+        <f t="shared" si="48"/>
+        <v>alfa</v>
       </c>
       <c r="H127" s="48" t="s">
         <v>44</v>
@@ -11337,48 +11631,47 @@
         <v>43</v>
       </c>
       <c r="U127" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para iluminar: tem.eficiência.luminosa</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para pintar: tem.alfa</v>
       </c>
       <c r="V127" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para iluminar: eficiência.luminosa ( xsd:integer ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para pintar: alfa ( xsd:integer ) </v>
       </c>
       <c r="W127" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>128</v>
       </c>
       <c r="B128" s="19" t="str">
-        <f t="shared" si="34"/>
-        <v>BIMProp</v>
-      </c>
-      <c r="C128" s="45" t="str">
-        <f>C127</f>
-        <v>p.iluminar</v>
-      </c>
-      <c r="D128" s="46" t="s">
-        <v>175</v>
+        <f>B126</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C128" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D128" s="39" t="s">
+        <v>248</v>
       </c>
       <c r="E128" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="E128:E133" si="57">E122</f>
         <v>BIMData</v>
       </c>
-      <c r="F128" s="47" t="str">
-        <f t="shared" si="40"/>
+      <c r="F128" s="53" t="str">
+        <f t="shared" ref="F128:F129" si="58">_xlfn.CONCAT("d.",MID(C128,FIND(".",C128,1)+1,100))</f>
         <v>d.iluminar</v>
       </c>
-      <c r="G128" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>temperatura.cor</v>
-      </c>
-      <c r="H128" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="I128" s="49" t="s">
+      <c r="G128" s="41" t="str">
+        <f t="shared" ref="G128:G129" si="59">MID(D128,FIND(".",D128,1)+1,100)</f>
+        <v>classe.de.luminária</v>
+      </c>
+      <c r="H128" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I128" s="43" t="s">
         <v>0</v>
       </c>
       <c r="J128" s="44" t="s">
@@ -11415,46 +11708,46 @@
         <v>43</v>
       </c>
       <c r="U128" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para iluminar: tem.temperatura.cor</v>
+        <f t="shared" ref="U128" si="60">_xlfn.CONCAT("Propriedade para ",MID(C128,FIND("p.",C128,1)+2,100),": ",D128)</f>
+        <v>Propriedade para iluminar: é.classe.de.luminária</v>
       </c>
       <c r="V128" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para iluminar: temperatura.cor ( xsd:integer ) </v>
+        <f t="shared" ref="V128" si="61">_xlfn.CONCAT("Dado para ",MID(F128,FIND("d.",F128,1)+2,100),": ",G128, " ( ",H128, " ) ")</f>
+        <v xml:space="preserve">Dado para iluminar: classe.de.luminária ( xsd:string ) </v>
       </c>
       <c r="W128" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>129</v>
       </c>
       <c r="B129" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f>B127</f>
         <v>BIMProp</v>
       </c>
       <c r="C129" s="45" t="str">
-        <f>C128</f>
+        <f t="shared" ref="C129:C134" si="62">C128</f>
         <v>p.iluminar</v>
       </c>
-      <c r="D129" s="46" t="s">
-        <v>176</v>
+      <c r="D129" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="E129" s="40" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>BIMData</v>
       </c>
       <c r="F129" s="47" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>d.iluminar</v>
       </c>
       <c r="G129" s="47" t="str">
-        <f t="shared" si="41"/>
-        <v>fotometria</v>
+        <f t="shared" si="59"/>
+        <v>iluminância</v>
       </c>
       <c r="H129" s="48" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I129" s="49" t="s">
         <v>0</v>
@@ -11493,97 +11786,1346 @@
         <v>43</v>
       </c>
       <c r="U129" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>Propriedade para iluminar: tem.fotometria</v>
+        <f t="shared" si="49"/>
+        <v>Propriedade para iluminar: tem.iluminância</v>
       </c>
       <c r="V129" s="9" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">Dado para iluminar: fotometria ( xsd:string ) </v>
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para iluminar: iluminância ( xsd:integer ) </v>
       </c>
       <c r="W129" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>130</v>
       </c>
       <c r="B130" s="19" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>BIMProp</v>
       </c>
       <c r="C130" s="45" t="str">
-        <f>C129</f>
+        <f t="shared" si="62"/>
         <v>p.iluminar</v>
       </c>
       <c r="D130" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E130" s="40" t="str">
+        <f t="shared" si="57"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F130" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.iluminar</v>
+      </c>
+      <c r="G130" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>fluxo.luminoso</v>
+      </c>
+      <c r="H130" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I130" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J130" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K130" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L130" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M130" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N130" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O130" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P130" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R130" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S130" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T130" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U130" s="9" t="str">
+        <f t="shared" si="49"/>
+        <v>Propriedade para iluminar: tem.fluxo.luminoso</v>
+      </c>
+      <c r="V130" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para iluminar: fluxo.luminoso ( xsd:integer ) </v>
+      </c>
+      <c r="W130" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>131</v>
+      </c>
+      <c r="B131" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C131" s="45" t="str">
+        <f t="shared" si="62"/>
+        <v>p.iluminar</v>
+      </c>
+      <c r="D131" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E131" s="40" t="str">
+        <f t="shared" si="57"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F131" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.iluminar</v>
+      </c>
+      <c r="G131" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>eficiência.luminosa</v>
+      </c>
+      <c r="H131" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I131" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J131" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K131" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L131" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M131" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N131" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O131" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P131" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R131" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S131" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T131" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U131" s="9" t="str">
+        <f t="shared" si="49"/>
+        <v>Propriedade para iluminar: tem.eficiência.luminosa</v>
+      </c>
+      <c r="V131" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para iluminar: eficiência.luminosa ( xsd:integer ) </v>
+      </c>
+      <c r="W131" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>132</v>
+      </c>
+      <c r="B132" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C132" s="45" t="str">
+        <f t="shared" si="62"/>
+        <v>p.iluminar</v>
+      </c>
+      <c r="D132" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E132" s="40" t="str">
+        <f t="shared" si="57"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F132" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.iluminar</v>
+      </c>
+      <c r="G132" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>temperatura.cor</v>
+      </c>
+      <c r="H132" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I132" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J132" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K132" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L132" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M132" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N132" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O132" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P132" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R132" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S132" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T132" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U132" s="9" t="str">
+        <f t="shared" si="49"/>
+        <v>Propriedade para iluminar: tem.temperatura.cor</v>
+      </c>
+      <c r="V132" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para iluminar: temperatura.cor ( xsd:integer ) </v>
+      </c>
+      <c r="W132" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>133</v>
+      </c>
+      <c r="B133" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C133" s="45" t="str">
+        <f t="shared" si="62"/>
+        <v>p.iluminar</v>
+      </c>
+      <c r="D133" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E133" s="40" t="str">
+        <f t="shared" si="57"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F133" s="47" t="str">
+        <f t="shared" si="47"/>
+        <v>d.iluminar</v>
+      </c>
+      <c r="G133" s="47" t="str">
+        <f t="shared" si="48"/>
+        <v>fotometria</v>
+      </c>
+      <c r="H133" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I133" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K133" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L133" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M133" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N133" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O133" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P133" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R133" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S133" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T133" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U133" s="9" t="str">
+        <f t="shared" si="49"/>
+        <v>Propriedade para iluminar: tem.fotometria</v>
+      </c>
+      <c r="V133" s="9" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">Dado para iluminar: fotometria ( xsd:string ) </v>
+      </c>
+      <c r="W133" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>134</v>
+      </c>
+      <c r="B134" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C134" s="45" t="str">
+        <f t="shared" si="62"/>
+        <v>p.iluminar</v>
+      </c>
+      <c r="D134" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="E130" s="40" t="str">
-        <f t="shared" si="45"/>
+      <c r="E134" s="40" t="str">
+        <f t="shared" si="56"/>
         <v>BIMData</v>
       </c>
-      <c r="F130" s="47" t="str">
-        <f t="shared" si="40"/>
+      <c r="F134" s="47" t="str">
+        <f t="shared" si="47"/>
         <v>d.iluminar</v>
       </c>
-      <c r="G130" s="47" t="str">
-        <f t="shared" si="41"/>
+      <c r="G134" s="47" t="str">
+        <f t="shared" si="48"/>
         <v>irc</v>
       </c>
-      <c r="H130" s="48" t="s">
+      <c r="H134" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="I130" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J130" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="K130" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L130" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M130" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N130" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="O130" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="P130" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q130" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R130" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="S130" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T130" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U130" s="9" t="str">
-        <f t="shared" si="42"/>
+      <c r="I134" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J134" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K134" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L134" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M134" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N134" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O134" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P134" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R134" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S134" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T134" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U134" s="9" t="str">
+        <f t="shared" si="49"/>
         <v>Propriedade para iluminar: tem.irc</v>
       </c>
-      <c r="V130" s="9" t="str">
-        <f t="shared" si="43"/>
+      <c r="V134" s="9" t="str">
+        <f t="shared" si="50"/>
         <v xml:space="preserve">Dado para iluminar: irc ( xsd:string ) </v>
       </c>
-      <c r="W130" s="9" t="s">
+      <c r="W134" s="9" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>135</v>
+      </c>
+      <c r="B135" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C135" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D135" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E135" s="40" t="str">
+        <f t="shared" si="56"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F135" s="53" t="str">
+        <f t="shared" ref="F135:F137" si="63">_xlfn.CONCAT("d.",MID(C135,FIND(".",C135,1)+1,100))</f>
+        <v>d.extinguir</v>
+      </c>
+      <c r="G135" s="41" t="str">
+        <f t="shared" ref="G135:G137" si="64">MID(D135,FIND(".",D135,1)+1,100)</f>
+        <v>classe.de.fogo</v>
+      </c>
+      <c r="H135" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="I135" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J135" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K135" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L135" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M135" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N135" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O135" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P135" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R135" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S135" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T135" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U135" s="9" t="str">
+        <f t="shared" ref="U135:U140" si="65">_xlfn.CONCAT("Propriedade para ",MID(C135,FIND("p.",C135,1)+2,100),": ",D135)</f>
+        <v>Propriedade para extinguir: é.classe.de.fogo</v>
+      </c>
+      <c r="V135" s="9" t="str">
+        <f t="shared" ref="V135:V140" si="66">_xlfn.CONCAT("Dado para ",MID(F135,FIND("d.",F135,1)+2,100),": ",G135, " ( ",H135, " ) ")</f>
+        <v xml:space="preserve">Dado para extinguir: classe.de.fogo ( xsd:string ) </v>
+      </c>
+      <c r="W135" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>136</v>
+      </c>
+      <c r="B136" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C136" s="45" t="str">
+        <f>C135</f>
+        <v>p.extinguir</v>
+      </c>
+      <c r="D136" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E136" s="40" t="str">
+        <f t="shared" si="56"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F136" s="47" t="str">
+        <f t="shared" si="63"/>
+        <v>d.extinguir</v>
+      </c>
+      <c r="G136" s="47" t="str">
+        <f t="shared" si="64"/>
+        <v>visibilidade.da.placa</v>
+      </c>
+      <c r="H136" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I136" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J136" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K136" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L136" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M136" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N136" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O136" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P136" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R136" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S136" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T136" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U136" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>Propriedade para extinguir: é.visibilidade.da.placa</v>
+      </c>
+      <c r="V136" s="9" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">Dado para extinguir: visibilidade.da.placa ( xsd:string ) </v>
+      </c>
+      <c r="W136" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>137</v>
+      </c>
+      <c r="B137" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C137" s="45" t="str">
+        <f t="shared" si="37"/>
+        <v>p.extinguir</v>
+      </c>
+      <c r="D137" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E137" s="40" t="str">
+        <f t="shared" ref="E137:E142" si="67">E133</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F137" s="47" t="str">
+        <f t="shared" si="63"/>
+        <v>d.extinguir</v>
+      </c>
+      <c r="G137" s="47" t="str">
+        <f t="shared" si="64"/>
+        <v>agente.extintor</v>
+      </c>
+      <c r="H137" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I137" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J137" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K137" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L137" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M137" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N137" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O137" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P137" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R137" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S137" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T137" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U137" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>Propriedade para extinguir: é.agente.extintor</v>
+      </c>
+      <c r="V137" s="9" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">Dado para extinguir: agente.extintor ( xsd:string ) </v>
+      </c>
+      <c r="W137" s="56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>138</v>
+      </c>
+      <c r="B138" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C138" s="45" t="str">
+        <f t="shared" si="37"/>
+        <v>p.extinguir</v>
+      </c>
+      <c r="D138" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E138" s="40" t="str">
+        <f t="shared" si="67"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F138" s="47" t="str">
+        <f t="shared" ref="F138:F139" si="68">_xlfn.CONCAT("d.",MID(C138,FIND(".",C138,1)+1,100))</f>
+        <v>d.extinguir</v>
+      </c>
+      <c r="G138" s="47" t="str">
+        <f t="shared" ref="G138:G139" si="69">MID(D138,FIND(".",D138,1)+1,100)</f>
+        <v>tipo.de.extintor</v>
+      </c>
+      <c r="H138" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I138" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J138" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K138" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L138" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M138" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N138" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O138" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P138" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R138" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S138" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T138" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U138" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>Propriedade para extinguir: é.tipo.de.extintor</v>
+      </c>
+      <c r="V138" s="9" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">Dado para extinguir: tipo.de.extintor ( xsd:string ) </v>
+      </c>
+      <c r="W138" s="56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>139</v>
+      </c>
+      <c r="B139" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C139" s="45" t="str">
+        <f t="shared" si="37"/>
+        <v>p.extinguir</v>
+      </c>
+      <c r="D139" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="E139" s="40" t="str">
+        <f t="shared" si="67"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F139" s="47" t="str">
+        <f t="shared" si="68"/>
+        <v>d.extinguir</v>
+      </c>
+      <c r="G139" s="47" t="str">
+        <f t="shared" si="69"/>
+        <v>carga.do.extintor</v>
+      </c>
+      <c r="H139" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I139" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J139" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K139" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L139" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M139" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N139" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O139" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P139" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R139" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S139" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T139" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U139" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>Propriedade para extinguir: é.carga.do.extintor</v>
+      </c>
+      <c r="V139" s="9" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">Dado para extinguir: carga.do.extintor ( xsd:string ) </v>
+      </c>
+      <c r="W139" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>140</v>
+      </c>
+      <c r="B140" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C140" s="45" t="str">
+        <f t="shared" si="37"/>
+        <v>p.extinguir</v>
+      </c>
+      <c r="D140" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="E140" s="40" t="str">
+        <f t="shared" si="67"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F140" s="47" t="str">
+        <f t="shared" ref="F140" si="70">_xlfn.CONCAT("d.",MID(C140,FIND(".",C140,1)+1,100))</f>
+        <v>d.extinguir</v>
+      </c>
+      <c r="G140" s="47" t="str">
+        <f t="shared" ref="G140" si="71">MID(D140,FIND(".",D140,1)+1,100)</f>
+        <v>código.de.sinalização</v>
+      </c>
+      <c r="H140" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I140" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J140" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K140" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L140" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M140" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N140" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O140" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P140" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R140" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S140" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T140" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U140" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>Propriedade para extinguir: é.código.de.sinalização</v>
+      </c>
+      <c r="V140" s="9" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve">Dado para extinguir: código.de.sinalização ( xsd:string ) </v>
+      </c>
+      <c r="W140" s="56" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>141</v>
+      </c>
+      <c r="B141" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C141" s="45" t="str">
+        <f t="shared" si="37"/>
+        <v>p.extinguir</v>
+      </c>
+      <c r="D141" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="E141" s="40" t="str">
+        <f t="shared" si="67"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F141" s="47" t="str">
+        <f t="shared" ref="F141" si="72">_xlfn.CONCAT("d.",MID(C141,FIND(".",C141,1)+1,100))</f>
+        <v>d.extinguir</v>
+      </c>
+      <c r="G141" s="47" t="str">
+        <f t="shared" ref="G141" si="73">MID(D141,FIND(".",D141,1)+1,100)</f>
+        <v>validade</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I141" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J141" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K141" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L141" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M141" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N141" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O141" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P141" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R141" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S141" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T141" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U141" s="9" t="str">
+        <f t="shared" ref="U141" si="74">_xlfn.CONCAT("Propriedade para ",MID(C141,FIND("p.",C141,1)+2,100),": ",D141)</f>
+        <v>Propriedade para extinguir: é.validade</v>
+      </c>
+      <c r="V141" s="9" t="str">
+        <f t="shared" ref="V141" si="75">_xlfn.CONCAT("Dado para ",MID(F141,FIND("d.",F141,1)+2,100),": ",G141, " ( ",H141, " ) ")</f>
+        <v xml:space="preserve">Dado para extinguir: validade ( xsd:dateTime ) </v>
+      </c>
+      <c r="W141" s="56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>142</v>
+      </c>
+      <c r="B142" s="19" t="str">
+        <f t="shared" si="37"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C142" s="45" t="str">
+        <f t="shared" si="37"/>
+        <v>p.extinguir</v>
+      </c>
+      <c r="D142" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="E142" s="40" t="str">
+        <f t="shared" si="67"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F142" s="47" t="str">
+        <f t="shared" ref="F142:F146" si="76">_xlfn.CONCAT("d.",MID(C142,FIND(".",C142,1)+1,100))</f>
+        <v>d.extinguir</v>
+      </c>
+      <c r="G142" s="47" t="str">
+        <f t="shared" ref="G142:G146" si="77">MID(D142,FIND(".",D142,1)+1,100)</f>
+        <v>data.de.verificação</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I142" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J142" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K142" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L142" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M142" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N142" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O142" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P142" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R142" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S142" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T142" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U142" s="9" t="str">
+        <f t="shared" ref="U142:U146" si="78">_xlfn.CONCAT("Propriedade para ",MID(C142,FIND("p.",C142,1)+2,100),": ",D142)</f>
+        <v>Propriedade para extinguir: é.data.de.verificação</v>
+      </c>
+      <c r="V142" s="9" t="str">
+        <f t="shared" ref="V142:V146" si="79">_xlfn.CONCAT("Dado para ",MID(F142,FIND("d.",F142,1)+2,100),": ",G142, " ( ",H142, " ) ")</f>
+        <v xml:space="preserve">Dado para extinguir: data.de.verificação ( xsd:dateTime ) </v>
+      </c>
+      <c r="W142" s="56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>143</v>
+      </c>
+      <c r="B143" s="19" t="str">
+        <f t="shared" ref="B143" si="80">B142</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C143" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D143" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E143" s="40" t="str">
+        <f t="shared" ref="E143:E144" si="81">E138</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F143" s="53" t="str">
+        <f t="shared" si="76"/>
+        <v>d.plantar</v>
+      </c>
+      <c r="G143" s="41" t="str">
+        <f t="shared" si="77"/>
+        <v>espécie</v>
+      </c>
+      <c r="H143" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="I143" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J143" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K143" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L143" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M143" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N143" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O143" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P143" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R143" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S143" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T143" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U143" s="9" t="str">
+        <f t="shared" si="78"/>
+        <v>Propriedade para plantar: tem.espécie</v>
+      </c>
+      <c r="V143" s="9" t="str">
+        <f t="shared" si="79"/>
+        <v xml:space="preserve">Dado para plantar: espécie ( xsd:string ) </v>
+      </c>
+      <c r="W143" s="56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>144</v>
+      </c>
+      <c r="B144" s="19" t="str">
+        <f t="shared" ref="B144" si="82">B143</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C144" s="45" t="str">
+        <f>C143</f>
+        <v>p.plantar</v>
+      </c>
+      <c r="D144" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E144" s="40" t="str">
+        <f t="shared" si="81"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F144" s="47" t="str">
+        <f t="shared" si="76"/>
+        <v>d.plantar</v>
+      </c>
+      <c r="G144" s="47" t="str">
+        <f t="shared" si="77"/>
+        <v>data.de.plantio</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I144" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J144" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K144" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L144" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M144" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N144" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O144" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P144" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R144" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S144" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T144" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U144" s="9" t="str">
+        <f t="shared" si="78"/>
+        <v>Propriedade para plantar: tem.data.de.plantio</v>
+      </c>
+      <c r="V144" s="9" t="str">
+        <f t="shared" si="79"/>
+        <v xml:space="preserve">Dado para plantar: data.de.plantio ( xsd:dateTime ) </v>
+      </c>
+      <c r="W144" s="56" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>145</v>
+      </c>
+      <c r="B145" s="19" t="str">
+        <f t="shared" ref="B145:C145" si="83">B144</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C145" s="45" t="str">
+        <f t="shared" si="83"/>
+        <v>p.plantar</v>
+      </c>
+      <c r="D145" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="E145" s="40" t="str">
+        <f>E141</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F145" s="47" t="str">
+        <f t="shared" si="76"/>
+        <v>d.plantar</v>
+      </c>
+      <c r="G145" s="47" t="str">
+        <f t="shared" si="77"/>
+        <v>estado.de.conservação</v>
+      </c>
+      <c r="H145" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I145" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J145" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K145" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L145" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M145" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N145" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O145" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P145" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R145" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S145" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T145" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U145" s="9" t="str">
+        <f t="shared" si="78"/>
+        <v>Propriedade para plantar: tem.estado.de.conservação</v>
+      </c>
+      <c r="V145" s="9" t="str">
+        <f t="shared" si="79"/>
+        <v xml:space="preserve">Dado para plantar: estado.de.conservação ( xsd:string ) </v>
+      </c>
+      <c r="W145" s="56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>146</v>
+      </c>
+      <c r="B146" s="19" t="str">
+        <f t="shared" ref="B146:C146" si="84">B145</f>
+        <v>BIMProp</v>
+      </c>
+      <c r="C146" s="45" t="str">
+        <f t="shared" si="84"/>
+        <v>p.plantar</v>
+      </c>
+      <c r="D146" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E146" s="40" t="str">
+        <f>E142</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F146" s="47" t="str">
+        <f t="shared" si="76"/>
+        <v>d.plantar</v>
+      </c>
+      <c r="G146" s="47" t="str">
+        <f t="shared" si="77"/>
+        <v>tcr</v>
+      </c>
+      <c r="H146" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I146" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J146" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K146" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L146" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M146" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N146" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O146" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="P146" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R146" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="S146" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T146" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U146" s="9" t="str">
+        <f t="shared" si="78"/>
+        <v>Propriedade para plantar: tem.tcr</v>
+      </c>
+      <c r="V146" s="9" t="str">
+        <f t="shared" si="79"/>
+        <v xml:space="preserve">Dado para plantar: tcr ( xsd:string ) </v>
+      </c>
+      <c r="W146" s="56" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
     <ignoredError sqref="F54" formula="1"/>

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F3896D-77D1-42DF-8B0D-BF5785023001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3A6EB7-4646-4E32-A91F-2EC7E56B3BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6683" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6683" uniqueCount="1111">
   <si>
     <t>null</t>
   </si>
@@ -3368,7 +3368,10 @@
     <t>tem.uf</t>
   </si>
   <si>
-    <t>Identifica a Unidade Federativa em Brasil. (usa dois caracteres maíusculos).</t>
+    <t>end.118</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade Federativa em Brasil. Usa dois caracteres maíúsculos (RJ por exemplo).</t>
   </si>
 </sst>
 </file>
@@ -4305,9 +4308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
   <dimension ref="A1:Y349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4324,7 +4327,8 @@
     <col min="10" max="17" width="6.28515625" style="30" customWidth="1"/>
     <col min="18" max="18" width="6.28515625" style="31" customWidth="1"/>
     <col min="19" max="20" width="5.85546875" style="31" customWidth="1"/>
-    <col min="21" max="22" width="24.7109375" style="31" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" style="31" customWidth="1"/>
+    <col min="22" max="22" width="31.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="50" style="31" customWidth="1"/>
     <col min="24" max="24" width="6.28515625" style="51" customWidth="1"/>
     <col min="25" max="25" width="5.7109375" style="32" bestFit="1" customWidth="1"/>
@@ -4726,7 +4730,7 @@
         <v xml:space="preserve">Dado para endereçar: uf ( xsd:string ) </v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="X5" s="50" t="s">
         <v>715</v>
@@ -4811,7 +4815,7 @@
         <v>203</v>
       </c>
       <c r="X6" s="50" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Y6" s="50" t="s">
         <v>0</v>
@@ -4893,7 +4897,7 @@
         <v>204</v>
       </c>
       <c r="X7" s="50" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y7" s="50" t="s">
         <v>0</v>
@@ -4975,7 +4979,7 @@
         <v>205</v>
       </c>
       <c r="X8" s="50" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Y8" s="50" t="s">
         <v>0</v>
@@ -5057,7 +5061,7 @@
         <v>286</v>
       </c>
       <c r="X9" s="50" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Y9" s="50" t="s">
         <v>0</v>
@@ -5139,7 +5143,7 @@
         <v>206</v>
       </c>
       <c r="X10" s="50" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Y10" s="50" t="s">
         <v>0</v>
@@ -5221,7 +5225,7 @@
         <v>207</v>
       </c>
       <c r="X11" s="50" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Y11" s="50" t="s">
         <v>0</v>
@@ -5303,7 +5307,7 @@
         <v>208</v>
       </c>
       <c r="X12" s="50" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="Y12" s="50" t="s">
         <v>0</v>
@@ -5385,7 +5389,7 @@
         <v>263</v>
       </c>
       <c r="X13" s="50" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Y13" s="50" t="s">
         <v>0</v>
@@ -5467,7 +5471,7 @@
         <v>209</v>
       </c>
       <c r="X14" s="50" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Y14" s="50" t="s">
         <v>0</v>
@@ -5549,7 +5553,7 @@
         <v>264</v>
       </c>
       <c r="X15" s="50" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Y15" s="50" t="s">
         <v>0</v>
@@ -5631,7 +5635,7 @@
         <v>958</v>
       </c>
       <c r="X16" s="50" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Y16" s="50" t="s">
         <v>0</v>
@@ -5713,7 +5717,7 @@
         <v>210</v>
       </c>
       <c r="X17" s="50" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Y17" s="50" t="s">
         <v>0</v>
@@ -5795,7 +5799,7 @@
         <v>287</v>
       </c>
       <c r="X18" s="50" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Y18" s="50" t="s">
         <v>0</v>
@@ -5877,7 +5881,7 @@
         <v>957</v>
       </c>
       <c r="X19" s="50" t="s">
-        <v>728</v>
+        <v>959</v>
       </c>
       <c r="Y19" s="50" t="s">
         <v>0</v>
@@ -5959,7 +5963,7 @@
         <v>956</v>
       </c>
       <c r="X20" s="50" t="s">
-        <v>959</v>
+        <v>1109</v>
       </c>
       <c r="Y20" s="50" t="s">
         <v>0</v>

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9D702B-BEDC-4AB2-8E7A-587B94D2B009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBD33CA-885C-4C3C-AF56-7E6EF54715E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -5705,8 +5705,8 @@
   <dimension ref="A1:Y506"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G390" sqref="G390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF64D5A-C771-48A4-9CD8-0A063CD0B901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B80F87-4F6D-46DD-B38E-21EF26A927B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -5131,8 +5131,8 @@
   <dimension ref="A1:Y648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G401" sqref="G401"/>
+      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A648" sqref="A648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5149,7 +5149,8 @@
     <col min="10" max="16" width="6.28515625" style="16" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.28515625" style="17" customWidth="1"/>
-    <col min="19" max="20" width="5.85546875" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" style="17" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="17" customWidth="1"/>
     <col min="21" max="21" width="24.7109375" style="17" customWidth="1"/>
     <col min="22" max="22" width="24.5703125" style="17" customWidth="1"/>
     <col min="23" max="23" width="65.28515625" style="17" customWidth="1"/>
@@ -47064,7 +47065,7 @@
         <v>0</v>
       </c>
       <c r="P506" s="24" t="s">
-        <v>0</v>
+        <v>1271</v>
       </c>
       <c r="Q506" s="24" t="s">
         <v>1070</v>
@@ -47147,7 +47148,7 @@
         <v>0</v>
       </c>
       <c r="P507" s="24" t="s">
-        <v>0</v>
+        <v>1271</v>
       </c>
       <c r="Q507" s="24" t="s">
         <v>0</v>

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F5D3B0-4E42-41DE-9300-15849D3BA2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94C2CF9-C9D0-4C3D-9C04-8C2E8347BA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12275" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12365" uniqueCount="1492">
   <si>
     <t>null</t>
   </si>
@@ -4479,6 +4479,42 @@
   </si>
   <si>
     <t>é.expirada</t>
+  </si>
+  <si>
+    <t>é.autorizada</t>
+  </si>
+  <si>
+    <t>protocolo.http</t>
+  </si>
+  <si>
+    <t>protocolo.ftp</t>
+  </si>
+  <si>
+    <t>protocolo.https</t>
+  </si>
+  <si>
+    <t>Protocolo seguro de transmissão em Internet. HTTPS HyperText Transfer Protocol Secure.</t>
+  </si>
+  <si>
+    <t>Protocolo de transmissão em Internet. HTTP HyperText Transfer Protocol.</t>
+  </si>
+  <si>
+    <t>Protocolo de transmissão em rede FTP File Transfer Protocol.</t>
+  </si>
+  <si>
+    <t>é.no.prumo</t>
+  </si>
+  <si>
+    <t>norte.verdadeiro</t>
+  </si>
+  <si>
+    <t>norte.projetual</t>
+  </si>
+  <si>
+    <t>Rotação do Norte verdadeiro.</t>
+  </si>
+  <si>
+    <t>Rotação do Norte do projeto.</t>
   </si>
 </sst>
 </file>
@@ -5344,11 +5380,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
-  <dimension ref="A1:Y677"/>
+  <dimension ref="A1:Y682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R677"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -47289,7 +47325,7 @@
         <v>1478</v>
       </c>
       <c r="R506" s="26" t="s">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="S506" s="12" t="s">
         <v>1</v>
@@ -47538,7 +47574,7 @@
         <v>0</v>
       </c>
       <c r="R509" s="26" t="s">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="S509" s="12" t="s">
         <v>1</v>
@@ -47704,7 +47740,7 @@
         <v>0</v>
       </c>
       <c r="R511" s="26" t="s">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="S511" s="12" t="s">
         <v>1</v>
@@ -47962,11 +47998,11 @@
         <v>43</v>
       </c>
       <c r="U514" s="6" t="str">
-        <f t="shared" ref="U514:U577" si="68">_xlfn.CONCAT("Propriedade para ",MID(C514,FIND("p.",C514,1)+2,100),": ",D514)</f>
+        <f t="shared" ref="U514:U579" si="68">_xlfn.CONCAT("Propriedade para ",MID(C514,FIND("p.",C514,1)+2,100),": ",D514)</f>
         <v>Propriedade para permitir: é.expirada</v>
       </c>
       <c r="V514" s="6" t="str">
-        <f t="shared" ref="V514:V577" si="69">_xlfn.CONCAT("Dado para ",MID(F514,FIND("d.",F514,1)+2,100),": ",G514, " ( ",H514, " ) ")</f>
+        <f t="shared" ref="V514:V579" si="69">_xlfn.CONCAT("Dado para ",MID(F514,FIND("d.",F514,1)+2,100),": ",G514, " ( ",H514, " ) ")</f>
         <v xml:space="preserve">Dado para permitir: expirada ( xsd:boolean ) </v>
       </c>
       <c r="W514" s="29" t="s">
@@ -48056,7 +48092,7 @@
         <v>1473</v>
       </c>
       <c r="X515" s="23" t="str">
-        <f t="shared" ref="X515:X578" si="70">IF(F514&lt;&gt;F515,_xlfn.CONCAT(RIGHT(LEFT(F515,6),4),".100"),_xlfn.CONCAT(RIGHT(LEFT(F515,6),4),".",SUM(VALUE(RIGHT(X514,3)),1)))</f>
+        <f t="shared" ref="X515:X580" si="70">IF(F514&lt;&gt;F515,_xlfn.CONCAT(RIGHT(LEFT(F515,6),4),".100"),_xlfn.CONCAT(RIGHT(LEFT(F515,6),4),".",SUM(VALUE(RIGHT(X514,3)),1)))</f>
         <v>perm.109</v>
       </c>
       <c r="Y515" s="23" t="s">
@@ -48571,7 +48607,7 @@
         <v>p.pintar</v>
       </c>
       <c r="D522" s="7" t="str">
-        <f t="shared" ref="D522:D585" si="71">_xlfn.CONCAT("é.",G522)</f>
+        <f t="shared" ref="D522:D587" si="71">_xlfn.CONCAT("é.",G522)</f>
         <v>é.tonalidade</v>
       </c>
       <c r="E522" s="10" t="s">
@@ -51221,7 +51257,7 @@
         <v>37</v>
       </c>
       <c r="C554" s="28" t="str">
-        <f t="shared" ref="C554:C617" si="74">SUBSTITUTE(F554,"d.","p.")</f>
+        <f t="shared" ref="C554:C619" si="74">SUBSTITUTE(F554,"d.","p.")</f>
         <v xml:space="preserve">p.posicionar </v>
       </c>
       <c r="D554" s="7" t="str">
@@ -51435,7 +51471,7 @@
         <v>0</v>
       </c>
       <c r="R556" s="26" t="s">
-        <v>0</v>
+        <v>1487</v>
       </c>
       <c r="S556" s="12" t="s">
         <v>1</v>
@@ -52217,18 +52253,18 @@
         <v>37</v>
       </c>
       <c r="C566" s="28" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="C566:C567" si="76">SUBSTITUTE(F566,"d.","p.")</f>
         <v xml:space="preserve">p.posicionar </v>
       </c>
       <c r="D566" s="7" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="D566:D567" si="77">_xlfn.CONCAT("é.",G566)</f>
         <v>é.coordenada.topográfica</v>
       </c>
       <c r="E566" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F566" s="21" t="str">
-        <f>F562</f>
+        <f>F561</f>
         <v xml:space="preserve">d.posicionar </v>
       </c>
       <c r="G566" s="38" t="s">
@@ -52274,11 +52310,11 @@
         <v>43</v>
       </c>
       <c r="U566" s="6" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="U566:U567" si="78">_xlfn.CONCAT("Propriedade para ",MID(C566,FIND("p.",C566,1)+2,100),": ",D566)</f>
         <v>Propriedade para posicionar : é.coordenada.topográfica</v>
       </c>
       <c r="V566" s="6" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="V566:V567" si="79">_xlfn.CONCAT("Dado para ",MID(F566,FIND("d.",F566,1)+2,100),": ",G566, " ( ",H566, " ) ")</f>
         <v xml:space="preserve">Dado para posicionar : coordenada.topográfica ( xsd:boolean ) </v>
       </c>
       <c r="W566" s="6" t="s">
@@ -52299,22 +52335,23 @@
       <c r="B567" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C567" s="31" t="str">
-        <f t="shared" si="74"/>
-        <v xml:space="preserve">p.prever </v>
+      <c r="C567" s="28" t="str">
+        <f t="shared" si="76"/>
+        <v xml:space="preserve">p.posicionar </v>
       </c>
       <c r="D567" s="7" t="str">
-        <f t="shared" si="71"/>
-        <v>é.precipitação.diária</v>
+        <f t="shared" si="77"/>
+        <v>é.norte.verdadeiro</v>
       </c>
       <c r="E567" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F567" s="22" t="s">
-        <v>886</v>
-      </c>
-      <c r="G567" s="37" t="s">
-        <v>884</v>
+      <c r="F567" s="21" t="str">
+        <f>F561</f>
+        <v xml:space="preserve">d.posicionar </v>
+      </c>
+      <c r="G567" s="38" t="s">
+        <v>1488</v>
       </c>
       <c r="H567" s="27" t="s">
         <v>47</v>
@@ -52356,19 +52393,19 @@
         <v>43</v>
       </c>
       <c r="U567" s="6" t="str">
-        <f t="shared" si="68"/>
-        <v>Propriedade para prever : é.precipitação.diária</v>
+        <f t="shared" si="78"/>
+        <v>Propriedade para posicionar : é.norte.verdadeiro</v>
       </c>
       <c r="V567" s="6" t="str">
-        <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para prever : precipitação.diária ( xsd:double ) </v>
+        <f t="shared" si="79"/>
+        <v xml:space="preserve">Dado para posicionar : norte.verdadeiro ( xsd:double ) </v>
       </c>
       <c r="W567" s="6" t="s">
-        <v>887</v>
+        <v>1490</v>
       </c>
       <c r="X567" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prev.100</v>
+        <v>posi.122</v>
       </c>
       <c r="Y567" s="23" t="s">
         <v>0</v>
@@ -52383,21 +52420,21 @@
       </c>
       <c r="C568" s="28" t="str">
         <f t="shared" si="74"/>
-        <v xml:space="preserve">p.prever </v>
+        <v xml:space="preserve">p.posicionar </v>
       </c>
       <c r="D568" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.precipitação.mensal</v>
+        <v>é.norte.projetual</v>
       </c>
       <c r="E568" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F568" s="21" t="str">
-        <f t="shared" ref="F568:F576" si="76">F567</f>
-        <v xml:space="preserve">d.prever </v>
-      </c>
-      <c r="G568" s="37" t="s">
-        <v>885</v>
+        <f>F562</f>
+        <v xml:space="preserve">d.posicionar </v>
+      </c>
+      <c r="G568" s="38" t="s">
+        <v>1489</v>
       </c>
       <c r="H568" s="27" t="s">
         <v>47</v>
@@ -52440,18 +52477,18 @@
       </c>
       <c r="U568" s="6" t="str">
         <f t="shared" si="68"/>
-        <v>Propriedade para prever : é.precipitação.mensal</v>
+        <v>Propriedade para posicionar : é.norte.projetual</v>
       </c>
       <c r="V568" s="6" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para prever : precipitação.mensal ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para posicionar : norte.projetual ( xsd:double ) </v>
       </c>
       <c r="W568" s="6" t="s">
-        <v>888</v>
+        <v>1491</v>
       </c>
       <c r="X568" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prev.101</v>
+        <v>posi.123</v>
       </c>
       <c r="Y568" s="23" t="s">
         <v>0</v>
@@ -52464,23 +52501,22 @@
       <c r="B569" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C569" s="28" t="str">
+      <c r="C569" s="31" t="str">
         <f t="shared" si="74"/>
         <v xml:space="preserve">p.prever </v>
       </c>
       <c r="D569" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.velocidade.do.vento</v>
+        <v>é.precipitação.diária</v>
       </c>
       <c r="E569" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F569" s="21" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve">d.prever </v>
+      <c r="F569" s="22" t="s">
+        <v>886</v>
       </c>
       <c r="G569" s="37" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="H569" s="27" t="s">
         <v>47</v>
@@ -52523,24 +52559,24 @@
       </c>
       <c r="U569" s="6" t="str">
         <f t="shared" si="68"/>
-        <v>Propriedade para prever : é.velocidade.do.vento</v>
+        <v>Propriedade para prever : é.precipitação.diária</v>
       </c>
       <c r="V569" s="6" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para prever : velocidade.do.vento ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : precipitação.diária ( xsd:double ) </v>
       </c>
       <c r="W569" s="6" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="X569" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prev.102</v>
+        <v>prev.100</v>
       </c>
       <c r="Y569" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4">
         <v>570</v>
       </c>
@@ -52553,20 +52589,20 @@
       </c>
       <c r="D570" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.direção.do.vento</v>
+        <v>é.precipitação.mensal</v>
       </c>
       <c r="E570" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F570" s="21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="F570:F578" si="80">F569</f>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G570" s="37" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="H570" s="27" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I570" s="30" t="s">
         <v>0</v>
@@ -52606,24 +52642,24 @@
       </c>
       <c r="U570" s="6" t="str">
         <f t="shared" si="68"/>
-        <v>Propriedade para prever : é.direção.do.vento</v>
+        <v>Propriedade para prever : é.precipitação.mensal</v>
       </c>
       <c r="V570" s="6" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para prever : direção.do.vento ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para prever : precipitação.mensal ( xsd:double ) </v>
       </c>
       <c r="W570" s="6" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="X570" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prev.103</v>
+        <v>prev.101</v>
       </c>
       <c r="Y570" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4">
         <v>571</v>
       </c>
@@ -52636,17 +52672,17 @@
       </c>
       <c r="D571" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.radiação.solar</v>
+        <v>é.velocidade.do.vento</v>
       </c>
       <c r="E571" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F571" s="21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G571" s="37" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
       <c r="H571" s="27" t="s">
         <v>47</v>
@@ -52689,18 +52725,18 @@
       </c>
       <c r="U571" s="6" t="str">
         <f t="shared" si="68"/>
-        <v>Propriedade para prever : é.radiação.solar</v>
+        <v>Propriedade para prever : é.velocidade.do.vento</v>
       </c>
       <c r="V571" s="6" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para prever : radiação.solar ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : velocidade.do.vento ( xsd:double ) </v>
       </c>
       <c r="W571" s="6" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="X571" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prev.104</v>
+        <v>prev.102</v>
       </c>
       <c r="Y571" s="23" t="s">
         <v>0</v>
@@ -52719,20 +52755,20 @@
       </c>
       <c r="D572" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.pressão.atmosférica</v>
+        <v>é.direção.do.vento</v>
       </c>
       <c r="E572" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F572" s="21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G572" s="37" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="H572" s="27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I572" s="30" t="s">
         <v>0</v>
@@ -52772,18 +52808,18 @@
       </c>
       <c r="U572" s="6" t="str">
         <f t="shared" si="68"/>
-        <v>Propriedade para prever : é.pressão.atmosférica</v>
+        <v>Propriedade para prever : é.direção.do.vento</v>
       </c>
       <c r="V572" s="6" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para prever : pressão.atmosférica ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : direção.do.vento ( xsd:string ) </v>
       </c>
       <c r="W572" s="6" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="X572" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prev.105</v>
+        <v>prev.103</v>
       </c>
       <c r="Y572" s="23" t="s">
         <v>0</v>
@@ -52802,17 +52838,17 @@
       </c>
       <c r="D573" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.temperatura</v>
+        <v>é.radiação.solar</v>
       </c>
       <c r="E573" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F573" s="21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G573" s="37" t="s">
-        <v>882</v>
+        <v>923</v>
       </c>
       <c r="H573" s="27" t="s">
         <v>47</v>
@@ -52855,24 +52891,24 @@
       </c>
       <c r="U573" s="6" t="str">
         <f t="shared" si="68"/>
-        <v>Propriedade para prever : é.temperatura</v>
+        <v>Propriedade para prever : é.radiação.solar</v>
       </c>
       <c r="V573" s="6" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para prever : temperatura ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : radiação.solar ( xsd:double ) </v>
       </c>
       <c r="W573" s="6" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
       <c r="X573" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prev.106</v>
+        <v>prev.104</v>
       </c>
       <c r="Y573" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
         <v>574</v>
       </c>
@@ -52885,17 +52921,17 @@
       </c>
       <c r="D574" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.umidade.relativa</v>
+        <v>é.pressão.atmosférica</v>
       </c>
       <c r="E574" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F574" s="21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G574" s="37" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="H574" s="27" t="s">
         <v>47</v>
@@ -52938,24 +52974,24 @@
       </c>
       <c r="U574" s="6" t="str">
         <f t="shared" si="68"/>
-        <v>Propriedade para prever : é.umidade.relativa</v>
+        <v>Propriedade para prever : é.pressão.atmosférica</v>
       </c>
       <c r="V574" s="6" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para prever : umidade.relativa ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : pressão.atmosférica ( xsd:double ) </v>
       </c>
       <c r="W574" s="6" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="X574" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prev.107</v>
+        <v>prev.105</v>
       </c>
       <c r="Y574" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
         <v>575</v>
       </c>
@@ -52968,17 +53004,17 @@
       </c>
       <c r="D575" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.qualidade.do.ar</v>
+        <v>é.temperatura</v>
       </c>
       <c r="E575" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F575" s="21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G575" s="37" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="H575" s="27" t="s">
         <v>47</v>
@@ -53021,18 +53057,18 @@
       </c>
       <c r="U575" s="6" t="str">
         <f t="shared" si="68"/>
-        <v>Propriedade para prever : é.qualidade.do.ar</v>
+        <v>Propriedade para prever : é.temperatura</v>
       </c>
       <c r="V575" s="6" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para prever : qualidade.do.ar ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : temperatura ( xsd:double ) </v>
       </c>
       <c r="W575" s="6" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="X575" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prev.108</v>
+        <v>prev.106</v>
       </c>
       <c r="Y575" s="23" t="s">
         <v>0</v>
@@ -53051,20 +53087,20 @@
       </c>
       <c r="D576" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.estação.meteorológica</v>
+        <v>é.umidade.relativa</v>
       </c>
       <c r="E576" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F576" s="21" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G576" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="H576" s="5" t="s">
-        <v>39</v>
+        <v>883</v>
+      </c>
+      <c r="H576" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="I576" s="30" t="s">
         <v>0</v>
@@ -53104,18 +53140,18 @@
       </c>
       <c r="U576" s="6" t="str">
         <f t="shared" si="68"/>
-        <v>Propriedade para prever : é.estação.meteorológica</v>
+        <v>Propriedade para prever : é.umidade.relativa</v>
       </c>
       <c r="V576" s="6" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para prever : estação.meteorológica ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para prever : umidade.relativa ( xsd:double ) </v>
       </c>
       <c r="W576" s="6" t="s">
-        <v>922</v>
+        <v>889</v>
       </c>
       <c r="X576" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prev.109</v>
+        <v>prev.107</v>
       </c>
       <c r="Y576" s="23" t="s">
         <v>0</v>
@@ -53128,25 +53164,26 @@
       <c r="B577" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C577" s="31" t="str">
+      <c r="C577" s="28" t="str">
         <f t="shared" si="74"/>
-        <v>p.produzir</v>
+        <v xml:space="preserve">p.prever </v>
       </c>
       <c r="D577" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.produtor</v>
+        <v>é.qualidade.do.ar</v>
       </c>
       <c r="E577" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F577" s="19" t="s">
-        <v>1192</v>
+      <c r="F577" s="21" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G577" s="37" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H577" s="5" t="s">
-        <v>39</v>
+        <v>890</v>
+      </c>
+      <c r="H577" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="I577" s="30" t="s">
         <v>0</v>
@@ -53186,18 +53223,18 @@
       </c>
       <c r="U577" s="6" t="str">
         <f t="shared" si="68"/>
-        <v>Propriedade para produzir: é.produtor</v>
+        <v>Propriedade para prever : é.qualidade.do.ar</v>
       </c>
       <c r="V577" s="6" t="str">
         <f t="shared" si="69"/>
-        <v xml:space="preserve">Dado para produzir: produtor ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para prever : qualidade.do.ar ( xsd:double ) </v>
       </c>
       <c r="W577" s="6" t="s">
-        <v>1196</v>
+        <v>893</v>
       </c>
       <c r="X577" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prod.100</v>
+        <v>prev.108</v>
       </c>
       <c r="Y577" s="23" t="s">
         <v>0</v>
@@ -53212,21 +53249,21 @@
       </c>
       <c r="C578" s="28" t="str">
         <f t="shared" si="74"/>
-        <v>p.produzir</v>
+        <v xml:space="preserve">p.prever </v>
       </c>
       <c r="D578" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.produzido</v>
+        <v>é.estação.meteorológica</v>
       </c>
       <c r="E578" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F578" s="21" t="str">
-        <f>F577</f>
-        <v>d.produzir</v>
+        <f t="shared" si="80"/>
+        <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G578" s="37" t="s">
-        <v>1193</v>
+        <v>642</v>
       </c>
       <c r="H578" s="5" t="s">
         <v>39</v>
@@ -53268,19 +53305,19 @@
         <v>43</v>
       </c>
       <c r="U578" s="6" t="str">
-        <f t="shared" ref="U578:U641" si="77">_xlfn.CONCAT("Propriedade para ",MID(C578,FIND("p.",C578,1)+2,100),": ",D578)</f>
-        <v>Propriedade para produzir: é.produzido</v>
+        <f t="shared" si="68"/>
+        <v>Propriedade para prever : é.estação.meteorológica</v>
       </c>
       <c r="V578" s="6" t="str">
-        <f t="shared" ref="V578:V641" si="78">_xlfn.CONCAT("Dado para ",MID(F578,FIND("d.",F578,1)+2,100),": ",G578, " ( ",H578, " ) ")</f>
-        <v xml:space="preserve">Dado para produzir: produzido ( xsd:string ) </v>
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">Dado para prever : estação.meteorológica ( xsd:string ) </v>
       </c>
       <c r="W578" s="6" t="s">
-        <v>1198</v>
+        <v>922</v>
       </c>
       <c r="X578" s="23" t="str">
         <f t="shared" si="70"/>
-        <v>prod.101</v>
+        <v>prev.109</v>
       </c>
       <c r="Y578" s="23" t="s">
         <v>0</v>
@@ -53293,23 +53330,22 @@
       <c r="B579" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C579" s="28" t="str">
+      <c r="C579" s="31" t="str">
         <f t="shared" si="74"/>
         <v>p.produzir</v>
       </c>
       <c r="D579" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.produtividade</v>
+        <v>é.produtor</v>
       </c>
       <c r="E579" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F579" s="21" t="str">
-        <f>F578</f>
-        <v>d.produzir</v>
+      <c r="F579" s="19" t="s">
+        <v>1192</v>
       </c>
       <c r="G579" s="37" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H579" s="5" t="s">
         <v>39</v>
@@ -53351,19 +53387,19 @@
         <v>43</v>
       </c>
       <c r="U579" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para produzir: é.produtividade</v>
+        <f t="shared" si="68"/>
+        <v>Propriedade para produzir: é.produtor</v>
       </c>
       <c r="V579" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para produzir: produtividade ( xsd:string ) </v>
+        <f t="shared" si="69"/>
+        <v xml:space="preserve">Dado para produzir: produtor ( xsd:string ) </v>
       </c>
       <c r="W579" s="6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="X579" s="23" t="str">
-        <f t="shared" ref="X579:X642" si="79">IF(F578&lt;&gt;F579,_xlfn.CONCAT(RIGHT(LEFT(F579,6),4),".100"),_xlfn.CONCAT(RIGHT(LEFT(F579,6),4),".",SUM(VALUE(RIGHT(X578,3)),1)))</f>
-        <v>prod.102</v>
+        <f t="shared" si="70"/>
+        <v>prod.100</v>
       </c>
       <c r="Y579" s="23" t="s">
         <v>0</v>
@@ -53382,7 +53418,7 @@
       </c>
       <c r="D580" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.içado</v>
+        <v>é.produzido</v>
       </c>
       <c r="E580" s="10" t="s">
         <v>38</v>
@@ -53392,7 +53428,7 @@
         <v>d.produzir</v>
       </c>
       <c r="G580" s="37" t="s">
-        <v>1244</v>
+        <v>1193</v>
       </c>
       <c r="H580" s="5" t="s">
         <v>39</v>
@@ -53434,19 +53470,19 @@
         <v>43</v>
       </c>
       <c r="U580" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para produzir: é.içado</v>
+        <f t="shared" ref="U580:U643" si="81">_xlfn.CONCAT("Propriedade para ",MID(C580,FIND("p.",C580,1)+2,100),": ",D580)</f>
+        <v>Propriedade para produzir: é.produzido</v>
       </c>
       <c r="V580" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para produzir: içado ( xsd:string ) </v>
+        <f t="shared" ref="V580:V643" si="82">_xlfn.CONCAT("Dado para ",MID(F580,FIND("d.",F580,1)+2,100),": ",G580, " ( ",H580, " ) ")</f>
+        <v xml:space="preserve">Dado para produzir: produzido ( xsd:string ) </v>
       </c>
       <c r="W580" s="6" t="s">
-        <v>1245</v>
+        <v>1198</v>
       </c>
       <c r="X580" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>prod.103</v>
+        <f t="shared" si="70"/>
+        <v>prod.101</v>
       </c>
       <c r="Y580" s="23" t="s">
         <v>0</v>
@@ -53465,7 +53501,7 @@
       </c>
       <c r="D581" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.temporário</v>
+        <v>é.produtividade</v>
       </c>
       <c r="E581" s="10" t="s">
         <v>38</v>
@@ -53475,7 +53511,7 @@
         <v>d.produzir</v>
       </c>
       <c r="G581" s="37" t="s">
-        <v>1246</v>
+        <v>1195</v>
       </c>
       <c r="H581" s="5" t="s">
         <v>39</v>
@@ -53517,19 +53553,19 @@
         <v>43</v>
       </c>
       <c r="U581" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para produzir: é.temporário</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para produzir: é.produtividade</v>
       </c>
       <c r="V581" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para produzir: temporário ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para produzir: produtividade ( xsd:string ) </v>
       </c>
       <c r="W581" s="6" t="s">
-        <v>1247</v>
+        <v>1197</v>
       </c>
       <c r="X581" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>prod.104</v>
+        <f t="shared" ref="X581:X644" si="83">IF(F580&lt;&gt;F581,_xlfn.CONCAT(RIGHT(LEFT(F581,6),4),".100"),_xlfn.CONCAT(RIGHT(LEFT(F581,6),4),".",SUM(VALUE(RIGHT(X580,3)),1)))</f>
+        <v>prod.102</v>
       </c>
       <c r="Y581" s="23" t="s">
         <v>0</v>
@@ -53542,188 +53578,188 @@
       <c r="B582" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C582" s="31" t="str">
+      <c r="C582" s="28" t="str">
+        <f t="shared" si="74"/>
+        <v>p.produzir</v>
+      </c>
+      <c r="D582" s="7" t="str">
+        <f t="shared" si="71"/>
+        <v>é.içado</v>
+      </c>
+      <c r="E582" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F582" s="21" t="str">
+        <f>F581</f>
+        <v>d.produzir</v>
+      </c>
+      <c r="G582" s="37" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H582" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I582" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J582" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K582" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L582" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M582" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N582" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O582" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P582" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q582" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R582" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S582" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T582" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U582" s="6" t="str">
+        <f t="shared" si="81"/>
+        <v>Propriedade para produzir: é.içado</v>
+      </c>
+      <c r="V582" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para produzir: içado ( xsd:string ) </v>
+      </c>
+      <c r="W582" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="X582" s="23" t="str">
+        <f t="shared" si="83"/>
+        <v>prod.103</v>
+      </c>
+      <c r="Y582" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="4">
+        <v>583</v>
+      </c>
+      <c r="B583" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C583" s="28" t="str">
+        <f t="shared" si="74"/>
+        <v>p.produzir</v>
+      </c>
+      <c r="D583" s="7" t="str">
+        <f t="shared" si="71"/>
+        <v>é.temporário</v>
+      </c>
+      <c r="E583" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F583" s="21" t="str">
+        <f>F582</f>
+        <v>d.produzir</v>
+      </c>
+      <c r="G583" s="37" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H583" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I583" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J583" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K583" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L583" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M583" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N583" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O583" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P583" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q583" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R583" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S583" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T583" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U583" s="6" t="str">
+        <f t="shared" si="81"/>
+        <v>Propriedade para produzir: é.temporário</v>
+      </c>
+      <c r="V583" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para produzir: temporário ( xsd:string ) </v>
+      </c>
+      <c r="W583" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="X583" s="23" t="str">
+        <f t="shared" si="83"/>
+        <v>prod.104</v>
+      </c>
+      <c r="Y583" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="4">
+        <v>584</v>
+      </c>
+      <c r="B584" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C584" s="31" t="str">
         <f t="shared" si="74"/>
         <v>p.projetar</v>
       </c>
-      <c r="D582" s="7" t="str">
+      <c r="D584" s="7" t="str">
         <f t="shared" si="71"/>
         <v>é.autor</v>
       </c>
-      <c r="E582" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F582" s="19" t="s">
+      <c r="E584" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F584" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="G582" s="37" t="s">
+      <c r="G584" s="37" t="s">
         <v>759</v>
-      </c>
-      <c r="H582" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I582" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J582" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K582" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L582" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M582" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N582" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O582" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P582" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q582" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R582" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S582" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T582" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U582" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.autor</v>
-      </c>
-      <c r="V582" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: autor ( xsd:string ) </v>
-      </c>
-      <c r="W582" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="X582" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.100</v>
-      </c>
-      <c r="Y582" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="4">
-        <v>583</v>
-      </c>
-      <c r="B583" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C583" s="28" t="str">
-        <f t="shared" si="74"/>
-        <v>p.projetar</v>
-      </c>
-      <c r="D583" s="7" t="str">
-        <f t="shared" si="71"/>
-        <v>é.profissão</v>
-      </c>
-      <c r="E583" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F583" s="21" t="str">
-        <f t="shared" ref="F583:F598" si="80">F582</f>
-        <v>d.projetar</v>
-      </c>
-      <c r="G583" s="37" t="s">
-        <v>1147</v>
-      </c>
-      <c r="H583" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I583" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J583" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K583" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L583" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M583" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N583" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O583" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P583" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q583" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R583" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S583" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T583" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U583" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.profissão</v>
-      </c>
-      <c r="V583" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: profissão ( xsd:string ) </v>
-      </c>
-      <c r="W583" s="6" t="s">
-        <v>1146</v>
-      </c>
-      <c r="X583" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.101</v>
-      </c>
-      <c r="Y583" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="4">
-        <v>584</v>
-      </c>
-      <c r="B584" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C584" s="28" t="str">
-        <f t="shared" si="74"/>
-        <v>p.projetar</v>
-      </c>
-      <c r="D584" s="7" t="str">
-        <f t="shared" si="71"/>
-        <v>é.coordenador</v>
-      </c>
-      <c r="E584" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F584" s="21" t="str">
-        <f t="shared" si="80"/>
-        <v>d.projetar</v>
-      </c>
-      <c r="G584" s="37" t="s">
-        <v>760</v>
       </c>
       <c r="H584" s="5" t="s">
         <v>39</v>
@@ -53765,19 +53801,19 @@
         <v>43</v>
       </c>
       <c r="U584" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.coordenador</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.autor</v>
       </c>
       <c r="V584" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: coordenador ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: autor ( xsd:string ) </v>
       </c>
       <c r="W584" s="6" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="X584" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.102</v>
+        <f t="shared" si="83"/>
+        <v>proj.100</v>
       </c>
       <c r="Y584" s="23" t="s">
         <v>0</v>
@@ -53796,17 +53832,17 @@
       </c>
       <c r="D585" s="7" t="str">
         <f t="shared" si="71"/>
-        <v>é.desenhista</v>
+        <v>é.profissão</v>
       </c>
       <c r="E585" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F585" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="F585:F600" si="84">F584</f>
         <v>d.projetar</v>
       </c>
       <c r="G585" s="37" t="s">
-        <v>761</v>
+        <v>1147</v>
       </c>
       <c r="H585" s="5" t="s">
         <v>39</v>
@@ -53848,19 +53884,19 @@
         <v>43</v>
       </c>
       <c r="U585" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.desenhista</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.profissão</v>
       </c>
       <c r="V585" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: desenhista ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: profissão ( xsd:string ) </v>
       </c>
       <c r="W585" s="6" t="s">
-        <v>271</v>
+        <v>1146</v>
       </c>
       <c r="X585" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.103</v>
+        <f t="shared" si="83"/>
+        <v>proj.101</v>
       </c>
       <c r="Y585" s="23" t="s">
         <v>0</v>
@@ -53878,18 +53914,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D586" s="7" t="str">
-        <f t="shared" ref="D586:D649" si="81">_xlfn.CONCAT("é.",G586)</f>
-        <v>é.colaborador</v>
+        <f t="shared" si="71"/>
+        <v>é.coordenador</v>
       </c>
       <c r="E586" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F586" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G586" s="37" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H586" s="5" t="s">
         <v>39</v>
@@ -53931,19 +53967,19 @@
         <v>43</v>
       </c>
       <c r="U586" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.colaborador</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.coordenador</v>
       </c>
       <c r="V586" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: colaborador ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: coordenador ( xsd:string ) </v>
       </c>
       <c r="W586" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X586" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.104</v>
+        <f t="shared" si="83"/>
+        <v>proj.102</v>
       </c>
       <c r="Y586" s="23" t="s">
         <v>0</v>
@@ -53961,18 +53997,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D587" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.especialista</v>
+        <f t="shared" si="71"/>
+        <v>é.desenhista</v>
       </c>
       <c r="E587" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F587" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G587" s="37" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H587" s="5" t="s">
         <v>39</v>
@@ -54014,19 +54050,19 @@
         <v>43</v>
       </c>
       <c r="U587" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.especialista</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.desenhista</v>
       </c>
       <c r="V587" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: especialista ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: desenhista ( xsd:string ) </v>
       </c>
       <c r="W587" s="6" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="X587" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.105</v>
+        <f t="shared" si="83"/>
+        <v>proj.103</v>
       </c>
       <c r="Y587" s="23" t="s">
         <v>0</v>
@@ -54044,18 +54080,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D588" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.consultor</v>
+        <f t="shared" ref="D588:D651" si="85">_xlfn.CONCAT("é.",G588)</f>
+        <v>é.colaborador</v>
       </c>
       <c r="E588" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F588" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G588" s="37" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H588" s="5" t="s">
         <v>39</v>
@@ -54097,19 +54133,19 @@
         <v>43</v>
       </c>
       <c r="U588" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.consultor</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.colaborador</v>
       </c>
       <c r="V588" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: consultor ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: colaborador ( xsd:string ) </v>
       </c>
       <c r="W588" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X588" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.106</v>
+        <f t="shared" si="83"/>
+        <v>proj.104</v>
       </c>
       <c r="Y588" s="23" t="s">
         <v>0</v>
@@ -54127,18 +54163,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D589" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.calculista</v>
+        <f t="shared" si="85"/>
+        <v>é.especialista</v>
       </c>
       <c r="E589" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F589" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G589" s="37" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H589" s="5" t="s">
         <v>39</v>
@@ -54180,25 +54216,25 @@
         <v>43</v>
       </c>
       <c r="U589" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.calculista</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.especialista</v>
       </c>
       <c r="V589" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: calculista ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: especialista ( xsd:string ) </v>
       </c>
       <c r="W589" s="6" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="X589" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.107</v>
+        <f t="shared" si="83"/>
+        <v>proj.105</v>
       </c>
       <c r="Y589" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
         <v>590</v>
       </c>
@@ -54210,18 +54246,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D590" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.orçamentista</v>
+        <f t="shared" si="85"/>
+        <v>é.consultor</v>
       </c>
       <c r="E590" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F590" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G590" s="37" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H590" s="5" t="s">
         <v>39</v>
@@ -54263,25 +54299,25 @@
         <v>43</v>
       </c>
       <c r="U590" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.orçamentista</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.consultor</v>
       </c>
       <c r="V590" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: orçamentista ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: consultor ( xsd:string ) </v>
       </c>
       <c r="W590" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X590" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.108</v>
+        <f t="shared" si="83"/>
+        <v>proj.106</v>
       </c>
       <c r="Y590" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="4">
         <v>591</v>
       </c>
@@ -54293,18 +54329,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D591" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.fiscal</v>
+        <f t="shared" si="85"/>
+        <v>é.calculista</v>
       </c>
       <c r="E591" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F591" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G591" s="37" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="H591" s="5" t="s">
         <v>39</v>
@@ -54346,19 +54382,19 @@
         <v>43</v>
       </c>
       <c r="U591" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.fiscal</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.calculista</v>
       </c>
       <c r="V591" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: fiscal ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: calculista ( xsd:string ) </v>
       </c>
       <c r="W591" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="X591" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.109</v>
+        <f t="shared" si="83"/>
+        <v>proj.107</v>
       </c>
       <c r="Y591" s="23" t="s">
         <v>0</v>
@@ -54376,18 +54412,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D592" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.analista</v>
+        <f t="shared" si="85"/>
+        <v>é.orçamentista</v>
       </c>
       <c r="E592" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F592" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G592" s="37" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H592" s="5" t="s">
         <v>39</v>
@@ -54429,25 +54465,25 @@
         <v>43</v>
       </c>
       <c r="U592" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.analista</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.orçamentista</v>
       </c>
       <c r="V592" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: analista ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: orçamentista ( xsd:string ) </v>
       </c>
       <c r="W592" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X592" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.110</v>
+        <f t="shared" si="83"/>
+        <v>proj.108</v>
       </c>
       <c r="Y592" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="4">
         <v>593</v>
       </c>
@@ -54459,18 +54495,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D593" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.fabricante</v>
+        <f t="shared" si="85"/>
+        <v>é.fiscal</v>
       </c>
       <c r="E593" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F593" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G593" s="37" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H593" s="5" t="s">
         <v>39</v>
@@ -54512,19 +54548,19 @@
         <v>43</v>
       </c>
       <c r="U593" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.fabricante</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.fiscal</v>
       </c>
       <c r="V593" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: fabricante ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: fiscal ( xsd:string ) </v>
       </c>
       <c r="W593" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="X593" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.111</v>
+        <f t="shared" si="83"/>
+        <v>proj.109</v>
       </c>
       <c r="Y593" s="23" t="s">
         <v>0</v>
@@ -54542,18 +54578,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D594" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.fornecedor</v>
+        <f t="shared" si="85"/>
+        <v>é.analista</v>
       </c>
       <c r="E594" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F594" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G594" s="37" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H594" s="5" t="s">
         <v>39</v>
@@ -54595,25 +54631,25 @@
         <v>43</v>
       </c>
       <c r="U594" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.fornecedor</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.analista</v>
       </c>
       <c r="V594" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: fornecedor ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: analista ( xsd:string ) </v>
       </c>
       <c r="W594" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="X594" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.112</v>
+        <f t="shared" si="83"/>
+        <v>proj.110</v>
       </c>
       <c r="Y594" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="4">
         <v>595</v>
       </c>
@@ -54625,18 +54661,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D595" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.representante</v>
+        <f t="shared" si="85"/>
+        <v>é.fabricante</v>
       </c>
       <c r="E595" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F595" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G595" s="37" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H595" s="5" t="s">
         <v>39</v>
@@ -54678,19 +54714,19 @@
         <v>43</v>
       </c>
       <c r="U595" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.representante</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.fabricante</v>
       </c>
       <c r="V595" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: representante ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: fabricante ( xsd:string ) </v>
       </c>
       <c r="W595" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X595" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.113</v>
+        <f t="shared" si="83"/>
+        <v>proj.111</v>
       </c>
       <c r="Y595" s="23" t="s">
         <v>0</v>
@@ -54708,18 +54744,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D596" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.responsável.técnico</v>
+        <f t="shared" si="85"/>
+        <v>é.fornecedor</v>
       </c>
       <c r="E596" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F596" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G596" s="37" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H596" s="5" t="s">
         <v>39</v>
@@ -54761,19 +54797,19 @@
         <v>43</v>
       </c>
       <c r="U596" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.responsável.técnico</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.fornecedor</v>
       </c>
       <c r="V596" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: responsável.técnico ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: fornecedor ( xsd:string ) </v>
       </c>
       <c r="W596" s="6" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="X596" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.114</v>
+        <f t="shared" si="83"/>
+        <v>proj.112</v>
       </c>
       <c r="Y596" s="23" t="s">
         <v>0</v>
@@ -54791,18 +54827,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D597" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.inspector</v>
+        <f t="shared" si="85"/>
+        <v>é.representante</v>
       </c>
       <c r="E597" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F597" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G597" s="37" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H597" s="5" t="s">
         <v>39</v>
@@ -54844,19 +54880,19 @@
         <v>43</v>
       </c>
       <c r="U597" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.inspector</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.representante</v>
       </c>
       <c r="V597" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: inspector ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: representante ( xsd:string ) </v>
       </c>
       <c r="W597" s="6" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="X597" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.115</v>
+        <f t="shared" si="83"/>
+        <v>proj.113</v>
       </c>
       <c r="Y597" s="23" t="s">
         <v>0</v>
@@ -54874,18 +54910,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D598" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.revisor</v>
+        <f t="shared" si="85"/>
+        <v>é.responsável.técnico</v>
       </c>
       <c r="E598" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F598" s="21" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>d.projetar</v>
       </c>
       <c r="G598" s="37" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H598" s="5" t="s">
         <v>39</v>
@@ -54927,19 +54963,19 @@
         <v>43</v>
       </c>
       <c r="U598" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para projetar: é.revisor</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.responsável.técnico</v>
       </c>
       <c r="V598" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para projetar: revisor ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: responsável.técnico ( xsd:string ) </v>
       </c>
       <c r="W598" s="6" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="X598" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>proj.116</v>
+        <f t="shared" si="83"/>
+        <v>proj.114</v>
       </c>
       <c r="Y598" s="23" t="s">
         <v>0</v>
@@ -54952,22 +54988,23 @@
       <c r="B599" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C599" s="31" t="str">
+      <c r="C599" s="28" t="str">
         <f t="shared" si="74"/>
-        <v>p.proteger</v>
+        <v>p.projetar</v>
       </c>
       <c r="D599" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.guardacorpo</v>
+        <f t="shared" si="85"/>
+        <v>é.inspector</v>
       </c>
       <c r="E599" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F599" s="22" t="s">
-        <v>855</v>
-      </c>
-      <c r="G599" s="36" t="s">
-        <v>867</v>
+      <c r="F599" s="21" t="str">
+        <f t="shared" si="84"/>
+        <v>d.projetar</v>
+      </c>
+      <c r="G599" s="37" t="s">
+        <v>773</v>
       </c>
       <c r="H599" s="5" t="s">
         <v>39</v>
@@ -54975,28 +55012,28 @@
       <c r="I599" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J599" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K599" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L599" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M599" s="26" t="s">
+      <c r="J599" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K599" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L599" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M599" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N599" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O599" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P599" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q599" s="26" t="s">
+      <c r="O599" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P599" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q599" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R599" s="26" t="s">
@@ -55009,19 +55046,19 @@
         <v>43</v>
       </c>
       <c r="U599" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para proteger: é.guardacorpo</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.inspector</v>
       </c>
       <c r="V599" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para proteger: guardacorpo ( xsd:string ) </v>
-      </c>
-      <c r="W599" s="20" t="s">
-        <v>871</v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: inspector ( xsd:string ) </v>
+      </c>
+      <c r="W599" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="X599" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>prot.100</v>
+        <f t="shared" si="83"/>
+        <v>proj.115</v>
       </c>
       <c r="Y599" s="23" t="s">
         <v>0</v>
@@ -55036,21 +55073,21 @@
       </c>
       <c r="C600" s="28" t="str">
         <f t="shared" si="74"/>
-        <v>p.proteger</v>
+        <v>p.projetar</v>
       </c>
       <c r="D600" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.guardacorpo.de.escada</v>
+        <f t="shared" si="85"/>
+        <v>é.revisor</v>
       </c>
       <c r="E600" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F600" s="21" t="str">
-        <f>F599</f>
-        <v>d.proteger</v>
-      </c>
-      <c r="G600" s="36" t="s">
-        <v>868</v>
+        <f t="shared" si="84"/>
+        <v>d.projetar</v>
+      </c>
+      <c r="G600" s="37" t="s">
+        <v>774</v>
       </c>
       <c r="H600" s="5" t="s">
         <v>39</v>
@@ -55058,28 +55095,28 @@
       <c r="I600" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J600" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K600" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L600" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M600" s="26" t="s">
+      <c r="J600" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K600" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L600" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M600" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N600" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O600" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P600" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q600" s="26" t="s">
+      <c r="O600" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P600" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q600" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R600" s="26" t="s">
@@ -55092,19 +55129,19 @@
         <v>43</v>
       </c>
       <c r="U600" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para proteger: é.guardacorpo.de.escada</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para projetar: é.revisor</v>
       </c>
       <c r="V600" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para proteger: guardacorpo.de.escada ( xsd:string ) </v>
-      </c>
-      <c r="W600" s="20" t="s">
-        <v>872</v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para projetar: revisor ( xsd:string ) </v>
+      </c>
+      <c r="W600" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="X600" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>prot.101</v>
+        <f t="shared" si="83"/>
+        <v>proj.116</v>
       </c>
       <c r="Y600" s="23" t="s">
         <v>0</v>
@@ -55117,23 +55154,22 @@
       <c r="B601" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C601" s="28" t="str">
+      <c r="C601" s="31" t="str">
         <f t="shared" si="74"/>
         <v>p.proteger</v>
       </c>
       <c r="D601" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.guardacorpo.de.rampa</v>
+        <f t="shared" si="85"/>
+        <v>é.guardacorpo</v>
       </c>
       <c r="E601" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F601" s="21" t="str">
-        <f>F600</f>
-        <v>d.proteger</v>
+      <c r="F601" s="22" t="s">
+        <v>855</v>
       </c>
       <c r="G601" s="36" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H601" s="5" t="s">
         <v>39</v>
@@ -55175,19 +55211,19 @@
         <v>43</v>
       </c>
       <c r="U601" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para proteger: é.guardacorpo.de.rampa</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para proteger: é.guardacorpo</v>
       </c>
       <c r="V601" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para proteger: guardacorpo.de.rampa ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para proteger: guardacorpo ( xsd:string ) </v>
       </c>
       <c r="W601" s="20" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="X601" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>prot.102</v>
+        <f t="shared" si="83"/>
+        <v>prot.100</v>
       </c>
       <c r="Y601" s="23" t="s">
         <v>0</v>
@@ -55205,18 +55241,18 @@
         <v>p.proteger</v>
       </c>
       <c r="D602" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.guardacorpo.de.vazio</v>
+        <f t="shared" si="85"/>
+        <v>é.guardacorpo.de.escada</v>
       </c>
       <c r="E602" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F602" s="21" t="str">
-        <f>F600</f>
+        <f>F601</f>
         <v>d.proteger</v>
       </c>
       <c r="G602" s="36" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H602" s="5" t="s">
         <v>39</v>
@@ -55258,19 +55294,19 @@
         <v>43</v>
       </c>
       <c r="U602" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para proteger: é.guardacorpo.de.vazio</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para proteger: é.guardacorpo.de.escada</v>
       </c>
       <c r="V602" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para proteger: guardacorpo.de.vazio ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para proteger: guardacorpo.de.escada ( xsd:string ) </v>
       </c>
       <c r="W602" s="20" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="X602" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>prot.103</v>
+        <f t="shared" si="83"/>
+        <v>prot.101</v>
       </c>
       <c r="Y602" s="23" t="s">
         <v>0</v>
@@ -55288,18 +55324,18 @@
         <v>p.proteger</v>
       </c>
       <c r="D603" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.disjuntor</v>
+        <f t="shared" si="85"/>
+        <v>é.guardacorpo.de.rampa</v>
       </c>
       <c r="E603" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F603" s="21" t="str">
-        <f>F600</f>
+        <f>F602</f>
         <v>d.proteger</v>
       </c>
       <c r="G603" s="36" t="s">
-        <v>1300</v>
+        <v>869</v>
       </c>
       <c r="H603" s="5" t="s">
         <v>39</v>
@@ -55341,19 +55377,19 @@
         <v>43</v>
       </c>
       <c r="U603" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para proteger: é.disjuntor</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para proteger: é.guardacorpo.de.rampa</v>
       </c>
       <c r="V603" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para proteger: disjuntor ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para proteger: guardacorpo.de.rampa ( xsd:string ) </v>
       </c>
       <c r="W603" s="20" t="s">
-        <v>1302</v>
+        <v>873</v>
       </c>
       <c r="X603" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>prot.104</v>
+        <f t="shared" si="83"/>
+        <v>prot.102</v>
       </c>
       <c r="Y603" s="23" t="s">
         <v>0</v>
@@ -55371,18 +55407,18 @@
         <v>p.proteger</v>
       </c>
       <c r="D604" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.aterramento</v>
+        <f t="shared" si="85"/>
+        <v>é.guardacorpo.de.vazio</v>
       </c>
       <c r="E604" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F604" s="21" t="str">
-        <f>F601</f>
+        <f>F602</f>
         <v>d.proteger</v>
       </c>
       <c r="G604" s="36" t="s">
-        <v>1299</v>
+        <v>870</v>
       </c>
       <c r="H604" s="5" t="s">
         <v>39</v>
@@ -55424,19 +55460,19 @@
         <v>43</v>
       </c>
       <c r="U604" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para proteger: é.aterramento</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para proteger: é.guardacorpo.de.vazio</v>
       </c>
       <c r="V604" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para proteger: aterramento ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para proteger: guardacorpo.de.vazio ( xsd:string ) </v>
       </c>
       <c r="W604" s="20" t="s">
-        <v>1301</v>
+        <v>874</v>
       </c>
       <c r="X604" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>prot.105</v>
+        <f t="shared" si="83"/>
+        <v>prot.103</v>
       </c>
       <c r="Y604" s="23" t="s">
         <v>0</v>
@@ -55449,22 +55485,23 @@
       <c r="B605" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C605" s="31" t="str">
+      <c r="C605" s="28" t="str">
         <f t="shared" si="74"/>
-        <v>p.relacionar</v>
+        <v>p.proteger</v>
       </c>
       <c r="D605" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.conectado.a</v>
+        <f t="shared" si="85"/>
+        <v>é.disjuntor</v>
       </c>
       <c r="E605" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F605" s="19" t="s">
-        <v>856</v>
-      </c>
-      <c r="G605" s="37" t="s">
-        <v>791</v>
+      <c r="F605" s="21" t="str">
+        <f>F602</f>
+        <v>d.proteger</v>
+      </c>
+      <c r="G605" s="36" t="s">
+        <v>1300</v>
       </c>
       <c r="H605" s="5" t="s">
         <v>39</v>
@@ -55472,28 +55509,28 @@
       <c r="I605" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J605" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K605" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L605" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M605" s="24" t="s">
+      <c r="J605" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K605" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L605" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M605" s="26" t="s">
         <v>0</v>
       </c>
       <c r="N605" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O605" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P605" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q605" s="24" t="s">
+      <c r="O605" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P605" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q605" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R605" s="26" t="s">
@@ -55506,19 +55543,19 @@
         <v>43</v>
       </c>
       <c r="U605" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para relacionar: é.conectado.a</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para proteger: é.disjuntor</v>
       </c>
       <c r="V605" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para relacionar: conectado.a ( xsd:string ) </v>
-      </c>
-      <c r="W605" s="6" t="s">
-        <v>129</v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para proteger: disjuntor ( xsd:string ) </v>
+      </c>
+      <c r="W605" s="20" t="s">
+        <v>1302</v>
       </c>
       <c r="X605" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>rela.100</v>
+        <f t="shared" si="83"/>
+        <v>prot.104</v>
       </c>
       <c r="Y605" s="23" t="s">
         <v>0</v>
@@ -55533,21 +55570,21 @@
       </c>
       <c r="C606" s="28" t="str">
         <f t="shared" si="74"/>
-        <v>p.relacionar</v>
+        <v>p.proteger</v>
       </c>
       <c r="D606" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.parte.de</v>
+        <f t="shared" si="85"/>
+        <v>é.aterramento</v>
       </c>
       <c r="E606" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F606" s="21" t="str">
-        <f t="shared" ref="F606:F613" si="82">F605</f>
-        <v>d.relacionar</v>
-      </c>
-      <c r="G606" s="38" t="s">
-        <v>796</v>
+        <f>F603</f>
+        <v>d.proteger</v>
+      </c>
+      <c r="G606" s="36" t="s">
+        <v>1299</v>
       </c>
       <c r="H606" s="5" t="s">
         <v>39</v>
@@ -55555,28 +55592,28 @@
       <c r="I606" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J606" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K606" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L606" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M606" s="24" t="s">
+      <c r="J606" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K606" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L606" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M606" s="26" t="s">
         <v>0</v>
       </c>
       <c r="N606" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O606" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P606" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q606" s="24" t="s">
+      <c r="O606" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P606" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q606" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R606" s="26" t="s">
@@ -55589,19 +55626,19 @@
         <v>43</v>
       </c>
       <c r="U606" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para relacionar: é.parte.de</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para proteger: é.aterramento</v>
       </c>
       <c r="V606" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para relacionar: parte.de ( xsd:string ) </v>
-      </c>
-      <c r="W606" s="6" t="s">
-        <v>1100</v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para proteger: aterramento ( xsd:string ) </v>
+      </c>
+      <c r="W606" s="20" t="s">
+        <v>1301</v>
       </c>
       <c r="X606" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>rela.101</v>
+        <f t="shared" si="83"/>
+        <v>prot.105</v>
       </c>
       <c r="Y606" s="23" t="s">
         <v>0</v>
@@ -55614,23 +55651,22 @@
       <c r="B607" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C607" s="28" t="str">
+      <c r="C607" s="31" t="str">
         <f t="shared" si="74"/>
         <v>p.relacionar</v>
       </c>
       <c r="D607" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.membro.de</v>
+        <f t="shared" si="85"/>
+        <v>é.conectado.a</v>
       </c>
       <c r="E607" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F607" s="21" t="str">
-        <f t="shared" si="82"/>
-        <v>d.relacionar</v>
-      </c>
-      <c r="G607" s="38" t="s">
-        <v>1096</v>
+      <c r="F607" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="G607" s="37" t="s">
+        <v>791</v>
       </c>
       <c r="H607" s="5" t="s">
         <v>39</v>
@@ -55672,19 +55708,19 @@
         <v>43</v>
       </c>
       <c r="U607" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para relacionar: é.membro.de</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para relacionar: é.conectado.a</v>
       </c>
       <c r="V607" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para relacionar: membro.de ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para relacionar: conectado.a ( xsd:string ) </v>
       </c>
       <c r="W607" s="6" t="s">
-        <v>1099</v>
+        <v>129</v>
       </c>
       <c r="X607" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>rela.102</v>
+        <f t="shared" si="83"/>
+        <v>rela.100</v>
       </c>
       <c r="Y607" s="23" t="s">
         <v>0</v>
@@ -55702,18 +55738,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D608" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.agrupado.com</v>
+        <f t="shared" si="85"/>
+        <v>é.parte.de</v>
       </c>
       <c r="E608" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F608" s="21" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="F608:F615" si="86">F607</f>
         <v>d.relacionar</v>
       </c>
       <c r="G608" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H608" s="5" t="s">
         <v>39</v>
@@ -55755,19 +55791,19 @@
         <v>43</v>
       </c>
       <c r="U608" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para relacionar: é.agrupado.com</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para relacionar: é.parte.de</v>
       </c>
       <c r="V608" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para relacionar: agrupado.com ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para relacionar: parte.de ( xsd:string ) </v>
       </c>
       <c r="W608" s="6" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="X608" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>rela.103</v>
+        <f t="shared" si="83"/>
+        <v>rela.101</v>
       </c>
       <c r="Y608" s="23" t="s">
         <v>0</v>
@@ -55785,18 +55821,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D609" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.incluído.em</v>
+        <f t="shared" si="85"/>
+        <v>é.membro.de</v>
       </c>
       <c r="E609" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F609" s="21" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>d.relacionar</v>
       </c>
       <c r="G609" s="38" t="s">
-        <v>1135</v>
+        <v>1096</v>
       </c>
       <c r="H609" s="5" t="s">
         <v>39</v>
@@ -55838,19 +55874,19 @@
         <v>43</v>
       </c>
       <c r="U609" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para relacionar: é.incluído.em</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para relacionar: é.membro.de</v>
       </c>
       <c r="V609" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para relacionar: incluído.em ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para relacionar: membro.de ( xsd:string ) </v>
       </c>
       <c r="W609" s="6" t="s">
-        <v>1136</v>
+        <v>1099</v>
       </c>
       <c r="X609" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>rela.104</v>
+        <f t="shared" si="83"/>
+        <v>rela.102</v>
       </c>
       <c r="Y609" s="23" t="s">
         <v>0</v>
@@ -55868,18 +55904,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D610" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.pertencente.a</v>
+        <f t="shared" si="85"/>
+        <v>é.agrupado.com</v>
       </c>
       <c r="E610" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F610" s="21" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>d.relacionar</v>
       </c>
       <c r="G610" s="38" t="s">
-        <v>1084</v>
+        <v>797</v>
       </c>
       <c r="H610" s="5" t="s">
         <v>39</v>
@@ -55921,19 +55957,19 @@
         <v>43</v>
       </c>
       <c r="U610" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para relacionar: é.pertencente.a</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para relacionar: é.agrupado.com</v>
       </c>
       <c r="V610" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para relacionar: pertencente.a ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para relacionar: agrupado.com ( xsd:string ) </v>
       </c>
       <c r="W610" s="6" t="s">
-        <v>1067</v>
+        <v>1098</v>
       </c>
       <c r="X610" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>rela.105</v>
+        <f t="shared" si="83"/>
+        <v>rela.103</v>
       </c>
       <c r="Y610" s="23" t="s">
         <v>0</v>
@@ -55951,18 +55987,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D611" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.usado.por</v>
+        <f t="shared" si="85"/>
+        <v>é.incluído.em</v>
       </c>
       <c r="E611" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F611" s="21" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>d.relacionar</v>
       </c>
       <c r="G611" s="38" t="s">
-        <v>1065</v>
+        <v>1135</v>
       </c>
       <c r="H611" s="5" t="s">
         <v>39</v>
@@ -56004,19 +56040,19 @@
         <v>43</v>
       </c>
       <c r="U611" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para relacionar: é.usado.por</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para relacionar: é.incluído.em</v>
       </c>
       <c r="V611" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para relacionar: usado.por ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para relacionar: incluído.em ( xsd:string ) </v>
       </c>
       <c r="W611" s="6" t="s">
-        <v>1066</v>
+        <v>1136</v>
       </c>
       <c r="X611" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>rela.106</v>
+        <f t="shared" si="83"/>
+        <v>rela.104</v>
       </c>
       <c r="Y611" s="23" t="s">
         <v>0</v>
@@ -56034,18 +56070,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D612" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.aplicado.para</v>
+        <f t="shared" si="85"/>
+        <v>é.pertencente.a</v>
       </c>
       <c r="E612" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F612" s="21" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>d.relacionar</v>
       </c>
       <c r="G612" s="38" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H612" s="5" t="s">
         <v>39</v>
@@ -56087,19 +56123,19 @@
         <v>43</v>
       </c>
       <c r="U612" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para relacionar: é.aplicado.para</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para relacionar: é.pertencente.a</v>
       </c>
       <c r="V612" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para relacionar: aplicado.para ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para relacionar: pertencente.a ( xsd:string ) </v>
       </c>
       <c r="W612" s="6" t="s">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="X612" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>rela.107</v>
+        <f t="shared" si="83"/>
+        <v>rela.105</v>
       </c>
       <c r="Y612" s="23" t="s">
         <v>0</v>
@@ -56117,18 +56153,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D613" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.destino</v>
+        <f t="shared" si="85"/>
+        <v>é.usado.por</v>
       </c>
       <c r="E613" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F613" s="21" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>d.relacionar</v>
       </c>
       <c r="G613" s="38" t="s">
-        <v>1095</v>
+        <v>1065</v>
       </c>
       <c r="H613" s="5" t="s">
         <v>39</v>
@@ -56170,19 +56206,19 @@
         <v>43</v>
       </c>
       <c r="U613" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para relacionar: é.destino</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para relacionar: é.usado.por</v>
       </c>
       <c r="V613" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para relacionar: destino ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para relacionar: usado.por ( xsd:string ) </v>
       </c>
       <c r="W613" s="6" t="s">
-        <v>1097</v>
+        <v>1066</v>
       </c>
       <c r="X613" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>rela.108</v>
+        <f t="shared" si="83"/>
+        <v>rela.106</v>
       </c>
       <c r="Y613" s="23" t="s">
         <v>0</v>
@@ -56195,82 +56231,83 @@
       <c r="B614" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C614" s="31" t="str">
+      <c r="C614" s="28" t="str">
         <f t="shared" si="74"/>
-        <v>p.separar</v>
+        <v>p.relacionar</v>
       </c>
       <c r="D614" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>é.aplicado.para</v>
+      </c>
+      <c r="E614" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F614" s="21" t="str">
+        <f t="shared" si="86"/>
+        <v>d.relacionar</v>
+      </c>
+      <c r="G614" s="38" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H614" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I614" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J614" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K614" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L614" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M614" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N614" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O614" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P614" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q614" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R614" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S614" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T614" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U614" s="6" t="str">
         <f t="shared" si="81"/>
-        <v>é.parede</v>
-      </c>
-      <c r="E614" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F614" s="19" t="s">
-        <v>857</v>
-      </c>
-      <c r="G614" s="36" t="s">
-        <v>798</v>
-      </c>
-      <c r="H614" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I614" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J614" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K614" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L614" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M614" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N614" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O614" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P614" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q614" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R614" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S614" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T614" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U614" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.parede</v>
+        <v>Propriedade para relacionar: é.aplicado.para</v>
       </c>
       <c r="V614" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: parede ( xsd:string ) </v>
-      </c>
-      <c r="W614" s="20" t="s">
-        <v>138</v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para relacionar: aplicado.para ( xsd:string ) </v>
+      </c>
+      <c r="W614" s="6" t="s">
+        <v>1085</v>
       </c>
       <c r="X614" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.100</v>
+        <f t="shared" si="83"/>
+        <v>rela.107</v>
       </c>
       <c r="Y614" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="4">
         <v>615</v>
       </c>
@@ -56279,21 +56316,21 @@
       </c>
       <c r="C615" s="28" t="str">
         <f t="shared" si="74"/>
-        <v>p.separar</v>
+        <v>p.relacionar</v>
       </c>
       <c r="D615" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.tijolo.comum</v>
+        <f t="shared" si="85"/>
+        <v>é.destino</v>
       </c>
       <c r="E615" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F615" s="21" t="str">
-        <f t="shared" ref="F615:F626" si="83">F614</f>
-        <v>d.separar</v>
-      </c>
-      <c r="G615" s="36" t="s">
-        <v>799</v>
+        <f t="shared" si="86"/>
+        <v>d.relacionar</v>
+      </c>
+      <c r="G615" s="38" t="s">
+        <v>1095</v>
       </c>
       <c r="H615" s="5" t="s">
         <v>39</v>
@@ -56301,28 +56338,28 @@
       <c r="I615" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J615" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K615" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L615" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M615" s="26" t="s">
+      <c r="J615" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K615" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L615" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M615" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N615" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O615" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P615" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q615" s="26" t="s">
+      <c r="O615" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P615" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q615" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R615" s="26" t="s">
@@ -56335,19 +56372,19 @@
         <v>43</v>
       </c>
       <c r="U615" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.tijolo.comum</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para relacionar: é.destino</v>
       </c>
       <c r="V615" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: tijolo.comum ( xsd:string ) </v>
-      </c>
-      <c r="W615" s="20" t="s">
-        <v>204</v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para relacionar: destino ( xsd:string ) </v>
+      </c>
+      <c r="W615" s="6" t="s">
+        <v>1097</v>
       </c>
       <c r="X615" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.101</v>
+        <f t="shared" si="83"/>
+        <v>rela.108</v>
       </c>
       <c r="Y615" s="23" t="s">
         <v>0</v>
@@ -56360,77 +56397,76 @@
       <c r="B616" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C616" s="28" t="str">
+      <c r="C616" s="31" t="str">
         <f t="shared" si="74"/>
         <v>p.separar</v>
       </c>
       <c r="D616" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>é.parede</v>
+      </c>
+      <c r="E616" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F616" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="G616" s="36" t="s">
+        <v>798</v>
+      </c>
+      <c r="H616" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I616" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J616" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K616" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L616" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M616" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N616" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O616" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P616" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q616" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R616" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S616" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T616" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U616" s="6" t="str">
         <f t="shared" si="81"/>
-        <v>é.tijolo.furado</v>
-      </c>
-      <c r="E616" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F616" s="21" t="str">
+        <v>Propriedade para separar: é.parede</v>
+      </c>
+      <c r="V616" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: parede ( xsd:string ) </v>
+      </c>
+      <c r="W616" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="X616" s="23" t="str">
         <f t="shared" si="83"/>
-        <v>d.separar</v>
-      </c>
-      <c r="G616" s="36" t="s">
-        <v>800</v>
-      </c>
-      <c r="H616" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I616" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J616" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K616" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L616" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M616" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N616" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O616" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P616" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q616" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R616" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S616" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T616" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U616" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.tijolo.furado</v>
-      </c>
-      <c r="V616" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: tijolo.furado ( xsd:string ) </v>
-      </c>
-      <c r="W616" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="X616" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.102</v>
+        <v>sepa.100</v>
       </c>
       <c r="Y616" s="23" t="s">
         <v>0</v>
@@ -56448,18 +56484,18 @@
         <v>p.separar</v>
       </c>
       <c r="D617" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.tijolo.de.vidro</v>
+        <f t="shared" si="85"/>
+        <v>é.tijolo.comum</v>
       </c>
       <c r="E617" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F617" s="21" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="F617:F628" si="87">F616</f>
         <v>d.separar</v>
       </c>
       <c r="G617" s="36" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H617" s="5" t="s">
         <v>39</v>
@@ -56501,25 +56537,25 @@
         <v>43</v>
       </c>
       <c r="U617" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.tijolo.de.vidro</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para separar: é.tijolo.comum</v>
       </c>
       <c r="V617" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: tijolo.de.vidro ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: tijolo.comum ( xsd:string ) </v>
       </c>
       <c r="W617" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X617" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.103</v>
+        <f t="shared" si="83"/>
+        <v>sepa.101</v>
       </c>
       <c r="Y617" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="4">
         <v>618</v>
       </c>
@@ -56527,22 +56563,22 @@
         <v>37</v>
       </c>
       <c r="C618" s="28" t="str">
-        <f t="shared" ref="C618:C677" si="84">SUBSTITUTE(F618,"d.","p.")</f>
+        <f t="shared" si="74"/>
         <v>p.separar</v>
       </c>
       <c r="D618" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.bloco.concreto</v>
+        <f t="shared" si="85"/>
+        <v>é.tijolo.furado</v>
       </c>
       <c r="E618" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F618" s="21" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>d.separar</v>
       </c>
       <c r="G618" s="36" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H618" s="5" t="s">
         <v>39</v>
@@ -56584,19 +56620,19 @@
         <v>43</v>
       </c>
       <c r="U618" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.bloco.concreto</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para separar: é.tijolo.furado</v>
       </c>
       <c r="V618" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: bloco.concreto ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: tijolo.furado ( xsd:string ) </v>
       </c>
       <c r="W618" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X618" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.104</v>
+        <f t="shared" si="83"/>
+        <v>sepa.102</v>
       </c>
       <c r="Y618" s="23" t="s">
         <v>0</v>
@@ -56610,22 +56646,22 @@
         <v>37</v>
       </c>
       <c r="C619" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="74"/>
         <v>p.separar</v>
       </c>
       <c r="D619" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.bloco.sílico.calcário</v>
+        <f t="shared" si="85"/>
+        <v>é.tijolo.de.vidro</v>
       </c>
       <c r="E619" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F619" s="21" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>d.separar</v>
       </c>
       <c r="G619" s="36" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H619" s="5" t="s">
         <v>39</v>
@@ -56667,19 +56703,19 @@
         <v>43</v>
       </c>
       <c r="U619" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.bloco.sílico.calcário</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para separar: é.tijolo.de.vidro</v>
       </c>
       <c r="V619" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: bloco.sílico.calcário ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: tijolo.de.vidro ( xsd:string ) </v>
       </c>
       <c r="W619" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X619" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.105</v>
+        <f t="shared" si="83"/>
+        <v>sepa.103</v>
       </c>
       <c r="Y619" s="23" t="s">
         <v>0</v>
@@ -56693,22 +56729,22 @@
         <v>37</v>
       </c>
       <c r="C620" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="C620:C682" si="88">SUBSTITUTE(F620,"d.","p.")</f>
         <v>p.separar</v>
       </c>
       <c r="D620" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.divisória.drywall</v>
+        <f t="shared" si="85"/>
+        <v>é.bloco.concreto</v>
       </c>
       <c r="E620" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F620" s="21" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>d.separar</v>
       </c>
       <c r="G620" s="36" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H620" s="5" t="s">
         <v>39</v>
@@ -56750,19 +56786,19 @@
         <v>43</v>
       </c>
       <c r="U620" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.divisória.drywall</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para separar: é.bloco.concreto</v>
       </c>
       <c r="V620" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: divisória.drywall ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: bloco.concreto ( xsd:string ) </v>
       </c>
       <c r="W620" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X620" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.106</v>
+        <f t="shared" si="83"/>
+        <v>sepa.104</v>
       </c>
       <c r="Y620" s="23" t="s">
         <v>0</v>
@@ -56776,22 +56812,22 @@
         <v>37</v>
       </c>
       <c r="C621" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.separar</v>
       </c>
       <c r="D621" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.divisória.naval</v>
+        <f t="shared" si="85"/>
+        <v>é.bloco.sílico.calcário</v>
       </c>
       <c r="E621" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F621" s="21" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>d.separar</v>
       </c>
       <c r="G621" s="36" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H621" s="5" t="s">
         <v>39</v>
@@ -56833,19 +56869,19 @@
         <v>43</v>
       </c>
       <c r="U621" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.divisória.naval</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para separar: é.bloco.sílico.calcário</v>
       </c>
       <c r="V621" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: divisória.naval ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: bloco.sílico.calcário ( xsd:string ) </v>
       </c>
       <c r="W621" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X621" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.107</v>
+        <f t="shared" si="83"/>
+        <v>sepa.105</v>
       </c>
       <c r="Y621" s="23" t="s">
         <v>0</v>
@@ -56859,22 +56895,22 @@
         <v>37</v>
       </c>
       <c r="C622" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.separar</v>
       </c>
       <c r="D622" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.parede.hidráulica</v>
+        <f t="shared" si="85"/>
+        <v>é.divisória.drywall</v>
       </c>
       <c r="E622" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F622" s="21" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>d.separar</v>
       </c>
       <c r="G622" s="36" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H622" s="5" t="s">
         <v>39</v>
@@ -56916,19 +56952,19 @@
         <v>43</v>
       </c>
       <c r="U622" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.parede.hidráulica</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para separar: é.divisória.drywall</v>
       </c>
       <c r="V622" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: parede.hidráulica ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: divisória.drywall ( xsd:string ) </v>
       </c>
       <c r="W622" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X622" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.108</v>
+        <f t="shared" si="83"/>
+        <v>sepa.106</v>
       </c>
       <c r="Y622" s="23" t="s">
         <v>0</v>
@@ -56942,76 +56978,76 @@
         <v>37</v>
       </c>
       <c r="C623" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.separar</v>
       </c>
       <c r="D623" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>é.divisória.naval</v>
+      </c>
+      <c r="E623" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F623" s="21" t="str">
+        <f t="shared" si="87"/>
+        <v>d.separar</v>
+      </c>
+      <c r="G623" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="H623" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I623" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J623" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K623" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L623" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M623" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N623" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O623" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P623" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q623" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R623" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S623" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T623" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U623" s="6" t="str">
         <f t="shared" si="81"/>
-        <v>é.grade</v>
-      </c>
-      <c r="E623" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F623" s="21" t="str">
+        <v>Propriedade para separar: é.divisória.naval</v>
+      </c>
+      <c r="V623" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: divisória.naval ( xsd:string ) </v>
+      </c>
+      <c r="W623" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X623" s="23" t="str">
         <f t="shared" si="83"/>
-        <v>d.separar</v>
-      </c>
-      <c r="G623" s="36" t="s">
-        <v>775</v>
-      </c>
-      <c r="H623" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I623" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J623" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K623" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L623" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M623" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N623" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O623" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P623" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q623" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R623" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S623" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T623" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U623" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.grade</v>
-      </c>
-      <c r="V623" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: grade ( xsd:string ) </v>
-      </c>
-      <c r="W623" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="X623" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.109</v>
+        <v>sepa.107</v>
       </c>
       <c r="Y623" s="23" t="s">
         <v>0</v>
@@ -57025,22 +57061,22 @@
         <v>37</v>
       </c>
       <c r="C624" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.separar</v>
       </c>
       <c r="D624" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.grade.aramada</v>
+        <f t="shared" si="85"/>
+        <v>é.parede.hidráulica</v>
       </c>
       <c r="E624" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F624" s="21" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>d.separar</v>
       </c>
       <c r="G624" s="36" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
       <c r="H624" s="5" t="s">
         <v>39</v>
@@ -57082,19 +57118,19 @@
         <v>43</v>
       </c>
       <c r="U624" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.grade.aramada</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para separar: é.parede.hidráulica</v>
       </c>
       <c r="V624" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: grade.aramada ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: parede.hidráulica ( xsd:string ) </v>
       </c>
       <c r="W624" s="20" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="X624" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.110</v>
+        <f t="shared" si="83"/>
+        <v>sepa.108</v>
       </c>
       <c r="Y624" s="23" t="s">
         <v>0</v>
@@ -57108,76 +57144,76 @@
         <v>37</v>
       </c>
       <c r="C625" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.separar</v>
       </c>
       <c r="D625" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>é.grade</v>
+      </c>
+      <c r="E625" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F625" s="21" t="str">
+        <f t="shared" si="87"/>
+        <v>d.separar</v>
+      </c>
+      <c r="G625" s="36" t="s">
+        <v>775</v>
+      </c>
+      <c r="H625" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I625" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J625" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K625" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L625" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M625" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N625" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O625" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P625" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q625" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R625" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S625" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T625" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U625" s="6" t="str">
         <f t="shared" si="81"/>
-        <v>é.grade.de.barras</v>
-      </c>
-      <c r="E625" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F625" s="21" t="str">
+        <v>Propriedade para separar: é.grade</v>
+      </c>
+      <c r="V625" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: grade ( xsd:string ) </v>
+      </c>
+      <c r="W625" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="X625" s="23" t="str">
         <f t="shared" si="83"/>
-        <v>d.separar</v>
-      </c>
-      <c r="G625" s="36" t="s">
-        <v>777</v>
-      </c>
-      <c r="H625" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I625" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J625" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K625" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L625" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M625" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N625" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O625" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P625" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q625" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R625" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S625" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T625" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U625" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.grade.de.barras</v>
-      </c>
-      <c r="V625" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: grade.de.barras ( xsd:string ) </v>
-      </c>
-      <c r="W625" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="X625" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.111</v>
+        <v>sepa.109</v>
       </c>
       <c r="Y625" s="23" t="s">
         <v>0</v>
@@ -57191,22 +57227,22 @@
         <v>37</v>
       </c>
       <c r="C626" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.separar</v>
       </c>
       <c r="D626" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.grade.decorativa</v>
+        <f t="shared" si="85"/>
+        <v>é.grade.aramada</v>
       </c>
       <c r="E626" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F626" s="21" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>d.separar</v>
       </c>
       <c r="G626" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H626" s="5" t="s">
         <v>39</v>
@@ -57248,19 +57284,19 @@
         <v>43</v>
       </c>
       <c r="U626" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.grade.decorativa</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para separar: é.grade.aramada</v>
       </c>
       <c r="V626" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: grade.decorativa ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: grade.aramada ( xsd:string ) </v>
       </c>
       <c r="W626" s="20" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="X626" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.112</v>
+        <f t="shared" si="83"/>
+        <v>sepa.110</v>
       </c>
       <c r="Y626" s="23" t="s">
         <v>0</v>
@@ -57274,22 +57310,22 @@
         <v>37</v>
       </c>
       <c r="C627" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.separar</v>
       </c>
       <c r="D627" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.grade.prisional</v>
+        <f t="shared" si="85"/>
+        <v>é.grade.de.barras</v>
       </c>
       <c r="E627" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F627" s="21" t="str">
-        <f>F625</f>
+        <f t="shared" si="87"/>
         <v>d.separar</v>
       </c>
       <c r="G627" s="36" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H627" s="5" t="s">
         <v>39</v>
@@ -57331,19 +57367,19 @@
         <v>43</v>
       </c>
       <c r="U627" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para separar: é.grade.prisional</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para separar: é.grade.de.barras</v>
       </c>
       <c r="V627" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para separar: grade.prisional ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: grade.de.barras ( xsd:string ) </v>
       </c>
       <c r="W627" s="20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="X627" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>sepa.113</v>
+        <f t="shared" si="83"/>
+        <v>sepa.111</v>
       </c>
       <c r="Y627" s="23" t="s">
         <v>0</v>
@@ -57356,82 +57392,83 @@
       <c r="B628" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C628" s="31" t="str">
-        <f t="shared" si="84"/>
-        <v>p.sombrear</v>
+      <c r="C628" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.separar</v>
       </c>
       <c r="D628" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>é.grade.decorativa</v>
+      </c>
+      <c r="E628" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F628" s="21" t="str">
+        <f t="shared" si="87"/>
+        <v>d.separar</v>
+      </c>
+      <c r="G628" s="36" t="s">
+        <v>778</v>
+      </c>
+      <c r="H628" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I628" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J628" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K628" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L628" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M628" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N628" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O628" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P628" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q628" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R628" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S628" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T628" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U628" s="6" t="str">
         <f t="shared" si="81"/>
-        <v>é.brise</v>
-      </c>
-      <c r="E628" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F628" s="19" t="s">
-        <v>858</v>
-      </c>
-      <c r="G628" s="36" t="s">
-        <v>807</v>
-      </c>
-      <c r="H628" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I628" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J628" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K628" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L628" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M628" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N628" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O628" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P628" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q628" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R628" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S628" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T628" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U628" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para sombrear: é.brise</v>
+        <v>Propriedade para separar: é.grade.decorativa</v>
       </c>
       <c r="V628" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para sombrear: brise ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: grade.decorativa ( xsd:string ) </v>
       </c>
       <c r="W628" s="20" t="s">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="X628" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>somb.100</v>
+        <f t="shared" si="83"/>
+        <v>sepa.112</v>
       </c>
       <c r="Y628" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="4">
         <v>629</v>
       </c>
@@ -57439,22 +57476,22 @@
         <v>37</v>
       </c>
       <c r="C629" s="28" t="str">
-        <f t="shared" si="84"/>
-        <v>p.sombrear</v>
+        <f t="shared" si="88"/>
+        <v>p.separar</v>
       </c>
       <c r="D629" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.brise.horizontal</v>
+        <f t="shared" si="85"/>
+        <v>é.grade.prisional</v>
       </c>
       <c r="E629" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F629" s="21" t="str">
-        <f>F628</f>
-        <v>d.sombrear</v>
+        <f>F627</f>
+        <v>d.separar</v>
       </c>
       <c r="G629" s="36" t="s">
-        <v>808</v>
+        <v>779</v>
       </c>
       <c r="H629" s="5" t="s">
         <v>39</v>
@@ -57496,102 +57533,101 @@
         <v>43</v>
       </c>
       <c r="U629" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para sombrear: é.brise.horizontal</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para separar: é.grade.prisional</v>
       </c>
       <c r="V629" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para sombrear: brise.horizontal ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para separar: grade.prisional ( xsd:string ) </v>
       </c>
       <c r="W629" s="20" t="s">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="X629" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>somb.101</v>
+        <f t="shared" si="83"/>
+        <v>sepa.113</v>
       </c>
       <c r="Y629" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="4">
         <v>630</v>
       </c>
       <c r="B630" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C630" s="28" t="str">
-        <f t="shared" si="84"/>
+      <c r="C630" s="31" t="str">
+        <f t="shared" si="88"/>
         <v>p.sombrear</v>
       </c>
       <c r="D630" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>é.brise</v>
+      </c>
+      <c r="E630" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F630" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="G630" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="H630" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I630" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J630" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K630" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L630" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M630" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N630" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O630" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P630" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q630" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R630" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S630" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T630" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U630" s="6" t="str">
         <f t="shared" si="81"/>
-        <v>é.brise.vertical</v>
-      </c>
-      <c r="E630" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F630" s="21" t="str">
-        <f>F629</f>
-        <v>d.sombrear</v>
-      </c>
-      <c r="G630" s="36" t="s">
-        <v>809</v>
-      </c>
-      <c r="H630" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I630" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J630" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K630" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L630" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M630" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N630" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O630" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P630" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q630" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R630" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S630" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T630" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U630" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para sombrear: é.brise.vertical</v>
+        <v>Propriedade para sombrear: é.brise</v>
       </c>
       <c r="V630" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para sombrear: brise.vertical ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para sombrear: brise ( xsd:string ) </v>
       </c>
       <c r="W630" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="X630" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>somb.102</v>
+        <f t="shared" si="83"/>
+        <v>somb.100</v>
       </c>
       <c r="Y630" s="23" t="s">
         <v>0</v>
@@ -57605,12 +57641,12 @@
         <v>37</v>
       </c>
       <c r="C631" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.sombrear</v>
       </c>
       <c r="D631" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.brise.móvel</v>
+        <f t="shared" si="85"/>
+        <v>é.brise.horizontal</v>
       </c>
       <c r="E631" s="10" t="s">
         <v>38</v>
@@ -57620,7 +57656,7 @@
         <v>d.sombrear</v>
       </c>
       <c r="G631" s="36" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H631" s="5" t="s">
         <v>39</v>
@@ -57662,19 +57698,19 @@
         <v>43</v>
       </c>
       <c r="U631" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para sombrear: é.brise.móvel</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para sombrear: é.brise.horizontal</v>
       </c>
       <c r="V631" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para sombrear: brise.móvel ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para sombrear: brise.horizontal ( xsd:string ) </v>
       </c>
       <c r="W631" s="20" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="X631" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>somb.103</v>
+        <f t="shared" si="83"/>
+        <v>somb.101</v>
       </c>
       <c r="Y631" s="23" t="s">
         <v>0</v>
@@ -57688,12 +57724,12 @@
         <v>37</v>
       </c>
       <c r="C632" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.sombrear</v>
       </c>
       <c r="D632" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.cobogó</v>
+        <f t="shared" si="85"/>
+        <v>é.brise.vertical</v>
       </c>
       <c r="E632" s="10" t="s">
         <v>38</v>
@@ -57703,7 +57739,7 @@
         <v>d.sombrear</v>
       </c>
       <c r="G632" s="36" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H632" s="5" t="s">
         <v>39</v>
@@ -57745,19 +57781,19 @@
         <v>43</v>
       </c>
       <c r="U632" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para sombrear: é.cobogó</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para sombrear: é.brise.vertical</v>
       </c>
       <c r="V632" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para sombrear: cobogó ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para sombrear: brise.vertical ( xsd:string ) </v>
       </c>
       <c r="W632" s="20" t="s">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="X632" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>somb.104</v>
+        <f t="shared" si="83"/>
+        <v>somb.102</v>
       </c>
       <c r="Y632" s="23" t="s">
         <v>0</v>
@@ -57770,76 +57806,77 @@
       <c r="B633" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C633" s="31" t="str">
-        <f t="shared" si="84"/>
-        <v>p.tabular</v>
+      <c r="C633" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.sombrear</v>
       </c>
       <c r="D633" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>é.brise.móvel</v>
+      </c>
+      <c r="E633" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F633" s="21" t="str">
+        <f>F632</f>
+        <v>d.sombrear</v>
+      </c>
+      <c r="G633" s="36" t="s">
+        <v>810</v>
+      </c>
+      <c r="H633" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I633" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J633" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K633" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L633" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M633" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N633" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O633" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P633" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q633" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R633" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S633" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T633" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U633" s="6" t="str">
         <f t="shared" si="81"/>
-        <v>é.tabela</v>
-      </c>
-      <c r="E633" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F633" s="19" t="s">
-        <v>859</v>
-      </c>
-      <c r="G633" s="36" t="s">
-        <v>812</v>
-      </c>
-      <c r="H633" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I633" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J633" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K633" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L633" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M633" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N633" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O633" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P633" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q633" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R633" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S633" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T633" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U633" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para tabular: é.tabela</v>
+        <v>Propriedade para sombrear: é.brise.móvel</v>
       </c>
       <c r="V633" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para tabular: tabela ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para sombrear: brise.móvel ( xsd:string ) </v>
       </c>
       <c r="W633" s="20" t="s">
-        <v>366</v>
+        <v>231</v>
       </c>
       <c r="X633" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>tabu.100</v>
+        <f t="shared" si="83"/>
+        <v>somb.103</v>
       </c>
       <c r="Y633" s="23" t="s">
         <v>0</v>
@@ -57853,24 +57890,24 @@
         <v>37</v>
       </c>
       <c r="C634" s="28" t="str">
-        <f t="shared" si="84"/>
-        <v>p.tabular</v>
+        <f t="shared" si="88"/>
+        <v>p.sombrear</v>
       </c>
       <c r="D634" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.tabela.gráfica</v>
+        <f t="shared" si="85"/>
+        <v>é.cobogó</v>
       </c>
       <c r="E634" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F634" s="21" t="str">
         <f>F633</f>
-        <v>d.tabular</v>
+        <v>d.sombrear</v>
       </c>
       <c r="G634" s="36" t="s">
-        <v>813</v>
-      </c>
-      <c r="H634" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="H634" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I634" s="30" t="s">
@@ -57910,19 +57947,19 @@
         <v>43</v>
       </c>
       <c r="U634" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para tabular: é.tabela.gráfica</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para sombrear: é.cobogó</v>
       </c>
       <c r="V634" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para tabular: tabela.gráfica ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para sombrear: cobogó ( xsd:string ) </v>
       </c>
       <c r="W634" s="20" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="X634" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>tabu.101</v>
+        <f t="shared" si="83"/>
+        <v>somb.104</v>
       </c>
       <c r="Y634" s="23" t="s">
         <v>0</v>
@@ -57935,23 +57972,22 @@
       <c r="B635" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C635" s="28" t="str">
-        <f t="shared" si="84"/>
+      <c r="C635" s="31" t="str">
+        <f t="shared" si="88"/>
         <v>p.tabular</v>
       </c>
       <c r="D635" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.tabela.quantitativo</v>
+        <f t="shared" si="85"/>
+        <v>é.tabela</v>
       </c>
       <c r="E635" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F635" s="21" t="str">
-        <f>F634</f>
-        <v>d.tabular</v>
+      <c r="F635" s="19" t="s">
+        <v>859</v>
       </c>
       <c r="G635" s="36" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H635" s="27" t="s">
         <v>39</v>
@@ -57993,19 +58029,19 @@
         <v>43</v>
       </c>
       <c r="U635" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para tabular: é.tabela.quantitativo</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para tabular: é.tabela</v>
       </c>
       <c r="V635" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para tabular: tabela.quantitativo ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para tabular: tabela ( xsd:string ) </v>
       </c>
       <c r="W635" s="20" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="X635" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>tabu.102</v>
+        <f t="shared" si="83"/>
+        <v>tabu.100</v>
       </c>
       <c r="Y635" s="23" t="s">
         <v>0</v>
@@ -58019,12 +58055,12 @@
         <v>37</v>
       </c>
       <c r="C636" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.tabular</v>
       </c>
       <c r="D636" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.tabela.orçamento</v>
+        <f t="shared" si="85"/>
+        <v>é.tabela.gráfica</v>
       </c>
       <c r="E636" s="10" t="s">
         <v>38</v>
@@ -58034,7 +58070,7 @@
         <v>d.tabular</v>
       </c>
       <c r="G636" s="36" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H636" s="27" t="s">
         <v>39</v>
@@ -58076,107 +58112,108 @@
         <v>43</v>
       </c>
       <c r="U636" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para tabular: é.tabela.orçamento</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para tabular: é.tabela.gráfica</v>
       </c>
       <c r="V636" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para tabular: tabela.orçamento ( xsd:string ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para tabular: tabela.gráfica ( xsd:string ) </v>
       </c>
       <c r="W636" s="20" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="X636" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>tabu.103</v>
+        <f t="shared" si="83"/>
+        <v>tabu.101</v>
       </c>
       <c r="Y636" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="4">
         <v>637</v>
       </c>
       <c r="B637" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C637" s="31" t="str">
-        <f t="shared" si="84"/>
-        <v>p.temporalizar</v>
+      <c r="C637" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.tabular</v>
       </c>
       <c r="D637" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>é.tabela.quantitativo</v>
+      </c>
+      <c r="E637" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F637" s="21" t="str">
+        <f>F636</f>
+        <v>d.tabular</v>
+      </c>
+      <c r="G637" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="H637" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I637" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J637" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K637" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L637" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M637" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N637" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O637" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P637" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q637" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R637" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S637" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T637" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U637" s="6" t="str">
         <f t="shared" si="81"/>
-        <v>é.momento.inicial</v>
-      </c>
-      <c r="E637" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F637" s="19" t="s">
-        <v>925</v>
-      </c>
-      <c r="G637" s="37" t="s">
-        <v>930</v>
-      </c>
-      <c r="H637" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I637" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J637" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K637" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L637" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M637" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N637" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O637" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P637" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q637" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R637" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S637" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T637" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U637" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para temporalizar: é.momento.inicial</v>
+        <v>Propriedade para tabular: é.tabela.quantitativo</v>
       </c>
       <c r="V637" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para temporalizar: momento.inicial ( xsd:dateTime ) </v>
-      </c>
-      <c r="W637" s="6" t="s">
-        <v>932</v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para tabular: tabela.quantitativo ( xsd:string ) </v>
+      </c>
+      <c r="W637" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="X637" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>temp.100</v>
+        <f t="shared" si="83"/>
+        <v>tabu.102</v>
       </c>
       <c r="Y637" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="4">
         <v>638</v>
       </c>
@@ -58184,51 +58221,51 @@
         <v>37</v>
       </c>
       <c r="C638" s="28" t="str">
-        <f t="shared" si="84"/>
-        <v>p.temporalizar</v>
+        <f t="shared" si="88"/>
+        <v>p.tabular</v>
       </c>
       <c r="D638" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.momento</v>
+        <f t="shared" si="85"/>
+        <v>é.tabela.orçamento</v>
       </c>
       <c r="E638" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F638" s="21" t="str">
         <f>F637</f>
-        <v>d.temporalizar</v>
-      </c>
-      <c r="G638" s="37" t="s">
-        <v>755</v>
-      </c>
-      <c r="H638" s="5" t="s">
-        <v>45</v>
+        <v>d.tabular</v>
+      </c>
+      <c r="G638" s="36" t="s">
+        <v>815</v>
+      </c>
+      <c r="H638" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="I638" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J638" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K638" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L638" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M638" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N638" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O638" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P638" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q638" s="24" t="s">
+      <c r="J638" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K638" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L638" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M638" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N638" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O638" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P638" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q638" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R638" s="26" t="s">
@@ -58241,19 +58278,19 @@
         <v>43</v>
       </c>
       <c r="U638" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para temporalizar: é.momento</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para tabular: é.tabela.orçamento</v>
       </c>
       <c r="V638" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para temporalizar: momento ( xsd:dateTime ) </v>
-      </c>
-      <c r="W638" s="6" t="s">
-        <v>1178</v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para tabular: tabela.orçamento ( xsd:string ) </v>
+      </c>
+      <c r="W638" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="X638" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>temp.101</v>
+        <f t="shared" si="83"/>
+        <v>tabu.103</v>
       </c>
       <c r="Y638" s="23" t="s">
         <v>0</v>
@@ -58266,23 +58303,22 @@
       <c r="B639" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C639" s="28" t="str">
-        <f t="shared" si="84"/>
+      <c r="C639" s="31" t="str">
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D639" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.momento.final</v>
+        <f t="shared" si="85"/>
+        <v>é.momento.inicial</v>
       </c>
       <c r="E639" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F639" s="21" t="str">
-        <f>F638</f>
-        <v>d.temporalizar</v>
+      <c r="F639" s="19" t="s">
+        <v>925</v>
       </c>
       <c r="G639" s="37" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H639" s="5" t="s">
         <v>45</v>
@@ -58324,25 +58360,25 @@
         <v>43</v>
       </c>
       <c r="U639" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para temporalizar: é.momento.final</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para temporalizar: é.momento.inicial</v>
       </c>
       <c r="V639" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para temporalizar: momento.final ( xsd:dateTime ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para temporalizar: momento.inicial ( xsd:dateTime ) </v>
       </c>
       <c r="W639" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="X639" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>temp.102</v>
+        <f t="shared" si="83"/>
+        <v>temp.100</v>
       </c>
       <c r="Y639" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="4">
         <v>640</v>
       </c>
@@ -58350,12 +58386,12 @@
         <v>37</v>
       </c>
       <c r="C640" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D640" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.duração</v>
+        <f t="shared" si="85"/>
+        <v>é.momento</v>
       </c>
       <c r="E640" s="10" t="s">
         <v>38</v>
@@ -58365,7 +58401,7 @@
         <v>d.temporalizar</v>
       </c>
       <c r="G640" s="37" t="s">
-        <v>575</v>
+        <v>755</v>
       </c>
       <c r="H640" s="5" t="s">
         <v>45</v>
@@ -58407,25 +58443,25 @@
         <v>43</v>
       </c>
       <c r="U640" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para temporalizar: é.duração</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para temporalizar: é.momento</v>
       </c>
       <c r="V640" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para temporalizar: duração ( xsd:dateTime ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para temporalizar: momento ( xsd:dateTime ) </v>
       </c>
       <c r="W640" s="6" t="s">
-        <v>934</v>
+        <v>1178</v>
       </c>
       <c r="X640" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>temp.103</v>
+        <f t="shared" si="83"/>
+        <v>temp.101</v>
       </c>
       <c r="Y640" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="4">
         <v>641</v>
       </c>
@@ -58433,22 +58469,22 @@
         <v>37</v>
       </c>
       <c r="C641" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D641" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.durabilidade</v>
+        <f t="shared" si="85"/>
+        <v>é.momento.final</v>
       </c>
       <c r="E641" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F641" s="21" t="str">
-        <f>F639</f>
+        <f>F640</f>
         <v>d.temporalizar</v>
       </c>
       <c r="G641" s="37" t="s">
-        <v>1078</v>
+        <v>931</v>
       </c>
       <c r="H641" s="5" t="s">
         <v>45</v>
@@ -58457,7 +58493,7 @@
         <v>0</v>
       </c>
       <c r="J641" s="24" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K641" s="24" t="s">
         <v>0</v>
@@ -58490,19 +58526,19 @@
         <v>43</v>
       </c>
       <c r="U641" s="6" t="str">
-        <f t="shared" si="77"/>
-        <v>Propriedade para temporalizar: é.durabilidade</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para temporalizar: é.momento.final</v>
       </c>
       <c r="V641" s="6" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve">Dado para temporalizar: durabilidade ( xsd:dateTime ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para temporalizar: momento.final ( xsd:dateTime ) </v>
       </c>
       <c r="W641" s="6" t="s">
-        <v>1079</v>
+        <v>933</v>
       </c>
       <c r="X641" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>temp.104</v>
+        <f t="shared" si="83"/>
+        <v>temp.102</v>
       </c>
       <c r="Y641" s="23" t="s">
         <v>0</v>
@@ -58516,22 +58552,22 @@
         <v>37</v>
       </c>
       <c r="C642" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D642" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.horário</v>
+        <f t="shared" si="85"/>
+        <v>é.duração</v>
       </c>
       <c r="E642" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F642" s="21" t="str">
-        <f>F640</f>
+        <f>F641</f>
         <v>d.temporalizar</v>
       </c>
       <c r="G642" s="37" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H642" s="5" t="s">
         <v>45</v>
@@ -58573,19 +58609,19 @@
         <v>43</v>
       </c>
       <c r="U642" s="6" t="str">
-        <f t="shared" ref="U642:U677" si="85">_xlfn.CONCAT("Propriedade para ",MID(C642,FIND("p.",C642,1)+2,100),": ",D642)</f>
-        <v>Propriedade para temporalizar: é.horário</v>
+        <f t="shared" si="81"/>
+        <v>Propriedade para temporalizar: é.duração</v>
       </c>
       <c r="V642" s="6" t="str">
-        <f t="shared" ref="V642:V677" si="86">_xlfn.CONCAT("Dado para ",MID(F642,FIND("d.",F642,1)+2,100),": ",G642, " ( ",H642, " ) ")</f>
-        <v xml:space="preserve">Dado para temporalizar: horário ( xsd:dateTime ) </v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para temporalizar: duração ( xsd:dateTime ) </v>
       </c>
       <c r="W642" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="X642" s="23" t="str">
-        <f t="shared" si="79"/>
-        <v>temp.105</v>
+        <f t="shared" si="83"/>
+        <v>temp.103</v>
       </c>
       <c r="Y642" s="23" t="s">
         <v>0</v>
@@ -58599,105 +58635,105 @@
         <v>37</v>
       </c>
       <c r="C643" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D643" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>é.durabilidade</v>
+      </c>
+      <c r="E643" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F643" s="21" t="str">
+        <f>F641</f>
+        <v>d.temporalizar</v>
+      </c>
+      <c r="G643" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H643" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I643" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J643" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K643" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L643" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M643" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N643" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O643" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P643" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q643" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R643" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S643" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T643" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U643" s="6" t="str">
         <f t="shared" si="81"/>
-        <v>é.data.de.validade</v>
-      </c>
-      <c r="E643" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F643" s="21" t="str">
+        <v>Propriedade para temporalizar: é.durabilidade</v>
+      </c>
+      <c r="V643" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve">Dado para temporalizar: durabilidade ( xsd:dateTime ) </v>
+      </c>
+      <c r="W643" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="X643" s="23" t="str">
+        <f t="shared" si="83"/>
+        <v>temp.104</v>
+      </c>
+      <c r="Y643" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="4">
+        <v>644</v>
+      </c>
+      <c r="B644" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C644" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.temporalizar</v>
+      </c>
+      <c r="D644" s="7" t="str">
+        <f t="shared" si="85"/>
+        <v>é.horário</v>
+      </c>
+      <c r="E644" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F644" s="21" t="str">
         <f>F642</f>
         <v>d.temporalizar</v>
       </c>
-      <c r="G643" s="36" t="s">
-        <v>577</v>
-      </c>
-      <c r="H643" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I643" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J643" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K643" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L643" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M643" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N643" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O643" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P643" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q643" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R643" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S643" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T643" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U643" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para temporalizar: é.data.de.validade</v>
-      </c>
-      <c r="V643" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para temporalizar: data.de.validade ( xsd:dateTime ) </v>
-      </c>
-      <c r="W643" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="X643" s="23" t="str">
-        <f t="shared" ref="X643:X677" si="87">IF(F642&lt;&gt;F643,_xlfn.CONCAT(RIGHT(LEFT(F643,6),4),".100"),_xlfn.CONCAT(RIGHT(LEFT(F643,6),4),".",SUM(VALUE(RIGHT(X642,3)),1)))</f>
-        <v>temp.106</v>
-      </c>
-      <c r="Y643" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="4">
-        <v>644</v>
-      </c>
-      <c r="B644" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C644" s="28" t="str">
-        <f t="shared" si="84"/>
-        <v>p.temporalizar</v>
-      </c>
-      <c r="D644" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.data.de.verificação</v>
-      </c>
-      <c r="E644" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F644" s="21" t="str">
-        <f>F643</f>
-        <v>d.temporalizar</v>
-      </c>
-      <c r="G644" s="36" t="s">
-        <v>578</v>
+      <c r="G644" s="37" t="s">
+        <v>576</v>
       </c>
       <c r="H644" s="5" t="s">
         <v>45</v>
@@ -58705,28 +58741,28 @@
       <c r="I644" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J644" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K644" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L644" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M644" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N644" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O644" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P644" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q644" s="26" t="s">
+      <c r="J644" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K644" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L644" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M644" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N644" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O644" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P644" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q644" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R644" s="26" t="s">
@@ -58739,19 +58775,19 @@
         <v>43</v>
       </c>
       <c r="U644" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para temporalizar: é.data.de.verificação</v>
+        <f t="shared" ref="U644:U682" si="89">_xlfn.CONCAT("Propriedade para ",MID(C644,FIND("p.",C644,1)+2,100),": ",D644)</f>
+        <v>Propriedade para temporalizar: é.horário</v>
       </c>
       <c r="V644" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para temporalizar: data.de.verificação ( xsd:dateTime ) </v>
-      </c>
-      <c r="W644" s="20" t="s">
-        <v>283</v>
+        <f t="shared" ref="V644:V682" si="90">_xlfn.CONCAT("Dado para ",MID(F644,FIND("d.",F644,1)+2,100),": ",G644, " ( ",H644, " ) ")</f>
+        <v xml:space="preserve">Dado para temporalizar: horário ( xsd:dateTime ) </v>
+      </c>
+      <c r="W644" s="6" t="s">
+        <v>935</v>
       </c>
       <c r="X644" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>temp.107</v>
+        <f t="shared" si="83"/>
+        <v>temp.105</v>
       </c>
       <c r="Y644" s="23" t="s">
         <v>0</v>
@@ -58765,12 +58801,12 @@
         <v>37</v>
       </c>
       <c r="C645" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D645" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.data.de.levantamento</v>
+        <f t="shared" si="85"/>
+        <v>é.data.de.validade</v>
       </c>
       <c r="E645" s="10" t="s">
         <v>38</v>
@@ -58780,7 +58816,7 @@
         <v>d.temporalizar</v>
       </c>
       <c r="G645" s="36" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H645" s="5" t="s">
         <v>45</v>
@@ -58822,25 +58858,25 @@
         <v>43</v>
       </c>
       <c r="U645" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para temporalizar: é.data.de.levantamento</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para temporalizar: é.data.de.validade</v>
       </c>
       <c r="V645" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para temporalizar: data.de.levantamento ( xsd:dateTime ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para temporalizar: data.de.validade ( xsd:dateTime ) </v>
       </c>
       <c r="W645" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X645" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>temp.108</v>
+        <f t="shared" ref="X645:X682" si="91">IF(F644&lt;&gt;F645,_xlfn.CONCAT(RIGHT(LEFT(F645,6),4),".100"),_xlfn.CONCAT(RIGHT(LEFT(F645,6),4),".",SUM(VALUE(RIGHT(X644,3)),1)))</f>
+        <v>temp.106</v>
       </c>
       <c r="Y645" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:25" s="8" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="4">
         <v>646</v>
       </c>
@@ -58848,12 +58884,12 @@
         <v>37</v>
       </c>
       <c r="C646" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D646" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.periodicidade</v>
+        <f t="shared" si="85"/>
+        <v>é.data.de.verificação</v>
       </c>
       <c r="E646" s="10" t="s">
         <v>38</v>
@@ -58862,37 +58898,37 @@
         <f>F645</f>
         <v>d.temporalizar</v>
       </c>
-      <c r="G646" s="37" t="s">
-        <v>494</v>
+      <c r="G646" s="36" t="s">
+        <v>578</v>
       </c>
       <c r="H646" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I646" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J646" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K646" s="24" t="s">
+      <c r="J646" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K646" s="26" t="s">
         <v>0</v>
       </c>
       <c r="L646" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M646" s="24" t="s">
+      <c r="M646" s="26" t="s">
         <v>0</v>
       </c>
       <c r="N646" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O646" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P646" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q646" s="24" t="s">
+      <c r="O646" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P646" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q646" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R646" s="26" t="s">
@@ -58905,19 +58941,19 @@
         <v>43</v>
       </c>
       <c r="U646" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para temporalizar: é.periodicidade</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para temporalizar: é.data.de.verificação</v>
       </c>
       <c r="V646" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para temporalizar: periodicidade ( xsd:string ) </v>
-      </c>
-      <c r="W646" s="6" t="s">
-        <v>927</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para temporalizar: data.de.verificação ( xsd:dateTime ) </v>
+      </c>
+      <c r="W646" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="X646" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>temp.109</v>
+        <f t="shared" si="91"/>
+        <v>temp.107</v>
       </c>
       <c r="Y646" s="23" t="s">
         <v>0</v>
@@ -58931,25 +58967,25 @@
         <v>37</v>
       </c>
       <c r="C647" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D647" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.dia</v>
+        <f t="shared" si="85"/>
+        <v>é.data.de.levantamento</v>
       </c>
       <c r="E647" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F647" s="21" t="str">
-        <f>F643</f>
+        <f>F646</f>
         <v>d.temporalizar</v>
       </c>
       <c r="G647" s="36" t="s">
-        <v>940</v>
+        <v>579</v>
       </c>
       <c r="H647" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I647" s="30" t="s">
         <v>0</v>
@@ -58988,25 +59024,25 @@
         <v>43</v>
       </c>
       <c r="U647" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para temporalizar: é.dia</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para temporalizar: é.data.de.levantamento</v>
       </c>
       <c r="V647" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para temporalizar: dia ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para temporalizar: data.de.levantamento ( xsd:dateTime ) </v>
       </c>
       <c r="W647" s="20" t="s">
-        <v>943</v>
+        <v>285</v>
       </c>
       <c r="X647" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>temp.110</v>
+        <f t="shared" si="91"/>
+        <v>temp.108</v>
       </c>
       <c r="Y647" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:25" s="8" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="4">
         <v>648</v>
       </c>
@@ -59014,22 +59050,22 @@
         <v>37</v>
       </c>
       <c r="C648" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D648" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.mês</v>
+        <f t="shared" si="85"/>
+        <v>é.periodicidade</v>
       </c>
       <c r="E648" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F648" s="21" t="str">
-        <f>F644</f>
+        <f>F647</f>
         <v>d.temporalizar</v>
       </c>
-      <c r="G648" s="36" t="s">
-        <v>941</v>
+      <c r="G648" s="37" t="s">
+        <v>494</v>
       </c>
       <c r="H648" s="5" t="s">
         <v>39</v>
@@ -59037,28 +59073,28 @@
       <c r="I648" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J648" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K648" s="26" t="s">
+      <c r="J648" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K648" s="24" t="s">
         <v>0</v>
       </c>
       <c r="L648" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M648" s="26" t="s">
+      <c r="M648" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N648" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O648" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P648" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q648" s="26" t="s">
+      <c r="O648" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P648" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q648" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R648" s="26" t="s">
@@ -59071,19 +59107,19 @@
         <v>43</v>
       </c>
       <c r="U648" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para temporalizar: é.mês</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para temporalizar: é.periodicidade</v>
       </c>
       <c r="V648" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para temporalizar: mês ( xsd:string ) </v>
-      </c>
-      <c r="W648" s="20" t="s">
-        <v>944</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para temporalizar: periodicidade ( xsd:string ) </v>
+      </c>
+      <c r="W648" s="6" t="s">
+        <v>927</v>
       </c>
       <c r="X648" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>temp.111</v>
+        <f t="shared" si="91"/>
+        <v>temp.109</v>
       </c>
       <c r="Y648" s="23" t="s">
         <v>0</v>
@@ -59097,12 +59133,12 @@
         <v>37</v>
       </c>
       <c r="C649" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D649" s="7" t="str">
-        <f t="shared" si="81"/>
-        <v>é.ano</v>
+        <f t="shared" si="85"/>
+        <v>é.dia</v>
       </c>
       <c r="E649" s="10" t="s">
         <v>38</v>
@@ -59112,7 +59148,7 @@
         <v>d.temporalizar</v>
       </c>
       <c r="G649" s="36" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H649" s="5" t="s">
         <v>39</v>
@@ -59154,19 +59190,19 @@
         <v>43</v>
       </c>
       <c r="U649" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para temporalizar: é.ano</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para temporalizar: é.dia</v>
       </c>
       <c r="V649" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para temporalizar: ano ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para temporalizar: dia ( xsd:string ) </v>
       </c>
       <c r="W649" s="20" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="X649" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>temp.112</v>
+        <f t="shared" si="91"/>
+        <v>temp.110</v>
       </c>
       <c r="Y649" s="23" t="s">
         <v>0</v>
@@ -59180,22 +59216,22 @@
         <v>37</v>
       </c>
       <c r="C650" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D650" s="7" t="str">
-        <f t="shared" ref="D650:D677" si="88">_xlfn.CONCAT("é.",G650)</f>
-        <v>é.ano.fiscal</v>
+        <f t="shared" si="85"/>
+        <v>é.mês</v>
       </c>
       <c r="E650" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F650" s="21" t="str">
-        <f>F645</f>
+        <f>F646</f>
         <v>d.temporalizar</v>
       </c>
       <c r="G650" s="36" t="s">
-        <v>580</v>
+        <v>941</v>
       </c>
       <c r="H650" s="5" t="s">
         <v>39</v>
@@ -59237,19 +59273,19 @@
         <v>43</v>
       </c>
       <c r="U650" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para temporalizar: é.ano.fiscal</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para temporalizar: é.mês</v>
       </c>
       <c r="V650" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para temporalizar: ano.fiscal ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para temporalizar: mês ( xsd:string ) </v>
       </c>
       <c r="W650" s="20" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
       <c r="X650" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>temp.113</v>
+        <f t="shared" si="91"/>
+        <v>temp.111</v>
       </c>
       <c r="Y650" s="23" t="s">
         <v>0</v>
@@ -59262,22 +59298,23 @@
       <c r="B651" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C651" s="31" t="str">
-        <f t="shared" si="84"/>
-        <v>p.urbanizar</v>
+      <c r="C651" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.temporalizar</v>
       </c>
       <c r="D651" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.fator.de.forma</v>
+        <f t="shared" si="85"/>
+        <v>é.ano</v>
       </c>
       <c r="E651" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F651" s="19" t="s">
-        <v>997</v>
-      </c>
-      <c r="G651" s="37" t="s">
-        <v>991</v>
+      <c r="F651" s="21" t="str">
+        <f>F647</f>
+        <v>d.temporalizar</v>
+      </c>
+      <c r="G651" s="36" t="s">
+        <v>942</v>
       </c>
       <c r="H651" s="5" t="s">
         <v>39</v>
@@ -59285,28 +59322,28 @@
       <c r="I651" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J651" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K651" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L651" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M651" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N651" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O651" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P651" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q651" s="24" t="s">
+      <c r="J651" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K651" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L651" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M651" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N651" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O651" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P651" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q651" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R651" s="26" t="s">
@@ -59319,25 +59356,25 @@
         <v>43</v>
       </c>
       <c r="U651" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.fator.de.forma</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para temporalizar: é.ano</v>
       </c>
       <c r="V651" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: fator.de.forma ( xsd:string ) </v>
-      </c>
-      <c r="W651" s="6" t="s">
-        <v>999</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para temporalizar: ano ( xsd:string ) </v>
+      </c>
+      <c r="W651" s="20" t="s">
+        <v>945</v>
       </c>
       <c r="X651" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.100</v>
+        <f t="shared" si="91"/>
+        <v>temp.112</v>
       </c>
       <c r="Y651" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="4">
         <v>652</v>
       </c>
@@ -59345,51 +59382,51 @@
         <v>37</v>
       </c>
       <c r="C652" s="28" t="str">
-        <f t="shared" si="84"/>
-        <v>p.urbanizar</v>
+        <f t="shared" si="88"/>
+        <v>p.temporalizar</v>
       </c>
       <c r="D652" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.altura.predial</v>
+        <f t="shared" ref="D652:D682" si="92">_xlfn.CONCAT("é.",G652)</f>
+        <v>é.ano.fiscal</v>
       </c>
       <c r="E652" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F652" s="21" t="str">
-        <f>F651</f>
-        <v>d.urbanizar</v>
-      </c>
-      <c r="G652" s="37" t="s">
-        <v>992</v>
+        <f>F647</f>
+        <v>d.temporalizar</v>
+      </c>
+      <c r="G652" s="36" t="s">
+        <v>580</v>
       </c>
       <c r="H652" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I652" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J652" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K652" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L652" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M652" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N652" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O652" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P652" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q652" s="24" t="s">
+      <c r="J652" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K652" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L652" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M652" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N652" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O652" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P652" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q652" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R652" s="26" t="s">
@@ -59402,48 +59439,47 @@
         <v>43</v>
       </c>
       <c r="U652" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.altura.predial</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para temporalizar: é.ano.fiscal</v>
       </c>
       <c r="V652" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: altura.predial ( xsd:double ) </v>
-      </c>
-      <c r="W652" s="6" t="s">
-        <v>995</v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para temporalizar: ano.fiscal ( xsd:string ) </v>
+      </c>
+      <c r="W652" s="20" t="s">
+        <v>928</v>
       </c>
       <c r="X652" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.101</v>
+        <f t="shared" si="91"/>
+        <v>temp.113</v>
       </c>
       <c r="Y652" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="4">
         <v>653</v>
       </c>
       <c r="B653" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C653" s="28" t="str">
-        <f t="shared" si="84"/>
+      <c r="C653" s="31" t="str">
+        <f t="shared" si="88"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D653" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.cobertura.impermeável</v>
+        <f t="shared" si="92"/>
+        <v>é.fator.de.forma</v>
       </c>
       <c r="E653" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F653" s="21" t="str">
-        <f>F652</f>
-        <v>d.urbanizar</v>
+      <c r="F653" s="19" t="s">
+        <v>997</v>
       </c>
       <c r="G653" s="37" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H653" s="5" t="s">
         <v>39</v>
@@ -59485,19 +59521,19 @@
         <v>43</v>
       </c>
       <c r="U653" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.cobertura.impermeável</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.fator.de.forma</v>
       </c>
       <c r="V653" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: cobertura.impermeável ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: fator.de.forma ( xsd:string ) </v>
       </c>
       <c r="W653" s="6" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="X653" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.102</v>
+        <f t="shared" si="91"/>
+        <v>urba.100</v>
       </c>
       <c r="Y653" s="23" t="s">
         <v>0</v>
@@ -59511,22 +59547,22 @@
         <v>37</v>
       </c>
       <c r="C654" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D654" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.calor.antropogénico</v>
+        <f t="shared" si="92"/>
+        <v>é.altura.predial</v>
       </c>
       <c r="E654" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F654" s="21" t="str">
-        <f>F652</f>
+        <f>F653</f>
         <v>d.urbanizar</v>
       </c>
       <c r="G654" s="37" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H654" s="5" t="s">
         <v>47</v>
@@ -59568,19 +59604,19 @@
         <v>43</v>
       </c>
       <c r="U654" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.calor.antropogénico</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.altura.predial</v>
       </c>
       <c r="V654" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: calor.antropogénico ( xsd:double ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: altura.predial ( xsd:double ) </v>
       </c>
       <c r="W654" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="X654" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.103</v>
+        <f t="shared" si="91"/>
+        <v>urba.101</v>
       </c>
       <c r="Y654" s="23" t="s">
         <v>0</v>
@@ -59594,22 +59630,22 @@
         <v>37</v>
       </c>
       <c r="C655" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D655" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.zoneamento</v>
+        <f t="shared" si="92"/>
+        <v>é.cobertura.impermeável</v>
       </c>
       <c r="E655" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F655" s="21" t="str">
-        <f>F652</f>
+        <f>F654</f>
         <v>d.urbanizar</v>
       </c>
       <c r="G655" s="37" t="s">
-        <v>1055</v>
+        <v>993</v>
       </c>
       <c r="H655" s="5" t="s">
         <v>39</v>
@@ -59651,19 +59687,19 @@
         <v>43</v>
       </c>
       <c r="U655" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.zoneamento</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.cobertura.impermeável</v>
       </c>
       <c r="V655" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: zoneamento ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: cobertura.impermeável ( xsd:string ) </v>
       </c>
       <c r="W655" s="6" t="s">
-        <v>1056</v>
+        <v>998</v>
       </c>
       <c r="X655" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.104</v>
+        <f t="shared" si="91"/>
+        <v>urba.102</v>
       </c>
       <c r="Y655" s="23" t="s">
         <v>0</v>
@@ -59677,22 +59713,22 @@
         <v>37</v>
       </c>
       <c r="C656" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D656" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.recuo.frontal</v>
+        <f t="shared" si="92"/>
+        <v>é.calor.antropogénico</v>
       </c>
       <c r="E656" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F656" s="21" t="str">
-        <f>F651</f>
+        <f>F654</f>
         <v>d.urbanizar</v>
       </c>
       <c r="G656" s="37" t="s">
-        <v>1052</v>
+        <v>994</v>
       </c>
       <c r="H656" s="5" t="s">
         <v>47</v>
@@ -59734,19 +59770,19 @@
         <v>43</v>
       </c>
       <c r="U656" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.recuo.frontal</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.calor.antropogénico</v>
       </c>
       <c r="V656" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: recuo.frontal ( xsd:double ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: calor.antropogénico ( xsd:double ) </v>
       </c>
       <c r="W656" s="6" t="s">
-        <v>1057</v>
+        <v>996</v>
       </c>
       <c r="X656" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.105</v>
+        <f t="shared" si="91"/>
+        <v>urba.103</v>
       </c>
       <c r="Y656" s="23" t="s">
         <v>0</v>
@@ -59760,25 +59796,25 @@
         <v>37</v>
       </c>
       <c r="C657" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D657" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.afastamento.lateral</v>
+        <f t="shared" si="92"/>
+        <v>é.zoneamento</v>
       </c>
       <c r="E657" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F657" s="21" t="str">
-        <f>F652</f>
+        <f>F654</f>
         <v>d.urbanizar</v>
       </c>
       <c r="G657" s="37" t="s">
-        <v>1231</v>
+        <v>1055</v>
       </c>
       <c r="H657" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I657" s="30" t="s">
         <v>0</v>
@@ -59817,19 +59853,19 @@
         <v>43</v>
       </c>
       <c r="U657" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.afastamento.lateral</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.zoneamento</v>
       </c>
       <c r="V657" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: afastamento.lateral ( xsd:double ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: zoneamento ( xsd:string ) </v>
       </c>
       <c r="W657" s="6" t="s">
-        <v>1232</v>
+        <v>1056</v>
       </c>
       <c r="X657" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.106</v>
+        <f t="shared" si="91"/>
+        <v>urba.104</v>
       </c>
       <c r="Y657" s="23" t="s">
         <v>0</v>
@@ -59843,22 +59879,22 @@
         <v>37</v>
       </c>
       <c r="C658" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D658" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.gabarito</v>
+        <f t="shared" si="92"/>
+        <v>é.recuo.frontal</v>
       </c>
       <c r="E658" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F658" s="21" t="str">
-        <f>F652</f>
+        <f>F653</f>
         <v>d.urbanizar</v>
       </c>
       <c r="G658" s="37" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="H658" s="5" t="s">
         <v>47</v>
@@ -59900,19 +59936,19 @@
         <v>43</v>
       </c>
       <c r="U658" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.gabarito</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.recuo.frontal</v>
       </c>
       <c r="V658" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: gabarito ( xsd:double ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: recuo.frontal ( xsd:double ) </v>
       </c>
       <c r="W658" s="6" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="X658" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.107</v>
+        <f t="shared" si="91"/>
+        <v>urba.105</v>
       </c>
       <c r="Y658" s="23" t="s">
         <v>0</v>
@@ -59926,22 +59962,22 @@
         <v>37</v>
       </c>
       <c r="C659" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D659" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.índice.de.aproveitamento</v>
+        <f t="shared" si="92"/>
+        <v>é.afastamento.lateral</v>
       </c>
       <c r="E659" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F659" s="21" t="str">
-        <f>F652</f>
+        <f>F654</f>
         <v>d.urbanizar</v>
       </c>
       <c r="G659" s="37" t="s">
-        <v>1053</v>
+        <v>1231</v>
       </c>
       <c r="H659" s="5" t="s">
         <v>47</v>
@@ -59983,19 +60019,19 @@
         <v>43</v>
       </c>
       <c r="U659" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.índice.de.aproveitamento</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.afastamento.lateral</v>
       </c>
       <c r="V659" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: índice.de.aproveitamento ( xsd:double ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: afastamento.lateral ( xsd:double ) </v>
       </c>
       <c r="W659" s="6" t="s">
-        <v>1054</v>
+        <v>1232</v>
       </c>
       <c r="X659" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.108</v>
+        <f t="shared" si="91"/>
+        <v>urba.106</v>
       </c>
       <c r="Y659" s="23" t="s">
         <v>0</v>
@@ -60009,22 +60045,22 @@
         <v>37</v>
       </c>
       <c r="C660" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D660" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.taxa.de.ocupação</v>
+        <f t="shared" si="92"/>
+        <v>é.gabarito</v>
       </c>
       <c r="E660" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F660" s="21" t="str">
-        <f>F652</f>
+        <f>F654</f>
         <v>d.urbanizar</v>
       </c>
       <c r="G660" s="37" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H660" s="5" t="s">
         <v>47</v>
@@ -60066,19 +60102,19 @@
         <v>43</v>
       </c>
       <c r="U660" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.taxa.de.ocupação</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.gabarito</v>
       </c>
       <c r="V660" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: taxa.de.ocupação ( xsd:double ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: gabarito ( xsd:double ) </v>
       </c>
       <c r="W660" s="6" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="X660" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.109</v>
+        <f t="shared" si="91"/>
+        <v>urba.107</v>
       </c>
       <c r="Y660" s="23" t="s">
         <v>0</v>
@@ -60092,25 +60128,25 @@
         <v>37</v>
       </c>
       <c r="C661" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D661" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.operação.urbana</v>
+        <f t="shared" si="92"/>
+        <v>é.índice.de.aproveitamento</v>
       </c>
       <c r="E661" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F661" s="21" t="str">
-        <f>F653</f>
+        <f>F654</f>
         <v>d.urbanizar</v>
       </c>
       <c r="G661" s="37" t="s">
-        <v>1219</v>
+        <v>1053</v>
       </c>
       <c r="H661" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I661" s="30" t="s">
         <v>0</v>
@@ -60149,19 +60185,19 @@
         <v>43</v>
       </c>
       <c r="U661" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para urbanizar: é.operação.urbana</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.índice.de.aproveitamento</v>
       </c>
       <c r="V661" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para urbanizar: operação.urbana ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: índice.de.aproveitamento ( xsd:double ) </v>
       </c>
       <c r="W661" s="6" t="s">
-        <v>1220</v>
+        <v>1054</v>
       </c>
       <c r="X661" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>urba.110</v>
+        <f t="shared" si="91"/>
+        <v>urba.108</v>
       </c>
       <c r="Y661" s="23" t="s">
         <v>0</v>
@@ -60174,31 +60210,32 @@
       <c r="B662" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C662" s="31" t="str">
-        <f t="shared" si="84"/>
-        <v>p.vincular</v>
+      <c r="C662" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.urbanizar</v>
       </c>
       <c r="D662" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.uri</v>
+        <f t="shared" si="92"/>
+        <v>é.taxa.de.ocupação</v>
       </c>
       <c r="E662" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F662" s="19" t="s">
-        <v>860</v>
+      <c r="F662" s="21" t="str">
+        <f>F654</f>
+        <v>d.urbanizar</v>
       </c>
       <c r="G662" s="37" t="s">
-        <v>816</v>
+        <v>1050</v>
       </c>
       <c r="H662" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I662" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J662" s="25" t="s">
-        <v>40</v>
+      <c r="J662" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="K662" s="24" t="s">
         <v>0</v>
@@ -60231,19 +60268,19 @@
         <v>43</v>
       </c>
       <c r="U662" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vincular: é.uri</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.taxa.de.ocupação</v>
       </c>
       <c r="V662" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vincular: uri ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: taxa.de.ocupação ( xsd:double ) </v>
       </c>
       <c r="W662" s="6" t="s">
-        <v>265</v>
+        <v>1058</v>
       </c>
       <c r="X662" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vinc.100</v>
+        <f t="shared" si="91"/>
+        <v>urba.109</v>
       </c>
       <c r="Y662" s="23" t="s">
         <v>0</v>
@@ -60257,22 +60294,22 @@
         <v>37</v>
       </c>
       <c r="C663" s="28" t="str">
-        <f t="shared" si="84"/>
-        <v>p.vincular</v>
+        <f t="shared" si="88"/>
+        <v>p.urbanizar</v>
       </c>
       <c r="D663" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.urn</v>
+        <f t="shared" si="92"/>
+        <v>é.operação.urbana</v>
       </c>
       <c r="E663" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F663" s="21" t="str">
-        <f t="shared" ref="F663:F671" si="89">F662</f>
-        <v>d.vincular</v>
+        <f>F655</f>
+        <v>d.urbanizar</v>
       </c>
       <c r="G663" s="37" t="s">
-        <v>817</v>
+        <v>1219</v>
       </c>
       <c r="H663" s="5" t="s">
         <v>39</v>
@@ -60280,8 +60317,8 @@
       <c r="I663" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J663" s="25" t="s">
-        <v>40</v>
+      <c r="J663" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="K663" s="24" t="s">
         <v>0</v>
@@ -60314,19 +60351,19 @@
         <v>43</v>
       </c>
       <c r="U663" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vincular: é.urn</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para urbanizar: é.operação.urbana</v>
       </c>
       <c r="V663" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vincular: urn ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para urbanizar: operação.urbana ( xsd:string ) </v>
       </c>
       <c r="W663" s="6" t="s">
-        <v>266</v>
+        <v>1220</v>
       </c>
       <c r="X663" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vinc.101</v>
+        <f t="shared" si="91"/>
+        <v>urba.110</v>
       </c>
       <c r="Y663" s="23" t="s">
         <v>0</v>
@@ -60339,23 +60376,22 @@
       <c r="B664" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C664" s="28" t="str">
-        <f t="shared" si="84"/>
+      <c r="C664" s="31" t="str">
+        <f t="shared" si="88"/>
         <v>p.vincular</v>
       </c>
       <c r="D664" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.url</v>
+        <f t="shared" si="92"/>
+        <v>é.uri</v>
       </c>
       <c r="E664" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F664" s="21" t="str">
-        <f t="shared" si="89"/>
-        <v>d.vincular</v>
+      <c r="F664" s="19" t="s">
+        <v>860</v>
       </c>
       <c r="G664" s="37" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H664" s="5" t="s">
         <v>39</v>
@@ -60397,19 +60433,19 @@
         <v>43</v>
       </c>
       <c r="U664" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vincular: é.url</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vincular: é.uri</v>
       </c>
       <c r="V664" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vincular: url ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vincular: uri ( xsd:string ) </v>
       </c>
       <c r="W664" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="X664" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vinc.102</v>
+        <f t="shared" si="91"/>
+        <v>vinc.100</v>
       </c>
       <c r="Y664" s="23" t="s">
         <v>0</v>
@@ -60423,22 +60459,22 @@
         <v>37</v>
       </c>
       <c r="C665" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.vincular</v>
       </c>
       <c r="D665" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.iri</v>
+        <f t="shared" si="92"/>
+        <v>é.urn</v>
       </c>
       <c r="E665" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F665" s="21" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="F665:F672" si="93">F664</f>
         <v>d.vincular</v>
       </c>
       <c r="G665" s="37" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H665" s="5" t="s">
         <v>39</v>
@@ -60480,19 +60516,19 @@
         <v>43</v>
       </c>
       <c r="U665" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vincular: é.iri</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vincular: é.urn</v>
       </c>
       <c r="V665" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vincular: iri ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vincular: urn ( xsd:string ) </v>
       </c>
       <c r="W665" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X665" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vinc.103</v>
+        <f t="shared" si="91"/>
+        <v>vinc.101</v>
       </c>
       <c r="Y665" s="23" t="s">
         <v>0</v>
@@ -60506,22 +60542,22 @@
         <v>37</v>
       </c>
       <c r="C666" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.vincular</v>
       </c>
       <c r="D666" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.ipv4</v>
+        <f t="shared" si="92"/>
+        <v>é.url</v>
       </c>
       <c r="E666" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F666" s="21" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>d.vincular</v>
       </c>
       <c r="G666" s="37" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="H666" s="5" t="s">
         <v>39</v>
@@ -60563,19 +60599,19 @@
         <v>43</v>
       </c>
       <c r="U666" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vincular: é.ipv4</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vincular: é.url</v>
       </c>
       <c r="V666" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vincular: ipv4 ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vincular: url ( xsd:string ) </v>
       </c>
       <c r="W666" s="6" t="s">
-        <v>385</v>
+        <v>267</v>
       </c>
       <c r="X666" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vinc.104</v>
+        <f t="shared" si="91"/>
+        <v>vinc.102</v>
       </c>
       <c r="Y666" s="23" t="s">
         <v>0</v>
@@ -60589,22 +60625,22 @@
         <v>37</v>
       </c>
       <c r="C667" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.vincular</v>
       </c>
       <c r="D667" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.ipv6</v>
+        <f t="shared" si="92"/>
+        <v>é.iri</v>
       </c>
       <c r="E667" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F667" s="21" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>d.vincular</v>
       </c>
       <c r="G667" s="37" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H667" s="5" t="s">
         <v>39</v>
@@ -60646,25 +60682,25 @@
         <v>43</v>
       </c>
       <c r="U667" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vincular: é.ipv6</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vincular: é.iri</v>
       </c>
       <c r="V667" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vincular: ipv6 ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vincular: iri ( xsd:string ) </v>
       </c>
       <c r="W667" s="6" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="X667" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vinc.105</v>
+        <f t="shared" si="91"/>
+        <v>vinc.103</v>
       </c>
       <c r="Y667" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4">
         <v>668</v>
       </c>
@@ -60672,27 +60708,27 @@
         <v>37</v>
       </c>
       <c r="C668" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.vincular</v>
       </c>
       <c r="D668" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.hipervínculo</v>
+        <f t="shared" si="92"/>
+        <v>é.ipv4</v>
       </c>
       <c r="E668" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F668" s="21" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>d.vincular</v>
       </c>
       <c r="G668" s="37" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H668" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I668" s="33" t="s">
+      <c r="I668" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J668" s="25" t="s">
@@ -60729,25 +60765,25 @@
         <v>43</v>
       </c>
       <c r="U668" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vincular: é.hipervínculo</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vincular: é.ipv4</v>
       </c>
       <c r="V668" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vincular: hipervínculo ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vincular: ipv4 ( xsd:string ) </v>
       </c>
       <c r="W668" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="X668" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vinc.106</v>
+        <f t="shared" si="91"/>
+        <v>vinc.104</v>
       </c>
       <c r="Y668" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4">
         <v>669</v>
       </c>
@@ -60755,27 +60791,27 @@
         <v>37</v>
       </c>
       <c r="C669" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.vincular</v>
       </c>
       <c r="D669" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.link</v>
+        <f t="shared" si="92"/>
+        <v>é.ipv6</v>
       </c>
       <c r="E669" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F669" s="21" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>d.vincular</v>
       </c>
       <c r="G669" s="37" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H669" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I669" s="33" t="s">
+      <c r="I669" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J669" s="25" t="s">
@@ -60812,19 +60848,19 @@
         <v>43</v>
       </c>
       <c r="U669" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vincular: é.link</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vincular: é.ipv6</v>
       </c>
       <c r="V669" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vincular: link ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vincular: ipv6 ( xsd:string ) </v>
       </c>
       <c r="W669" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="X669" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vinc.107</v>
+        <f t="shared" si="91"/>
+        <v>vinc.105</v>
       </c>
       <c r="Y669" s="23" t="s">
         <v>0</v>
@@ -60838,22 +60874,22 @@
         <v>37</v>
       </c>
       <c r="C670" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.vincular</v>
       </c>
       <c r="D670" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.orcid</v>
+        <f t="shared" si="92"/>
+        <v>é.hipervínculo</v>
       </c>
       <c r="E670" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F670" s="21" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>d.vincular</v>
       </c>
       <c r="G670" s="37" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H670" s="5" t="s">
         <v>39</v>
@@ -60865,7 +60901,7 @@
         <v>40</v>
       </c>
       <c r="K670" s="24" t="s">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="L670" s="24" t="s">
         <v>0</v>
@@ -60895,19 +60931,19 @@
         <v>43</v>
       </c>
       <c r="U670" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vincular: é.orcid</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vincular: é.hipervínculo</v>
       </c>
       <c r="V670" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vincular: orcid ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vincular: hipervínculo ( xsd:string ) </v>
       </c>
       <c r="W670" s="6" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="X670" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vinc.108</v>
+        <f t="shared" si="91"/>
+        <v>vinc.106</v>
       </c>
       <c r="Y670" s="23" t="s">
         <v>0</v>
@@ -60921,22 +60957,22 @@
         <v>37</v>
       </c>
       <c r="C671" s="28" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>p.vincular</v>
       </c>
       <c r="D671" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.lattes</v>
+        <f t="shared" si="92"/>
+        <v>é.link</v>
       </c>
       <c r="E671" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F671" s="21" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>d.vincular</v>
       </c>
       <c r="G671" s="37" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H671" s="5" t="s">
         <v>39</v>
@@ -60978,19 +61014,19 @@
         <v>43</v>
       </c>
       <c r="U671" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vincular: é.lattes</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vincular: é.link</v>
       </c>
       <c r="V671" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vincular: lattes ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vincular: link ( xsd:string ) </v>
       </c>
       <c r="W671" s="6" t="s">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="X671" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vinc.109</v>
+        <f t="shared" si="91"/>
+        <v>vinc.107</v>
       </c>
       <c r="Y671" s="23" t="s">
         <v>0</v>
@@ -61003,22 +61039,23 @@
       <c r="B672" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C672" s="31" t="str">
-        <f t="shared" si="84"/>
-        <v>p.vistoriar</v>
+      <c r="C672" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.vincular</v>
       </c>
       <c r="D672" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.conservado</v>
+        <f t="shared" si="92"/>
+        <v>é.orcid</v>
       </c>
       <c r="E672" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F672" s="19" t="s">
-        <v>865</v>
+      <c r="F672" s="21" t="str">
+        <f t="shared" si="93"/>
+        <v>d.vincular</v>
       </c>
       <c r="G672" s="37" t="s">
-        <v>948</v>
+        <v>824</v>
       </c>
       <c r="H672" s="5" t="s">
         <v>39</v>
@@ -61026,11 +61063,11 @@
       <c r="I672" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J672" s="24" t="s">
-        <v>0</v>
+      <c r="J672" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="K672" s="24" t="s">
-        <v>0</v>
+        <v>1398</v>
       </c>
       <c r="L672" s="24" t="s">
         <v>0</v>
@@ -61060,19 +61097,19 @@
         <v>43</v>
       </c>
       <c r="U672" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vistoriar: é.conservado</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vincular: é.orcid</v>
       </c>
       <c r="V672" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vistoriar: conservado ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vincular: orcid ( xsd:string ) </v>
       </c>
       <c r="W672" s="6" t="s">
-        <v>891</v>
+        <v>318</v>
       </c>
       <c r="X672" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vist.100</v>
+        <f t="shared" si="91"/>
+        <v>vinc.108</v>
       </c>
       <c r="Y672" s="23" t="s">
         <v>0</v>
@@ -61086,22 +61123,22 @@
         <v>37</v>
       </c>
       <c r="C673" s="28" t="str">
-        <f t="shared" si="84"/>
-        <v>p.vistoriar</v>
+        <f t="shared" ref="C673:C675" si="94">SUBSTITUTE(F673,"d.","p.")</f>
+        <v>p.vincular</v>
       </c>
       <c r="D673" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.conforme</v>
+        <f t="shared" ref="D673:D675" si="95">_xlfn.CONCAT("é.",G673)</f>
+        <v>é.lattes</v>
       </c>
       <c r="E673" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F673" s="21" t="str">
-        <f>F672</f>
-        <v>d.vistoriar</v>
+        <f>F671</f>
+        <v>d.vincular</v>
       </c>
       <c r="G673" s="37" t="s">
-        <v>949</v>
+        <v>825</v>
       </c>
       <c r="H673" s="5" t="s">
         <v>39</v>
@@ -61109,8 +61146,8 @@
       <c r="I673" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J673" s="24" t="s">
-        <v>0</v>
+      <c r="J673" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="K673" s="24" t="s">
         <v>0</v>
@@ -61143,19 +61180,19 @@
         <v>43</v>
       </c>
       <c r="U673" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vistoriar: é.conforme</v>
+        <f t="shared" ref="U673:U675" si="96">_xlfn.CONCAT("Propriedade para ",MID(C673,FIND("p.",C673,1)+2,100),": ",D673)</f>
+        <v>Propriedade para vincular: é.lattes</v>
       </c>
       <c r="V673" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vistoriar: conforme ( xsd:string ) </v>
+        <f t="shared" ref="V673:V675" si="97">_xlfn.CONCAT("Dado para ",MID(F673,FIND("d.",F673,1)+2,100),": ",G673, " ( ",H673, " ) ")</f>
+        <v xml:space="preserve">Dado para vincular: lattes ( xsd:string ) </v>
       </c>
       <c r="W673" s="6" t="s">
-        <v>952</v>
+        <v>319</v>
       </c>
       <c r="X673" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vist.101</v>
+        <f t="shared" si="91"/>
+        <v>vinc.109</v>
       </c>
       <c r="Y673" s="23" t="s">
         <v>0</v>
@@ -61169,22 +61206,22 @@
         <v>37</v>
       </c>
       <c r="C674" s="28" t="str">
-        <f t="shared" si="84"/>
-        <v>p.vistoriar</v>
+        <f t="shared" ref="C674" si="98">SUBSTITUTE(F674,"d.","p.")</f>
+        <v>p.vincular</v>
       </c>
       <c r="D674" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.operacional</v>
+        <f t="shared" ref="D674" si="99">_xlfn.CONCAT("é.",G674)</f>
+        <v>é.protocolo.http</v>
       </c>
       <c r="E674" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F674" s="21" t="str">
-        <f>F673</f>
-        <v>d.vistoriar</v>
+        <f>F670</f>
+        <v>d.vincular</v>
       </c>
       <c r="G674" s="37" t="s">
-        <v>951</v>
+        <v>1481</v>
       </c>
       <c r="H674" s="5" t="s">
         <v>39</v>
@@ -61226,19 +61263,19 @@
         <v>43</v>
       </c>
       <c r="U674" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vistoriar: é.operacional</v>
+        <f t="shared" ref="U674" si="100">_xlfn.CONCAT("Propriedade para ",MID(C674,FIND("p.",C674,1)+2,100),": ",D674)</f>
+        <v>Propriedade para vincular: é.protocolo.http</v>
       </c>
       <c r="V674" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vistoriar: operacional ( xsd:string ) </v>
+        <f t="shared" ref="V674" si="101">_xlfn.CONCAT("Dado para ",MID(F674,FIND("d.",F674,1)+2,100),": ",G674, " ( ",H674, " ) ")</f>
+        <v xml:space="preserve">Dado para vincular: protocolo.http ( xsd:string ) </v>
       </c>
       <c r="W674" s="6" t="s">
-        <v>892</v>
+        <v>1485</v>
       </c>
       <c r="X674" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vist.102</v>
+        <f t="shared" si="91"/>
+        <v>vinc.110</v>
       </c>
       <c r="Y674" s="23" t="s">
         <v>0</v>
@@ -61252,22 +61289,22 @@
         <v>37</v>
       </c>
       <c r="C675" s="28" t="str">
-        <f t="shared" si="84"/>
-        <v>p.vistoriar</v>
+        <f t="shared" si="94"/>
+        <v>p.vincular</v>
       </c>
       <c r="D675" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.defeituoso</v>
+        <f t="shared" si="95"/>
+        <v>é.protocolo.https</v>
       </c>
       <c r="E675" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F675" s="21" t="str">
-        <f>F674</f>
-        <v>d.vistoriar</v>
+        <f>F671</f>
+        <v>d.vincular</v>
       </c>
       <c r="G675" s="37" t="s">
-        <v>950</v>
+        <v>1483</v>
       </c>
       <c r="H675" s="5" t="s">
         <v>39</v>
@@ -61309,19 +61346,19 @@
         <v>43</v>
       </c>
       <c r="U675" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vistoriar: é.defeituoso</v>
+        <f t="shared" si="96"/>
+        <v>Propriedade para vincular: é.protocolo.https</v>
       </c>
       <c r="V675" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vistoriar: defeituoso ( xsd:string ) </v>
+        <f t="shared" si="97"/>
+        <v xml:space="preserve">Dado para vincular: protocolo.https ( xsd:string ) </v>
       </c>
       <c r="W675" s="6" t="s">
-        <v>953</v>
+        <v>1484</v>
       </c>
       <c r="X675" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vist.103</v>
+        <f t="shared" si="91"/>
+        <v>vinc.111</v>
       </c>
       <c r="Y675" s="23" t="s">
         <v>0</v>
@@ -61335,22 +61372,22 @@
         <v>37</v>
       </c>
       <c r="C676" s="28" t="str">
-        <f t="shared" si="84"/>
-        <v>p.vistoriar</v>
+        <f t="shared" si="88"/>
+        <v>p.vincular</v>
       </c>
       <c r="D676" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.clausurado</v>
+        <f t="shared" si="92"/>
+        <v>é.protocolo.ftp</v>
       </c>
       <c r="E676" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F676" s="21" t="str">
-        <f>F675</f>
-        <v>d.vistoriar</v>
+        <f>F672</f>
+        <v>d.vincular</v>
       </c>
       <c r="G676" s="37" t="s">
-        <v>1121</v>
+        <v>1482</v>
       </c>
       <c r="H676" s="5" t="s">
         <v>39</v>
@@ -61392,19 +61429,19 @@
         <v>43</v>
       </c>
       <c r="U676" s="6" t="str">
-        <f t="shared" si="85"/>
-        <v>Propriedade para vistoriar: é.clausurado</v>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vincular: é.protocolo.ftp</v>
       </c>
       <c r="V676" s="6" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve">Dado para vistoriar: clausurado ( xsd:string ) </v>
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vincular: protocolo.ftp ( xsd:string ) </v>
       </c>
       <c r="W676" s="6" t="s">
-        <v>1123</v>
+        <v>1486</v>
       </c>
       <c r="X676" s="23" t="str">
-        <f t="shared" si="87"/>
-        <v>vist.104</v>
+        <f t="shared" si="91"/>
+        <v>vinc.112</v>
       </c>
       <c r="Y676" s="23" t="s">
         <v>0</v>
@@ -61417,23 +61454,22 @@
       <c r="B677" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C677" s="28" t="str">
-        <f t="shared" si="84"/>
+      <c r="C677" s="31" t="str">
+        <f t="shared" si="88"/>
         <v>p.vistoriar</v>
       </c>
       <c r="D677" s="7" t="str">
-        <f t="shared" si="88"/>
-        <v>é.interditado</v>
+        <f t="shared" si="92"/>
+        <v>é.conservado</v>
       </c>
       <c r="E677" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F677" s="21" t="str">
-        <f>F676</f>
-        <v>d.vistoriar</v>
+      <c r="F677" s="19" t="s">
+        <v>865</v>
       </c>
       <c r="G677" s="37" t="s">
-        <v>1122</v>
+        <v>948</v>
       </c>
       <c r="H677" s="5" t="s">
         <v>39</v>
@@ -61475,27 +61511,442 @@
         <v>43</v>
       </c>
       <c r="U677" s="6" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
+        <v>Propriedade para vistoriar: é.conservado</v>
+      </c>
+      <c r="V677" s="6" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vistoriar: conservado ( xsd:string ) </v>
+      </c>
+      <c r="W677" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="X677" s="23" t="str">
+        <f t="shared" si="91"/>
+        <v>vist.100</v>
+      </c>
+      <c r="Y677" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="4">
+        <v>678</v>
+      </c>
+      <c r="B678" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C678" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.vistoriar</v>
+      </c>
+      <c r="D678" s="7" t="str">
+        <f t="shared" si="92"/>
+        <v>é.conforme</v>
+      </c>
+      <c r="E678" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F678" s="21" t="str">
+        <f>F677</f>
+        <v>d.vistoriar</v>
+      </c>
+      <c r="G678" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="H678" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I678" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J678" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K678" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L678" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M678" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N678" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O678" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P678" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q678" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R678" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S678" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T678" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U678" s="6" t="str">
+        <f t="shared" si="89"/>
+        <v>Propriedade para vistoriar: é.conforme</v>
+      </c>
+      <c r="V678" s="6" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vistoriar: conforme ( xsd:string ) </v>
+      </c>
+      <c r="W678" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="X678" s="23" t="str">
+        <f t="shared" si="91"/>
+        <v>vist.101</v>
+      </c>
+      <c r="Y678" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="4">
+        <v>679</v>
+      </c>
+      <c r="B679" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C679" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.vistoriar</v>
+      </c>
+      <c r="D679" s="7" t="str">
+        <f t="shared" si="92"/>
+        <v>é.operacional</v>
+      </c>
+      <c r="E679" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F679" s="21" t="str">
+        <f>F678</f>
+        <v>d.vistoriar</v>
+      </c>
+      <c r="G679" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="H679" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I679" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J679" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K679" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L679" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M679" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N679" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O679" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P679" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q679" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R679" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S679" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T679" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U679" s="6" t="str">
+        <f t="shared" si="89"/>
+        <v>Propriedade para vistoriar: é.operacional</v>
+      </c>
+      <c r="V679" s="6" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vistoriar: operacional ( xsd:string ) </v>
+      </c>
+      <c r="W679" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="X679" s="23" t="str">
+        <f t="shared" si="91"/>
+        <v>vist.102</v>
+      </c>
+      <c r="Y679" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="4">
+        <v>680</v>
+      </c>
+      <c r="B680" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C680" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.vistoriar</v>
+      </c>
+      <c r="D680" s="7" t="str">
+        <f t="shared" si="92"/>
+        <v>é.defeituoso</v>
+      </c>
+      <c r="E680" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F680" s="21" t="str">
+        <f>F679</f>
+        <v>d.vistoriar</v>
+      </c>
+      <c r="G680" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="H680" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I680" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R680" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S680" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T680" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U680" s="6" t="str">
+        <f t="shared" si="89"/>
+        <v>Propriedade para vistoriar: é.defeituoso</v>
+      </c>
+      <c r="V680" s="6" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vistoriar: defeituoso ( xsd:string ) </v>
+      </c>
+      <c r="W680" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="X680" s="23" t="str">
+        <f t="shared" si="91"/>
+        <v>vist.103</v>
+      </c>
+      <c r="Y680" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="4">
+        <v>681</v>
+      </c>
+      <c r="B681" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C681" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.vistoriar</v>
+      </c>
+      <c r="D681" s="7" t="str">
+        <f t="shared" si="92"/>
+        <v>é.clausurado</v>
+      </c>
+      <c r="E681" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F681" s="21" t="str">
+        <f>F680</f>
+        <v>d.vistoriar</v>
+      </c>
+      <c r="G681" s="37" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H681" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I681" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R681" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S681" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T681" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U681" s="6" t="str">
+        <f t="shared" si="89"/>
+        <v>Propriedade para vistoriar: é.clausurado</v>
+      </c>
+      <c r="V681" s="6" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve">Dado para vistoriar: clausurado ( xsd:string ) </v>
+      </c>
+      <c r="W681" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X681" s="23" t="str">
+        <f t="shared" si="91"/>
+        <v>vist.104</v>
+      </c>
+      <c r="Y681" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="4">
+        <v>682</v>
+      </c>
+      <c r="B682" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C682" s="28" t="str">
+        <f t="shared" si="88"/>
+        <v>p.vistoriar</v>
+      </c>
+      <c r="D682" s="7" t="str">
+        <f t="shared" si="92"/>
+        <v>é.interditado</v>
+      </c>
+      <c r="E682" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F682" s="21" t="str">
+        <f>F681</f>
+        <v>d.vistoriar</v>
+      </c>
+      <c r="G682" s="37" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H682" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I682" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J682" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K682" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L682" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M682" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N682" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O682" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P682" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q682" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R682" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S682" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T682" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U682" s="6" t="str">
+        <f t="shared" si="89"/>
         <v>Propriedade para vistoriar: é.interditado</v>
       </c>
-      <c r="V677" s="6" t="str">
-        <f t="shared" si="86"/>
+      <c r="V682" s="6" t="str">
+        <f t="shared" si="90"/>
         <v xml:space="preserve">Dado para vistoriar: interditado ( xsd:string ) </v>
       </c>
-      <c r="W677" s="6" t="s">
+      <c r="W682" s="6" t="s">
         <v>1124</v>
       </c>
-      <c r="X677" s="23" t="str">
-        <f t="shared" si="87"/>
+      <c r="X682" s="23" t="str">
+        <f t="shared" si="91"/>
         <v>vist.105</v>
       </c>
-      <c r="Y677" s="23" t="s">
+      <c r="Y682" s="23" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y682">
-    <sortCondition ref="F1:F682"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y687">
+    <sortCondition ref="F1:F687"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D5BD65-B3BC-4360-9BEB-71F008FFD4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5751F0FE-39D6-41F4-8A23-9D95170AB1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12913" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12947" uniqueCount="1650">
   <si>
     <t>null</t>
   </si>
@@ -4974,6 +4974,21 @@
   </si>
   <si>
     <t>Declara que o ambiente tem função relativa ao apóio de outras funções.</t>
+  </si>
+  <si>
+    <t>Qualifica o elemento posicionado a sotavento, ou seja protegido do vento.</t>
+  </si>
+  <si>
+    <t>Qualifica o elemento posicionado a barlavento, ou seja exposto à força do vento.</t>
+  </si>
+  <si>
+    <t>barlavento</t>
+  </si>
+  <si>
+    <t>sotavento</t>
+  </si>
+  <si>
+    <t>é.sotavento</t>
   </si>
 </sst>
 </file>
@@ -5839,11 +5854,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
-  <dimension ref="A1:Y754"/>
+  <dimension ref="A1:Y756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V754" sqref="A754:XFD754"/>
+      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -54538,7 +54553,7 @@
         <v>p.pintar</v>
       </c>
       <c r="D581" s="7" t="str">
-        <f t="shared" ref="D581:D651" si="144">_xlfn.CONCAT("é.",G581)</f>
+        <f t="shared" ref="D581:D653" si="144">_xlfn.CONCAT("é.",G581)</f>
         <v>é.tonalidade</v>
       </c>
       <c r="E581" s="10" t="s">
@@ -55431,11 +55446,11 @@
         <v>43</v>
       </c>
       <c r="U591" s="6" t="str">
-        <f t="shared" ref="U591:U654" si="146">_xlfn.CONCAT("Propriedade para ",MID(C591,FIND("p.",C591,1)+2,100),": ",D591)</f>
+        <f t="shared" ref="U591:U656" si="146">_xlfn.CONCAT("Propriedade para ",MID(C591,FIND("p.",C591,1)+2,100),": ",D591)</f>
         <v>Propriedade para pintar: é.rgb</v>
       </c>
       <c r="V591" s="6" t="str">
-        <f t="shared" ref="V591:V654" si="147">_xlfn.CONCAT("Dado para ",MID(F591,FIND("d.",F591,1)+2,100),": ",G591, " ( ",H591, " ) ")</f>
+        <f t="shared" ref="V591:V656" si="147">_xlfn.CONCAT("Dado para ",MID(F591,FIND("d.",F591,1)+2,100),": ",G591, " ( ",H591, " ) ")</f>
         <v xml:space="preserve">Dado para pintar: rgb ( xsd:string ) </v>
       </c>
       <c r="W591" s="6" t="s">
@@ -57640,7 +57655,7 @@
         <v>37</v>
       </c>
       <c r="C618" s="28" t="str">
-        <f t="shared" ref="C618:C691" si="155">SUBSTITUTE(F618,"d.","p.")</f>
+        <f t="shared" ref="C618:C693" si="155">SUBSTITUTE(F618,"d.","p.")</f>
         <v xml:space="preserve">p.posicionar </v>
       </c>
       <c r="D618" s="7" t="str">
@@ -58648,11 +58663,11 @@
         <v>37</v>
       </c>
       <c r="C630" s="28" t="str">
-        <f t="shared" ref="C630:C631" si="157">SUBSTITUTE(F630,"d.","p.")</f>
+        <f t="shared" ref="C630:C633" si="157">SUBSTITUTE(F630,"d.","p.")</f>
         <v xml:space="preserve">p.posicionar </v>
       </c>
       <c r="D630" s="7" t="str">
-        <f t="shared" ref="D630:D631" si="158">_xlfn.CONCAT("é.",G630)</f>
+        <f t="shared" ref="D630:D633" si="158">_xlfn.CONCAT("é.",G630)</f>
         <v>é.coordenada.topográfica</v>
       </c>
       <c r="E630" s="10" t="s">
@@ -58732,18 +58747,18 @@
         <v>37</v>
       </c>
       <c r="C631" s="28" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" ref="C631:C632" si="159">SUBSTITUTE(F631,"d.","p.")</f>
         <v xml:space="preserve">p.posicionar </v>
       </c>
       <c r="D631" s="7" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" ref="D631:D632" si="160">_xlfn.CONCAT("é.",G631)</f>
         <v>é.norte.verdadeiro</v>
       </c>
       <c r="E631" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F631" s="21" t="str">
-        <f>F625</f>
+        <f>F623</f>
         <v xml:space="preserve">d.posicionar </v>
       </c>
       <c r="G631" s="38" t="s">
@@ -58789,11 +58804,11 @@
         <v>43</v>
       </c>
       <c r="U631" s="6" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" ref="U631:U632" si="161">_xlfn.CONCAT("Propriedade para ",MID(C631,FIND("p.",C631,1)+2,100),": ",D631)</f>
         <v>Propriedade para posicionar : é.norte.verdadeiro</v>
       </c>
       <c r="V631" s="6" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" ref="V631:V632" si="162">_xlfn.CONCAT("Dado para ",MID(F631,FIND("d.",F631,1)+2,100),": ",G631, " ( ",H631, " ) ")</f>
         <v xml:space="preserve">Dado para posicionar : norte.verdadeiro ( xsd:double ) </v>
       </c>
       <c r="W631" s="6" t="s">
@@ -58816,18 +58831,18 @@
         <v>37</v>
       </c>
       <c r="C632" s="28" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v xml:space="preserve">p.posicionar </v>
       </c>
       <c r="D632" s="7" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="160"/>
         <v>é.norte.projetual</v>
       </c>
       <c r="E632" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F632" s="21" t="str">
-        <f>F626</f>
+        <f>F624</f>
         <v xml:space="preserve">d.posicionar </v>
       </c>
       <c r="G632" s="38" t="s">
@@ -58873,11 +58888,11 @@
         <v>43</v>
       </c>
       <c r="U632" s="6" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>Propriedade para posicionar : é.norte.projetual</v>
       </c>
       <c r="V632" s="6" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="162"/>
         <v xml:space="preserve">Dado para posicionar : norte.projetual ( xsd:double ) </v>
       </c>
       <c r="W632" s="6" t="s">
@@ -58899,25 +58914,26 @@
       <c r="B633" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C633" s="31" t="str">
-        <f t="shared" si="155"/>
-        <v xml:space="preserve">p.prever </v>
+      <c r="C633" s="28" t="str">
+        <f t="shared" si="157"/>
+        <v xml:space="preserve">p.posicionar </v>
       </c>
       <c r="D633" s="7" t="str">
-        <f t="shared" si="144"/>
-        <v>é.precipitação.diária</v>
+        <f t="shared" si="158"/>
+        <v>é.barlavento</v>
       </c>
       <c r="E633" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F633" s="22" t="s">
-        <v>881</v>
-      </c>
-      <c r="G633" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="H633" s="27" t="s">
-        <v>47</v>
+      <c r="F633" s="21" t="str">
+        <f>F625</f>
+        <v xml:space="preserve">d.posicionar </v>
+      </c>
+      <c r="G633" s="38" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H633" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I633" s="30" t="s">
         <v>0</v>
@@ -58944,7 +58960,7 @@
         <v>0</v>
       </c>
       <c r="Q633" s="24" t="s">
-        <v>0</v>
+        <v>1649</v>
       </c>
       <c r="R633" s="26" t="s">
         <v>0</v>
@@ -58957,22 +58973,22 @@
       </c>
       <c r="U633" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para prever : é.precipitação.diária</v>
+        <v>Propriedade para posicionar : é.barlavento</v>
       </c>
       <c r="V633" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para prever : precipitação.diária ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para posicionar : barlavento ( xsd:boolean ) </v>
       </c>
       <c r="W633" s="6" t="s">
-        <v>882</v>
+        <v>1646</v>
       </c>
       <c r="X633" s="23" t="str">
         <f t="shared" si="142"/>
-        <v>prev.100</v>
+        <v>posi.128</v>
       </c>
       <c r="Y633" s="23" t="str">
         <f t="shared" si="143"/>
-        <v xml:space="preserve">prever </v>
+        <v xml:space="preserve">posicionar </v>
       </c>
     </row>
     <row r="634" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -58984,24 +59000,24 @@
       </c>
       <c r="C634" s="28" t="str">
         <f t="shared" si="155"/>
-        <v xml:space="preserve">p.prever </v>
+        <v xml:space="preserve">p.posicionar </v>
       </c>
       <c r="D634" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.precipitação.mensal</v>
+        <v>é.sotavento</v>
       </c>
       <c r="E634" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F634" s="21" t="str">
-        <f t="shared" ref="F634:F642" si="159">F633</f>
-        <v xml:space="preserve">d.prever </v>
-      </c>
-      <c r="G634" s="37" t="s">
-        <v>880</v>
-      </c>
-      <c r="H634" s="27" t="s">
-        <v>47</v>
+        <f>F626</f>
+        <v xml:space="preserve">d.posicionar </v>
+      </c>
+      <c r="G634" s="38" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H634" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I634" s="30" t="s">
         <v>0</v>
@@ -59041,22 +59057,22 @@
       </c>
       <c r="U634" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para prever : é.precipitação.mensal</v>
+        <v>Propriedade para posicionar : é.sotavento</v>
       </c>
       <c r="V634" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para prever : precipitação.mensal ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para posicionar : sotavento ( xsd:boolean ) </v>
       </c>
       <c r="W634" s="6" t="s">
-        <v>883</v>
+        <v>1645</v>
       </c>
       <c r="X634" s="23" t="str">
         <f t="shared" si="142"/>
-        <v>prev.101</v>
+        <v>posi.129</v>
       </c>
       <c r="Y634" s="23" t="str">
         <f t="shared" si="143"/>
-        <v xml:space="preserve">prever </v>
+        <v xml:space="preserve">posicionar </v>
       </c>
     </row>
     <row r="635" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -59066,23 +59082,22 @@
       <c r="B635" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C635" s="28" t="str">
+      <c r="C635" s="31" t="str">
         <f t="shared" si="155"/>
         <v xml:space="preserve">p.prever </v>
       </c>
       <c r="D635" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.velocidade.do.vento</v>
+        <v>é.precipitação.diária</v>
       </c>
       <c r="E635" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F635" s="21" t="str">
-        <f t="shared" si="159"/>
-        <v xml:space="preserve">d.prever </v>
+      <c r="F635" s="22" t="s">
+        <v>881</v>
       </c>
       <c r="G635" s="37" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="H635" s="27" t="s">
         <v>47</v>
@@ -59125,25 +59140,25 @@
       </c>
       <c r="U635" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para prever : é.velocidade.do.vento</v>
+        <v>Propriedade para prever : é.precipitação.diária</v>
       </c>
       <c r="V635" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para prever : velocidade.do.vento ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : precipitação.diária ( xsd:double ) </v>
       </c>
       <c r="W635" s="6" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="X635" s="23" t="str">
         <f t="shared" si="142"/>
-        <v>prev.102</v>
+        <v>prev.100</v>
       </c>
       <c r="Y635" s="23" t="str">
         <f t="shared" si="143"/>
         <v xml:space="preserve">prever </v>
       </c>
     </row>
-    <row r="636" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="4">
         <v>636</v>
       </c>
@@ -59156,20 +59171,20 @@
       </c>
       <c r="D636" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.direção.do.vento</v>
+        <v>é.precipitação.mensal</v>
       </c>
       <c r="E636" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F636" s="21" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" ref="F636:F644" si="163">F635</f>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G636" s="37" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="H636" s="27" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I636" s="30" t="s">
         <v>0</v>
@@ -59209,25 +59224,25 @@
       </c>
       <c r="U636" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para prever : é.direção.do.vento</v>
+        <v>Propriedade para prever : é.precipitação.mensal</v>
       </c>
       <c r="V636" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para prever : direção.do.vento ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para prever : precipitação.mensal ( xsd:double ) </v>
       </c>
       <c r="W636" s="6" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="X636" s="23" t="str">
         <f t="shared" si="142"/>
-        <v>prev.103</v>
+        <v>prev.101</v>
       </c>
       <c r="Y636" s="23" t="str">
         <f t="shared" si="143"/>
         <v xml:space="preserve">prever </v>
       </c>
     </row>
-    <row r="637" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="4">
         <v>637</v>
       </c>
@@ -59240,17 +59255,17 @@
       </c>
       <c r="D637" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.radiação.solar</v>
+        <v>é.velocidade.do.vento</v>
       </c>
       <c r="E637" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F637" s="21" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G637" s="37" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="H637" s="27" t="s">
         <v>47</v>
@@ -59293,18 +59308,18 @@
       </c>
       <c r="U637" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para prever : é.radiação.solar</v>
+        <v>Propriedade para prever : é.velocidade.do.vento</v>
       </c>
       <c r="V637" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para prever : radiação.solar ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : velocidade.do.vento ( xsd:double ) </v>
       </c>
       <c r="W637" s="6" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="X637" s="23" t="str">
         <f t="shared" si="142"/>
-        <v>prev.104</v>
+        <v>prev.102</v>
       </c>
       <c r="Y637" s="23" t="str">
         <f t="shared" si="143"/>
@@ -59324,20 +59339,20 @@
       </c>
       <c r="D638" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.pressão.atmosférica</v>
+        <v>é.direção.do.vento</v>
       </c>
       <c r="E638" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F638" s="21" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G638" s="37" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="H638" s="27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I638" s="30" t="s">
         <v>0</v>
@@ -59377,18 +59392,18 @@
       </c>
       <c r="U638" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para prever : é.pressão.atmosférica</v>
+        <v>Propriedade para prever : é.direção.do.vento</v>
       </c>
       <c r="V638" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para prever : pressão.atmosférica ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : direção.do.vento ( xsd:string ) </v>
       </c>
       <c r="W638" s="6" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="X638" s="23" t="str">
         <f t="shared" si="142"/>
-        <v>prev.105</v>
+        <v>prev.103</v>
       </c>
       <c r="Y638" s="23" t="str">
         <f t="shared" si="143"/>
@@ -59408,17 +59423,17 @@
       </c>
       <c r="D639" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.temperatura</v>
+        <v>é.radiação.solar</v>
       </c>
       <c r="E639" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F639" s="21" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G639" s="37" t="s">
-        <v>877</v>
+        <v>918</v>
       </c>
       <c r="H639" s="27" t="s">
         <v>47</v>
@@ -59461,25 +59476,25 @@
       </c>
       <c r="U639" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para prever : é.temperatura</v>
+        <v>Propriedade para prever : é.radiação.solar</v>
       </c>
       <c r="V639" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para prever : temperatura ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : radiação.solar ( xsd:double ) </v>
       </c>
       <c r="W639" s="6" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="X639" s="23" t="str">
         <f t="shared" si="142"/>
-        <v>prev.106</v>
+        <v>prev.104</v>
       </c>
       <c r="Y639" s="23" t="str">
         <f t="shared" si="143"/>
         <v xml:space="preserve">prever </v>
       </c>
     </row>
-    <row r="640" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="4">
         <v>640</v>
       </c>
@@ -59492,17 +59507,17 @@
       </c>
       <c r="D640" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.umidade.relativa</v>
+        <v>é.pressão.atmosférica</v>
       </c>
       <c r="E640" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F640" s="21" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G640" s="37" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="H640" s="27" t="s">
         <v>47</v>
@@ -59545,25 +59560,25 @@
       </c>
       <c r="U640" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para prever : é.umidade.relativa</v>
+        <v>Propriedade para prever : é.pressão.atmosférica</v>
       </c>
       <c r="V640" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para prever : umidade.relativa ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : pressão.atmosférica ( xsd:double ) </v>
       </c>
       <c r="W640" s="6" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="X640" s="23" t="str">
         <f t="shared" si="142"/>
-        <v>prev.107</v>
+        <v>prev.105</v>
       </c>
       <c r="Y640" s="23" t="str">
         <f t="shared" si="143"/>
         <v xml:space="preserve">prever </v>
       </c>
     </row>
-    <row r="641" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="4">
         <v>641</v>
       </c>
@@ -59576,17 +59591,17 @@
       </c>
       <c r="D641" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.qualidade.do.ar</v>
+        <v>é.temperatura</v>
       </c>
       <c r="E641" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F641" s="21" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G641" s="37" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="H641" s="27" t="s">
         <v>47</v>
@@ -59629,18 +59644,18 @@
       </c>
       <c r="U641" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para prever : é.qualidade.do.ar</v>
+        <v>Propriedade para prever : é.temperatura</v>
       </c>
       <c r="V641" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para prever : qualidade.do.ar ( xsd:double ) </v>
+        <v xml:space="preserve">Dado para prever : temperatura ( xsd:double ) </v>
       </c>
       <c r="W641" s="6" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="X641" s="23" t="str">
         <f t="shared" si="142"/>
-        <v>prev.108</v>
+        <v>prev.106</v>
       </c>
       <c r="Y641" s="23" t="str">
         <f t="shared" si="143"/>
@@ -59660,20 +59675,20 @@
       </c>
       <c r="D642" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.estação.meteorológica</v>
+        <v>é.umidade.relativa</v>
       </c>
       <c r="E642" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F642" s="21" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G642" s="37" t="s">
-        <v>637</v>
-      </c>
-      <c r="H642" s="5" t="s">
-        <v>39</v>
+        <v>878</v>
+      </c>
+      <c r="H642" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="I642" s="30" t="s">
         <v>0</v>
@@ -59713,18 +59728,18 @@
       </c>
       <c r="U642" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para prever : é.estação.meteorológica</v>
+        <v>Propriedade para prever : é.umidade.relativa</v>
       </c>
       <c r="V642" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para prever : estação.meteorológica ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para prever : umidade.relativa ( xsd:double ) </v>
       </c>
       <c r="W642" s="6" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="X642" s="23" t="str">
         <f t="shared" si="142"/>
-        <v>prev.109</v>
+        <v>prev.107</v>
       </c>
       <c r="Y642" s="23" t="str">
         <f t="shared" si="143"/>
@@ -59738,25 +59753,26 @@
       <c r="B643" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C643" s="31" t="str">
+      <c r="C643" s="28" t="str">
         <f t="shared" si="155"/>
-        <v>p.produzir</v>
+        <v xml:space="preserve">p.prever </v>
       </c>
       <c r="D643" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.produtor</v>
+        <v>é.qualidade.do.ar</v>
       </c>
       <c r="E643" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F643" s="19" t="s">
-        <v>1185</v>
+      <c r="F643" s="21" t="str">
+        <f t="shared" si="163"/>
+        <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G643" s="37" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H643" s="5" t="s">
-        <v>39</v>
+        <v>885</v>
+      </c>
+      <c r="H643" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="I643" s="30" t="s">
         <v>0</v>
@@ -59796,22 +59812,22 @@
       </c>
       <c r="U643" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para produzir: é.produtor</v>
+        <v>Propriedade para prever : é.qualidade.do.ar</v>
       </c>
       <c r="V643" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para produzir: produtor ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para prever : qualidade.do.ar ( xsd:double ) </v>
       </c>
       <c r="W643" s="6" t="s">
-        <v>1189</v>
+        <v>888</v>
       </c>
       <c r="X643" s="23" t="str">
-        <f t="shared" ref="X643:X706" si="160">IF(F642&lt;&gt;F643,_xlfn.CONCAT(RIGHT(LEFT(F643,6),4),".100"),_xlfn.CONCAT(RIGHT(LEFT(F643,6),4),".",SUM(VALUE(RIGHT(X642,3)),1)))</f>
-        <v>prod.100</v>
+        <f t="shared" ref="X643:X706" si="164">IF(F642&lt;&gt;F643,_xlfn.CONCAT(RIGHT(LEFT(F643,6),4),".100"),_xlfn.CONCAT(RIGHT(LEFT(F643,6),4),".",SUM(VALUE(RIGHT(X642,3)),1)))</f>
+        <v>prev.108</v>
       </c>
       <c r="Y643" s="23" t="str">
-        <f t="shared" ref="Y643:Y706" si="161">SUBSTITUTE(F643, "d.",  "")</f>
-        <v>produzir</v>
+        <f t="shared" ref="Y643:Y706" si="165">SUBSTITUTE(F643, "d.",  "")</f>
+        <v xml:space="preserve">prever </v>
       </c>
     </row>
     <row r="644" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -59823,21 +59839,21 @@
       </c>
       <c r="C644" s="28" t="str">
         <f t="shared" si="155"/>
-        <v>p.produzir</v>
+        <v xml:space="preserve">p.prever </v>
       </c>
       <c r="D644" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.produzido</v>
+        <v>é.estação.meteorológica</v>
       </c>
       <c r="E644" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F644" s="21" t="str">
-        <f>F643</f>
-        <v>d.produzir</v>
+        <f t="shared" si="163"/>
+        <v xml:space="preserve">d.prever </v>
       </c>
       <c r="G644" s="37" t="s">
-        <v>1186</v>
+        <v>637</v>
       </c>
       <c r="H644" s="5" t="s">
         <v>39</v>
@@ -59880,22 +59896,22 @@
       </c>
       <c r="U644" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para produzir: é.produzido</v>
+        <v>Propriedade para prever : é.estação.meteorológica</v>
       </c>
       <c r="V644" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para produzir: produzido ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para prever : estação.meteorológica ( xsd:string ) </v>
       </c>
       <c r="W644" s="6" t="s">
-        <v>1191</v>
+        <v>917</v>
       </c>
       <c r="X644" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>prod.101</v>
+        <f t="shared" si="164"/>
+        <v>prev.109</v>
       </c>
       <c r="Y644" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>produzir</v>
+        <f t="shared" si="165"/>
+        <v xml:space="preserve">prever </v>
       </c>
     </row>
     <row r="645" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -59905,23 +59921,22 @@
       <c r="B645" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C645" s="28" t="str">
+      <c r="C645" s="31" t="str">
         <f t="shared" si="155"/>
         <v>p.produzir</v>
       </c>
       <c r="D645" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.produtividade</v>
+        <v>é.produtor</v>
       </c>
       <c r="E645" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F645" s="21" t="str">
-        <f>F644</f>
-        <v>d.produzir</v>
+      <c r="F645" s="19" t="s">
+        <v>1185</v>
       </c>
       <c r="G645" s="37" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H645" s="5" t="s">
         <v>39</v>
@@ -59964,21 +59979,21 @@
       </c>
       <c r="U645" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para produzir: é.produtividade</v>
+        <v>Propriedade para produzir: é.produtor</v>
       </c>
       <c r="V645" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para produzir: produtividade ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para produzir: produtor ( xsd:string ) </v>
       </c>
       <c r="W645" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="X645" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>prod.102</v>
+        <f t="shared" si="164"/>
+        <v>prod.100</v>
       </c>
       <c r="Y645" s="23" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>produzir</v>
       </c>
     </row>
@@ -59995,7 +60010,7 @@
       </c>
       <c r="D646" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.içado</v>
+        <v>é.produzido</v>
       </c>
       <c r="E646" s="10" t="s">
         <v>38</v>
@@ -60005,7 +60020,7 @@
         <v>d.produzir</v>
       </c>
       <c r="G646" s="37" t="s">
-        <v>1237</v>
+        <v>1186</v>
       </c>
       <c r="H646" s="5" t="s">
         <v>39</v>
@@ -60048,21 +60063,21 @@
       </c>
       <c r="U646" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para produzir: é.içado</v>
+        <v>Propriedade para produzir: é.produzido</v>
       </c>
       <c r="V646" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para produzir: içado ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para produzir: produzido ( xsd:string ) </v>
       </c>
       <c r="W646" s="6" t="s">
-        <v>1238</v>
+        <v>1191</v>
       </c>
       <c r="X646" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>prod.103</v>
+        <f t="shared" si="164"/>
+        <v>prod.101</v>
       </c>
       <c r="Y646" s="23" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>produzir</v>
       </c>
     </row>
@@ -60079,7 +60094,7 @@
       </c>
       <c r="D647" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.temporário</v>
+        <v>é.produtividade</v>
       </c>
       <c r="E647" s="10" t="s">
         <v>38</v>
@@ -60089,7 +60104,7 @@
         <v>d.produzir</v>
       </c>
       <c r="G647" s="37" t="s">
-        <v>1239</v>
+        <v>1188</v>
       </c>
       <c r="H647" s="5" t="s">
         <v>39</v>
@@ -60132,21 +60147,21 @@
       </c>
       <c r="U647" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para produzir: é.temporário</v>
+        <v>Propriedade para produzir: é.produtividade</v>
       </c>
       <c r="V647" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para produzir: temporário ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para produzir: produtividade ( xsd:string ) </v>
       </c>
       <c r="W647" s="6" t="s">
-        <v>1240</v>
+        <v>1190</v>
       </c>
       <c r="X647" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>prod.104</v>
+        <f t="shared" si="164"/>
+        <v>prod.102</v>
       </c>
       <c r="Y647" s="23" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>produzir</v>
       </c>
     </row>
@@ -60157,247 +60172,247 @@
       <c r="B648" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C648" s="31" t="str">
+      <c r="C648" s="28" t="str">
+        <f t="shared" si="155"/>
+        <v>p.produzir</v>
+      </c>
+      <c r="D648" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>é.içado</v>
+      </c>
+      <c r="E648" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F648" s="21" t="str">
+        <f>F647</f>
+        <v>d.produzir</v>
+      </c>
+      <c r="G648" s="37" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H648" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I648" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J648" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K648" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L648" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M648" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N648" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O648" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P648" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q648" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R648" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S648" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T648" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U648" s="6" t="str">
+        <f t="shared" si="146"/>
+        <v>Propriedade para produzir: é.içado</v>
+      </c>
+      <c r="V648" s="6" t="str">
+        <f t="shared" si="147"/>
+        <v xml:space="preserve">Dado para produzir: içado ( xsd:string ) </v>
+      </c>
+      <c r="W648" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="X648" s="23" t="str">
+        <f t="shared" si="164"/>
+        <v>prod.103</v>
+      </c>
+      <c r="Y648" s="23" t="str">
+        <f t="shared" si="165"/>
+        <v>produzir</v>
+      </c>
+    </row>
+    <row r="649" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A649" s="4">
+        <v>649</v>
+      </c>
+      <c r="B649" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C649" s="28" t="str">
+        <f t="shared" si="155"/>
+        <v>p.produzir</v>
+      </c>
+      <c r="D649" s="7" t="str">
+        <f t="shared" si="144"/>
+        <v>é.temporário</v>
+      </c>
+      <c r="E649" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F649" s="21" t="str">
+        <f>F648</f>
+        <v>d.produzir</v>
+      </c>
+      <c r="G649" s="37" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H649" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I649" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J649" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K649" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L649" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M649" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N649" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O649" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P649" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q649" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R649" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S649" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T649" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U649" s="6" t="str">
+        <f t="shared" si="146"/>
+        <v>Propriedade para produzir: é.temporário</v>
+      </c>
+      <c r="V649" s="6" t="str">
+        <f t="shared" si="147"/>
+        <v xml:space="preserve">Dado para produzir: temporário ( xsd:string ) </v>
+      </c>
+      <c r="W649" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="X649" s="23" t="str">
+        <f t="shared" si="164"/>
+        <v>prod.104</v>
+      </c>
+      <c r="Y649" s="23" t="str">
+        <f t="shared" si="165"/>
+        <v>produzir</v>
+      </c>
+    </row>
+    <row r="650" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="4">
+        <v>650</v>
+      </c>
+      <c r="B650" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C650" s="31" t="str">
         <f t="shared" si="155"/>
         <v>p.projetar</v>
       </c>
-      <c r="D648" s="7" t="str">
+      <c r="D650" s="7" t="str">
         <f t="shared" si="144"/>
         <v>é.autor</v>
       </c>
-      <c r="E648" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F648" s="19" t="s">
+      <c r="E650" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F650" s="19" t="s">
         <v>849</v>
       </c>
-      <c r="G648" s="37" t="s">
+      <c r="G650" s="37" t="s">
         <v>754</v>
       </c>
-      <c r="H648" s="5" t="s">
+      <c r="H650" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I648" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J648" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K648" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L648" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M648" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N648" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O648" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P648" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q648" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R648" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S648" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T648" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U648" s="6" t="str">
+      <c r="I650" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J650" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K650" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L650" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M650" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N650" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O650" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P650" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q650" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R650" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S650" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T650" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U650" s="6" t="str">
         <f t="shared" si="146"/>
         <v>Propriedade para projetar: é.autor</v>
       </c>
-      <c r="V648" s="6" t="str">
+      <c r="V650" s="6" t="str">
         <f t="shared" si="147"/>
         <v xml:space="preserve">Dado para projetar: autor ( xsd:string ) </v>
       </c>
-      <c r="W648" s="6" t="s">
+      <c r="W650" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="X648" s="23" t="str">
-        <f t="shared" si="160"/>
+      <c r="X650" s="23" t="str">
+        <f t="shared" si="164"/>
         <v>proj.100</v>
       </c>
-      <c r="Y648" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>projetar</v>
-      </c>
-    </row>
-    <row r="649" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A649" s="4">
-        <v>649</v>
-      </c>
-      <c r="B649" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C649" s="28" t="str">
-        <f t="shared" si="155"/>
-        <v>p.projetar</v>
-      </c>
-      <c r="D649" s="7" t="str">
-        <f t="shared" si="144"/>
-        <v>é.profissão</v>
-      </c>
-      <c r="E649" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F649" s="21" t="str">
-        <f t="shared" ref="F649:F664" si="162">F648</f>
-        <v>d.projetar</v>
-      </c>
-      <c r="G649" s="37" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H649" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I649" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J649" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K649" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L649" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M649" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N649" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O649" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P649" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q649" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R649" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S649" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T649" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U649" s="6" t="str">
-        <f t="shared" si="146"/>
-        <v>Propriedade para projetar: é.profissão</v>
-      </c>
-      <c r="V649" s="6" t="str">
-        <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para projetar: profissão ( xsd:string ) </v>
-      </c>
-      <c r="W649" s="6" t="s">
-        <v>1139</v>
-      </c>
-      <c r="X649" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.101</v>
-      </c>
-      <c r="Y649" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>projetar</v>
-      </c>
-    </row>
-    <row r="650" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A650" s="4">
-        <v>650</v>
-      </c>
-      <c r="B650" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C650" s="28" t="str">
-        <f t="shared" si="155"/>
-        <v>p.projetar</v>
-      </c>
-      <c r="D650" s="7" t="str">
-        <f t="shared" si="144"/>
-        <v>é.coordenador</v>
-      </c>
-      <c r="E650" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F650" s="21" t="str">
-        <f t="shared" si="162"/>
-        <v>d.projetar</v>
-      </c>
-      <c r="G650" s="37" t="s">
-        <v>755</v>
-      </c>
-      <c r="H650" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I650" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J650" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K650" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L650" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M650" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N650" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O650" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P650" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q650" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R650" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S650" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T650" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U650" s="6" t="str">
-        <f t="shared" si="146"/>
-        <v>Propriedade para projetar: é.coordenador</v>
-      </c>
-      <c r="V650" s="6" t="str">
-        <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para projetar: coordenador ( xsd:string ) </v>
-      </c>
-      <c r="W650" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="X650" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.102</v>
-      </c>
       <c r="Y650" s="23" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>projetar</v>
       </c>
     </row>
@@ -60414,17 +60429,17 @@
       </c>
       <c r="D651" s="7" t="str">
         <f t="shared" si="144"/>
-        <v>é.desenhista</v>
+        <v>é.profissão</v>
       </c>
       <c r="E651" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F651" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" ref="F651:F666" si="166">F650</f>
         <v>d.projetar</v>
       </c>
       <c r="G651" s="37" t="s">
-        <v>756</v>
+        <v>1140</v>
       </c>
       <c r="H651" s="5" t="s">
         <v>39</v>
@@ -60467,21 +60482,21 @@
       </c>
       <c r="U651" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para projetar: é.desenhista</v>
+        <v>Propriedade para projetar: é.profissão</v>
       </c>
       <c r="V651" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para projetar: desenhista ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para projetar: profissão ( xsd:string ) </v>
       </c>
       <c r="W651" s="6" t="s">
-        <v>267</v>
+        <v>1139</v>
       </c>
       <c r="X651" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.103</v>
+        <f t="shared" si="164"/>
+        <v>proj.101</v>
       </c>
       <c r="Y651" s="23" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>projetar</v>
       </c>
     </row>
@@ -60497,18 +60512,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D652" s="7" t="str">
-        <f t="shared" ref="D652:D723" si="163">_xlfn.CONCAT("é.",G652)</f>
-        <v>é.colaborador</v>
+        <f t="shared" si="144"/>
+        <v>é.coordenador</v>
       </c>
       <c r="E652" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F652" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G652" s="37" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H652" s="5" t="s">
         <v>39</v>
@@ -60551,21 +60566,21 @@
       </c>
       <c r="U652" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para projetar: é.colaborador</v>
+        <v>Propriedade para projetar: é.coordenador</v>
       </c>
       <c r="V652" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para projetar: colaborador ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para projetar: coordenador ( xsd:string ) </v>
       </c>
       <c r="W652" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X652" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.104</v>
+        <f t="shared" si="164"/>
+        <v>proj.102</v>
       </c>
       <c r="Y652" s="23" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>projetar</v>
       </c>
     </row>
@@ -60581,18 +60596,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D653" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.especialista</v>
+        <f t="shared" si="144"/>
+        <v>é.desenhista</v>
       </c>
       <c r="E653" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F653" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G653" s="37" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H653" s="5" t="s">
         <v>39</v>
@@ -60635,21 +60650,21 @@
       </c>
       <c r="U653" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para projetar: é.especialista</v>
+        <v>Propriedade para projetar: é.desenhista</v>
       </c>
       <c r="V653" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para projetar: especialista ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para projetar: desenhista ( xsd:string ) </v>
       </c>
       <c r="W653" s="6" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="X653" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.105</v>
+        <f t="shared" si="164"/>
+        <v>proj.103</v>
       </c>
       <c r="Y653" s="23" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>projetar</v>
       </c>
     </row>
@@ -60665,18 +60680,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D654" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.consultor</v>
+        <f t="shared" ref="D654:D725" si="167">_xlfn.CONCAT("é.",G654)</f>
+        <v>é.colaborador</v>
       </c>
       <c r="E654" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F654" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G654" s="37" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H654" s="5" t="s">
         <v>39</v>
@@ -60719,21 +60734,21 @@
       </c>
       <c r="U654" s="6" t="str">
         <f t="shared" si="146"/>
-        <v>Propriedade para projetar: é.consultor</v>
+        <v>Propriedade para projetar: é.colaborador</v>
       </c>
       <c r="V654" s="6" t="str">
         <f t="shared" si="147"/>
-        <v xml:space="preserve">Dado para projetar: consultor ( xsd:string ) </v>
+        <v xml:space="preserve">Dado para projetar: colaborador ( xsd:string ) </v>
       </c>
       <c r="W654" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X654" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.106</v>
+        <f t="shared" si="164"/>
+        <v>proj.104</v>
       </c>
       <c r="Y654" s="23" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>projetar</v>
       </c>
     </row>
@@ -60749,18 +60764,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D655" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.calculista</v>
+        <f t="shared" si="167"/>
+        <v>é.especialista</v>
       </c>
       <c r="E655" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F655" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G655" s="37" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H655" s="5" t="s">
         <v>39</v>
@@ -60802,26 +60817,26 @@
         <v>43</v>
       </c>
       <c r="U655" s="6" t="str">
-        <f t="shared" ref="U655:U718" si="164">_xlfn.CONCAT("Propriedade para ",MID(C655,FIND("p.",C655,1)+2,100),": ",D655)</f>
-        <v>Propriedade para projetar: é.calculista</v>
+        <f t="shared" si="146"/>
+        <v>Propriedade para projetar: é.especialista</v>
       </c>
       <c r="V655" s="6" t="str">
-        <f t="shared" ref="V655:V718" si="165">_xlfn.CONCAT("Dado para ",MID(F655,FIND("d.",F655,1)+2,100),": ",G655, " ( ",H655, " ) ")</f>
-        <v xml:space="preserve">Dado para projetar: calculista ( xsd:string ) </v>
+        <f t="shared" si="147"/>
+        <v xml:space="preserve">Dado para projetar: especialista ( xsd:string ) </v>
       </c>
       <c r="W655" s="6" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="X655" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.107</v>
+        <f t="shared" si="164"/>
+        <v>proj.105</v>
       </c>
       <c r="Y655" s="23" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>projetar</v>
       </c>
     </row>
-    <row r="656" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="4">
         <v>656</v>
       </c>
@@ -60833,18 +60848,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D656" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.orçamentista</v>
+        <f t="shared" si="167"/>
+        <v>é.consultor</v>
       </c>
       <c r="E656" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F656" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G656" s="37" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H656" s="5" t="s">
         <v>39</v>
@@ -60886,26 +60901,26 @@
         <v>43</v>
       </c>
       <c r="U656" s="6" t="str">
+        <f t="shared" si="146"/>
+        <v>Propriedade para projetar: é.consultor</v>
+      </c>
+      <c r="V656" s="6" t="str">
+        <f t="shared" si="147"/>
+        <v xml:space="preserve">Dado para projetar: consultor ( xsd:string ) </v>
+      </c>
+      <c r="W656" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="X656" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para projetar: é.orçamentista</v>
-      </c>
-      <c r="V656" s="6" t="str">
+        <v>proj.106</v>
+      </c>
+      <c r="Y656" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para projetar: orçamentista ( xsd:string ) </v>
-      </c>
-      <c r="W656" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="X656" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.108</v>
-      </c>
-      <c r="Y656" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>projetar</v>
       </c>
     </row>
-    <row r="657" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="4">
         <v>657</v>
       </c>
@@ -60917,18 +60932,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D657" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.fiscal</v>
+        <f t="shared" si="167"/>
+        <v>é.calculista</v>
       </c>
       <c r="E657" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F657" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G657" s="37" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H657" s="5" t="s">
         <v>39</v>
@@ -60970,22 +60985,22 @@
         <v>43</v>
       </c>
       <c r="U657" s="6" t="str">
+        <f t="shared" ref="U657:U720" si="168">_xlfn.CONCAT("Propriedade para ",MID(C657,FIND("p.",C657,1)+2,100),": ",D657)</f>
+        <v>Propriedade para projetar: é.calculista</v>
+      </c>
+      <c r="V657" s="6" t="str">
+        <f t="shared" ref="V657:V720" si="169">_xlfn.CONCAT("Dado para ",MID(F657,FIND("d.",F657,1)+2,100),": ",G657, " ( ",H657, " ) ")</f>
+        <v xml:space="preserve">Dado para projetar: calculista ( xsd:string ) </v>
+      </c>
+      <c r="W657" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="X657" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para projetar: é.fiscal</v>
-      </c>
-      <c r="V657" s="6" t="str">
+        <v>proj.107</v>
+      </c>
+      <c r="Y657" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para projetar: fiscal ( xsd:string ) </v>
-      </c>
-      <c r="W657" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="X657" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.109</v>
-      </c>
-      <c r="Y657" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>projetar</v>
       </c>
     </row>
@@ -61001,18 +61016,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D658" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.analista</v>
+        <f t="shared" si="167"/>
+        <v>é.orçamentista</v>
       </c>
       <c r="E658" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F658" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G658" s="37" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H658" s="5" t="s">
         <v>39</v>
@@ -61054,26 +61069,26 @@
         <v>43</v>
       </c>
       <c r="U658" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para projetar: é.orçamentista</v>
+      </c>
+      <c r="V658" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para projetar: orçamentista ( xsd:string ) </v>
+      </c>
+      <c r="W658" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="X658" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para projetar: é.analista</v>
-      </c>
-      <c r="V658" s="6" t="str">
+        <v>proj.108</v>
+      </c>
+      <c r="Y658" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para projetar: analista ( xsd:string ) </v>
-      </c>
-      <c r="W658" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="X658" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.110</v>
-      </c>
-      <c r="Y658" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>projetar</v>
       </c>
     </row>
-    <row r="659" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="4">
         <v>659</v>
       </c>
@@ -61085,18 +61100,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D659" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.fabricante</v>
+        <f t="shared" si="167"/>
+        <v>é.fiscal</v>
       </c>
       <c r="E659" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F659" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G659" s="37" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H659" s="5" t="s">
         <v>39</v>
@@ -61138,22 +61153,22 @@
         <v>43</v>
       </c>
       <c r="U659" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para projetar: é.fiscal</v>
+      </c>
+      <c r="V659" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para projetar: fiscal ( xsd:string ) </v>
+      </c>
+      <c r="W659" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="X659" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para projetar: é.fabricante</v>
-      </c>
-      <c r="V659" s="6" t="str">
+        <v>proj.109</v>
+      </c>
+      <c r="Y659" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para projetar: fabricante ( xsd:string ) </v>
-      </c>
-      <c r="W659" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="X659" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.111</v>
-      </c>
-      <c r="Y659" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>projetar</v>
       </c>
     </row>
@@ -61169,18 +61184,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D660" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.fornecedor</v>
+        <f t="shared" si="167"/>
+        <v>é.analista</v>
       </c>
       <c r="E660" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F660" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G660" s="37" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H660" s="5" t="s">
         <v>39</v>
@@ -61222,26 +61237,26 @@
         <v>43</v>
       </c>
       <c r="U660" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para projetar: é.analista</v>
+      </c>
+      <c r="V660" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para projetar: analista ( xsd:string ) </v>
+      </c>
+      <c r="W660" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="X660" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para projetar: é.fornecedor</v>
-      </c>
-      <c r="V660" s="6" t="str">
+        <v>proj.110</v>
+      </c>
+      <c r="Y660" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para projetar: fornecedor ( xsd:string ) </v>
-      </c>
-      <c r="W660" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="X660" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.112</v>
-      </c>
-      <c r="Y660" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>projetar</v>
       </c>
     </row>
-    <row r="661" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="4">
         <v>661</v>
       </c>
@@ -61253,18 +61268,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D661" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.representante</v>
+        <f t="shared" si="167"/>
+        <v>é.fabricante</v>
       </c>
       <c r="E661" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F661" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G661" s="37" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H661" s="5" t="s">
         <v>39</v>
@@ -61306,22 +61321,22 @@
         <v>43</v>
       </c>
       <c r="U661" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para projetar: é.fabricante</v>
+      </c>
+      <c r="V661" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para projetar: fabricante ( xsd:string ) </v>
+      </c>
+      <c r="W661" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="X661" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para projetar: é.representante</v>
-      </c>
-      <c r="V661" s="6" t="str">
+        <v>proj.111</v>
+      </c>
+      <c r="Y661" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para projetar: representante ( xsd:string ) </v>
-      </c>
-      <c r="W661" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="X661" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.113</v>
-      </c>
-      <c r="Y661" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>projetar</v>
       </c>
     </row>
@@ -61337,18 +61352,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D662" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.responsável.técnico</v>
+        <f t="shared" si="167"/>
+        <v>é.fornecedor</v>
       </c>
       <c r="E662" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F662" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G662" s="37" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="H662" s="5" t="s">
         <v>39</v>
@@ -61390,22 +61405,22 @@
         <v>43</v>
       </c>
       <c r="U662" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para projetar: é.fornecedor</v>
+      </c>
+      <c r="V662" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para projetar: fornecedor ( xsd:string ) </v>
+      </c>
+      <c r="W662" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="X662" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para projetar: é.responsável.técnico</v>
-      </c>
-      <c r="V662" s="6" t="str">
+        <v>proj.112</v>
+      </c>
+      <c r="Y662" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para projetar: responsável.técnico ( xsd:string ) </v>
-      </c>
-      <c r="W662" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="X662" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.114</v>
-      </c>
-      <c r="Y662" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>projetar</v>
       </c>
     </row>
@@ -61421,18 +61436,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D663" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.inspector</v>
+        <f t="shared" si="167"/>
+        <v>é.representante</v>
       </c>
       <c r="E663" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F663" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G663" s="37" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H663" s="5" t="s">
         <v>39</v>
@@ -61474,22 +61489,22 @@
         <v>43</v>
       </c>
       <c r="U663" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para projetar: é.representante</v>
+      </c>
+      <c r="V663" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para projetar: representante ( xsd:string ) </v>
+      </c>
+      <c r="W663" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="X663" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para projetar: é.inspector</v>
-      </c>
-      <c r="V663" s="6" t="str">
+        <v>proj.113</v>
+      </c>
+      <c r="Y663" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para projetar: inspector ( xsd:string ) </v>
-      </c>
-      <c r="W663" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="X663" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.115</v>
-      </c>
-      <c r="Y663" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>projetar</v>
       </c>
     </row>
@@ -61505,18 +61520,18 @@
         <v>p.projetar</v>
       </c>
       <c r="D664" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.revisor</v>
+        <f t="shared" si="167"/>
+        <v>é.responsável.técnico</v>
       </c>
       <c r="E664" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F664" s="21" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>d.projetar</v>
       </c>
       <c r="G664" s="37" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H664" s="5" t="s">
         <v>39</v>
@@ -61558,22 +61573,22 @@
         <v>43</v>
       </c>
       <c r="U664" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para projetar: é.responsável.técnico</v>
+      </c>
+      <c r="V664" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para projetar: responsável.técnico ( xsd:string ) </v>
+      </c>
+      <c r="W664" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="X664" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para projetar: é.revisor</v>
-      </c>
-      <c r="V664" s="6" t="str">
+        <v>proj.114</v>
+      </c>
+      <c r="Y664" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para projetar: revisor ( xsd:string ) </v>
-      </c>
-      <c r="W664" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="X664" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>proj.116</v>
-      </c>
-      <c r="Y664" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>projetar</v>
       </c>
     </row>
@@ -61584,22 +61599,23 @@
       <c r="B665" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C665" s="31" t="str">
+      <c r="C665" s="28" t="str">
         <f t="shared" si="155"/>
-        <v>p.proteger</v>
+        <v>p.projetar</v>
       </c>
       <c r="D665" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.guardacorpo</v>
+        <f t="shared" si="167"/>
+        <v>é.inspector</v>
       </c>
       <c r="E665" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F665" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="G665" s="36" t="s">
-        <v>862</v>
+      <c r="F665" s="21" t="str">
+        <f t="shared" si="166"/>
+        <v>d.projetar</v>
+      </c>
+      <c r="G665" s="37" t="s">
+        <v>768</v>
       </c>
       <c r="H665" s="5" t="s">
         <v>39</v>
@@ -61607,28 +61623,28 @@
       <c r="I665" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J665" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K665" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L665" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M665" s="26" t="s">
+      <c r="J665" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K665" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L665" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M665" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N665" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O665" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P665" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q665" s="26" t="s">
+      <c r="O665" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P665" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q665" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R665" s="26" t="s">
@@ -61641,23 +61657,23 @@
         <v>43</v>
       </c>
       <c r="U665" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para projetar: é.inspector</v>
+      </c>
+      <c r="V665" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para projetar: inspector ( xsd:string ) </v>
+      </c>
+      <c r="W665" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="X665" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para proteger: é.guardacorpo</v>
-      </c>
-      <c r="V665" s="6" t="str">
+        <v>proj.115</v>
+      </c>
+      <c r="Y665" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para proteger: guardacorpo ( xsd:string ) </v>
-      </c>
-      <c r="W665" s="20" t="s">
-        <v>866</v>
-      </c>
-      <c r="X665" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>prot.100</v>
-      </c>
-      <c r="Y665" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>proteger</v>
+        <v>projetar</v>
       </c>
     </row>
     <row r="666" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -61669,21 +61685,21 @@
       </c>
       <c r="C666" s="28" t="str">
         <f t="shared" si="155"/>
-        <v>p.proteger</v>
+        <v>p.projetar</v>
       </c>
       <c r="D666" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.guardacorpo.de.escada</v>
+        <f t="shared" si="167"/>
+        <v>é.revisor</v>
       </c>
       <c r="E666" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F666" s="21" t="str">
-        <f>F665</f>
-        <v>d.proteger</v>
-      </c>
-      <c r="G666" s="36" t="s">
-        <v>863</v>
+        <f t="shared" si="166"/>
+        <v>d.projetar</v>
+      </c>
+      <c r="G666" s="37" t="s">
+        <v>769</v>
       </c>
       <c r="H666" s="5" t="s">
         <v>39</v>
@@ -61691,28 +61707,28 @@
       <c r="I666" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J666" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K666" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L666" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M666" s="26" t="s">
+      <c r="J666" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K666" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L666" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M666" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N666" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O666" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P666" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q666" s="26" t="s">
+      <c r="O666" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P666" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q666" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R666" s="26" t="s">
@@ -61725,23 +61741,23 @@
         <v>43</v>
       </c>
       <c r="U666" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para projetar: é.revisor</v>
+      </c>
+      <c r="V666" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para projetar: revisor ( xsd:string ) </v>
+      </c>
+      <c r="W666" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="X666" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para proteger: é.guardacorpo.de.escada</v>
-      </c>
-      <c r="V666" s="6" t="str">
+        <v>proj.116</v>
+      </c>
+      <c r="Y666" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para proteger: guardacorpo.de.escada ( xsd:string ) </v>
-      </c>
-      <c r="W666" s="20" t="s">
-        <v>867</v>
-      </c>
-      <c r="X666" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>prot.101</v>
-      </c>
-      <c r="Y666" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>proteger</v>
+        <v>projetar</v>
       </c>
     </row>
     <row r="667" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -61751,23 +61767,22 @@
       <c r="B667" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C667" s="28" t="str">
+      <c r="C667" s="31" t="str">
         <f t="shared" si="155"/>
         <v>p.proteger</v>
       </c>
       <c r="D667" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.guardacorpo.de.rampa</v>
+        <f t="shared" si="167"/>
+        <v>é.guardacorpo</v>
       </c>
       <c r="E667" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F667" s="21" t="str">
-        <f>F666</f>
-        <v>d.proteger</v>
+      <c r="F667" s="22" t="s">
+        <v>850</v>
       </c>
       <c r="G667" s="36" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H667" s="5" t="s">
         <v>39</v>
@@ -61809,22 +61824,22 @@
         <v>43</v>
       </c>
       <c r="U667" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para proteger: é.guardacorpo</v>
+      </c>
+      <c r="V667" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para proteger: guardacorpo ( xsd:string ) </v>
+      </c>
+      <c r="W667" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="X667" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para proteger: é.guardacorpo.de.rampa</v>
-      </c>
-      <c r="V667" s="6" t="str">
+        <v>prot.100</v>
+      </c>
+      <c r="Y667" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para proteger: guardacorpo.de.rampa ( xsd:string ) </v>
-      </c>
-      <c r="W667" s="20" t="s">
-        <v>868</v>
-      </c>
-      <c r="X667" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>prot.102</v>
-      </c>
-      <c r="Y667" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>proteger</v>
       </c>
     </row>
@@ -61840,18 +61855,18 @@
         <v>p.proteger</v>
       </c>
       <c r="D668" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.guardacorpo.de.vazio</v>
+        <f t="shared" si="167"/>
+        <v>é.guardacorpo.de.escada</v>
       </c>
       <c r="E668" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F668" s="21" t="str">
-        <f>F666</f>
+        <f>F667</f>
         <v>d.proteger</v>
       </c>
       <c r="G668" s="36" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="H668" s="5" t="s">
         <v>39</v>
@@ -61893,22 +61908,22 @@
         <v>43</v>
       </c>
       <c r="U668" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para proteger: é.guardacorpo.de.escada</v>
+      </c>
+      <c r="V668" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para proteger: guardacorpo.de.escada ( xsd:string ) </v>
+      </c>
+      <c r="W668" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="X668" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para proteger: é.guardacorpo.de.vazio</v>
-      </c>
-      <c r="V668" s="6" t="str">
+        <v>prot.101</v>
+      </c>
+      <c r="Y668" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para proteger: guardacorpo.de.vazio ( xsd:string ) </v>
-      </c>
-      <c r="W668" s="20" t="s">
-        <v>869</v>
-      </c>
-      <c r="X668" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>prot.103</v>
-      </c>
-      <c r="Y668" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>proteger</v>
       </c>
     </row>
@@ -61924,18 +61939,18 @@
         <v>p.proteger</v>
       </c>
       <c r="D669" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.disjuntor</v>
+        <f t="shared" si="167"/>
+        <v>é.guardacorpo.de.rampa</v>
       </c>
       <c r="E669" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F669" s="21" t="str">
-        <f>F666</f>
+        <f>F668</f>
         <v>d.proteger</v>
       </c>
       <c r="G669" s="36" t="s">
-        <v>1282</v>
+        <v>864</v>
       </c>
       <c r="H669" s="5" t="s">
         <v>39</v>
@@ -61977,22 +61992,22 @@
         <v>43</v>
       </c>
       <c r="U669" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para proteger: é.guardacorpo.de.rampa</v>
+      </c>
+      <c r="V669" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para proteger: guardacorpo.de.rampa ( xsd:string ) </v>
+      </c>
+      <c r="W669" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="X669" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para proteger: é.disjuntor</v>
-      </c>
-      <c r="V669" s="6" t="str">
+        <v>prot.102</v>
+      </c>
+      <c r="Y669" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para proteger: disjuntor ( xsd:string ) </v>
-      </c>
-      <c r="W669" s="20" t="s">
-        <v>1284</v>
-      </c>
-      <c r="X669" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>prot.104</v>
-      </c>
-      <c r="Y669" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>proteger</v>
       </c>
     </row>
@@ -62008,18 +62023,18 @@
         <v>p.proteger</v>
       </c>
       <c r="D670" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.aterramento</v>
+        <f t="shared" si="167"/>
+        <v>é.guardacorpo.de.vazio</v>
       </c>
       <c r="E670" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F670" s="21" t="str">
-        <f>F667</f>
+        <f>F668</f>
         <v>d.proteger</v>
       </c>
       <c r="G670" s="36" t="s">
-        <v>1281</v>
+        <v>865</v>
       </c>
       <c r="H670" s="5" t="s">
         <v>39</v>
@@ -62061,22 +62076,22 @@
         <v>43</v>
       </c>
       <c r="U670" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para proteger: é.guardacorpo.de.vazio</v>
+      </c>
+      <c r="V670" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para proteger: guardacorpo.de.vazio ( xsd:string ) </v>
+      </c>
+      <c r="W670" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="X670" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para proteger: é.aterramento</v>
-      </c>
-      <c r="V670" s="6" t="str">
+        <v>prot.103</v>
+      </c>
+      <c r="Y670" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para proteger: aterramento ( xsd:string ) </v>
-      </c>
-      <c r="W670" s="20" t="s">
-        <v>1283</v>
-      </c>
-      <c r="X670" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>prot.105</v>
-      </c>
-      <c r="Y670" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>proteger</v>
       </c>
     </row>
@@ -62087,22 +62102,23 @@
       <c r="B671" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C671" s="31" t="str">
+      <c r="C671" s="28" t="str">
         <f t="shared" si="155"/>
-        <v>p.relacionar</v>
+        <v>p.proteger</v>
       </c>
       <c r="D671" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.conectado.a</v>
+        <f t="shared" si="167"/>
+        <v>é.disjuntor</v>
       </c>
       <c r="E671" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F671" s="19" t="s">
-        <v>851</v>
-      </c>
-      <c r="G671" s="37" t="s">
-        <v>786</v>
+      <c r="F671" s="21" t="str">
+        <f>F668</f>
+        <v>d.proteger</v>
+      </c>
+      <c r="G671" s="36" t="s">
+        <v>1282</v>
       </c>
       <c r="H671" s="5" t="s">
         <v>39</v>
@@ -62110,28 +62126,28 @@
       <c r="I671" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J671" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K671" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L671" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M671" s="24" t="s">
+      <c r="J671" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K671" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L671" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M671" s="26" t="s">
         <v>0</v>
       </c>
       <c r="N671" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O671" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P671" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q671" s="24" t="s">
+      <c r="O671" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P671" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q671" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R671" s="26" t="s">
@@ -62144,23 +62160,23 @@
         <v>43</v>
       </c>
       <c r="U671" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para proteger: é.disjuntor</v>
+      </c>
+      <c r="V671" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para proteger: disjuntor ( xsd:string ) </v>
+      </c>
+      <c r="W671" s="20" t="s">
+        <v>1284</v>
+      </c>
+      <c r="X671" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para relacionar: é.conectado.a</v>
-      </c>
-      <c r="V671" s="6" t="str">
+        <v>prot.104</v>
+      </c>
+      <c r="Y671" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para relacionar: conectado.a ( xsd:string ) </v>
-      </c>
-      <c r="W671" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="X671" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>rela.100</v>
-      </c>
-      <c r="Y671" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>relacionar</v>
+        <v>proteger</v>
       </c>
     </row>
     <row r="672" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -62172,21 +62188,21 @@
       </c>
       <c r="C672" s="28" t="str">
         <f t="shared" si="155"/>
-        <v>p.relacionar</v>
+        <v>p.proteger</v>
       </c>
       <c r="D672" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.parte.de</v>
+        <f t="shared" si="167"/>
+        <v>é.aterramento</v>
       </c>
       <c r="E672" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F672" s="21" t="str">
-        <f t="shared" ref="F672:F679" si="166">F671</f>
-        <v>d.relacionar</v>
-      </c>
-      <c r="G672" s="38" t="s">
-        <v>791</v>
+        <f>F669</f>
+        <v>d.proteger</v>
+      </c>
+      <c r="G672" s="36" t="s">
+        <v>1281</v>
       </c>
       <c r="H672" s="5" t="s">
         <v>39</v>
@@ -62194,28 +62210,28 @@
       <c r="I672" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J672" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K672" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L672" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M672" s="24" t="s">
+      <c r="J672" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K672" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L672" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M672" s="26" t="s">
         <v>0</v>
       </c>
       <c r="N672" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O672" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P672" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q672" s="24" t="s">
+      <c r="O672" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P672" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q672" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R672" s="26" t="s">
@@ -62228,23 +62244,23 @@
         <v>43</v>
       </c>
       <c r="U672" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para proteger: é.aterramento</v>
+      </c>
+      <c r="V672" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para proteger: aterramento ( xsd:string ) </v>
+      </c>
+      <c r="W672" s="20" t="s">
+        <v>1283</v>
+      </c>
+      <c r="X672" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para relacionar: é.parte.de</v>
-      </c>
-      <c r="V672" s="6" t="str">
+        <v>prot.105</v>
+      </c>
+      <c r="Y672" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para relacionar: parte.de ( xsd:string ) </v>
-      </c>
-      <c r="W672" s="6" t="s">
-        <v>1093</v>
-      </c>
-      <c r="X672" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>rela.101</v>
-      </c>
-      <c r="Y672" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>relacionar</v>
+        <v>proteger</v>
       </c>
     </row>
     <row r="673" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -62254,23 +62270,22 @@
       <c r="B673" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C673" s="28" t="str">
+      <c r="C673" s="31" t="str">
         <f t="shared" si="155"/>
         <v>p.relacionar</v>
       </c>
       <c r="D673" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.membro.de</v>
+        <f t="shared" si="167"/>
+        <v>é.conectado.a</v>
       </c>
       <c r="E673" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F673" s="21" t="str">
-        <f t="shared" si="166"/>
-        <v>d.relacionar</v>
-      </c>
-      <c r="G673" s="38" t="s">
-        <v>1089</v>
+      <c r="F673" s="19" t="s">
+        <v>851</v>
+      </c>
+      <c r="G673" s="37" t="s">
+        <v>786</v>
       </c>
       <c r="H673" s="5" t="s">
         <v>39</v>
@@ -62312,22 +62327,22 @@
         <v>43</v>
       </c>
       <c r="U673" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para relacionar: é.conectado.a</v>
+      </c>
+      <c r="V673" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para relacionar: conectado.a ( xsd:string ) </v>
+      </c>
+      <c r="W673" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="X673" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para relacionar: é.membro.de</v>
-      </c>
-      <c r="V673" s="6" t="str">
+        <v>rela.100</v>
+      </c>
+      <c r="Y673" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para relacionar: membro.de ( xsd:string ) </v>
-      </c>
-      <c r="W673" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="X673" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>rela.102</v>
-      </c>
-      <c r="Y673" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>relacionar</v>
       </c>
     </row>
@@ -62343,18 +62358,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D674" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.agrupado.com</v>
+        <f t="shared" si="167"/>
+        <v>é.parte.de</v>
       </c>
       <c r="E674" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F674" s="21" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" ref="F674:F681" si="170">F673</f>
         <v>d.relacionar</v>
       </c>
       <c r="G674" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H674" s="5" t="s">
         <v>39</v>
@@ -62396,22 +62411,22 @@
         <v>43</v>
       </c>
       <c r="U674" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para relacionar: é.parte.de</v>
+      </c>
+      <c r="V674" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para relacionar: parte.de ( xsd:string ) </v>
+      </c>
+      <c r="W674" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="X674" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para relacionar: é.agrupado.com</v>
-      </c>
-      <c r="V674" s="6" t="str">
+        <v>rela.101</v>
+      </c>
+      <c r="Y674" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para relacionar: agrupado.com ( xsd:string ) </v>
-      </c>
-      <c r="W674" s="6" t="s">
-        <v>1091</v>
-      </c>
-      <c r="X674" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>rela.103</v>
-      </c>
-      <c r="Y674" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>relacionar</v>
       </c>
     </row>
@@ -62427,18 +62442,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D675" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.incluído.em</v>
+        <f t="shared" si="167"/>
+        <v>é.membro.de</v>
       </c>
       <c r="E675" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F675" s="21" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>d.relacionar</v>
       </c>
       <c r="G675" s="38" t="s">
-        <v>1128</v>
+        <v>1089</v>
       </c>
       <c r="H675" s="5" t="s">
         <v>39</v>
@@ -62480,22 +62495,22 @@
         <v>43</v>
       </c>
       <c r="U675" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para relacionar: é.membro.de</v>
+      </c>
+      <c r="V675" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para relacionar: membro.de ( xsd:string ) </v>
+      </c>
+      <c r="W675" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="X675" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para relacionar: é.incluído.em</v>
-      </c>
-      <c r="V675" s="6" t="str">
+        <v>rela.102</v>
+      </c>
+      <c r="Y675" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para relacionar: incluído.em ( xsd:string ) </v>
-      </c>
-      <c r="W675" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="X675" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>rela.104</v>
-      </c>
-      <c r="Y675" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>relacionar</v>
       </c>
     </row>
@@ -62511,18 +62526,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D676" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.pertencente.a</v>
+        <f t="shared" si="167"/>
+        <v>é.agrupado.com</v>
       </c>
       <c r="E676" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F676" s="21" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>d.relacionar</v>
       </c>
       <c r="G676" s="38" t="s">
-        <v>1079</v>
+        <v>792</v>
       </c>
       <c r="H676" s="5" t="s">
         <v>39</v>
@@ -62564,22 +62579,22 @@
         <v>43</v>
       </c>
       <c r="U676" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para relacionar: é.agrupado.com</v>
+      </c>
+      <c r="V676" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para relacionar: agrupado.com ( xsd:string ) </v>
+      </c>
+      <c r="W676" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="X676" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para relacionar: é.pertencente.a</v>
-      </c>
-      <c r="V676" s="6" t="str">
+        <v>rela.103</v>
+      </c>
+      <c r="Y676" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para relacionar: pertencente.a ( xsd:string ) </v>
-      </c>
-      <c r="W676" s="6" t="s">
-        <v>1062</v>
-      </c>
-      <c r="X676" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>rela.105</v>
-      </c>
-      <c r="Y676" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>relacionar</v>
       </c>
     </row>
@@ -62595,18 +62610,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D677" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.usado.por</v>
+        <f t="shared" si="167"/>
+        <v>é.incluído.em</v>
       </c>
       <c r="E677" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F677" s="21" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>d.relacionar</v>
       </c>
       <c r="G677" s="38" t="s">
-        <v>1060</v>
+        <v>1128</v>
       </c>
       <c r="H677" s="5" t="s">
         <v>39</v>
@@ -62648,22 +62663,22 @@
         <v>43</v>
       </c>
       <c r="U677" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para relacionar: é.incluído.em</v>
+      </c>
+      <c r="V677" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para relacionar: incluído.em ( xsd:string ) </v>
+      </c>
+      <c r="W677" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="X677" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para relacionar: é.usado.por</v>
-      </c>
-      <c r="V677" s="6" t="str">
+        <v>rela.104</v>
+      </c>
+      <c r="Y677" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para relacionar: usado.por ( xsd:string ) </v>
-      </c>
-      <c r="W677" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="X677" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>rela.106</v>
-      </c>
-      <c r="Y677" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>relacionar</v>
       </c>
     </row>
@@ -62679,18 +62694,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D678" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.aplicado.para</v>
+        <f t="shared" si="167"/>
+        <v>é.pertencente.a</v>
       </c>
       <c r="E678" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F678" s="21" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>d.relacionar</v>
       </c>
       <c r="G678" s="38" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="H678" s="5" t="s">
         <v>39</v>
@@ -62732,22 +62747,22 @@
         <v>43</v>
       </c>
       <c r="U678" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para relacionar: é.pertencente.a</v>
+      </c>
+      <c r="V678" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para relacionar: pertencente.a ( xsd:string ) </v>
+      </c>
+      <c r="W678" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="X678" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para relacionar: é.aplicado.para</v>
-      </c>
-      <c r="V678" s="6" t="str">
+        <v>rela.105</v>
+      </c>
+      <c r="Y678" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para relacionar: aplicado.para ( xsd:string ) </v>
-      </c>
-      <c r="W678" s="6" t="s">
-        <v>1080</v>
-      </c>
-      <c r="X678" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>rela.107</v>
-      </c>
-      <c r="Y678" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>relacionar</v>
       </c>
     </row>
@@ -62763,18 +62778,18 @@
         <v>p.relacionar</v>
       </c>
       <c r="D679" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.destino</v>
+        <f t="shared" si="167"/>
+        <v>é.usado.por</v>
       </c>
       <c r="E679" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F679" s="21" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>d.relacionar</v>
       </c>
       <c r="G679" s="38" t="s">
-        <v>1088</v>
+        <v>1060</v>
       </c>
       <c r="H679" s="5" t="s">
         <v>39</v>
@@ -62816,22 +62831,22 @@
         <v>43</v>
       </c>
       <c r="U679" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para relacionar: é.usado.por</v>
+      </c>
+      <c r="V679" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para relacionar: usado.por ( xsd:string ) </v>
+      </c>
+      <c r="W679" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X679" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para relacionar: é.destino</v>
-      </c>
-      <c r="V679" s="6" t="str">
+        <v>rela.106</v>
+      </c>
+      <c r="Y679" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para relacionar: destino ( xsd:string ) </v>
-      </c>
-      <c r="W679" s="6" t="s">
-        <v>1090</v>
-      </c>
-      <c r="X679" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>rela.108</v>
-      </c>
-      <c r="Y679" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>relacionar</v>
       </c>
     </row>
@@ -62842,51 +62857,52 @@
       <c r="B680" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C680" s="31" t="str">
-        <f t="shared" ref="C680:C687" si="167">SUBSTITUTE(F680,"d.","p.")</f>
-        <v>p.sensorizar</v>
+      <c r="C680" s="28" t="str">
+        <f t="shared" si="155"/>
+        <v>p.relacionar</v>
       </c>
       <c r="D680" s="7" t="str">
-        <f t="shared" ref="D680:D687" si="168">_xlfn.CONCAT("é.",G680)</f>
-        <v>é.beacon</v>
+        <f t="shared" si="167"/>
+        <v>é.aplicado.para</v>
       </c>
       <c r="E680" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F680" s="19" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G680" s="36" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H680" s="27" t="s">
+      <c r="F680" s="21" t="str">
+        <f t="shared" si="170"/>
+        <v>d.relacionar</v>
+      </c>
+      <c r="G680" s="38" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H680" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I680" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J680" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K680" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L680" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M680" s="26" t="s">
+      <c r="J680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M680" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N680" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O680" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P680" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q680" s="26" t="s">
+      <c r="O680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P680" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q680" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R680" s="26" t="s">
@@ -62899,26 +62915,26 @@
         <v>43</v>
       </c>
       <c r="U680" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para relacionar: é.aplicado.para</v>
+      </c>
+      <c r="V680" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para relacionar: aplicado.para ( xsd:string ) </v>
+      </c>
+      <c r="W680" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="X680" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sensorizar: é.beacon</v>
-      </c>
-      <c r="V680" s="6" t="str">
+        <v>rela.107</v>
+      </c>
+      <c r="Y680" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sensorizar: beacon ( xsd:string ) </v>
-      </c>
-      <c r="W680" s="20" t="s">
-        <v>1485</v>
-      </c>
-      <c r="X680" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sens.100</v>
-      </c>
-      <c r="Y680" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>sensorizar</v>
-      </c>
-    </row>
-    <row r="681" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>relacionar</v>
+      </c>
+    </row>
+    <row r="681" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="4">
         <v>681</v>
       </c>
@@ -62926,22 +62942,22 @@
         <v>37</v>
       </c>
       <c r="C681" s="28" t="str">
+        <f t="shared" si="155"/>
+        <v>p.relacionar</v>
+      </c>
+      <c r="D681" s="7" t="str">
         <f t="shared" si="167"/>
-        <v>p.sensorizar</v>
-      </c>
-      <c r="D681" s="7" t="str">
-        <f t="shared" si="168"/>
-        <v>é.sensor.térmico</v>
+        <v>é.destino</v>
       </c>
       <c r="E681" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F681" s="21" t="str">
-        <f t="shared" ref="F681:F687" si="169">F680</f>
-        <v>d.sensorizar</v>
-      </c>
-      <c r="G681" s="36" t="s">
-        <v>1494</v>
+        <f t="shared" si="170"/>
+        <v>d.relacionar</v>
+      </c>
+      <c r="G681" s="38" t="s">
+        <v>1088</v>
       </c>
       <c r="H681" s="5" t="s">
         <v>39</v>
@@ -62949,28 +62965,28 @@
       <c r="I681" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J681" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K681" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L681" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M681" s="26" t="s">
+      <c r="J681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M681" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N681" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O681" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P681" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q681" s="26" t="s">
+      <c r="O681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P681" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q681" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R681" s="26" t="s">
@@ -62983,23 +62999,23 @@
         <v>43</v>
       </c>
       <c r="U681" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para relacionar: é.destino</v>
+      </c>
+      <c r="V681" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para relacionar: destino ( xsd:string ) </v>
+      </c>
+      <c r="W681" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="X681" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sensorizar: é.sensor.térmico</v>
-      </c>
-      <c r="V681" s="6" t="str">
+        <v>rela.108</v>
+      </c>
+      <c r="Y681" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sensorizar: sensor.térmico ( xsd:string ) </v>
-      </c>
-      <c r="W681" s="20" t="s">
-        <v>1486</v>
-      </c>
-      <c r="X681" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sens.101</v>
-      </c>
-      <c r="Y681" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>sensorizar</v>
+        <v>relacionar</v>
       </c>
     </row>
     <row r="682" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -63009,80 +63025,79 @@
       <c r="B682" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C682" s="28" t="str">
-        <f t="shared" si="167"/>
+      <c r="C682" s="31" t="str">
+        <f t="shared" ref="C682:C689" si="171">SUBSTITUTE(F682,"d.","p.")</f>
         <v>p.sensorizar</v>
       </c>
       <c r="D682" s="7" t="str">
+        <f t="shared" ref="D682:D689" si="172">_xlfn.CONCAT("é.",G682)</f>
+        <v>é.beacon</v>
+      </c>
+      <c r="E682" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F682" s="19" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G682" s="36" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H682" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I682" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J682" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K682" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L682" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M682" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N682" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O682" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P682" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q682" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R682" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S682" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T682" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U682" s="6" t="str">
         <f t="shared" si="168"/>
-        <v>é.sensor.de.vibração</v>
-      </c>
-      <c r="E682" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F682" s="21" t="str">
+        <v>Propriedade para sensorizar: é.beacon</v>
+      </c>
+      <c r="V682" s="6" t="str">
         <f t="shared" si="169"/>
-        <v>d.sensorizar</v>
-      </c>
-      <c r="G682" s="36" t="s">
-        <v>1481</v>
-      </c>
-      <c r="H682" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I682" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J682" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K682" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L682" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M682" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N682" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O682" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P682" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q682" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R682" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S682" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T682" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U682" s="6" t="str">
+        <v xml:space="preserve">Dado para sensorizar: beacon ( xsd:string ) </v>
+      </c>
+      <c r="W682" s="20" t="s">
+        <v>1485</v>
+      </c>
+      <c r="X682" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sensorizar: é.sensor.de.vibração</v>
-      </c>
-      <c r="V682" s="6" t="str">
+        <v>sens.100</v>
+      </c>
+      <c r="Y682" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sensorizar: sensor.de.vibração ( xsd:string ) </v>
-      </c>
-      <c r="W682" s="20" t="s">
-        <v>1484</v>
-      </c>
-      <c r="X682" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sens.102</v>
-      </c>
-      <c r="Y682" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>sensorizar</v>
       </c>
     </row>
@@ -63094,22 +63109,22 @@
         <v>37</v>
       </c>
       <c r="C683" s="28" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>p.sensorizar</v>
       </c>
       <c r="D683" s="7" t="str">
-        <f t="shared" si="168"/>
-        <v>é.sensor.de.iluminação</v>
+        <f t="shared" si="172"/>
+        <v>é.sensor.térmico</v>
       </c>
       <c r="E683" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F683" s="21" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" ref="F683:F689" si="173">F682</f>
         <v>d.sensorizar</v>
       </c>
       <c r="G683" s="36" t="s">
-        <v>1480</v>
+        <v>1494</v>
       </c>
       <c r="H683" s="5" t="s">
         <v>39</v>
@@ -63151,26 +63166,26 @@
         <v>43</v>
       </c>
       <c r="U683" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para sensorizar: é.sensor.térmico</v>
+      </c>
+      <c r="V683" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sensorizar: sensor.térmico ( xsd:string ) </v>
+      </c>
+      <c r="W683" s="20" t="s">
+        <v>1486</v>
+      </c>
+      <c r="X683" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sensorizar: é.sensor.de.iluminação</v>
-      </c>
-      <c r="V683" s="6" t="str">
+        <v>sens.101</v>
+      </c>
+      <c r="Y683" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sensorizar: sensor.de.iluminação ( xsd:string ) </v>
-      </c>
-      <c r="W683" s="20" t="s">
-        <v>1487</v>
-      </c>
-      <c r="X683" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sens.103</v>
-      </c>
-      <c r="Y683" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>sensorizar</v>
       </c>
     </row>
-    <row r="684" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="4">
         <v>684</v>
       </c>
@@ -63178,22 +63193,22 @@
         <v>37</v>
       </c>
       <c r="C684" s="28" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>p.sensorizar</v>
       </c>
       <c r="D684" s="7" t="str">
-        <f t="shared" si="168"/>
-        <v>é.sensor.de.movimento</v>
+        <f t="shared" si="172"/>
+        <v>é.sensor.de.vibração</v>
       </c>
       <c r="E684" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F684" s="21" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>d.sensorizar</v>
       </c>
       <c r="G684" s="36" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="H684" s="5" t="s">
         <v>39</v>
@@ -63226,7 +63241,7 @@
         <v>0</v>
       </c>
       <c r="R684" s="26" t="s">
-        <v>1491</v>
+        <v>0</v>
       </c>
       <c r="S684" s="12" t="s">
         <v>1</v>
@@ -63235,22 +63250,22 @@
         <v>43</v>
       </c>
       <c r="U684" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para sensorizar: é.sensor.de.vibração</v>
+      </c>
+      <c r="V684" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sensorizar: sensor.de.vibração ( xsd:string ) </v>
+      </c>
+      <c r="W684" s="20" t="s">
+        <v>1484</v>
+      </c>
+      <c r="X684" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sensorizar: é.sensor.de.movimento</v>
-      </c>
-      <c r="V684" s="6" t="str">
+        <v>sens.102</v>
+      </c>
+      <c r="Y684" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sensorizar: sensor.de.movimento ( xsd:string ) </v>
-      </c>
-      <c r="W684" s="20" t="s">
-        <v>1488</v>
-      </c>
-      <c r="X684" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sens.104</v>
-      </c>
-      <c r="Y684" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>sensorizar</v>
       </c>
     </row>
@@ -63262,22 +63277,22 @@
         <v>37</v>
       </c>
       <c r="C685" s="28" t="str">
-        <f t="shared" ref="C685:C686" si="170">SUBSTITUTE(F685,"d.","p.")</f>
+        <f t="shared" si="171"/>
         <v>p.sensorizar</v>
       </c>
       <c r="D685" s="7" t="str">
-        <f t="shared" ref="D685:D686" si="171">_xlfn.CONCAT("é.",G685)</f>
-        <v>é.sensor.de.presença</v>
+        <f t="shared" si="172"/>
+        <v>é.sensor.de.iluminação</v>
       </c>
       <c r="E685" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F685" s="21" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>d.sensorizar</v>
       </c>
       <c r="G685" s="36" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H685" s="5" t="s">
         <v>39</v>
@@ -63319,22 +63334,22 @@
         <v>43</v>
       </c>
       <c r="U685" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para sensorizar: é.sensor.de.iluminação</v>
+      </c>
+      <c r="V685" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sensorizar: sensor.de.iluminação ( xsd:string ) </v>
+      </c>
+      <c r="W685" s="20" t="s">
+        <v>1487</v>
+      </c>
+      <c r="X685" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sensorizar: é.sensor.de.presença</v>
-      </c>
-      <c r="V685" s="6" t="str">
+        <v>sens.103</v>
+      </c>
+      <c r="Y685" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sensorizar: sensor.de.presença ( xsd:string ) </v>
-      </c>
-      <c r="W685" s="20" t="s">
-        <v>1490</v>
-      </c>
-      <c r="X685" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sens.105</v>
-      </c>
-      <c r="Y685" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>sensorizar</v>
       </c>
     </row>
@@ -63346,22 +63361,22 @@
         <v>37</v>
       </c>
       <c r="C686" s="28" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>p.sensorizar</v>
       </c>
       <c r="D686" s="7" t="str">
-        <f t="shared" si="171"/>
-        <v>é.sensor.de.acesso</v>
+        <f t="shared" si="172"/>
+        <v>é.sensor.de.movimento</v>
       </c>
       <c r="E686" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F686" s="21" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>d.sensorizar</v>
       </c>
       <c r="G686" s="36" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="H686" s="5" t="s">
         <v>39</v>
@@ -63394,7 +63409,7 @@
         <v>0</v>
       </c>
       <c r="R686" s="26" t="s">
-        <v>0</v>
+        <v>1491</v>
       </c>
       <c r="S686" s="12" t="s">
         <v>1</v>
@@ -63403,22 +63418,22 @@
         <v>43</v>
       </c>
       <c r="U686" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para sensorizar: é.sensor.de.movimento</v>
+      </c>
+      <c r="V686" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sensorizar: sensor.de.movimento ( xsd:string ) </v>
+      </c>
+      <c r="W686" s="20" t="s">
+        <v>1488</v>
+      </c>
+      <c r="X686" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sensorizar: é.sensor.de.acesso</v>
-      </c>
-      <c r="V686" s="6" t="str">
+        <v>sens.104</v>
+      </c>
+      <c r="Y686" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sensorizar: sensor.de.acesso ( xsd:string ) </v>
-      </c>
-      <c r="W686" s="20" t="s">
-        <v>1489</v>
-      </c>
-      <c r="X686" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sens.106</v>
-      </c>
-      <c r="Y686" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>sensorizar</v>
       </c>
     </row>
@@ -63430,22 +63445,22 @@
         <v>37</v>
       </c>
       <c r="C687" s="28" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" ref="C687:C688" si="174">SUBSTITUTE(F687,"d.","p.")</f>
         <v>p.sensorizar</v>
       </c>
       <c r="D687" s="7" t="str">
-        <f t="shared" si="168"/>
-        <v>é.sensor.de.fumaça</v>
+        <f t="shared" ref="D687:D688" si="175">_xlfn.CONCAT("é.",G687)</f>
+        <v>é.sensor.de.presença</v>
       </c>
       <c r="E687" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F687" s="21" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>d.sensorizar</v>
       </c>
       <c r="G687" s="36" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="H687" s="5" t="s">
         <v>39</v>
@@ -63487,50 +63502,51 @@
         <v>43</v>
       </c>
       <c r="U687" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para sensorizar: é.sensor.de.presença</v>
+      </c>
+      <c r="V687" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sensorizar: sensor.de.presença ( xsd:string ) </v>
+      </c>
+      <c r="W687" s="20" t="s">
+        <v>1490</v>
+      </c>
+      <c r="X687" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sensorizar: é.sensor.de.fumaça</v>
-      </c>
-      <c r="V687" s="6" t="str">
+        <v>sens.105</v>
+      </c>
+      <c r="Y687" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sensorizar: sensor.de.fumaça ( xsd:string ) </v>
-      </c>
-      <c r="W687" s="20" t="s">
-        <v>1493</v>
-      </c>
-      <c r="X687" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sens.107</v>
-      </c>
-      <c r="Y687" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>sensorizar</v>
       </c>
     </row>
-    <row r="688" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="4">
         <v>688</v>
       </c>
       <c r="B688" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C688" s="31" t="str">
-        <f t="shared" si="155"/>
-        <v>p.separar</v>
+      <c r="C688" s="28" t="str">
+        <f t="shared" si="174"/>
+        <v>p.sensorizar</v>
       </c>
       <c r="D688" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.parede</v>
+        <f t="shared" si="175"/>
+        <v>é.sensor.de.acesso</v>
       </c>
       <c r="E688" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F688" s="19" t="s">
-        <v>852</v>
+      <c r="F688" s="21" t="str">
+        <f t="shared" si="173"/>
+        <v>d.sensorizar</v>
       </c>
       <c r="G688" s="36" t="s">
-        <v>793</v>
-      </c>
-      <c r="H688" s="27" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H688" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I688" s="30" t="s">
@@ -63570,23 +63586,23 @@
         <v>43</v>
       </c>
       <c r="U688" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para sensorizar: é.sensor.de.acesso</v>
+      </c>
+      <c r="V688" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sensorizar: sensor.de.acesso ( xsd:string ) </v>
+      </c>
+      <c r="W688" s="20" t="s">
+        <v>1489</v>
+      </c>
+      <c r="X688" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.parede</v>
-      </c>
-      <c r="V688" s="6" t="str">
+        <v>sens.106</v>
+      </c>
+      <c r="Y688" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: parede ( xsd:string ) </v>
-      </c>
-      <c r="W688" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="X688" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.100</v>
-      </c>
-      <c r="Y688" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>separar</v>
+        <v>sensorizar</v>
       </c>
     </row>
     <row r="689" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -63597,22 +63613,22 @@
         <v>37</v>
       </c>
       <c r="C689" s="28" t="str">
-        <f t="shared" si="155"/>
-        <v>p.separar</v>
+        <f t="shared" si="171"/>
+        <v>p.sensorizar</v>
       </c>
       <c r="D689" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.tijolo.comum</v>
+        <f t="shared" si="172"/>
+        <v>é.sensor.de.fumaça</v>
       </c>
       <c r="E689" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F689" s="21" t="str">
-        <f t="shared" ref="F689:F701" si="172">F688</f>
-        <v>d.separar</v>
+        <f t="shared" si="173"/>
+        <v>d.sensorizar</v>
       </c>
       <c r="G689" s="36" t="s">
-        <v>794</v>
+        <v>1492</v>
       </c>
       <c r="H689" s="5" t="s">
         <v>39</v>
@@ -63654,23 +63670,23 @@
         <v>43</v>
       </c>
       <c r="U689" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para sensorizar: é.sensor.de.fumaça</v>
+      </c>
+      <c r="V689" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sensorizar: sensor.de.fumaça ( xsd:string ) </v>
+      </c>
+      <c r="W689" s="20" t="s">
+        <v>1493</v>
+      </c>
+      <c r="X689" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.tijolo.comum</v>
-      </c>
-      <c r="V689" s="6" t="str">
+        <v>sens.107</v>
+      </c>
+      <c r="Y689" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: tijolo.comum ( xsd:string ) </v>
-      </c>
-      <c r="W689" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="X689" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.101</v>
-      </c>
-      <c r="Y689" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>separar</v>
+        <v>sensorizar</v>
       </c>
     </row>
     <row r="690" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -63680,25 +63696,24 @@
       <c r="B690" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C690" s="28" t="str">
+      <c r="C690" s="31" t="str">
         <f t="shared" si="155"/>
         <v>p.separar</v>
       </c>
       <c r="D690" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.tijolo.furado</v>
+        <f t="shared" si="167"/>
+        <v>é.parede</v>
       </c>
       <c r="E690" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F690" s="21" t="str">
-        <f t="shared" si="172"/>
-        <v>d.separar</v>
+      <c r="F690" s="19" t="s">
+        <v>852</v>
       </c>
       <c r="G690" s="36" t="s">
-        <v>795</v>
-      </c>
-      <c r="H690" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="H690" s="27" t="s">
         <v>39</v>
       </c>
       <c r="I690" s="30" t="s">
@@ -63738,22 +63753,22 @@
         <v>43</v>
       </c>
       <c r="U690" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.parede</v>
+      </c>
+      <c r="V690" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: parede ( xsd:string ) </v>
+      </c>
+      <c r="W690" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="X690" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.tijolo.furado</v>
-      </c>
-      <c r="V690" s="6" t="str">
+        <v>sepa.100</v>
+      </c>
+      <c r="Y690" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: tijolo.furado ( xsd:string ) </v>
-      </c>
-      <c r="W690" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="X690" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.102</v>
-      </c>
-      <c r="Y690" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -63769,18 +63784,18 @@
         <v>p.separar</v>
       </c>
       <c r="D691" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.tijolo.de.vidro</v>
+        <f t="shared" si="167"/>
+        <v>é.tijolo.comum</v>
       </c>
       <c r="E691" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F691" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" ref="F691:F703" si="176">F690</f>
         <v>d.separar</v>
       </c>
       <c r="G691" s="36" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H691" s="5" t="s">
         <v>39</v>
@@ -63822,26 +63837,26 @@
         <v>43</v>
       </c>
       <c r="U691" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.tijolo.comum</v>
+      </c>
+      <c r="V691" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: tijolo.comum ( xsd:string ) </v>
+      </c>
+      <c r="W691" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X691" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.tijolo.de.vidro</v>
-      </c>
-      <c r="V691" s="6" t="str">
+        <v>sepa.101</v>
+      </c>
+      <c r="Y691" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: tijolo.de.vidro ( xsd:string ) </v>
-      </c>
-      <c r="W691" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="X691" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.103</v>
-      </c>
-      <c r="Y691" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
-    <row r="692" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="4">
         <v>692</v>
       </c>
@@ -63849,22 +63864,22 @@
         <v>37</v>
       </c>
       <c r="C692" s="28" t="str">
-        <f t="shared" ref="C692:C754" si="173">SUBSTITUTE(F692,"d.","p.")</f>
+        <f t="shared" si="155"/>
         <v>p.separar</v>
       </c>
       <c r="D692" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.bloco.concreto</v>
+        <f t="shared" si="167"/>
+        <v>é.tijolo.furado</v>
       </c>
       <c r="E692" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F692" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>d.separar</v>
       </c>
       <c r="G692" s="36" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H692" s="5" t="s">
         <v>39</v>
@@ -63906,22 +63921,22 @@
         <v>43</v>
       </c>
       <c r="U692" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.tijolo.furado</v>
+      </c>
+      <c r="V692" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: tijolo.furado ( xsd:string ) </v>
+      </c>
+      <c r="W692" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="X692" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.bloco.concreto</v>
-      </c>
-      <c r="V692" s="6" t="str">
+        <v>sepa.102</v>
+      </c>
+      <c r="Y692" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: bloco.concreto ( xsd:string ) </v>
-      </c>
-      <c r="W692" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="X692" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.104</v>
-      </c>
-      <c r="Y692" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -63933,22 +63948,22 @@
         <v>37</v>
       </c>
       <c r="C693" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="155"/>
         <v>p.separar</v>
       </c>
       <c r="D693" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.bloco.sílico.calcário</v>
+        <f t="shared" si="167"/>
+        <v>é.tijolo.de.vidro</v>
       </c>
       <c r="E693" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F693" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>d.separar</v>
       </c>
       <c r="G693" s="36" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H693" s="5" t="s">
         <v>39</v>
@@ -63990,22 +64005,22 @@
         <v>43</v>
       </c>
       <c r="U693" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.tijolo.de.vidro</v>
+      </c>
+      <c r="V693" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: tijolo.de.vidro ( xsd:string ) </v>
+      </c>
+      <c r="W693" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X693" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.bloco.sílico.calcário</v>
-      </c>
-      <c r="V693" s="6" t="str">
+        <v>sepa.103</v>
+      </c>
+      <c r="Y693" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: bloco.sílico.calcário ( xsd:string ) </v>
-      </c>
-      <c r="W693" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="X693" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.105</v>
-      </c>
-      <c r="Y693" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -64017,22 +64032,22 @@
         <v>37</v>
       </c>
       <c r="C694" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" ref="C694:C756" si="177">SUBSTITUTE(F694,"d.","p.")</f>
         <v>p.separar</v>
       </c>
       <c r="D694" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.divisória.drywall</v>
+        <f t="shared" si="167"/>
+        <v>é.bloco.concreto</v>
       </c>
       <c r="E694" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F694" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>d.separar</v>
       </c>
       <c r="G694" s="36" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H694" s="5" t="s">
         <v>39</v>
@@ -64074,22 +64089,22 @@
         <v>43</v>
       </c>
       <c r="U694" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.bloco.concreto</v>
+      </c>
+      <c r="V694" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: bloco.concreto ( xsd:string ) </v>
+      </c>
+      <c r="W694" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X694" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.divisória.drywall</v>
-      </c>
-      <c r="V694" s="6" t="str">
+        <v>sepa.104</v>
+      </c>
+      <c r="Y694" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: divisória.drywall ( xsd:string ) </v>
-      </c>
-      <c r="W694" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="X694" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.106</v>
-      </c>
-      <c r="Y694" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -64101,22 +64116,22 @@
         <v>37</v>
       </c>
       <c r="C695" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.separar</v>
       </c>
       <c r="D695" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.divisória.naval</v>
+        <f t="shared" si="167"/>
+        <v>é.bloco.sílico.calcário</v>
       </c>
       <c r="E695" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F695" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>d.separar</v>
       </c>
       <c r="G695" s="36" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H695" s="5" t="s">
         <v>39</v>
@@ -64158,22 +64173,22 @@
         <v>43</v>
       </c>
       <c r="U695" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.bloco.sílico.calcário</v>
+      </c>
+      <c r="V695" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: bloco.sílico.calcário ( xsd:string ) </v>
+      </c>
+      <c r="W695" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X695" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.divisória.naval</v>
-      </c>
-      <c r="V695" s="6" t="str">
+        <v>sepa.105</v>
+      </c>
+      <c r="Y695" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: divisória.naval ( xsd:string ) </v>
-      </c>
-      <c r="W695" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="X695" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.107</v>
-      </c>
-      <c r="Y695" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -64185,22 +64200,22 @@
         <v>37</v>
       </c>
       <c r="C696" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.separar</v>
       </c>
       <c r="D696" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.parede.hidráulica</v>
+        <f t="shared" si="167"/>
+        <v>é.divisória.drywall</v>
       </c>
       <c r="E696" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F696" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>d.separar</v>
       </c>
       <c r="G696" s="36" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H696" s="5" t="s">
         <v>39</v>
@@ -64242,22 +64257,22 @@
         <v>43</v>
       </c>
       <c r="U696" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.divisória.drywall</v>
+      </c>
+      <c r="V696" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: divisória.drywall ( xsd:string ) </v>
+      </c>
+      <c r="W696" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X696" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.parede.hidráulica</v>
-      </c>
-      <c r="V696" s="6" t="str">
+        <v>sepa.106</v>
+      </c>
+      <c r="Y696" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: parede.hidráulica ( xsd:string ) </v>
-      </c>
-      <c r="W696" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="X696" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.108</v>
-      </c>
-      <c r="Y696" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -64269,24 +64284,24 @@
         <v>37</v>
       </c>
       <c r="C697" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.separar</v>
       </c>
       <c r="D697" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.grade</v>
+        <f t="shared" si="167"/>
+        <v>é.divisória.naval</v>
       </c>
       <c r="E697" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F697" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>d.separar</v>
       </c>
       <c r="G697" s="36" t="s">
-        <v>770</v>
-      </c>
-      <c r="H697" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="H697" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I697" s="30" t="s">
@@ -64326,22 +64341,22 @@
         <v>43</v>
       </c>
       <c r="U697" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.divisória.naval</v>
+      </c>
+      <c r="V697" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: divisória.naval ( xsd:string ) </v>
+      </c>
+      <c r="W697" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="X697" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.grade</v>
-      </c>
-      <c r="V697" s="6" t="str">
+        <v>sepa.107</v>
+      </c>
+      <c r="Y697" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: grade ( xsd:string ) </v>
-      </c>
-      <c r="W697" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="X697" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.109</v>
-      </c>
-      <c r="Y697" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -64353,22 +64368,22 @@
         <v>37</v>
       </c>
       <c r="C698" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.separar</v>
       </c>
       <c r="D698" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.grade.aramada</v>
+        <f t="shared" si="167"/>
+        <v>é.parede.hidráulica</v>
       </c>
       <c r="E698" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F698" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>d.separar</v>
       </c>
       <c r="G698" s="36" t="s">
-        <v>771</v>
+        <v>801</v>
       </c>
       <c r="H698" s="5" t="s">
         <v>39</v>
@@ -64410,22 +64425,22 @@
         <v>43</v>
       </c>
       <c r="U698" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.parede.hidráulica</v>
+      </c>
+      <c r="V698" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: parede.hidráulica ( xsd:string ) </v>
+      </c>
+      <c r="W698" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X698" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.grade.aramada</v>
-      </c>
-      <c r="V698" s="6" t="str">
+        <v>sepa.108</v>
+      </c>
+      <c r="Y698" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: grade.aramada ( xsd:string ) </v>
-      </c>
-      <c r="W698" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="X698" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.110</v>
-      </c>
-      <c r="Y698" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -64437,24 +64452,24 @@
         <v>37</v>
       </c>
       <c r="C699" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.separar</v>
       </c>
       <c r="D699" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.grade.de.barras</v>
+        <f t="shared" si="167"/>
+        <v>é.grade</v>
       </c>
       <c r="E699" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F699" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>d.separar</v>
       </c>
       <c r="G699" s="36" t="s">
-        <v>772</v>
-      </c>
-      <c r="H699" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="H699" s="27" t="s">
         <v>39</v>
       </c>
       <c r="I699" s="30" t="s">
@@ -64494,22 +64509,22 @@
         <v>43</v>
       </c>
       <c r="U699" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.grade</v>
+      </c>
+      <c r="V699" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: grade ( xsd:string ) </v>
+      </c>
+      <c r="W699" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="X699" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.grade.de.barras</v>
-      </c>
-      <c r="V699" s="6" t="str">
+        <v>sepa.109</v>
+      </c>
+      <c r="Y699" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: grade.de.barras ( xsd:string ) </v>
-      </c>
-      <c r="W699" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="X699" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.111</v>
-      </c>
-      <c r="Y699" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -64521,22 +64536,22 @@
         <v>37</v>
       </c>
       <c r="C700" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.separar</v>
       </c>
       <c r="D700" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.grade.decorativa</v>
+        <f t="shared" si="167"/>
+        <v>é.grade.aramada</v>
       </c>
       <c r="E700" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F700" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>d.separar</v>
       </c>
       <c r="G700" s="36" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H700" s="5" t="s">
         <v>39</v>
@@ -64578,22 +64593,22 @@
         <v>43</v>
       </c>
       <c r="U700" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.grade.aramada</v>
+      </c>
+      <c r="V700" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: grade.aramada ( xsd:string ) </v>
+      </c>
+      <c r="W700" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="X700" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.grade.decorativa</v>
-      </c>
-      <c r="V700" s="6" t="str">
+        <v>sepa.110</v>
+      </c>
+      <c r="Y700" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: grade.decorativa ( xsd:string ) </v>
-      </c>
-      <c r="W700" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="X700" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.112</v>
-      </c>
-      <c r="Y700" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -64605,22 +64620,22 @@
         <v>37</v>
       </c>
       <c r="C701" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.separar</v>
       </c>
       <c r="D701" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.grade.prisional</v>
+        <f t="shared" si="167"/>
+        <v>é.grade.de.barras</v>
       </c>
       <c r="E701" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F701" s="21" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>d.separar</v>
       </c>
       <c r="G701" s="36" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H701" s="5" t="s">
         <v>39</v>
@@ -64662,22 +64677,22 @@
         <v>43</v>
       </c>
       <c r="U701" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.grade.de.barras</v>
+      </c>
+      <c r="V701" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: grade.de.barras ( xsd:string ) </v>
+      </c>
+      <c r="W701" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="X701" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para separar: é.grade.prisional</v>
-      </c>
-      <c r="V701" s="6" t="str">
+        <v>sepa.111</v>
+      </c>
+      <c r="Y701" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para separar: grade.prisional ( xsd:string ) </v>
-      </c>
-      <c r="W701" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="X701" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>sepa.113</v>
-      </c>
-      <c r="Y701" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>separar</v>
       </c>
     </row>
@@ -64688,24 +64703,25 @@
       <c r="B702" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C702" s="31" t="str">
-        <f t="shared" si="173"/>
-        <v>p.sombrear</v>
+      <c r="C702" s="28" t="str">
+        <f t="shared" si="177"/>
+        <v>p.separar</v>
       </c>
       <c r="D702" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.brise</v>
+        <f t="shared" si="167"/>
+        <v>é.grade.decorativa</v>
       </c>
       <c r="E702" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F702" s="19" t="s">
-        <v>853</v>
+      <c r="F702" s="21" t="str">
+        <f t="shared" si="176"/>
+        <v>d.separar</v>
       </c>
       <c r="G702" s="36" t="s">
-        <v>802</v>
-      </c>
-      <c r="H702" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="H702" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I702" s="30" t="s">
@@ -64745,26 +64761,26 @@
         <v>43</v>
       </c>
       <c r="U702" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.grade.decorativa</v>
+      </c>
+      <c r="V702" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: grade.decorativa ( xsd:string ) </v>
+      </c>
+      <c r="W702" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="X702" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sombrear: é.brise</v>
-      </c>
-      <c r="V702" s="6" t="str">
+        <v>sepa.112</v>
+      </c>
+      <c r="Y702" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sombrear: brise ( xsd:string ) </v>
-      </c>
-      <c r="W702" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="X702" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>somb.100</v>
-      </c>
-      <c r="Y702" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>sombrear</v>
-      </c>
-    </row>
-    <row r="703" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>separar</v>
+      </c>
+    </row>
+    <row r="703" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="4">
         <v>703</v>
       </c>
@@ -64772,22 +64788,22 @@
         <v>37</v>
       </c>
       <c r="C703" s="28" t="str">
-        <f t="shared" si="173"/>
-        <v>p.sombrear</v>
+        <f t="shared" si="177"/>
+        <v>p.separar</v>
       </c>
       <c r="D703" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.brise.horizontal</v>
+        <f t="shared" si="167"/>
+        <v>é.grade.prisional</v>
       </c>
       <c r="E703" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F703" s="21" t="str">
-        <f>F702</f>
-        <v>d.sombrear</v>
+        <f t="shared" si="176"/>
+        <v>d.separar</v>
       </c>
       <c r="G703" s="36" t="s">
-        <v>803</v>
+        <v>774</v>
       </c>
       <c r="H703" s="5" t="s">
         <v>39</v>
@@ -64829,51 +64845,50 @@
         <v>43</v>
       </c>
       <c r="U703" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para separar: é.grade.prisional</v>
+      </c>
+      <c r="V703" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para separar: grade.prisional ( xsd:string ) </v>
+      </c>
+      <c r="W703" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="X703" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sombrear: é.brise.horizontal</v>
-      </c>
-      <c r="V703" s="6" t="str">
+        <v>sepa.113</v>
+      </c>
+      <c r="Y703" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sombrear: brise.horizontal ( xsd:string ) </v>
-      </c>
-      <c r="W703" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="X703" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>somb.101</v>
-      </c>
-      <c r="Y703" s="23" t="str">
-        <f t="shared" si="161"/>
-        <v>sombrear</v>
-      </c>
-    </row>
-    <row r="704" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>separar</v>
+      </c>
+    </row>
+    <row r="704" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="4">
         <v>704</v>
       </c>
       <c r="B704" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C704" s="28" t="str">
-        <f t="shared" si="173"/>
+      <c r="C704" s="31" t="str">
+        <f t="shared" si="177"/>
         <v>p.sombrear</v>
       </c>
       <c r="D704" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.brise.vertical</v>
+        <f t="shared" si="167"/>
+        <v>é.brise</v>
       </c>
       <c r="E704" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F704" s="21" t="str">
-        <f>F703</f>
-        <v>d.sombrear</v>
+      <c r="F704" s="19" t="s">
+        <v>853</v>
       </c>
       <c r="G704" s="36" t="s">
-        <v>804</v>
-      </c>
-      <c r="H704" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="H704" s="27" t="s">
         <v>39</v>
       </c>
       <c r="I704" s="30" t="s">
@@ -64913,22 +64928,22 @@
         <v>43</v>
       </c>
       <c r="U704" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para sombrear: é.brise</v>
+      </c>
+      <c r="V704" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sombrear: brise ( xsd:string ) </v>
+      </c>
+      <c r="W704" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="X704" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sombrear: é.brise.vertical</v>
-      </c>
-      <c r="V704" s="6" t="str">
+        <v>somb.100</v>
+      </c>
+      <c r="Y704" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sombrear: brise.vertical ( xsd:string ) </v>
-      </c>
-      <c r="W704" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="X704" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>somb.102</v>
-      </c>
-      <c r="Y704" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>sombrear</v>
       </c>
     </row>
@@ -64940,12 +64955,12 @@
         <v>37</v>
       </c>
       <c r="C705" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.sombrear</v>
       </c>
       <c r="D705" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.brise.móvel</v>
+        <f t="shared" si="167"/>
+        <v>é.brise.horizontal</v>
       </c>
       <c r="E705" s="10" t="s">
         <v>38</v>
@@ -64955,7 +64970,7 @@
         <v>d.sombrear</v>
       </c>
       <c r="G705" s="36" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H705" s="5" t="s">
         <v>39</v>
@@ -64997,22 +65012,22 @@
         <v>43</v>
       </c>
       <c r="U705" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para sombrear: é.brise.horizontal</v>
+      </c>
+      <c r="V705" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sombrear: brise.horizontal ( xsd:string ) </v>
+      </c>
+      <c r="W705" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="X705" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sombrear: é.brise.móvel</v>
-      </c>
-      <c r="V705" s="6" t="str">
+        <v>somb.101</v>
+      </c>
+      <c r="Y705" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sombrear: brise.móvel ( xsd:string ) </v>
-      </c>
-      <c r="W705" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="X705" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>somb.103</v>
-      </c>
-      <c r="Y705" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>sombrear</v>
       </c>
     </row>
@@ -65024,12 +65039,12 @@
         <v>37</v>
       </c>
       <c r="C706" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.sombrear</v>
       </c>
       <c r="D706" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.cobogó</v>
+        <f t="shared" si="167"/>
+        <v>é.brise.vertical</v>
       </c>
       <c r="E706" s="10" t="s">
         <v>38</v>
@@ -65039,7 +65054,7 @@
         <v>d.sombrear</v>
       </c>
       <c r="G706" s="36" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H706" s="5" t="s">
         <v>39</v>
@@ -65081,22 +65096,22 @@
         <v>43</v>
       </c>
       <c r="U706" s="6" t="str">
+        <f t="shared" si="168"/>
+        <v>Propriedade para sombrear: é.brise.vertical</v>
+      </c>
+      <c r="V706" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sombrear: brise.vertical ( xsd:string ) </v>
+      </c>
+      <c r="W706" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="X706" s="23" t="str">
         <f t="shared" si="164"/>
-        <v>Propriedade para sombrear: é.cobogó</v>
-      </c>
-      <c r="V706" s="6" t="str">
+        <v>somb.102</v>
+      </c>
+      <c r="Y706" s="23" t="str">
         <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para sombrear: cobogó ( xsd:string ) </v>
-      </c>
-      <c r="W706" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="X706" s="23" t="str">
-        <f t="shared" si="160"/>
-        <v>somb.104</v>
-      </c>
-      <c r="Y706" s="23" t="str">
-        <f t="shared" si="161"/>
         <v>sombrear</v>
       </c>
     </row>
@@ -65107,24 +65122,25 @@
       <c r="B707" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C707" s="31" t="str">
-        <f t="shared" si="173"/>
-        <v>p.tabular</v>
+      <c r="C707" s="28" t="str">
+        <f t="shared" si="177"/>
+        <v>p.sombrear</v>
       </c>
       <c r="D707" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.tabela</v>
+        <f t="shared" si="167"/>
+        <v>é.brise.móvel</v>
       </c>
       <c r="E707" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F707" s="19" t="s">
-        <v>854</v>
+      <c r="F707" s="21" t="str">
+        <f>F706</f>
+        <v>d.sombrear</v>
       </c>
       <c r="G707" s="36" t="s">
-        <v>807</v>
-      </c>
-      <c r="H707" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="H707" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I707" s="30" t="s">
@@ -65164,23 +65180,23 @@
         <v>43</v>
       </c>
       <c r="U707" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para tabular: é.tabela</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para sombrear: é.brise.móvel</v>
       </c>
       <c r="V707" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para tabular: tabela ( xsd:string ) </v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sombrear: brise.móvel ( xsd:string ) </v>
       </c>
       <c r="W707" s="20" t="s">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="X707" s="23" t="str">
-        <f t="shared" ref="X707:X754" si="174">IF(F706&lt;&gt;F707,_xlfn.CONCAT(RIGHT(LEFT(F707,6),4),".100"),_xlfn.CONCAT(RIGHT(LEFT(F707,6),4),".",SUM(VALUE(RIGHT(X706,3)),1)))</f>
-        <v>tabu.100</v>
+        <f t="shared" ref="X707:X756" si="178">IF(F706&lt;&gt;F707,_xlfn.CONCAT(RIGHT(LEFT(F707,6),4),".100"),_xlfn.CONCAT(RIGHT(LEFT(F707,6),4),".",SUM(VALUE(RIGHT(X706,3)),1)))</f>
+        <v>somb.103</v>
       </c>
       <c r="Y707" s="23" t="str">
-        <f t="shared" ref="Y707:Y754" si="175">SUBSTITUTE(F707, "d.",  "")</f>
-        <v>tabular</v>
+        <f t="shared" ref="Y707:Y756" si="179">SUBSTITUTE(F707, "d.",  "")</f>
+        <v>sombrear</v>
       </c>
     </row>
     <row r="708" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -65191,24 +65207,24 @@
         <v>37</v>
       </c>
       <c r="C708" s="28" t="str">
-        <f t="shared" si="173"/>
-        <v>p.tabular</v>
+        <f t="shared" si="177"/>
+        <v>p.sombrear</v>
       </c>
       <c r="D708" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.tabela.gráfica</v>
+        <f t="shared" si="167"/>
+        <v>é.cobogó</v>
       </c>
       <c r="E708" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F708" s="21" t="str">
         <f>F707</f>
-        <v>d.tabular</v>
+        <v>d.sombrear</v>
       </c>
       <c r="G708" s="36" t="s">
-        <v>808</v>
-      </c>
-      <c r="H708" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="H708" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I708" s="30" t="s">
@@ -65248,23 +65264,23 @@
         <v>43</v>
       </c>
       <c r="U708" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para tabular: é.tabela.gráfica</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para sombrear: é.cobogó</v>
       </c>
       <c r="V708" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para tabular: tabela.gráfica ( xsd:string ) </v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para sombrear: cobogó ( xsd:string ) </v>
       </c>
       <c r="W708" s="20" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="X708" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>tabu.101</v>
+        <f t="shared" si="178"/>
+        <v>somb.104</v>
       </c>
       <c r="Y708" s="23" t="str">
-        <f t="shared" si="175"/>
-        <v>tabular</v>
+        <f t="shared" si="179"/>
+        <v>sombrear</v>
       </c>
     </row>
     <row r="709" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -65274,23 +65290,22 @@
       <c r="B709" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C709" s="28" t="str">
-        <f t="shared" si="173"/>
+      <c r="C709" s="31" t="str">
+        <f t="shared" si="177"/>
         <v>p.tabular</v>
       </c>
       <c r="D709" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.tabela.quantitativo</v>
+        <f t="shared" si="167"/>
+        <v>é.tabela</v>
       </c>
       <c r="E709" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F709" s="21" t="str">
-        <f>F708</f>
-        <v>d.tabular</v>
+      <c r="F709" s="19" t="s">
+        <v>854</v>
       </c>
       <c r="G709" s="36" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H709" s="27" t="s">
         <v>39</v>
@@ -65332,22 +65347,22 @@
         <v>43</v>
       </c>
       <c r="U709" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para tabular: é.tabela.quantitativo</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para tabular: é.tabela</v>
       </c>
       <c r="V709" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para tabular: tabela.quantitativo ( xsd:string ) </v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para tabular: tabela ( xsd:string ) </v>
       </c>
       <c r="W709" s="20" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="X709" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>tabu.102</v>
+        <f t="shared" si="178"/>
+        <v>tabu.100</v>
       </c>
       <c r="Y709" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>tabular</v>
       </c>
     </row>
@@ -65359,12 +65374,12 @@
         <v>37</v>
       </c>
       <c r="C710" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.tabular</v>
       </c>
       <c r="D710" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.tabela.orçamento</v>
+        <f t="shared" si="167"/>
+        <v>é.tabela.gráfica</v>
       </c>
       <c r="E710" s="10" t="s">
         <v>38</v>
@@ -65374,7 +65389,7 @@
         <v>d.tabular</v>
       </c>
       <c r="G710" s="36" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H710" s="27" t="s">
         <v>39</v>
@@ -65416,77 +65431,78 @@
         <v>43</v>
       </c>
       <c r="U710" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para tabular: é.tabela.orçamento</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para tabular: é.tabela.gráfica</v>
       </c>
       <c r="V710" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para tabular: tabela.orçamento ( xsd:string ) </v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para tabular: tabela.gráfica ( xsd:string ) </v>
       </c>
       <c r="W710" s="20" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="X710" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>tabu.103</v>
+        <f t="shared" si="178"/>
+        <v>tabu.101</v>
       </c>
       <c r="Y710" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>tabular</v>
       </c>
     </row>
-    <row r="711" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="4">
         <v>711</v>
       </c>
       <c r="B711" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C711" s="31" t="str">
-        <f t="shared" si="173"/>
-        <v>p.temporalizar</v>
+      <c r="C711" s="28" t="str">
+        <f t="shared" si="177"/>
+        <v>p.tabular</v>
       </c>
       <c r="D711" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.momento.inicial</v>
+        <f t="shared" si="167"/>
+        <v>é.tabela.quantitativo</v>
       </c>
       <c r="E711" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F711" s="19" t="s">
-        <v>920</v>
-      </c>
-      <c r="G711" s="37" t="s">
-        <v>925</v>
-      </c>
-      <c r="H711" s="5" t="s">
-        <v>45</v>
+      <c r="F711" s="21" t="str">
+        <f>F710</f>
+        <v>d.tabular</v>
+      </c>
+      <c r="G711" s="36" t="s">
+        <v>809</v>
+      </c>
+      <c r="H711" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="I711" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J711" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K711" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L711" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M711" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N711" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O711" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P711" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q711" s="24" t="s">
+      <c r="J711" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K711" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L711" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M711" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N711" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O711" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P711" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q711" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R711" s="26" t="s">
@@ -65499,26 +65515,26 @@
         <v>43</v>
       </c>
       <c r="U711" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para temporalizar: é.momento.inicial</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para tabular: é.tabela.quantitativo</v>
       </c>
       <c r="V711" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para temporalizar: momento.inicial ( xsd:dateTime ) </v>
-      </c>
-      <c r="W711" s="6" t="s">
-        <v>927</v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para tabular: tabela.quantitativo ( xsd:string ) </v>
+      </c>
+      <c r="W711" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="X711" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.100</v>
+        <f t="shared" si="178"/>
+        <v>tabu.102</v>
       </c>
       <c r="Y711" s="23" t="str">
-        <f t="shared" si="175"/>
-        <v>temporalizar</v>
-      </c>
-    </row>
-    <row r="712" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="179"/>
+        <v>tabular</v>
+      </c>
+    </row>
+    <row r="712" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="4">
         <v>712</v>
       </c>
@@ -65526,51 +65542,51 @@
         <v>37</v>
       </c>
       <c r="C712" s="28" t="str">
-        <f t="shared" si="173"/>
-        <v>p.temporalizar</v>
+        <f t="shared" si="177"/>
+        <v>p.tabular</v>
       </c>
       <c r="D712" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.momento</v>
+        <f t="shared" si="167"/>
+        <v>é.tabela.orçamento</v>
       </c>
       <c r="E712" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F712" s="21" t="str">
         <f>F711</f>
-        <v>d.temporalizar</v>
-      </c>
-      <c r="G712" s="37" t="s">
-        <v>750</v>
-      </c>
-      <c r="H712" s="5" t="s">
-        <v>45</v>
+        <v>d.tabular</v>
+      </c>
+      <c r="G712" s="36" t="s">
+        <v>810</v>
+      </c>
+      <c r="H712" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="I712" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J712" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K712" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L712" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M712" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N712" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O712" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P712" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q712" s="24" t="s">
+      <c r="J712" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K712" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L712" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M712" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N712" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O712" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P712" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q712" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R712" s="26" t="s">
@@ -65583,23 +65599,23 @@
         <v>43</v>
       </c>
       <c r="U712" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para temporalizar: é.momento</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para tabular: é.tabela.orçamento</v>
       </c>
       <c r="V712" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para temporalizar: momento ( xsd:dateTime ) </v>
-      </c>
-      <c r="W712" s="6" t="s">
-        <v>1171</v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para tabular: tabela.orçamento ( xsd:string ) </v>
+      </c>
+      <c r="W712" s="20" t="s">
+        <v>387</v>
       </c>
       <c r="X712" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.101</v>
+        <f t="shared" si="178"/>
+        <v>tabu.103</v>
       </c>
       <c r="Y712" s="23" t="str">
-        <f t="shared" si="175"/>
-        <v>temporalizar</v>
+        <f t="shared" si="179"/>
+        <v>tabular</v>
       </c>
     </row>
     <row r="713" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -65609,23 +65625,22 @@
       <c r="B713" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C713" s="28" t="str">
-        <f t="shared" si="173"/>
+      <c r="C713" s="31" t="str">
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D713" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.momento.final</v>
+        <f t="shared" si="167"/>
+        <v>é.momento.inicial</v>
       </c>
       <c r="E713" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F713" s="21" t="str">
-        <f t="shared" ref="F713:F724" si="176">F712</f>
-        <v>d.temporalizar</v>
+      <c r="F713" s="19" t="s">
+        <v>920</v>
       </c>
       <c r="G713" s="37" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H713" s="5" t="s">
         <v>45</v>
@@ -65667,26 +65682,26 @@
         <v>43</v>
       </c>
       <c r="U713" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para temporalizar: é.momento.final</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para temporalizar: é.momento.inicial</v>
       </c>
       <c r="V713" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para temporalizar: momento.final ( xsd:dateTime ) </v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para temporalizar: momento.inicial ( xsd:dateTime ) </v>
       </c>
       <c r="W713" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="X713" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.102</v>
+        <f t="shared" si="178"/>
+        <v>temp.100</v>
       </c>
       <c r="Y713" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
-    <row r="714" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="4">
         <v>714</v>
       </c>
@@ -65694,22 +65709,22 @@
         <v>37</v>
       </c>
       <c r="C714" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D714" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.duração</v>
+        <f t="shared" si="167"/>
+        <v>é.momento</v>
       </c>
       <c r="E714" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F714" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f>F713</f>
         <v>d.temporalizar</v>
       </c>
       <c r="G714" s="37" t="s">
-        <v>570</v>
+        <v>750</v>
       </c>
       <c r="H714" s="5" t="s">
         <v>45</v>
@@ -65751,26 +65766,26 @@
         <v>43</v>
       </c>
       <c r="U714" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para temporalizar: é.duração</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para temporalizar: é.momento</v>
       </c>
       <c r="V714" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para temporalizar: duração ( xsd:dateTime ) </v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para temporalizar: momento ( xsd:dateTime ) </v>
       </c>
       <c r="W714" s="6" t="s">
-        <v>929</v>
+        <v>1171</v>
       </c>
       <c r="X714" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.103</v>
+        <f t="shared" si="178"/>
+        <v>temp.101</v>
       </c>
       <c r="Y714" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
-    <row r="715" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="4">
         <v>715</v>
       </c>
@@ -65778,22 +65793,22 @@
         <v>37</v>
       </c>
       <c r="C715" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D715" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.durabilidade</v>
+        <f t="shared" si="167"/>
+        <v>é.momento.final</v>
       </c>
       <c r="E715" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F715" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" ref="F715:F726" si="180">F714</f>
         <v>d.temporalizar</v>
       </c>
       <c r="G715" s="37" t="s">
-        <v>1073</v>
+        <v>926</v>
       </c>
       <c r="H715" s="5" t="s">
         <v>45</v>
@@ -65802,7 +65817,7 @@
         <v>0</v>
       </c>
       <c r="J715" s="24" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K715" s="24" t="s">
         <v>0</v>
@@ -65835,22 +65850,22 @@
         <v>43</v>
       </c>
       <c r="U715" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para temporalizar: é.durabilidade</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para temporalizar: é.momento.final</v>
       </c>
       <c r="V715" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para temporalizar: durabilidade ( xsd:dateTime ) </v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para temporalizar: momento.final ( xsd:dateTime ) </v>
       </c>
       <c r="W715" s="6" t="s">
-        <v>1074</v>
+        <v>928</v>
       </c>
       <c r="X715" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.104</v>
+        <f t="shared" si="178"/>
+        <v>temp.102</v>
       </c>
       <c r="Y715" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
@@ -65862,22 +65877,22 @@
         <v>37</v>
       </c>
       <c r="C716" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D716" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.horário</v>
+        <f t="shared" si="167"/>
+        <v>é.duração</v>
       </c>
       <c r="E716" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F716" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>d.temporalizar</v>
       </c>
       <c r="G716" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H716" s="5" t="s">
         <v>45</v>
@@ -65919,22 +65934,22 @@
         <v>43</v>
       </c>
       <c r="U716" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para temporalizar: é.horário</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para temporalizar: é.duração</v>
       </c>
       <c r="V716" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para temporalizar: horário ( xsd:dateTime ) </v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para temporalizar: duração ( xsd:dateTime ) </v>
       </c>
       <c r="W716" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="X716" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.105</v>
+        <f t="shared" si="178"/>
+        <v>temp.103</v>
       </c>
       <c r="Y716" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
@@ -65946,22 +65961,22 @@
         <v>37</v>
       </c>
       <c r="C717" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D717" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.data.de.validade</v>
+        <f t="shared" si="167"/>
+        <v>é.durabilidade</v>
       </c>
       <c r="E717" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F717" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>d.temporalizar</v>
       </c>
-      <c r="G717" s="36" t="s">
-        <v>572</v>
+      <c r="G717" s="37" t="s">
+        <v>1073</v>
       </c>
       <c r="H717" s="5" t="s">
         <v>45</v>
@@ -65969,28 +65984,28 @@
       <c r="I717" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J717" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K717" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L717" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M717" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N717" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O717" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P717" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q717" s="26" t="s">
+      <c r="J717" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K717" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L717" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M717" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N717" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O717" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P717" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q717" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R717" s="26" t="s">
@@ -66003,26 +66018,26 @@
         <v>43</v>
       </c>
       <c r="U717" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para temporalizar: é.data.de.validade</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para temporalizar: é.durabilidade</v>
       </c>
       <c r="V717" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para temporalizar: data.de.validade ( xsd:dateTime ) </v>
-      </c>
-      <c r="W717" s="20" t="s">
-        <v>280</v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para temporalizar: durabilidade ( xsd:dateTime ) </v>
+      </c>
+      <c r="W717" s="6" t="s">
+        <v>1074</v>
       </c>
       <c r="X717" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.106</v>
+        <f t="shared" si="178"/>
+        <v>temp.104</v>
       </c>
       <c r="Y717" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
-    <row r="718" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="4">
         <v>718</v>
       </c>
@@ -66030,22 +66045,22 @@
         <v>37</v>
       </c>
       <c r="C718" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D718" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.data.de.verificação</v>
+        <f t="shared" si="167"/>
+        <v>é.horário</v>
       </c>
       <c r="E718" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F718" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>d.temporalizar</v>
       </c>
-      <c r="G718" s="36" t="s">
-        <v>573</v>
+      <c r="G718" s="37" t="s">
+        <v>571</v>
       </c>
       <c r="H718" s="5" t="s">
         <v>45</v>
@@ -66053,28 +66068,28 @@
       <c r="I718" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J718" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K718" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L718" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M718" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N718" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O718" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P718" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q718" s="26" t="s">
+      <c r="J718" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K718" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L718" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M718" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N718" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O718" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P718" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q718" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R718" s="26" t="s">
@@ -66087,22 +66102,22 @@
         <v>43</v>
       </c>
       <c r="U718" s="6" t="str">
-        <f t="shared" si="164"/>
-        <v>Propriedade para temporalizar: é.data.de.verificação</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para temporalizar: é.horário</v>
       </c>
       <c r="V718" s="6" t="str">
-        <f t="shared" si="165"/>
-        <v xml:space="preserve">Dado para temporalizar: data.de.verificação ( xsd:dateTime ) </v>
-      </c>
-      <c r="W718" s="20" t="s">
-        <v>279</v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para temporalizar: horário ( xsd:dateTime ) </v>
+      </c>
+      <c r="W718" s="6" t="s">
+        <v>930</v>
       </c>
       <c r="X718" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.107</v>
+        <f t="shared" si="178"/>
+        <v>temp.105</v>
       </c>
       <c r="Y718" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
@@ -66114,22 +66129,22 @@
         <v>37</v>
       </c>
       <c r="C719" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D719" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.data.de.levantamento</v>
+        <f t="shared" si="167"/>
+        <v>é.data.de.validade</v>
       </c>
       <c r="E719" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F719" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>d.temporalizar</v>
       </c>
       <c r="G719" s="36" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H719" s="5" t="s">
         <v>45</v>
@@ -66171,26 +66186,26 @@
         <v>43</v>
       </c>
       <c r="U719" s="6" t="str">
-        <f t="shared" ref="U719:U754" si="177">_xlfn.CONCAT("Propriedade para ",MID(C719,FIND("p.",C719,1)+2,100),": ",D719)</f>
-        <v>Propriedade para temporalizar: é.data.de.levantamento</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para temporalizar: é.data.de.validade</v>
       </c>
       <c r="V719" s="6" t="str">
-        <f t="shared" ref="V719:V754" si="178">_xlfn.CONCAT("Dado para ",MID(F719,FIND("d.",F719,1)+2,100),": ",G719, " ( ",H719, " ) ")</f>
-        <v xml:space="preserve">Dado para temporalizar: data.de.levantamento ( xsd:dateTime ) </v>
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para temporalizar: data.de.validade ( xsd:dateTime ) </v>
       </c>
       <c r="W719" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X719" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.108</v>
+        <f t="shared" si="178"/>
+        <v>temp.106</v>
       </c>
       <c r="Y719" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
-    <row r="720" spans="1:25" s="8" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="4">
         <v>720</v>
       </c>
@@ -66198,51 +66213,51 @@
         <v>37</v>
       </c>
       <c r="C720" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D720" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.periodicidade</v>
+        <f t="shared" si="167"/>
+        <v>é.data.de.verificação</v>
       </c>
       <c r="E720" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F720" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>d.temporalizar</v>
       </c>
-      <c r="G720" s="37" t="s">
-        <v>490</v>
+      <c r="G720" s="36" t="s">
+        <v>573</v>
       </c>
       <c r="H720" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I720" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J720" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K720" s="24" t="s">
+      <c r="J720" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K720" s="26" t="s">
         <v>0</v>
       </c>
       <c r="L720" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M720" s="24" t="s">
+      <c r="M720" s="26" t="s">
         <v>0</v>
       </c>
       <c r="N720" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O720" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P720" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q720" s="24" t="s">
+      <c r="O720" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P720" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q720" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R720" s="26" t="s">
@@ -66255,22 +66270,22 @@
         <v>43</v>
       </c>
       <c r="U720" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para temporalizar: é.periodicidade</v>
+        <f t="shared" si="168"/>
+        <v>Propriedade para temporalizar: é.data.de.verificação</v>
       </c>
       <c r="V720" s="6" t="str">
+        <f t="shared" si="169"/>
+        <v xml:space="preserve">Dado para temporalizar: data.de.verificação ( xsd:dateTime ) </v>
+      </c>
+      <c r="W720" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="X720" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para temporalizar: periodicidade ( xsd:string ) </v>
-      </c>
-      <c r="W720" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="X720" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.109</v>
+        <v>temp.107</v>
       </c>
       <c r="Y720" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
@@ -66282,25 +66297,25 @@
         <v>37</v>
       </c>
       <c r="C721" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D721" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.dia</v>
+        <f t="shared" si="167"/>
+        <v>é.data.de.levantamento</v>
       </c>
       <c r="E721" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F721" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>d.temporalizar</v>
       </c>
       <c r="G721" s="36" t="s">
-        <v>935</v>
+        <v>574</v>
       </c>
       <c r="H721" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I721" s="30" t="s">
         <v>0</v>
@@ -66339,26 +66354,26 @@
         <v>43</v>
       </c>
       <c r="U721" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para temporalizar: é.dia</v>
+        <f t="shared" ref="U721:U756" si="181">_xlfn.CONCAT("Propriedade para ",MID(C721,FIND("p.",C721,1)+2,100),": ",D721)</f>
+        <v>Propriedade para temporalizar: é.data.de.levantamento</v>
       </c>
       <c r="V721" s="6" t="str">
+        <f t="shared" ref="V721:V756" si="182">_xlfn.CONCAT("Dado para ",MID(F721,FIND("d.",F721,1)+2,100),": ",G721, " ( ",H721, " ) ")</f>
+        <v xml:space="preserve">Dado para temporalizar: data.de.levantamento ( xsd:dateTime ) </v>
+      </c>
+      <c r="W721" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="X721" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para temporalizar: dia ( xsd:string ) </v>
-      </c>
-      <c r="W721" s="20" t="s">
-        <v>938</v>
-      </c>
-      <c r="X721" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.110</v>
+        <v>temp.108</v>
       </c>
       <c r="Y721" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
-    <row r="722" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:25" s="8" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="4">
         <v>722</v>
       </c>
@@ -66366,22 +66381,22 @@
         <v>37</v>
       </c>
       <c r="C722" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D722" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.mês</v>
+        <f t="shared" si="167"/>
+        <v>é.periodicidade</v>
       </c>
       <c r="E722" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F722" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>d.temporalizar</v>
       </c>
-      <c r="G722" s="36" t="s">
-        <v>936</v>
+      <c r="G722" s="37" t="s">
+        <v>490</v>
       </c>
       <c r="H722" s="5" t="s">
         <v>39</v>
@@ -66389,28 +66404,28 @@
       <c r="I722" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J722" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K722" s="26" t="s">
+      <c r="J722" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K722" s="24" t="s">
         <v>0</v>
       </c>
       <c r="L722" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M722" s="26" t="s">
+      <c r="M722" s="24" t="s">
         <v>0</v>
       </c>
       <c r="N722" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O722" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="P722" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q722" s="26" t="s">
+      <c r="O722" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P722" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q722" s="24" t="s">
         <v>0</v>
       </c>
       <c r="R722" s="26" t="s">
@@ -66423,22 +66438,22 @@
         <v>43</v>
       </c>
       <c r="U722" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para temporalizar: é.mês</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para temporalizar: é.periodicidade</v>
       </c>
       <c r="V722" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para temporalizar: periodicidade ( xsd:string ) </v>
+      </c>
+      <c r="W722" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="X722" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para temporalizar: mês ( xsd:string ) </v>
-      </c>
-      <c r="W722" s="20" t="s">
-        <v>939</v>
-      </c>
-      <c r="X722" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.111</v>
+        <v>temp.109</v>
       </c>
       <c r="Y722" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
@@ -66450,22 +66465,22 @@
         <v>37</v>
       </c>
       <c r="C723" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D723" s="7" t="str">
-        <f t="shared" si="163"/>
-        <v>é.ano</v>
+        <f t="shared" si="167"/>
+        <v>é.dia</v>
       </c>
       <c r="E723" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F723" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>d.temporalizar</v>
       </c>
       <c r="G723" s="36" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H723" s="5" t="s">
         <v>39</v>
@@ -66507,22 +66522,22 @@
         <v>43</v>
       </c>
       <c r="U723" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para temporalizar: é.ano</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para temporalizar: é.dia</v>
       </c>
       <c r="V723" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para temporalizar: dia ( xsd:string ) </v>
+      </c>
+      <c r="W723" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="X723" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para temporalizar: ano ( xsd:string ) </v>
-      </c>
-      <c r="W723" s="20" t="s">
-        <v>940</v>
-      </c>
-      <c r="X723" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.112</v>
+        <v>temp.110</v>
       </c>
       <c r="Y723" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
@@ -66534,22 +66549,22 @@
         <v>37</v>
       </c>
       <c r="C724" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.temporalizar</v>
       </c>
       <c r="D724" s="7" t="str">
-        <f t="shared" ref="D724:D754" si="179">_xlfn.CONCAT("é.",G724)</f>
-        <v>é.ano.fiscal</v>
+        <f t="shared" si="167"/>
+        <v>é.mês</v>
       </c>
       <c r="E724" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F724" s="21" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>d.temporalizar</v>
       </c>
       <c r="G724" s="36" t="s">
-        <v>575</v>
+        <v>936</v>
       </c>
       <c r="H724" s="5" t="s">
         <v>39</v>
@@ -66591,22 +66606,22 @@
         <v>43</v>
       </c>
       <c r="U724" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para temporalizar: é.ano.fiscal</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para temporalizar: é.mês</v>
       </c>
       <c r="V724" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para temporalizar: mês ( xsd:string ) </v>
+      </c>
+      <c r="W724" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="X724" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para temporalizar: ano.fiscal ( xsd:string ) </v>
-      </c>
-      <c r="W724" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="X724" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>temp.113</v>
+        <v>temp.111</v>
       </c>
       <c r="Y724" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>temporalizar</v>
       </c>
     </row>
@@ -66617,22 +66632,23 @@
       <c r="B725" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C725" s="31" t="str">
-        <f t="shared" si="173"/>
-        <v>p.urbanizar</v>
+      <c r="C725" s="28" t="str">
+        <f t="shared" si="177"/>
+        <v>p.temporalizar</v>
       </c>
       <c r="D725" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.fator.de.forma</v>
+        <f t="shared" si="167"/>
+        <v>é.ano</v>
       </c>
       <c r="E725" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F725" s="19" t="s">
-        <v>992</v>
-      </c>
-      <c r="G725" s="37" t="s">
-        <v>986</v>
+      <c r="F725" s="21" t="str">
+        <f t="shared" si="180"/>
+        <v>d.temporalizar</v>
+      </c>
+      <c r="G725" s="36" t="s">
+        <v>937</v>
       </c>
       <c r="H725" s="5" t="s">
         <v>39</v>
@@ -66640,28 +66656,28 @@
       <c r="I725" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J725" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K725" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L725" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M725" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N725" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O725" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P725" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q725" s="24" t="s">
+      <c r="J725" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K725" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L725" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M725" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N725" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O725" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P725" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q725" s="26" t="s">
         <v>0</v>
       </c>
       <c r="R725" s="26" t="s">
@@ -66674,26 +66690,26 @@
         <v>43</v>
       </c>
       <c r="U725" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.fator.de.forma</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para temporalizar: é.ano</v>
       </c>
       <c r="V725" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para temporalizar: ano ( xsd:string ) </v>
+      </c>
+      <c r="W725" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="X725" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: fator.de.forma ( xsd:string ) </v>
-      </c>
-      <c r="W725" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="X725" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.100</v>
+        <v>temp.112</v>
       </c>
       <c r="Y725" s="23" t="str">
-        <f t="shared" si="175"/>
-        <v>urbanizar</v>
-      </c>
-    </row>
-    <row r="726" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="179"/>
+        <v>temporalizar</v>
+      </c>
+    </row>
+    <row r="726" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="4">
         <v>726</v>
       </c>
@@ -66701,106 +66717,105 @@
         <v>37</v>
       </c>
       <c r="C726" s="28" t="str">
-        <f t="shared" si="173"/>
-        <v>p.urbanizar</v>
+        <f t="shared" si="177"/>
+        <v>p.temporalizar</v>
       </c>
       <c r="D726" s="7" t="str">
+        <f t="shared" ref="D726:D756" si="183">_xlfn.CONCAT("é.",G726)</f>
+        <v>é.ano.fiscal</v>
+      </c>
+      <c r="E726" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F726" s="21" t="str">
+        <f t="shared" si="180"/>
+        <v>d.temporalizar</v>
+      </c>
+      <c r="G726" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="H726" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I726" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J726" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K726" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L726" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M726" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N726" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O726" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P726" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q726" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R726" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S726" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T726" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U726" s="6" t="str">
+        <f t="shared" si="181"/>
+        <v>Propriedade para temporalizar: é.ano.fiscal</v>
+      </c>
+      <c r="V726" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para temporalizar: ano.fiscal ( xsd:string ) </v>
+      </c>
+      <c r="W726" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="X726" s="23" t="str">
+        <f t="shared" si="178"/>
+        <v>temp.113</v>
+      </c>
+      <c r="Y726" s="23" t="str">
         <f t="shared" si="179"/>
-        <v>é.altura.predial</v>
-      </c>
-      <c r="E726" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F726" s="21" t="str">
-        <f>F725</f>
-        <v>d.urbanizar</v>
-      </c>
-      <c r="G726" s="37" t="s">
-        <v>987</v>
-      </c>
-      <c r="H726" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I726" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J726" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K726" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L726" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M726" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N726" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O726" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P726" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q726" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R726" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S726" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T726" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U726" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.altura.predial</v>
-      </c>
-      <c r="V726" s="6" t="str">
-        <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: altura.predial ( xsd:double ) </v>
-      </c>
-      <c r="W726" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="X726" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.101</v>
-      </c>
-      <c r="Y726" s="23" t="str">
-        <f t="shared" si="175"/>
-        <v>urbanizar</v>
-      </c>
-    </row>
-    <row r="727" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>temporalizar</v>
+      </c>
+    </row>
+    <row r="727" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="4">
         <v>727</v>
       </c>
       <c r="B727" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C727" s="28" t="str">
-        <f t="shared" si="173"/>
+      <c r="C727" s="31" t="str">
+        <f t="shared" si="177"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D727" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.cobertura.impermeável</v>
+        <f t="shared" si="183"/>
+        <v>é.fator.de.forma</v>
       </c>
       <c r="E727" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F727" s="21" t="str">
-        <f t="shared" ref="F727:F735" si="180">F726</f>
-        <v>d.urbanizar</v>
+      <c r="F727" s="19" t="s">
+        <v>992</v>
       </c>
       <c r="G727" s="37" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H727" s="5" t="s">
         <v>39</v>
@@ -66842,22 +66857,22 @@
         <v>43</v>
       </c>
       <c r="U727" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.cobertura.impermeável</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.fator.de.forma</v>
       </c>
       <c r="V727" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: fator.de.forma ( xsd:string ) </v>
+      </c>
+      <c r="W727" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="X727" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: cobertura.impermeável ( xsd:string ) </v>
-      </c>
-      <c r="W727" s="6" t="s">
-        <v>993</v>
-      </c>
-      <c r="X727" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.102</v>
+        <v>urba.100</v>
       </c>
       <c r="Y727" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>urbanizar</v>
       </c>
     </row>
@@ -66869,22 +66884,22 @@
         <v>37</v>
       </c>
       <c r="C728" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D728" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.calor.antropogénico</v>
+        <f t="shared" si="183"/>
+        <v>é.altura.predial</v>
       </c>
       <c r="E728" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F728" s="21" t="str">
-        <f t="shared" si="180"/>
+        <f>F727</f>
         <v>d.urbanizar</v>
       </c>
       <c r="G728" s="37" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H728" s="5" t="s">
         <v>47</v>
@@ -66926,22 +66941,22 @@
         <v>43</v>
       </c>
       <c r="U728" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.calor.antropogénico</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.altura.predial</v>
       </c>
       <c r="V728" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: altura.predial ( xsd:double ) </v>
+      </c>
+      <c r="W728" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="X728" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: calor.antropogénico ( xsd:double ) </v>
-      </c>
-      <c r="W728" s="6" t="s">
-        <v>991</v>
-      </c>
-      <c r="X728" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.103</v>
+        <v>urba.101</v>
       </c>
       <c r="Y728" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>urbanizar</v>
       </c>
     </row>
@@ -66953,22 +66968,22 @@
         <v>37</v>
       </c>
       <c r="C729" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D729" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.zoneamento</v>
+        <f t="shared" si="183"/>
+        <v>é.cobertura.impermeável</v>
       </c>
       <c r="E729" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F729" s="21" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" ref="F729:F737" si="184">F728</f>
         <v>d.urbanizar</v>
       </c>
       <c r="G729" s="37" t="s">
-        <v>1050</v>
+        <v>988</v>
       </c>
       <c r="H729" s="5" t="s">
         <v>39</v>
@@ -67010,22 +67025,22 @@
         <v>43</v>
       </c>
       <c r="U729" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.zoneamento</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.cobertura.impermeável</v>
       </c>
       <c r="V729" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: cobertura.impermeável ( xsd:string ) </v>
+      </c>
+      <c r="W729" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="X729" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: zoneamento ( xsd:string ) </v>
-      </c>
-      <c r="W729" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="X729" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.104</v>
+        <v>urba.102</v>
       </c>
       <c r="Y729" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>urbanizar</v>
       </c>
     </row>
@@ -67037,22 +67052,22 @@
         <v>37</v>
       </c>
       <c r="C730" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D730" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.recuo.frontal</v>
+        <f t="shared" si="183"/>
+        <v>é.calor.antropogénico</v>
       </c>
       <c r="E730" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F730" s="21" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>d.urbanizar</v>
       </c>
       <c r="G730" s="37" t="s">
-        <v>1047</v>
+        <v>989</v>
       </c>
       <c r="H730" s="5" t="s">
         <v>47</v>
@@ -67094,22 +67109,22 @@
         <v>43</v>
       </c>
       <c r="U730" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.recuo.frontal</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.calor.antropogénico</v>
       </c>
       <c r="V730" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: calor.antropogénico ( xsd:double ) </v>
+      </c>
+      <c r="W730" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="X730" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: recuo.frontal ( xsd:double ) </v>
-      </c>
-      <c r="W730" s="6" t="s">
-        <v>1052</v>
-      </c>
-      <c r="X730" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.105</v>
+        <v>urba.103</v>
       </c>
       <c r="Y730" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>urbanizar</v>
       </c>
     </row>
@@ -67121,79 +67136,79 @@
         <v>37</v>
       </c>
       <c r="C731" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D731" s="7" t="str">
+        <f t="shared" si="183"/>
+        <v>é.zoneamento</v>
+      </c>
+      <c r="E731" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F731" s="21" t="str">
+        <f t="shared" si="184"/>
+        <v>d.urbanizar</v>
+      </c>
+      <c r="G731" s="37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H731" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I731" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J731" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K731" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L731" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M731" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N731" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O731" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P731" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q731" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R731" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S731" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T731" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U731" s="6" t="str">
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.zoneamento</v>
+      </c>
+      <c r="V731" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: zoneamento ( xsd:string ) </v>
+      </c>
+      <c r="W731" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X731" s="23" t="str">
+        <f t="shared" si="178"/>
+        <v>urba.104</v>
+      </c>
+      <c r="Y731" s="23" t="str">
         <f t="shared" si="179"/>
-        <v>é.afastamento.lateral</v>
-      </c>
-      <c r="E731" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F731" s="21" t="str">
-        <f t="shared" si="180"/>
-        <v>d.urbanizar</v>
-      </c>
-      <c r="G731" s="37" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H731" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I731" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J731" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K731" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L731" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M731" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N731" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O731" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P731" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q731" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R731" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S731" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T731" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U731" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.afastamento.lateral</v>
-      </c>
-      <c r="V731" s="6" t="str">
-        <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: afastamento.lateral ( xsd:double ) </v>
-      </c>
-      <c r="W731" s="6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="X731" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.106</v>
-      </c>
-      <c r="Y731" s="23" t="str">
-        <f t="shared" si="175"/>
         <v>urbanizar</v>
       </c>
     </row>
@@ -67205,22 +67220,22 @@
         <v>37</v>
       </c>
       <c r="C732" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D732" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.gabarito</v>
+        <f t="shared" si="183"/>
+        <v>é.recuo.frontal</v>
       </c>
       <c r="E732" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F732" s="21" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>d.urbanizar</v>
       </c>
       <c r="G732" s="37" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="H732" s="5" t="s">
         <v>47</v>
@@ -67262,22 +67277,22 @@
         <v>43</v>
       </c>
       <c r="U732" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.gabarito</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.recuo.frontal</v>
       </c>
       <c r="V732" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: recuo.frontal ( xsd:double ) </v>
+      </c>
+      <c r="W732" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="X732" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: gabarito ( xsd:double ) </v>
-      </c>
-      <c r="W732" s="6" t="s">
-        <v>1046</v>
-      </c>
-      <c r="X732" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.107</v>
+        <v>urba.105</v>
       </c>
       <c r="Y732" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>urbanizar</v>
       </c>
     </row>
@@ -67289,22 +67304,22 @@
         <v>37</v>
       </c>
       <c r="C733" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D733" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.índice.de.aproveitamento</v>
+        <f t="shared" si="183"/>
+        <v>é.afastamento.lateral</v>
       </c>
       <c r="E733" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F733" s="21" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>d.urbanizar</v>
       </c>
       <c r="G733" s="37" t="s">
-        <v>1048</v>
+        <v>1224</v>
       </c>
       <c r="H733" s="5" t="s">
         <v>47</v>
@@ -67346,22 +67361,22 @@
         <v>43</v>
       </c>
       <c r="U733" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.índice.de.aproveitamento</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.afastamento.lateral</v>
       </c>
       <c r="V733" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: afastamento.lateral ( xsd:double ) </v>
+      </c>
+      <c r="W733" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="X733" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: índice.de.aproveitamento ( xsd:double ) </v>
-      </c>
-      <c r="W733" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="X733" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.108</v>
+        <v>urba.106</v>
       </c>
       <c r="Y733" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>urbanizar</v>
       </c>
     </row>
@@ -67373,22 +67388,22 @@
         <v>37</v>
       </c>
       <c r="C734" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D734" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.taxa.de.ocupação</v>
+        <f t="shared" si="183"/>
+        <v>é.gabarito</v>
       </c>
       <c r="E734" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F734" s="21" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>d.urbanizar</v>
       </c>
       <c r="G734" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H734" s="5" t="s">
         <v>47</v>
@@ -67430,22 +67445,22 @@
         <v>43</v>
       </c>
       <c r="U734" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.taxa.de.ocupação</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.gabarito</v>
       </c>
       <c r="V734" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: gabarito ( xsd:double ) </v>
+      </c>
+      <c r="W734" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="X734" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: taxa.de.ocupação ( xsd:double ) </v>
-      </c>
-      <c r="W734" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="X734" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.109</v>
+        <v>urba.107</v>
       </c>
       <c r="Y734" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>urbanizar</v>
       </c>
     </row>
@@ -67457,79 +67472,79 @@
         <v>37</v>
       </c>
       <c r="C735" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.urbanizar</v>
       </c>
       <c r="D735" s="7" t="str">
+        <f t="shared" si="183"/>
+        <v>é.índice.de.aproveitamento</v>
+      </c>
+      <c r="E735" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F735" s="21" t="str">
+        <f t="shared" si="184"/>
+        <v>d.urbanizar</v>
+      </c>
+      <c r="G735" s="37" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H735" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I735" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J735" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K735" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L735" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M735" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N735" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O735" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P735" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q735" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R735" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S735" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T735" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U735" s="6" t="str">
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.índice.de.aproveitamento</v>
+      </c>
+      <c r="V735" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: índice.de.aproveitamento ( xsd:double ) </v>
+      </c>
+      <c r="W735" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="X735" s="23" t="str">
+        <f t="shared" si="178"/>
+        <v>urba.108</v>
+      </c>
+      <c r="Y735" s="23" t="str">
         <f t="shared" si="179"/>
-        <v>é.operação.urbana</v>
-      </c>
-      <c r="E735" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F735" s="21" t="str">
-        <f t="shared" si="180"/>
-        <v>d.urbanizar</v>
-      </c>
-      <c r="G735" s="37" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H735" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I735" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J735" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K735" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L735" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M735" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N735" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O735" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P735" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q735" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R735" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S735" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T735" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U735" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para urbanizar: é.operação.urbana</v>
-      </c>
-      <c r="V735" s="6" t="str">
-        <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para urbanizar: operação.urbana ( xsd:string ) </v>
-      </c>
-      <c r="W735" s="6" t="s">
-        <v>1213</v>
-      </c>
-      <c r="X735" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>urba.110</v>
-      </c>
-      <c r="Y735" s="23" t="str">
-        <f t="shared" si="175"/>
         <v>urbanizar</v>
       </c>
     </row>
@@ -67540,80 +67555,81 @@
       <c r="B736" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C736" s="31" t="str">
-        <f t="shared" si="173"/>
-        <v>p.vincular</v>
+      <c r="C736" s="28" t="str">
+        <f t="shared" si="177"/>
+        <v>p.urbanizar</v>
       </c>
       <c r="D736" s="7" t="str">
+        <f t="shared" si="183"/>
+        <v>é.taxa.de.ocupação</v>
+      </c>
+      <c r="E736" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F736" s="21" t="str">
+        <f t="shared" si="184"/>
+        <v>d.urbanizar</v>
+      </c>
+      <c r="G736" s="37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H736" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I736" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J736" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K736" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L736" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M736" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N736" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O736" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P736" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q736" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R736" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S736" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T736" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U736" s="6" t="str">
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.taxa.de.ocupação</v>
+      </c>
+      <c r="V736" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: taxa.de.ocupação ( xsd:double ) </v>
+      </c>
+      <c r="W736" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="X736" s="23" t="str">
+        <f t="shared" si="178"/>
+        <v>urba.109</v>
+      </c>
+      <c r="Y736" s="23" t="str">
         <f t="shared" si="179"/>
-        <v>é.uri</v>
-      </c>
-      <c r="E736" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F736" s="19" t="s">
-        <v>855</v>
-      </c>
-      <c r="G736" s="37" t="s">
-        <v>811</v>
-      </c>
-      <c r="H736" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I736" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J736" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K736" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L736" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M736" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N736" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="O736" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P736" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q736" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R736" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S736" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T736" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U736" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.uri</v>
-      </c>
-      <c r="V736" s="6" t="str">
-        <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: uri ( xsd:string ) </v>
-      </c>
-      <c r="W736" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="X736" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.100</v>
-      </c>
-      <c r="Y736" s="23" t="str">
-        <f t="shared" si="175"/>
-        <v>vincular</v>
+        <v>urbanizar</v>
       </c>
     </row>
     <row r="737" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -67624,22 +67640,22 @@
         <v>37</v>
       </c>
       <c r="C737" s="28" t="str">
-        <f t="shared" si="173"/>
-        <v>p.vincular</v>
+        <f t="shared" si="177"/>
+        <v>p.urbanizar</v>
       </c>
       <c r="D737" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.urn</v>
+        <f t="shared" si="183"/>
+        <v>é.operação.urbana</v>
       </c>
       <c r="E737" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F737" s="21" t="str">
-        <f t="shared" ref="F737:F748" si="181">F736</f>
-        <v>d.vincular</v>
+        <f t="shared" si="184"/>
+        <v>d.urbanizar</v>
       </c>
       <c r="G737" s="37" t="s">
-        <v>812</v>
+        <v>1212</v>
       </c>
       <c r="H737" s="5" t="s">
         <v>39</v>
@@ -67647,8 +67663,8 @@
       <c r="I737" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J737" s="25" t="s">
-        <v>40</v>
+      <c r="J737" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="K737" s="24" t="s">
         <v>0</v>
@@ -67681,23 +67697,23 @@
         <v>43</v>
       </c>
       <c r="U737" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.urn</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para urbanizar: é.operação.urbana</v>
       </c>
       <c r="V737" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para urbanizar: operação.urbana ( xsd:string ) </v>
+      </c>
+      <c r="W737" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X737" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: urn ( xsd:string ) </v>
-      </c>
-      <c r="W737" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="X737" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.101</v>
+        <v>urba.110</v>
       </c>
       <c r="Y737" s="23" t="str">
-        <f t="shared" si="175"/>
-        <v>vincular</v>
+        <f t="shared" si="179"/>
+        <v>urbanizar</v>
       </c>
     </row>
     <row r="738" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -67707,23 +67723,22 @@
       <c r="B738" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C738" s="28" t="str">
-        <f t="shared" si="173"/>
+      <c r="C738" s="31" t="str">
+        <f t="shared" si="177"/>
         <v>p.vincular</v>
       </c>
       <c r="D738" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.url</v>
+        <f t="shared" si="183"/>
+        <v>é.uri</v>
       </c>
       <c r="E738" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F738" s="21" t="str">
-        <f t="shared" si="181"/>
-        <v>d.vincular</v>
+      <c r="F738" s="19" t="s">
+        <v>855</v>
       </c>
       <c r="G738" s="37" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H738" s="5" t="s">
         <v>39</v>
@@ -67765,22 +67780,22 @@
         <v>43</v>
       </c>
       <c r="U738" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.url</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.uri</v>
       </c>
       <c r="V738" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: uri ( xsd:string ) </v>
+      </c>
+      <c r="W738" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="X738" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: url ( xsd:string ) </v>
-      </c>
-      <c r="W738" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="X738" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.102</v>
+        <v>vinc.100</v>
       </c>
       <c r="Y738" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
@@ -67792,22 +67807,22 @@
         <v>37</v>
       </c>
       <c r="C739" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.vincular</v>
       </c>
       <c r="D739" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.iri</v>
+        <f t="shared" si="183"/>
+        <v>é.urn</v>
       </c>
       <c r="E739" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F739" s="21" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" ref="F739:F750" si="185">F738</f>
         <v>d.vincular</v>
       </c>
       <c r="G739" s="37" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H739" s="5" t="s">
         <v>39</v>
@@ -67849,22 +67864,22 @@
         <v>43</v>
       </c>
       <c r="U739" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.iri</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.urn</v>
       </c>
       <c r="V739" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: urn ( xsd:string ) </v>
+      </c>
+      <c r="W739" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="X739" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: iri ( xsd:string ) </v>
-      </c>
-      <c r="W739" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="X739" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.103</v>
+        <v>vinc.101</v>
       </c>
       <c r="Y739" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
@@ -67876,22 +67891,22 @@
         <v>37</v>
       </c>
       <c r="C740" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.vincular</v>
       </c>
       <c r="D740" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.ipv4</v>
+        <f t="shared" si="183"/>
+        <v>é.url</v>
       </c>
       <c r="E740" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F740" s="21" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>d.vincular</v>
       </c>
       <c r="G740" s="37" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H740" s="5" t="s">
         <v>39</v>
@@ -67933,22 +67948,22 @@
         <v>43</v>
       </c>
       <c r="U740" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.ipv4</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.url</v>
       </c>
       <c r="V740" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: url ( xsd:string ) </v>
+      </c>
+      <c r="W740" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="X740" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: ipv4 ( xsd:string ) </v>
-      </c>
-      <c r="W740" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="X740" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.104</v>
+        <v>vinc.102</v>
       </c>
       <c r="Y740" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
@@ -67960,22 +67975,22 @@
         <v>37</v>
       </c>
       <c r="C741" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.vincular</v>
       </c>
       <c r="D741" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.ipv6</v>
+        <f t="shared" si="183"/>
+        <v>é.iri</v>
       </c>
       <c r="E741" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F741" s="21" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>d.vincular</v>
       </c>
       <c r="G741" s="37" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H741" s="5" t="s">
         <v>39</v>
@@ -68017,26 +68032,26 @@
         <v>43</v>
       </c>
       <c r="U741" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.ipv6</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.iri</v>
       </c>
       <c r="V741" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: iri ( xsd:string ) </v>
+      </c>
+      <c r="W741" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="X741" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: ipv6 ( xsd:string ) </v>
-      </c>
-      <c r="W741" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="X741" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.105</v>
+        <v>vinc.103</v>
       </c>
       <c r="Y741" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
-    <row r="742" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="4">
         <v>742</v>
       </c>
@@ -68044,27 +68059,27 @@
         <v>37</v>
       </c>
       <c r="C742" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.vincular</v>
       </c>
       <c r="D742" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.hipervínculo</v>
+        <f t="shared" si="183"/>
+        <v>é.ipv4</v>
       </c>
       <c r="E742" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F742" s="21" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>d.vincular</v>
       </c>
       <c r="G742" s="37" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H742" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I742" s="33" t="s">
+      <c r="I742" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J742" s="25" t="s">
@@ -68101,26 +68116,26 @@
         <v>43</v>
       </c>
       <c r="U742" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.hipervínculo</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.ipv4</v>
       </c>
       <c r="V742" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: ipv4 ( xsd:string ) </v>
+      </c>
+      <c r="W742" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="X742" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: hipervínculo ( xsd:string ) </v>
-      </c>
-      <c r="W742" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="X742" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.106</v>
+        <v>vinc.104</v>
       </c>
       <c r="Y742" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
-    <row r="743" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="4">
         <v>743</v>
       </c>
@@ -68128,27 +68143,27 @@
         <v>37</v>
       </c>
       <c r="C743" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.vincular</v>
       </c>
       <c r="D743" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.link</v>
+        <f t="shared" si="183"/>
+        <v>é.ipv6</v>
       </c>
       <c r="E743" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F743" s="21" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>d.vincular</v>
       </c>
       <c r="G743" s="37" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H743" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I743" s="33" t="s">
+      <c r="I743" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J743" s="25" t="s">
@@ -68185,22 +68200,22 @@
         <v>43</v>
       </c>
       <c r="U743" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.link</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.ipv6</v>
       </c>
       <c r="V743" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: ipv6 ( xsd:string ) </v>
+      </c>
+      <c r="W743" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="X743" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: link ( xsd:string ) </v>
-      </c>
-      <c r="W743" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="X743" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.107</v>
+        <v>vinc.105</v>
       </c>
       <c r="Y743" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
@@ -68212,22 +68227,22 @@
         <v>37</v>
       </c>
       <c r="C744" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.vincular</v>
       </c>
       <c r="D744" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.orcid</v>
+        <f t="shared" si="183"/>
+        <v>é.hipervínculo</v>
       </c>
       <c r="E744" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F744" s="21" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>d.vincular</v>
       </c>
       <c r="G744" s="37" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H744" s="5" t="s">
         <v>39</v>
@@ -68239,7 +68254,7 @@
         <v>40</v>
       </c>
       <c r="K744" s="24" t="s">
-        <v>1376</v>
+        <v>0</v>
       </c>
       <c r="L744" s="24" t="s">
         <v>0</v>
@@ -68269,22 +68284,22 @@
         <v>43</v>
       </c>
       <c r="U744" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.orcid</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.hipervínculo</v>
       </c>
       <c r="V744" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: hipervínculo ( xsd:string ) </v>
+      </c>
+      <c r="W744" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="X744" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: orcid ( xsd:string ) </v>
-      </c>
-      <c r="W744" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="X744" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.108</v>
+        <v>vinc.106</v>
       </c>
       <c r="Y744" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
@@ -68296,22 +68311,22 @@
         <v>37</v>
       </c>
       <c r="C745" s="28" t="str">
-        <f t="shared" ref="C745:C747" si="182">SUBSTITUTE(F745,"d.","p.")</f>
+        <f t="shared" si="177"/>
         <v>p.vincular</v>
       </c>
       <c r="D745" s="7" t="str">
-        <f t="shared" ref="D745:D747" si="183">_xlfn.CONCAT("é.",G745)</f>
-        <v>é.lattes</v>
+        <f t="shared" si="183"/>
+        <v>é.link</v>
       </c>
       <c r="E745" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F745" s="21" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>d.vincular</v>
       </c>
       <c r="G745" s="37" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="H745" s="5" t="s">
         <v>39</v>
@@ -68353,22 +68368,22 @@
         <v>43</v>
       </c>
       <c r="U745" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.lattes</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.link</v>
       </c>
       <c r="V745" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: link ( xsd:string ) </v>
+      </c>
+      <c r="W745" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="X745" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: lattes ( xsd:string ) </v>
-      </c>
-      <c r="W745" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="X745" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.109</v>
+        <v>vinc.107</v>
       </c>
       <c r="Y745" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
@@ -68380,22 +68395,22 @@
         <v>37</v>
       </c>
       <c r="C746" s="28" t="str">
-        <f t="shared" ref="C746" si="184">SUBSTITUTE(F746,"d.","p.")</f>
+        <f t="shared" si="177"/>
         <v>p.vincular</v>
       </c>
       <c r="D746" s="7" t="str">
-        <f t="shared" ref="D746" si="185">_xlfn.CONCAT("é.",G746)</f>
-        <v>é.protocolo.http</v>
+        <f t="shared" si="183"/>
+        <v>é.orcid</v>
       </c>
       <c r="E746" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F746" s="21" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>d.vincular</v>
       </c>
       <c r="G746" s="37" t="s">
-        <v>1459</v>
+        <v>819</v>
       </c>
       <c r="H746" s="5" t="s">
         <v>39</v>
@@ -68403,11 +68418,11 @@
       <c r="I746" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J746" s="24" t="s">
-        <v>0</v>
+      <c r="J746" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="K746" s="24" t="s">
-        <v>0</v>
+        <v>1376</v>
       </c>
       <c r="L746" s="24" t="s">
         <v>0</v>
@@ -68437,22 +68452,22 @@
         <v>43</v>
       </c>
       <c r="U746" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.protocolo.http</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.orcid</v>
       </c>
       <c r="V746" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: orcid ( xsd:string ) </v>
+      </c>
+      <c r="W746" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="X746" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: protocolo.http ( xsd:string ) </v>
-      </c>
-      <c r="W746" s="6" t="s">
-        <v>1463</v>
-      </c>
-      <c r="X746" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.110</v>
+        <v>vinc.108</v>
       </c>
       <c r="Y746" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
@@ -68464,22 +68479,22 @@
         <v>37</v>
       </c>
       <c r="C747" s="28" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" ref="C747:C749" si="186">SUBSTITUTE(F747,"d.","p.")</f>
         <v>p.vincular</v>
       </c>
       <c r="D747" s="7" t="str">
-        <f t="shared" si="183"/>
-        <v>é.protocolo.https</v>
+        <f t="shared" ref="D747:D749" si="187">_xlfn.CONCAT("é.",G747)</f>
+        <v>é.lattes</v>
       </c>
       <c r="E747" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F747" s="21" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>d.vincular</v>
       </c>
       <c r="G747" s="37" t="s">
-        <v>1461</v>
+        <v>820</v>
       </c>
       <c r="H747" s="5" t="s">
         <v>39</v>
@@ -68487,8 +68502,8 @@
       <c r="I747" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J747" s="24" t="s">
-        <v>0</v>
+      <c r="J747" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="K747" s="24" t="s">
         <v>0</v>
@@ -68521,22 +68536,22 @@
         <v>43</v>
       </c>
       <c r="U747" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.protocolo.https</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.lattes</v>
       </c>
       <c r="V747" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: lattes ( xsd:string ) </v>
+      </c>
+      <c r="W747" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="X747" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: protocolo.https ( xsd:string ) </v>
-      </c>
-      <c r="W747" s="6" t="s">
-        <v>1462</v>
-      </c>
-      <c r="X747" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.111</v>
+        <v>vinc.109</v>
       </c>
       <c r="Y747" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
@@ -68548,22 +68563,22 @@
         <v>37</v>
       </c>
       <c r="C748" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" ref="C748" si="188">SUBSTITUTE(F748,"d.","p.")</f>
         <v>p.vincular</v>
       </c>
       <c r="D748" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.protocolo.ftp</v>
+        <f t="shared" ref="D748" si="189">_xlfn.CONCAT("é.",G748)</f>
+        <v>é.protocolo.http</v>
       </c>
       <c r="E748" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F748" s="21" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>d.vincular</v>
       </c>
       <c r="G748" s="37" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H748" s="5" t="s">
         <v>39</v>
@@ -68605,22 +68620,22 @@
         <v>43</v>
       </c>
       <c r="U748" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vincular: é.protocolo.ftp</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.protocolo.http</v>
       </c>
       <c r="V748" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: protocolo.http ( xsd:string ) </v>
+      </c>
+      <c r="W748" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="X748" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vincular: protocolo.ftp ( xsd:string ) </v>
-      </c>
-      <c r="W748" s="6" t="s">
-        <v>1464</v>
-      </c>
-      <c r="X748" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vinc.112</v>
+        <v>vinc.110</v>
       </c>
       <c r="Y748" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vincular</v>
       </c>
     </row>
@@ -68631,22 +68646,23 @@
       <c r="B749" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C749" s="31" t="str">
-        <f t="shared" si="173"/>
-        <v>p.vistoriar</v>
+      <c r="C749" s="28" t="str">
+        <f t="shared" si="186"/>
+        <v>p.vincular</v>
       </c>
       <c r="D749" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.conservado</v>
+        <f t="shared" si="187"/>
+        <v>é.protocolo.https</v>
       </c>
       <c r="E749" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F749" s="19" t="s">
-        <v>860</v>
+      <c r="F749" s="21" t="str">
+        <f t="shared" si="185"/>
+        <v>d.vincular</v>
       </c>
       <c r="G749" s="37" t="s">
-        <v>943</v>
+        <v>1461</v>
       </c>
       <c r="H749" s="5" t="s">
         <v>39</v>
@@ -68688,23 +68704,23 @@
         <v>43</v>
       </c>
       <c r="U749" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vistoriar: é.conservado</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.protocolo.https</v>
       </c>
       <c r="V749" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: protocolo.https ( xsd:string ) </v>
+      </c>
+      <c r="W749" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="X749" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vistoriar: conservado ( xsd:string ) </v>
-      </c>
-      <c r="W749" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="X749" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vist.100</v>
+        <v>vinc.111</v>
       </c>
       <c r="Y749" s="23" t="str">
-        <f t="shared" si="175"/>
-        <v>vistoriar</v>
+        <f t="shared" si="179"/>
+        <v>vincular</v>
       </c>
     </row>
     <row r="750" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -68715,22 +68731,22 @@
         <v>37</v>
       </c>
       <c r="C750" s="28" t="str">
-        <f t="shared" si="173"/>
-        <v>p.vistoriar</v>
+        <f t="shared" si="177"/>
+        <v>p.vincular</v>
       </c>
       <c r="D750" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.conforme</v>
+        <f t="shared" si="183"/>
+        <v>é.protocolo.ftp</v>
       </c>
       <c r="E750" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F750" s="21" t="str">
-        <f>F749</f>
-        <v>d.vistoriar</v>
+        <f t="shared" si="185"/>
+        <v>d.vincular</v>
       </c>
       <c r="G750" s="37" t="s">
-        <v>944</v>
+        <v>1460</v>
       </c>
       <c r="H750" s="5" t="s">
         <v>39</v>
@@ -68772,23 +68788,23 @@
         <v>43</v>
       </c>
       <c r="U750" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vistoriar: é.conforme</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vincular: é.protocolo.ftp</v>
       </c>
       <c r="V750" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vincular: protocolo.ftp ( xsd:string ) </v>
+      </c>
+      <c r="W750" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="X750" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vistoriar: conforme ( xsd:string ) </v>
-      </c>
-      <c r="W750" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="X750" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vist.101</v>
+        <v>vinc.112</v>
       </c>
       <c r="Y750" s="23" t="str">
-        <f t="shared" si="175"/>
-        <v>vistoriar</v>
+        <f t="shared" si="179"/>
+        <v>vincular</v>
       </c>
     </row>
     <row r="751" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -68798,23 +68814,22 @@
       <c r="B751" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C751" s="28" t="str">
-        <f t="shared" si="173"/>
+      <c r="C751" s="31" t="str">
+        <f t="shared" si="177"/>
         <v>p.vistoriar</v>
       </c>
       <c r="D751" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.operacional</v>
+        <f t="shared" si="183"/>
+        <v>é.conservado</v>
       </c>
       <c r="E751" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F751" s="21" t="str">
-        <f>F750</f>
-        <v>d.vistoriar</v>
+      <c r="F751" s="19" t="s">
+        <v>860</v>
       </c>
       <c r="G751" s="37" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="H751" s="5" t="s">
         <v>39</v>
@@ -68856,22 +68871,22 @@
         <v>43</v>
       </c>
       <c r="U751" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vistoriar: é.operacional</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vistoriar: é.conservado</v>
       </c>
       <c r="V751" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vistoriar: conservado ( xsd:string ) </v>
+      </c>
+      <c r="W751" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="X751" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vistoriar: operacional ( xsd:string ) </v>
-      </c>
-      <c r="W751" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="X751" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vist.102</v>
+        <v>vist.100</v>
       </c>
       <c r="Y751" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vistoriar</v>
       </c>
     </row>
@@ -68883,12 +68898,12 @@
         <v>37</v>
       </c>
       <c r="C752" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.vistoriar</v>
       </c>
       <c r="D752" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.defeituoso</v>
+        <f t="shared" si="183"/>
+        <v>é.conforme</v>
       </c>
       <c r="E752" s="10" t="s">
         <v>38</v>
@@ -68898,7 +68913,7 @@
         <v>d.vistoriar</v>
       </c>
       <c r="G752" s="37" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H752" s="5" t="s">
         <v>39</v>
@@ -68940,22 +68955,22 @@
         <v>43</v>
       </c>
       <c r="U752" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vistoriar: é.defeituoso</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vistoriar: é.conforme</v>
       </c>
       <c r="V752" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vistoriar: conforme ( xsd:string ) </v>
+      </c>
+      <c r="W752" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="X752" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vistoriar: defeituoso ( xsd:string ) </v>
-      </c>
-      <c r="W752" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="X752" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vist.103</v>
+        <v>vist.101</v>
       </c>
       <c r="Y752" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vistoriar</v>
       </c>
     </row>
@@ -68967,12 +68982,12 @@
         <v>37</v>
       </c>
       <c r="C753" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.vistoriar</v>
       </c>
       <c r="D753" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.clausurado</v>
+        <f t="shared" si="183"/>
+        <v>é.operacional</v>
       </c>
       <c r="E753" s="10" t="s">
         <v>38</v>
@@ -68982,7 +68997,7 @@
         <v>d.vistoriar</v>
       </c>
       <c r="G753" s="37" t="s">
-        <v>1114</v>
+        <v>946</v>
       </c>
       <c r="H753" s="5" t="s">
         <v>39</v>
@@ -69024,22 +69039,22 @@
         <v>43</v>
       </c>
       <c r="U753" s="6" t="str">
-        <f t="shared" si="177"/>
-        <v>Propriedade para vistoriar: é.clausurado</v>
+        <f t="shared" si="181"/>
+        <v>Propriedade para vistoriar: é.operacional</v>
       </c>
       <c r="V753" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vistoriar: operacional ( xsd:string ) </v>
+      </c>
+      <c r="W753" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="X753" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vistoriar: clausurado ( xsd:string ) </v>
-      </c>
-      <c r="W753" s="6" t="s">
-        <v>1116</v>
-      </c>
-      <c r="X753" s="23" t="str">
-        <f t="shared" si="174"/>
-        <v>vist.104</v>
+        <v>vist.102</v>
       </c>
       <c r="Y753" s="23" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>vistoriar</v>
       </c>
     </row>
@@ -69051,12 +69066,12 @@
         <v>37</v>
       </c>
       <c r="C754" s="28" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>p.vistoriar</v>
       </c>
       <c r="D754" s="7" t="str">
-        <f t="shared" si="179"/>
-        <v>é.interditado</v>
+        <f t="shared" si="183"/>
+        <v>é.defeituoso</v>
       </c>
       <c r="E754" s="10" t="s">
         <v>38</v>
@@ -69066,7 +69081,7 @@
         <v>d.vistoriar</v>
       </c>
       <c r="G754" s="37" t="s">
-        <v>1115</v>
+        <v>945</v>
       </c>
       <c r="H754" s="5" t="s">
         <v>39</v>
@@ -69108,28 +69123,196 @@
         <v>43</v>
       </c>
       <c r="U754" s="6" t="str">
+        <f t="shared" si="181"/>
+        <v>Propriedade para vistoriar: é.defeituoso</v>
+      </c>
+      <c r="V754" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vistoriar: defeituoso ( xsd:string ) </v>
+      </c>
+      <c r="W754" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="X754" s="23" t="str">
+        <f t="shared" si="178"/>
+        <v>vist.103</v>
+      </c>
+      <c r="Y754" s="23" t="str">
+        <f t="shared" si="179"/>
+        <v>vistoriar</v>
+      </c>
+    </row>
+    <row r="755" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A755" s="4">
+        <v>755</v>
+      </c>
+      <c r="B755" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C755" s="28" t="str">
         <f t="shared" si="177"/>
+        <v>p.vistoriar</v>
+      </c>
+      <c r="D755" s="7" t="str">
+        <f t="shared" si="183"/>
+        <v>é.clausurado</v>
+      </c>
+      <c r="E755" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F755" s="21" t="str">
+        <f>F754</f>
+        <v>d.vistoriar</v>
+      </c>
+      <c r="G755" s="37" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H755" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I755" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J755" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K755" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L755" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M755" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N755" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O755" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P755" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q755" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R755" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S755" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T755" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U755" s="6" t="str">
+        <f t="shared" si="181"/>
+        <v>Propriedade para vistoriar: é.clausurado</v>
+      </c>
+      <c r="V755" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vistoriar: clausurado ( xsd:string ) </v>
+      </c>
+      <c r="W755" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="X755" s="23" t="str">
+        <f t="shared" si="178"/>
+        <v>vist.104</v>
+      </c>
+      <c r="Y755" s="23" t="str">
+        <f t="shared" si="179"/>
+        <v>vistoriar</v>
+      </c>
+    </row>
+    <row r="756" spans="1:25" s="32" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A756" s="4">
+        <v>756</v>
+      </c>
+      <c r="B756" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C756" s="28" t="str">
+        <f t="shared" si="177"/>
+        <v>p.vistoriar</v>
+      </c>
+      <c r="D756" s="7" t="str">
+        <f t="shared" si="183"/>
+        <v>é.interditado</v>
+      </c>
+      <c r="E756" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F756" s="21" t="str">
+        <f>F755</f>
+        <v>d.vistoriar</v>
+      </c>
+      <c r="G756" s="37" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H756" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I756" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J756" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K756" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L756" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M756" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N756" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O756" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P756" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q756" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R756" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S756" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T756" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U756" s="6" t="str">
+        <f t="shared" si="181"/>
         <v>Propriedade para vistoriar: é.interditado</v>
       </c>
-      <c r="V754" s="6" t="str">
+      <c r="V756" s="6" t="str">
+        <f t="shared" si="182"/>
+        <v xml:space="preserve">Dado para vistoriar: interditado ( xsd:string ) </v>
+      </c>
+      <c r="W756" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="X756" s="23" t="str">
         <f t="shared" si="178"/>
-        <v xml:space="preserve">Dado para vistoriar: interditado ( xsd:string ) </v>
-      </c>
-      <c r="W754" s="6" t="s">
-        <v>1117</v>
-      </c>
-      <c r="X754" s="23" t="str">
-        <f t="shared" si="174"/>
         <v>vist.105</v>
       </c>
-      <c r="Y754" s="23" t="str">
-        <f t="shared" si="175"/>
+      <c r="Y756" s="23" t="str">
+        <f t="shared" si="179"/>
         <v>vistoriar</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y759">
-    <sortCondition ref="F1:F759"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y761">
+    <sortCondition ref="F1:F761"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">

--- a/Versão5/Ontologia_Propriedades.xlsx
+++ b/Versão5/Ontologia_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4332C1BD-E421-4FA5-A166-BC50A0964ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E45B4B-E943-4BFC-9AAD-4E2F0EFF0E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -5162,9 +5162,6 @@
     <t xml:space="preserve">Declara o dia da semana. Pode colocar o valor textual. </t>
   </si>
   <si>
-    <t>Declara o mês do ano. Pode colocar o valor textual ou o valor numérico como string "01" a "12".</t>
-  </si>
-  <si>
     <t>d.transportar</t>
   </si>
   <si>
@@ -5220,6 +5217,9 @@
   </si>
   <si>
     <t>Declara que é uma tartaruga de carga até 4 Ton.</t>
+  </si>
+  <si>
+    <t>Declara o mês do ano. Pode colocar o valor textual ou o valor numérico como string.</t>
   </si>
 </sst>
 </file>
@@ -6087,9 +6087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
   <dimension ref="A1:Y791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A764" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W756" sqref="W756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6111,7 +6111,7 @@
     <col min="19" max="19" width="5.33203125" style="17" customWidth="1"/>
     <col min="20" max="20" width="5.6640625" style="17" customWidth="1"/>
     <col min="21" max="22" width="27.5546875" style="17" customWidth="1"/>
-    <col min="23" max="23" width="44.77734375" style="17" customWidth="1"/>
+    <col min="23" max="23" width="112.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.44140625" style="34" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.109375" style="18" customWidth="1"/>
     <col min="26" max="16384" width="11.109375" style="18"/>
@@ -41375,7 +41375,7 @@
         <v>d.iluminar</v>
       </c>
       <c r="G421" s="36" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H421" s="27" t="s">
         <v>47</v>
@@ -41425,7 +41425,7 @@
         <v xml:space="preserve">Dado para iluminar: poste.de.luz ( xsd:double ) </v>
       </c>
       <c r="W421" s="20" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="X421" s="23" t="str">
         <f t="shared" si="63"/>
@@ -69450,7 +69450,7 @@
         <v xml:space="preserve">Dado para temporalizar: mês ( xsd:string ) </v>
       </c>
       <c r="W755" s="20" t="s">
-        <v>1707</v>
+        <v>1726</v>
       </c>
       <c r="X755" s="23" t="str">
         <f t="shared" si="110"/>
@@ -69648,10 +69648,10 @@
         <v>38</v>
       </c>
       <c r="F758" s="19" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G758" s="37" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H758" s="5" t="s">
         <v>39</v>
@@ -69701,7 +69701,7 @@
         <v xml:space="preserve">Dado para transportar: transportador ( xsd:string ) </v>
       </c>
       <c r="W758" s="20" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="X758" s="23" t="str">
         <f t="shared" si="110"/>
@@ -69735,7 +69735,7 @@
         <v>d.transportar</v>
       </c>
       <c r="G759" s="37" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H759" s="5" t="s">
         <v>52</v>
@@ -69785,7 +69785,7 @@
         <v xml:space="preserve">Dado para transportar: empilhadera ( xsd:boolean ) </v>
       </c>
       <c r="W759" s="6" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="X759" s="23" t="str">
         <f t="shared" si="110"/>
@@ -69819,7 +69819,7 @@
         <v>d.transportar</v>
       </c>
       <c r="G760" s="37" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H760" s="5" t="s">
         <v>52</v>
@@ -69869,7 +69869,7 @@
         <v xml:space="preserve">Dado para transportar: caminhão ( xsd:boolean ) </v>
       </c>
       <c r="W760" s="6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="X760" s="23" t="str">
         <f t="shared" si="110"/>
@@ -69903,7 +69903,7 @@
         <v>d.transportar</v>
       </c>
       <c r="G761" s="37" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H761" s="5" t="s">
         <v>52</v>
@@ -69953,7 +69953,7 @@
         <v xml:space="preserve">Dado para transportar: esteira ( xsd:boolean ) </v>
       </c>
       <c r="W761" s="6" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="X761" s="23" t="str">
         <f t="shared" si="110"/>
@@ -69987,7 +69987,7 @@
         <v>d.transportar</v>
       </c>
       <c r="G762" s="37" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H762" s="5" t="s">
         <v>52</v>
@@ -70037,7 +70037,7 @@
         <v xml:space="preserve">Dado para transportar: cinta.transportadora ( xsd:boolean ) </v>
       </c>
       <c r="W762" s="6" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="X762" s="23" t="str">
         <f t="shared" si="110"/>
@@ -70071,7 +70071,7 @@
         <v>d.transportar</v>
       </c>
       <c r="G763" s="37" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H763" s="5" t="s">
         <v>52</v>
@@ -70121,7 +70121,7 @@
         <v xml:space="preserve">Dado para transportar: plataforma.elevação ( xsd:boolean ) </v>
       </c>
       <c r="W763" s="6" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="X763" s="23" t="str">
         <f t="shared" si="110"/>
@@ -70155,7 +70155,7 @@
         <v>d.transportar</v>
       </c>
       <c r="G764" s="37" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H764" s="5" t="s">
         <v>52</v>
@@ -70205,7 +70205,7 @@
         <v xml:space="preserve">Dado para transportar: tartaruga.de.carga ( xsd:boolean ) </v>
       </c>
       <c r="W764" s="6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="X764" s="23" t="str">
         <f t="shared" si="110"/>
@@ -70239,7 +70239,7 @@
         <v>d.transportar</v>
       </c>
       <c r="G765" s="37" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H765" s="5" t="s">
         <v>52</v>
@@ -70289,7 +70289,7 @@
         <v xml:space="preserve">Dado para transportar: granel ( xsd:boolean ) </v>
       </c>
       <c r="W765" s="6" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="X765" s="23" t="str">
         <f t="shared" si="110"/>
